--- a/dataSources/WSR/vEMS.xlsx
+++ b/dataSources/WSR/vEMS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27230"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27307"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\qaDash\dataSource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="280" documentId="13_ncr:1_{0F8C332E-20C7-4FE6-8FBC-D589C740ED26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{726877CF-5894-47E2-B943-B50FCEFB47C6}"/>
+  <xr:revisionPtr revIDLastSave="309" documentId="13_ncr:1_{0F8C332E-20C7-4FE6-8FBC-D589C740ED26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E557E137-8D23-492B-A1AC-BD228B97AE34}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="12" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="14" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2 Oct 2023" sheetId="10" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="18 Dec 2023" sheetId="14" r:id="rId12"/>
     <sheet name="26 Dec 2023" sheetId="15" r:id="rId13"/>
     <sheet name="2 Jan 2024" sheetId="16" r:id="rId14"/>
+    <sheet name="8 Jan 2024" sheetId="17" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="144">
   <si>
     <t>Task Name</t>
   </si>
@@ -632,9 +633,6 @@
     <t>Work on keeping the test Pre-requisites ready</t>
   </si>
   <si>
-    <t>Total Automation Scripts</t>
-  </si>
-  <si>
     <t>vEMS: Daily Stand Up - Internal</t>
   </si>
   <si>
@@ -675,6 +673,49 @@
   </si>
   <si>
     <t>Work on keeping the test Pre-requisites ready and kick off once we final review completed</t>
+  </si>
+  <si>
+    <t>On Hold</t>
+  </si>
+  <si>
+    <t>issue not yet resolved, Ramesh got high priority tickets</t>
+  </si>
+  <si>
+    <t>Phase-5:- Added scripts for WOR-939 having WD &amp; vEMS allocation variations</t>
+  </si>
+  <si>
+    <t>FIN Reports Phase-1: Completed.
+Monitoring data count &amp; performance</t>
+  </si>
+  <si>
+    <r>
+      <t>Phase-5:- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Power Bi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t> validation: On Hold
+Will enhance scripts for WD &amp; vEMS allocation variants</t>
+    </r>
+  </si>
+  <si>
+    <t>Discussed &amp; Reviewed the business scenarios in OAK-2</t>
   </si>
 </sst>
 </file>
@@ -989,7 +1030,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1124,18 +1165,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1157,13 +1186,31 @@
     <xf numFmtId="16" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1558,14 +1605,14 @@
       <c r="B2" s="23">
         <v>2</v>
       </c>
-      <c r="C2" s="62"/>
+      <c r="C2" s="63"/>
       <c r="D2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="63">
+      <c r="E2" s="64">
         <v>16</v>
       </c>
-      <c r="F2" s="62"/>
+      <c r="F2" s="63"/>
       <c r="G2" s="22" t="s">
         <v>25</v>
       </c>
@@ -1578,7 +1625,7 @@
       <c r="J2" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="62"/>
+      <c r="K2" s="63"/>
       <c r="L2" s="22" t="s">
         <v>25</v>
       </c>
@@ -1597,9 +1644,9 @@
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
-      <c r="V2" s="62"/>
+      <c r="V2" s="63"/>
       <c r="W2" s="5"/>
-      <c r="X2" s="62"/>
+      <c r="X2" s="63"/>
       <c r="Y2" s="48" t="s">
         <v>29</v>
       </c>
@@ -1621,14 +1668,14 @@
       <c r="B3" s="23">
         <v>2.5</v>
       </c>
-      <c r="C3" s="62"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E3" s="5">
         <v>0</v>
       </c>
-      <c r="F3" s="62"/>
+      <c r="F3" s="63"/>
       <c r="G3" s="22" t="s">
         <v>33</v>
       </c>
@@ -1641,7 +1688,7 @@
       <c r="J3" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="62"/>
+      <c r="K3" s="63"/>
       <c r="L3" s="22" t="s">
         <v>33</v>
       </c>
@@ -1660,9 +1707,9 @@
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
-      <c r="V3" s="62"/>
+      <c r="V3" s="63"/>
       <c r="W3" s="5"/>
-      <c r="X3" s="62"/>
+      <c r="X3" s="63"/>
       <c r="Y3" s="48" t="s">
         <v>37</v>
       </c>
@@ -1685,14 +1732,14 @@
       <c r="B4" s="23">
         <v>1</v>
       </c>
-      <c r="C4" s="62"/>
+      <c r="C4" s="63"/>
       <c r="D4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="61">
+      <c r="E4" s="65">
         <v>2.5</v>
       </c>
-      <c r="F4" s="62"/>
+      <c r="F4" s="63"/>
       <c r="G4" s="22" t="s">
         <v>41</v>
       </c>
@@ -1705,7 +1752,7 @@
       <c r="J4" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="62"/>
+      <c r="K4" s="63"/>
       <c r="L4" s="22" t="s">
         <v>41</v>
       </c>
@@ -1719,14 +1766,14 @@
         <v>42</v>
       </c>
       <c r="P4" s="5"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="62"/>
-      <c r="W4" s="62"/>
-      <c r="X4" s="62"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="63"/>
+      <c r="U4" s="63"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="63"/>
+      <c r="X4" s="63"/>
       <c r="Y4" s="48" t="s">
         <v>43</v>
       </c>
@@ -1748,10 +1795,10 @@
       <c r="B5" s="23">
         <v>2.5</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="62"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="63"/>
       <c r="G5" s="22" t="s">
         <v>46</v>
       </c>
@@ -1764,28 +1811,28 @@
       <c r="J5" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="K5" s="62"/>
-      <c r="L5" s="50" t="s">
+      <c r="K5" s="63"/>
+      <c r="L5" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="M5" s="50" t="s">
+      <c r="M5" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="N5" s="50" t="s">
+      <c r="N5" s="59" t="s">
         <v>27</v>
       </c>
       <c r="O5" s="24" t="s">
         <v>48</v>
       </c>
       <c r="P5" s="5"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="62"/>
-      <c r="T5" s="62"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
-      <c r="W5" s="62"/>
-      <c r="X5" s="62"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="63"/>
+      <c r="T5" s="63"/>
+      <c r="U5" s="63"/>
+      <c r="V5" s="63"/>
+      <c r="W5" s="63"/>
+      <c r="X5" s="63"/>
       <c r="Y5" s="48" t="s">
         <v>49</v>
       </c>
@@ -1808,10 +1855,10 @@
       <c r="B6" s="23">
         <v>3</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="62"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="63"/>
       <c r="G6" s="22" t="s">
         <v>52</v>
       </c>
@@ -1824,22 +1871,22 @@
       <c r="J6" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="62"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
       <c r="O6" s="23" t="s">
         <v>53</v>
       </c>
       <c r="P6" s="5"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="62"/>
-      <c r="T6" s="62"/>
-      <c r="U6" s="62"/>
-      <c r="V6" s="62"/>
-      <c r="W6" s="62"/>
-      <c r="X6" s="62"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="63"/>
+      <c r="S6" s="63"/>
+      <c r="T6" s="63"/>
+      <c r="U6" s="63"/>
+      <c r="V6" s="63"/>
+      <c r="W6" s="63"/>
+      <c r="X6" s="63"/>
       <c r="Y6" s="48" t="s">
         <v>54</v>
       </c>
@@ -1861,10 +1908,10 @@
       <c r="B7" s="23">
         <v>3</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="62"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="63"/>
       <c r="G7" s="22" t="s">
         <v>57</v>
       </c>
@@ -1877,7 +1924,7 @@
       <c r="J7" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="K7" s="62"/>
+      <c r="K7" s="63"/>
       <c r="L7" s="22" t="s">
         <v>52</v>
       </c>
@@ -1890,15 +1937,15 @@
       <c r="O7" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="62"/>
-      <c r="R7" s="62"/>
-      <c r="S7" s="62"/>
-      <c r="T7" s="62"/>
-      <c r="U7" s="62"/>
-      <c r="V7" s="62"/>
-      <c r="W7" s="62"/>
-      <c r="X7" s="62"/>
+      <c r="P7" s="63"/>
+      <c r="Q7" s="63"/>
+      <c r="R7" s="63"/>
+      <c r="S7" s="63"/>
+      <c r="T7" s="63"/>
+      <c r="U7" s="63"/>
+      <c r="V7" s="63"/>
+      <c r="W7" s="63"/>
+      <c r="X7" s="63"/>
       <c r="Y7" s="48"/>
       <c r="Z7" s="48"/>
       <c r="AA7" s="48"/>
@@ -1917,281 +1964,281 @@
       <c r="B8" s="23">
         <v>4.5</v>
       </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="62"/>
-      <c r="S8" s="62"/>
-      <c r="T8" s="62"/>
-      <c r="U8" s="62"/>
-      <c r="V8" s="62"/>
-      <c r="W8" s="62"/>
-      <c r="X8" s="62"/>
-      <c r="Y8" s="62"/>
-      <c r="Z8" s="62"/>
-      <c r="AA8" s="62"/>
-      <c r="AB8" s="62"/>
-      <c r="AC8" s="62"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="63"/>
+      <c r="R8" s="63"/>
+      <c r="S8" s="63"/>
+      <c r="T8" s="63"/>
+      <c r="U8" s="63"/>
+      <c r="V8" s="63"/>
+      <c r="W8" s="63"/>
+      <c r="X8" s="63"/>
+      <c r="Y8" s="63"/>
+      <c r="Z8" s="63"/>
+      <c r="AA8" s="63"/>
+      <c r="AB8" s="63"/>
+      <c r="AC8" s="63"/>
     </row>
     <row r="9" spans="1:29">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="62"/>
-      <c r="O9" s="62"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="62"/>
-      <c r="S9" s="62"/>
-      <c r="T9" s="62"/>
-      <c r="U9" s="62"/>
-      <c r="V9" s="62"/>
-      <c r="W9" s="62"/>
-      <c r="X9" s="62"/>
-      <c r="Y9" s="62"/>
-      <c r="Z9" s="62"/>
-      <c r="AA9" s="62"/>
-      <c r="AB9" s="62"/>
-      <c r="AC9" s="62"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="63"/>
+      <c r="Q9" s="63"/>
+      <c r="R9" s="63"/>
+      <c r="S9" s="63"/>
+      <c r="T9" s="63"/>
+      <c r="U9" s="63"/>
+      <c r="V9" s="63"/>
+      <c r="W9" s="63"/>
+      <c r="X9" s="63"/>
+      <c r="Y9" s="63"/>
+      <c r="Z9" s="63"/>
+      <c r="AA9" s="63"/>
+      <c r="AB9" s="63"/>
+      <c r="AC9" s="63"/>
     </row>
     <row r="10" spans="1:29">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="62"/>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="62"/>
-      <c r="S10" s="62"/>
-      <c r="T10" s="62"/>
-      <c r="U10" s="62"/>
-      <c r="V10" s="62"/>
-      <c r="W10" s="62"/>
-      <c r="X10" s="62"/>
-      <c r="Y10" s="62"/>
-      <c r="Z10" s="62"/>
-      <c r="AA10" s="62"/>
-      <c r="AB10" s="62"/>
-      <c r="AC10" s="62"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="63"/>
+      <c r="R10" s="63"/>
+      <c r="S10" s="63"/>
+      <c r="T10" s="63"/>
+      <c r="U10" s="63"/>
+      <c r="V10" s="63"/>
+      <c r="W10" s="63"/>
+      <c r="X10" s="63"/>
+      <c r="Y10" s="63"/>
+      <c r="Z10" s="63"/>
+      <c r="AA10" s="63"/>
+      <c r="AB10" s="63"/>
+      <c r="AC10" s="63"/>
     </row>
     <row r="11" spans="1:29">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="62"/>
-      <c r="O11" s="62"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="62"/>
-      <c r="R11" s="62"/>
-      <c r="S11" s="62"/>
-      <c r="T11" s="62"/>
-      <c r="U11" s="62"/>
-      <c r="V11" s="62"/>
-      <c r="W11" s="62"/>
-      <c r="X11" s="62"/>
-      <c r="Y11" s="62"/>
-      <c r="Z11" s="62"/>
-      <c r="AA11" s="62"/>
-      <c r="AB11" s="62"/>
-      <c r="AC11" s="62"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="63"/>
+      <c r="S11" s="63"/>
+      <c r="T11" s="63"/>
+      <c r="U11" s="63"/>
+      <c r="V11" s="63"/>
+      <c r="W11" s="63"/>
+      <c r="X11" s="63"/>
+      <c r="Y11" s="63"/>
+      <c r="Z11" s="63"/>
+      <c r="AA11" s="63"/>
+      <c r="AB11" s="63"/>
+      <c r="AC11" s="63"/>
     </row>
     <row r="12" spans="1:29">
-      <c r="A12" s="62"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="62"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="62"/>
-      <c r="S12" s="62"/>
-      <c r="T12" s="62"/>
-      <c r="U12" s="62"/>
-      <c r="V12" s="62"/>
-      <c r="W12" s="62"/>
-      <c r="X12" s="62"/>
-      <c r="Y12" s="62"/>
-      <c r="Z12" s="62"/>
-      <c r="AA12" s="62"/>
-      <c r="AB12" s="62"/>
-      <c r="AC12" s="62"/>
+      <c r="A12" s="63"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="63"/>
+      <c r="R12" s="63"/>
+      <c r="S12" s="63"/>
+      <c r="T12" s="63"/>
+      <c r="U12" s="63"/>
+      <c r="V12" s="63"/>
+      <c r="W12" s="63"/>
+      <c r="X12" s="63"/>
+      <c r="Y12" s="63"/>
+      <c r="Z12" s="63"/>
+      <c r="AA12" s="63"/>
+      <c r="AB12" s="63"/>
+      <c r="AC12" s="63"/>
     </row>
     <row r="13" spans="1:29">
-      <c r="A13" s="62"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="62"/>
-      <c r="O13" s="62"/>
-      <c r="P13" s="62"/>
-      <c r="Q13" s="62"/>
-      <c r="R13" s="62"/>
-      <c r="S13" s="62"/>
-      <c r="T13" s="62"/>
-      <c r="U13" s="62"/>
-      <c r="V13" s="62"/>
-      <c r="W13" s="62"/>
-      <c r="X13" s="62"/>
-      <c r="Y13" s="62"/>
-      <c r="Z13" s="62"/>
-      <c r="AA13" s="62"/>
-      <c r="AB13" s="62"/>
-      <c r="AC13" s="62"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="63"/>
+      <c r="Q13" s="63"/>
+      <c r="R13" s="63"/>
+      <c r="S13" s="63"/>
+      <c r="T13" s="63"/>
+      <c r="U13" s="63"/>
+      <c r="V13" s="63"/>
+      <c r="W13" s="63"/>
+      <c r="X13" s="63"/>
+      <c r="Y13" s="63"/>
+      <c r="Z13" s="63"/>
+      <c r="AA13" s="63"/>
+      <c r="AB13" s="63"/>
+      <c r="AC13" s="63"/>
     </row>
     <row r="14" spans="1:29">
-      <c r="A14" s="62"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="62"/>
-      <c r="R14" s="62"/>
-      <c r="S14" s="62"/>
-      <c r="T14" s="62"/>
-      <c r="U14" s="62"/>
-      <c r="V14" s="62"/>
-      <c r="W14" s="62"/>
-      <c r="X14" s="62"/>
-      <c r="Y14" s="62"/>
-      <c r="Z14" s="62"/>
-      <c r="AA14" s="62"/>
-      <c r="AB14" s="62"/>
-      <c r="AC14" s="62"/>
+      <c r="A14" s="63"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="63"/>
+      <c r="S14" s="63"/>
+      <c r="T14" s="63"/>
+      <c r="U14" s="63"/>
+      <c r="V14" s="63"/>
+      <c r="W14" s="63"/>
+      <c r="X14" s="63"/>
+      <c r="Y14" s="63"/>
+      <c r="Z14" s="63"/>
+      <c r="AA14" s="63"/>
+      <c r="AB14" s="63"/>
+      <c r="AC14" s="63"/>
     </row>
     <row r="15" spans="1:29">
-      <c r="A15" s="62"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="62"/>
-      <c r="N15" s="62"/>
-      <c r="O15" s="62"/>
-      <c r="P15" s="62"/>
-      <c r="Q15" s="62"/>
-      <c r="R15" s="62"/>
-      <c r="S15" s="62"/>
-      <c r="T15" s="62"/>
-      <c r="U15" s="62"/>
-      <c r="V15" s="62"/>
-      <c r="W15" s="62"/>
-      <c r="X15" s="62"/>
-      <c r="Y15" s="62"/>
-      <c r="Z15" s="62"/>
-      <c r="AA15" s="62"/>
-      <c r="AB15" s="62"/>
-      <c r="AC15" s="62"/>
+      <c r="A15" s="63"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="63"/>
+      <c r="R15" s="63"/>
+      <c r="S15" s="63"/>
+      <c r="T15" s="63"/>
+      <c r="U15" s="63"/>
+      <c r="V15" s="63"/>
+      <c r="W15" s="63"/>
+      <c r="X15" s="63"/>
+      <c r="Y15" s="63"/>
+      <c r="Z15" s="63"/>
+      <c r="AA15" s="63"/>
+      <c r="AB15" s="63"/>
+      <c r="AC15" s="63"/>
     </row>
     <row r="16" spans="1:29">
-      <c r="A16" s="62"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="62"/>
-      <c r="P16" s="62"/>
-      <c r="Q16" s="62"/>
-      <c r="R16" s="62"/>
-      <c r="S16" s="62"/>
-      <c r="T16" s="62"/>
-      <c r="U16" s="62"/>
-      <c r="V16" s="62"/>
-      <c r="W16" s="62"/>
-      <c r="X16" s="62"/>
-      <c r="Y16" s="62"/>
-      <c r="Z16" s="62"/>
-      <c r="AA16" s="62"/>
-      <c r="AB16" s="62"/>
-      <c r="AC16" s="62"/>
+      <c r="A16" s="63"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="63"/>
+      <c r="S16" s="63"/>
+      <c r="T16" s="63"/>
+      <c r="U16" s="63"/>
+      <c r="V16" s="63"/>
+      <c r="W16" s="63"/>
+      <c r="X16" s="63"/>
+      <c r="Y16" s="63"/>
+      <c r="Z16" s="63"/>
+      <c r="AA16" s="63"/>
+      <c r="AB16" s="63"/>
+      <c r="AC16" s="63"/>
     </row>
     <row r="17"/>
     <row r="18"/>
@@ -2520,9 +2567,9 @@
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="26"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="53"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="62"/>
       <c r="O6" s="11"/>
       <c r="Y6" s="9" t="s">
         <v>54</v>
@@ -2550,9 +2597,9 @@
       <c r="I7" s="20"/>
       <c r="J7" s="11"/>
       <c r="K7" s="26"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
       <c r="O7" s="11"/>
       <c r="AB7" s="9" t="s">
         <v>60</v>
@@ -2751,19 +2798,19 @@
       <c r="O2" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="54" t="s">
+      <c r="Q2" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="R2" s="55" t="s">
+      <c r="R2" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="S2" s="56" t="s">
+      <c r="S2" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="T2" s="56" t="s">
+      <c r="T2" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="U2" s="56" t="s">
+      <c r="U2" s="52" t="s">
         <v>110</v>
       </c>
       <c r="Y2" s="9" t="s">
@@ -3041,8 +3088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0246BA6-8B49-4F2B-86EA-5A5370D12E3D}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="T6" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:AC8"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Y8" sqref="Y8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -3182,19 +3229,19 @@
       <c r="O2" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="54" t="s">
+      <c r="Q2" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="R2" s="55" t="s">
+      <c r="R2" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="S2" s="57" t="s">
+      <c r="S2" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="T2" s="55" t="s">
+      <c r="T2" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="U2" s="55" t="s">
+      <c r="U2" s="51" t="s">
         <v>118</v>
       </c>
       <c r="Y2" s="9" t="s">
@@ -3248,13 +3295,13 @@
       <c r="O3" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="Q3" s="58" t="s">
+      <c r="Q3" s="54" t="s">
         <v>121</v>
       </c>
       <c r="R3" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="S3" s="59" t="s">
+      <c r="S3" s="55" t="s">
         <v>116</v>
       </c>
       <c r="T3" s="42" t="s">
@@ -3491,7 +3538,877 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DDDDB01-5A9B-48B7-9734-B8F0598404C7}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
+    <sheetView topLeftCell="R5" workbookViewId="0">
+      <selection activeCell="Y9" sqref="Y9:Z9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="9"/>
+    <col min="4" max="4" width="15.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="9"/>
+    <col min="7" max="7" width="73.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="9"/>
+    <col min="12" max="12" width="89.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.140625" style="9"/>
+    <col min="18" max="18" width="65.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" s="18" customFormat="1">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB1" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="30.75">
+      <c r="A2" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="23">
+        <v>3.5</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="10">
+        <v>20</v>
+      </c>
+      <c r="G2" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="K2" s="17"/>
+      <c r="L2" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z2" s="48">
+        <v>10</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC2" s="9">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="60.75">
+      <c r="A3" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="23">
+        <v>3</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="15">
+        <v>15.5</v>
+      </c>
+      <c r="G3" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="K3" s="17"/>
+      <c r="L3" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="M3" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z3" s="48">
+        <v>4</v>
+      </c>
+      <c r="AB3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC3" s="9">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="76.5">
+      <c r="A4" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="23">
+        <v>3</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="17">
+        <v>7.5</v>
+      </c>
+      <c r="G4" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="46">
+        <v>45279</v>
+      </c>
+      <c r="J4" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" s="17"/>
+      <c r="L4" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z4" s="48">
+        <v>12</v>
+      </c>
+      <c r="AB4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC4" s="9">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="76.5">
+      <c r="A5" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="23">
+        <v>11.5</v>
+      </c>
+      <c r="G5" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="H5" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="K5" s="17"/>
+      <c r="L5" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="46">
+        <v>45289</v>
+      </c>
+      <c r="O5" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y5" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z5" s="48">
+        <v>20</v>
+      </c>
+      <c r="AB5" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC5" s="9">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="45.75">
+      <c r="A6" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="M6" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z6" s="48">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC6" s="9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="30.75">
+      <c r="A7" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" s="23">
+        <v>4.5</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="Z7" s="48"/>
+      <c r="AB7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC7" s="49">
+        <f>AC4/AC2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="45.75">
+      <c r="A8" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="23">
+        <v>11</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+    </row>
+    <row r="9" spans="1:29" ht="45.75">
+      <c r="A9" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="23">
+        <v>6</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+    </row>
+    <row r="11" spans="1:29">
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+    </row>
+    <row r="12" spans="1:29"/>
+    <row r="13" spans="1:29"/>
+    <row r="14" spans="1:29"/>
+    <row r="15" spans="1:29"/>
+    <row r="16" spans="1:29"/>
+    <row r="17"/>
+    <row r="18"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06318CDB-B9D5-49AA-B294-14A5F3037033}">
+  <dimension ref="A1:AC18"/>
+  <sheetViews>
+    <sheetView topLeftCell="S3" workbookViewId="0">
+      <selection activeCell="Y9" sqref="Y9:Z9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="9"/>
+    <col min="4" max="4" width="15.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="9"/>
+    <col min="7" max="7" width="73.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="9"/>
+    <col min="12" max="12" width="89.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.140625" style="9"/>
+    <col min="18" max="18" width="65.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" s="18" customFormat="1">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB1" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="30.75">
+      <c r="A2" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="23">
+        <v>3.5</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="10">
+        <v>12</v>
+      </c>
+      <c r="G2" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="K2" s="17"/>
+      <c r="L2" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z2" s="48">
+        <v>8</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC2" s="9">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="60.75">
+      <c r="A3" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="23">
+        <v>1</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="15">
+        <v>7.5</v>
+      </c>
+      <c r="G3" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="K3" s="17"/>
+      <c r="L3" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="M3" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z3" s="48">
+        <v>4</v>
+      </c>
+      <c r="AB3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC3" s="9">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="76.5">
+      <c r="A4" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="23">
+        <v>1</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="17">
+        <v>4</v>
+      </c>
+      <c r="G4" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="46">
+        <v>45655</v>
+      </c>
+      <c r="J4" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" s="17"/>
+      <c r="L4" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z4" s="48">
+        <v>8</v>
+      </c>
+      <c r="AB4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC4" s="9">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="76.5">
+      <c r="A5" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="23">
+        <v>4</v>
+      </c>
+      <c r="G5" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="H5" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="K5" s="17"/>
+      <c r="L5" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="46">
+        <v>45295</v>
+      </c>
+      <c r="O5" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y5" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z5" s="48">
+        <v>16</v>
+      </c>
+      <c r="AB5" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC5" s="9">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="76.5">
+      <c r="A6" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="23">
+        <v>5.5</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="M6" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" s="46">
+        <v>45306</v>
+      </c>
+      <c r="O6" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z6" s="48">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC6" s="9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="45.75">
+      <c r="A7" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="23">
+        <v>5.5</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="Z7" s="48"/>
+      <c r="AB7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC7" s="49">
+        <f>AC4/AC2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="45.75">
+      <c r="A8" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="23">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="65"/>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9" s="22"/>
+      <c r="B9" s="23"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+    </row>
+    <row r="11" spans="1:29">
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+    </row>
+    <row r="12" spans="1:29"/>
+    <row r="13" spans="1:29"/>
+    <row r="14" spans="1:29"/>
+    <row r="15" spans="1:29"/>
+    <row r="16" spans="1:29"/>
+    <row r="17"/>
+    <row r="18"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0037DB-F721-4209-91B1-653CDC4ADDC4}">
+  <dimension ref="A1:AC18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="S2" workbookViewId="0">
       <selection activeCell="AC6" sqref="AC6"/>
     </sheetView>
   </sheetViews>
@@ -3595,29 +4512,29 @@
       </c>
     </row>
     <row r="2" spans="1:29" ht="30.75">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="23">
-        <v>3.5</v>
+      <c r="B2" s="58">
+        <v>4</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="10">
-        <v>20</v>
-      </c>
-      <c r="G2" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="H2" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="44" t="s">
+      <c r="H2" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="I2" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="44" t="s">
-        <v>126</v>
+      <c r="J2" s="23" t="s">
+        <v>139</v>
       </c>
       <c r="K2" s="17"/>
       <c r="L2" s="43" t="s">
@@ -3636,39 +4553,39 @@
         <v>29</v>
       </c>
       <c r="Z2" s="48">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="9" t="s">
         <v>30</v>
       </c>
       <c r="AC2" s="9">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="60.75">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="23">
-        <v>3</v>
+      <c r="B3" s="58">
+        <v>1</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>32</v>
       </c>
       <c r="E3" s="15">
-        <v>15.5</v>
-      </c>
-      <c r="G3" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="44" t="s">
+      <c r="H3" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="44" t="s">
+      <c r="I3" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="44" t="s">
-        <v>127</v>
+      <c r="J3" s="24" t="s">
+        <v>140</v>
       </c>
       <c r="K3" s="17"/>
       <c r="L3" s="45" t="s">
@@ -3687,39 +4604,39 @@
         <v>37</v>
       </c>
       <c r="Z3" s="48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB3" s="9" t="s">
         <v>38</v>
       </c>
       <c r="AC3" s="9">
-        <v>670</v>
+        <v>676</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="76.5">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="23">
-        <v>3</v>
+      <c r="B4" s="58">
+        <v>1</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>40</v>
       </c>
       <c r="E4" s="17">
-        <v>7.5</v>
-      </c>
-      <c r="G4" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="H4" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="46">
-        <v>45279</v>
-      </c>
-      <c r="J4" s="44" t="s">
-        <v>128</v>
+      <c r="H4" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="37">
+        <v>45293</v>
+      </c>
+      <c r="J4" s="36" t="s">
+        <v>141</v>
       </c>
       <c r="K4" s="17"/>
       <c r="L4" s="45" t="s">
@@ -3732,39 +4649,39 @@
         <v>27</v>
       </c>
       <c r="O4" s="44" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="Y4" s="9" t="s">
         <v>43</v>
       </c>
       <c r="Z4" s="48">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AC4" s="9">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="76.5">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="23">
-        <v>11.5</v>
-      </c>
-      <c r="G5" s="45" t="s">
+      <c r="B5" s="58">
+        <v>4</v>
+      </c>
+      <c r="G5" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="H5" s="44" t="s">
+      <c r="H5" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="44" t="s">
+      <c r="I5" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="44" t="s">
-        <v>130</v>
+      <c r="J5" s="36" t="s">
+        <v>143</v>
       </c>
       <c r="K5" s="17"/>
       <c r="L5" s="45" t="s">
@@ -3773,8 +4690,8 @@
       <c r="M5" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="N5" s="46">
-        <v>45289</v>
+      <c r="N5" s="44" t="s">
+        <v>27</v>
       </c>
       <c r="O5" s="44" t="s">
         <v>125</v>
@@ -3783,21 +4700,21 @@
         <v>49</v>
       </c>
       <c r="Z5" s="48">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AB5" s="9" t="s">
         <v>50</v>
       </c>
       <c r="AC5" s="9">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="45.75">
-      <c r="A6" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" s="23">
-        <v>0.5</v>
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="76.5">
+      <c r="A6" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="58">
+        <v>7.5</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
@@ -3810,11 +4727,11 @@
       <c r="M6" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="N6" s="44" t="s">
-        <v>27</v>
+      <c r="N6" s="46">
+        <v>45306</v>
       </c>
       <c r="O6" s="44" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="Y6" s="9" t="s">
         <v>54</v>
@@ -3829,461 +4746,18 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="30.75">
-      <c r="A7" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="B7" s="23">
-        <v>4.5</v>
-      </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="Z7" s="48"/>
-      <c r="AB7" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC7" s="49">
-        <f>AC4/AC2</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" ht="45.75">
-      <c r="A8" s="22" t="s">
+    <row r="7" spans="1:29" ht="45.75">
+      <c r="A7" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="23">
-        <v>11</v>
-      </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-    </row>
-    <row r="9" spans="1:29" ht="45.75">
-      <c r="A9" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="23">
-        <v>6</v>
-      </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="Y9" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z9" s="9">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-    </row>
-    <row r="11" spans="1:29">
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-    </row>
-    <row r="12" spans="1:29"/>
-    <row r="13" spans="1:29"/>
-    <row r="14" spans="1:29"/>
-    <row r="15" spans="1:29"/>
-    <row r="16" spans="1:29"/>
-    <row r="17"/>
-    <row r="18"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06318CDB-B9D5-49AA-B294-14A5F3037033}">
-  <dimension ref="A1:AC18"/>
-  <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AC6" sqref="AC6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="17.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="9"/>
-    <col min="4" max="4" width="15.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="9"/>
-    <col min="7" max="7" width="73.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="9"/>
-    <col min="12" max="12" width="89.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.140625" style="9"/>
-    <col min="18" max="18" width="65.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="9"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:29" s="18" customFormat="1">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="18" t="s">
+      <c r="B7" s="58">
         <v>5</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="V1" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="W1" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y1" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB1" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="30.75">
-      <c r="A2" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="B2" s="23">
-        <v>3.5</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="10">
-        <v>12</v>
-      </c>
-      <c r="G2" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="H2" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="K2" s="17"/>
-      <c r="L2" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z2" s="48">
-        <v>8</v>
-      </c>
-      <c r="AB2" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC2" s="9">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" ht="60.75">
-      <c r="A3" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="23">
-        <v>1</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="15">
-        <v>7.5</v>
-      </c>
-      <c r="G3" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="K3" s="17"/>
-      <c r="L3" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="M3" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="N3" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y3" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z3" s="48">
-        <v>4</v>
-      </c>
-      <c r="AB3" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC3" s="9">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="76.5">
-      <c r="A4" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="23">
-        <v>1</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="17">
-        <v>4</v>
-      </c>
-      <c r="G4" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="H4" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="I4" s="46">
-        <v>45655</v>
-      </c>
-      <c r="J4" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="M4" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="N4" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="44" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y4" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z4" s="48">
-        <v>8</v>
-      </c>
-      <c r="AB4" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC4" s="9">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="76.5">
-      <c r="A5" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="23">
-        <v>4</v>
-      </c>
-      <c r="G5" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="H5" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="M5" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5" s="46">
-        <v>45295</v>
-      </c>
-      <c r="O5" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y5" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z5" s="48">
-        <v>16</v>
-      </c>
-      <c r="AB5" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC5" s="9">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="76.5">
-      <c r="A6" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="B6" s="23">
-        <v>5.5</v>
-      </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="M6" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="N6" s="46">
-        <v>45306</v>
-      </c>
-      <c r="O6" s="44" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y6" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z6" s="48">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC6" s="9">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="45.75">
-      <c r="A7" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="23">
-        <v>5.5</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="60"/>
+      <c r="I7" s="56"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="61"/>
+      <c r="K7" s="65"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -4298,21 +4772,21 @@
       </c>
     </row>
     <row r="8" spans="1:29" ht="45.75">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="23">
-        <v>3</v>
+      <c r="B8" s="58">
+        <v>4.5</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="61"/>
-      <c r="O8" s="61"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="65"/>
     </row>
     <row r="9" spans="1:29">
       <c r="A9" s="22"/>
@@ -4326,12 +4800,6 @@
       <c r="M9" s="17"/>
       <c r="N9" s="17"/>
       <c r="O9" s="17"/>
-      <c r="Y9" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z9" s="9">
-        <v>317</v>
-      </c>
     </row>
     <row r="10" spans="1:29">
       <c r="A10" s="11"/>
@@ -4485,14 +4953,14 @@
       <c r="B2" s="3">
         <v>4.5</v>
       </c>
-      <c r="C2" s="62"/>
+      <c r="C2" s="63"/>
       <c r="D2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="63">
+      <c r="E2" s="64">
         <v>20</v>
       </c>
-      <c r="F2" s="62"/>
+      <c r="F2" s="63"/>
       <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
@@ -4505,7 +4973,7 @@
       <c r="J2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="62"/>
+      <c r="K2" s="63"/>
       <c r="L2" s="3" t="s">
         <v>25</v>
       </c>
@@ -4524,9 +4992,9 @@
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
-      <c r="V2" s="62"/>
+      <c r="V2" s="63"/>
       <c r="W2" s="5"/>
-      <c r="X2" s="62"/>
+      <c r="X2" s="63"/>
       <c r="Y2" s="48" t="s">
         <v>29</v>
       </c>
@@ -4548,14 +5016,14 @@
       <c r="B3" s="3">
         <v>1.5</v>
       </c>
-      <c r="C3" s="62"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E3" s="5">
         <v>8.5</v>
       </c>
-      <c r="F3" s="62"/>
+      <c r="F3" s="63"/>
       <c r="G3" s="5" t="s">
         <v>33</v>
       </c>
@@ -4568,7 +5036,7 @@
       <c r="J3" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="K3" s="62"/>
+      <c r="K3" s="63"/>
       <c r="L3" s="5" t="s">
         <v>33</v>
       </c>
@@ -4587,9 +5055,9 @@
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
-      <c r="V3" s="62"/>
+      <c r="V3" s="63"/>
       <c r="W3" s="5"/>
-      <c r="X3" s="62"/>
+      <c r="X3" s="63"/>
       <c r="Y3" s="48" t="s">
         <v>37</v>
       </c>
@@ -4611,14 +5079,14 @@
       <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="62"/>
+      <c r="C4" s="63"/>
       <c r="D4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="61">
+      <c r="E4" s="65">
         <v>2.5</v>
       </c>
-      <c r="F4" s="62"/>
+      <c r="F4" s="63"/>
       <c r="G4" s="5" t="s">
         <v>41</v>
       </c>
@@ -4631,7 +5099,7 @@
       <c r="J4" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="K4" s="62"/>
+      <c r="K4" s="63"/>
       <c r="L4" s="5" t="s">
         <v>41</v>
       </c>
@@ -4645,14 +5113,14 @@
         <v>42</v>
       </c>
       <c r="P4" s="5"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="62"/>
-      <c r="W4" s="62"/>
-      <c r="X4" s="62"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="63"/>
+      <c r="U4" s="63"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="63"/>
+      <c r="X4" s="63"/>
       <c r="Y4" s="48" t="s">
         <v>43</v>
       </c>
@@ -4674,10 +5142,10 @@
       <c r="B5" s="3">
         <v>2.5</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="62"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="63"/>
       <c r="G5" s="5" t="s">
         <v>46</v>
       </c>
@@ -4690,7 +5158,7 @@
       <c r="J5" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="K5" s="62"/>
+      <c r="K5" s="63"/>
       <c r="L5" s="5" t="s">
         <v>46</v>
       </c>
@@ -4704,14 +5172,14 @@
         <v>65</v>
       </c>
       <c r="P5" s="5"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="62"/>
-      <c r="T5" s="62"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
-      <c r="W5" s="62"/>
-      <c r="X5" s="62"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="63"/>
+      <c r="T5" s="63"/>
+      <c r="U5" s="63"/>
+      <c r="V5" s="63"/>
+      <c r="W5" s="63"/>
+      <c r="X5" s="63"/>
       <c r="Y5" s="48" t="s">
         <v>49</v>
       </c>
@@ -4733,10 +5201,10 @@
       <c r="B6" s="3">
         <v>3.5</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="62"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="63"/>
       <c r="G6" s="5" t="s">
         <v>67</v>
       </c>
@@ -4749,7 +5217,7 @@
       <c r="J6" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="K6" s="62"/>
+      <c r="K6" s="63"/>
       <c r="L6" s="5" t="s">
         <v>70</v>
       </c>
@@ -4763,14 +5231,14 @@
         <v>72</v>
       </c>
       <c r="P6" s="5"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="62"/>
-      <c r="T6" s="62"/>
-      <c r="U6" s="62"/>
-      <c r="V6" s="62"/>
-      <c r="W6" s="62"/>
-      <c r="X6" s="62"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="63"/>
+      <c r="S6" s="63"/>
+      <c r="T6" s="63"/>
+      <c r="U6" s="63"/>
+      <c r="V6" s="63"/>
+      <c r="W6" s="63"/>
+      <c r="X6" s="63"/>
       <c r="Y6" s="48" t="s">
         <v>54</v>
       </c>
@@ -4792,28 +5260,28 @@
       <c r="B7" s="3">
         <v>3.5</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="62"/>
-      <c r="R7" s="62"/>
-      <c r="S7" s="62"/>
-      <c r="T7" s="62"/>
-      <c r="U7" s="62"/>
-      <c r="V7" s="62"/>
-      <c r="W7" s="62"/>
-      <c r="X7" s="62"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="63"/>
+      <c r="Q7" s="63"/>
+      <c r="R7" s="63"/>
+      <c r="S7" s="63"/>
+      <c r="T7" s="63"/>
+      <c r="U7" s="63"/>
+      <c r="V7" s="63"/>
+      <c r="W7" s="63"/>
+      <c r="X7" s="63"/>
       <c r="Y7" s="48"/>
       <c r="Z7" s="48"/>
       <c r="AA7" s="48"/>
@@ -4832,33 +5300,33 @@
       <c r="B8" s="3">
         <v>5.5</v>
       </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="62"/>
-      <c r="S8" s="62"/>
-      <c r="T8" s="62"/>
-      <c r="U8" s="62"/>
-      <c r="V8" s="62"/>
-      <c r="W8" s="62"/>
-      <c r="X8" s="62"/>
-      <c r="Y8" s="62"/>
-      <c r="Z8" s="62"/>
-      <c r="AA8" s="62"/>
-      <c r="AB8" s="62"/>
-      <c r="AC8" s="62"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="63"/>
+      <c r="R8" s="63"/>
+      <c r="S8" s="63"/>
+      <c r="T8" s="63"/>
+      <c r="U8" s="63"/>
+      <c r="V8" s="63"/>
+      <c r="W8" s="63"/>
+      <c r="X8" s="63"/>
+      <c r="Y8" s="63"/>
+      <c r="Z8" s="63"/>
+      <c r="AA8" s="63"/>
+      <c r="AB8" s="63"/>
+      <c r="AC8" s="63"/>
     </row>
     <row r="9" spans="1:29" ht="45.75">
       <c r="A9" s="3" t="s">
@@ -4867,33 +5335,33 @@
       <c r="B9" s="3">
         <v>1.5</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="62"/>
-      <c r="O9" s="62"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="62"/>
-      <c r="S9" s="62"/>
-      <c r="T9" s="62"/>
-      <c r="U9" s="62"/>
-      <c r="V9" s="62"/>
-      <c r="W9" s="62"/>
-      <c r="X9" s="62"/>
-      <c r="Y9" s="62"/>
-      <c r="Z9" s="62"/>
-      <c r="AA9" s="62"/>
-      <c r="AB9" s="62"/>
-      <c r="AC9" s="62"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="63"/>
+      <c r="Q9" s="63"/>
+      <c r="R9" s="63"/>
+      <c r="S9" s="63"/>
+      <c r="T9" s="63"/>
+      <c r="U9" s="63"/>
+      <c r="V9" s="63"/>
+      <c r="W9" s="63"/>
+      <c r="X9" s="63"/>
+      <c r="Y9" s="63"/>
+      <c r="Z9" s="63"/>
+      <c r="AA9" s="63"/>
+      <c r="AB9" s="63"/>
+      <c r="AC9" s="63"/>
     </row>
     <row r="10" spans="1:29" ht="45.75">
       <c r="A10" s="3" t="s">
@@ -4902,33 +5370,33 @@
       <c r="B10" s="3">
         <v>6.5</v>
       </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="62"/>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="62"/>
-      <c r="S10" s="62"/>
-      <c r="T10" s="62"/>
-      <c r="U10" s="62"/>
-      <c r="V10" s="62"/>
-      <c r="W10" s="62"/>
-      <c r="X10" s="62"/>
-      <c r="Y10" s="62"/>
-      <c r="Z10" s="62"/>
-      <c r="AA10" s="62"/>
-      <c r="AB10" s="62"/>
-      <c r="AC10" s="62"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="63"/>
+      <c r="R10" s="63"/>
+      <c r="S10" s="63"/>
+      <c r="T10" s="63"/>
+      <c r="U10" s="63"/>
+      <c r="V10" s="63"/>
+      <c r="W10" s="63"/>
+      <c r="X10" s="63"/>
+      <c r="Y10" s="63"/>
+      <c r="Z10" s="63"/>
+      <c r="AA10" s="63"/>
+      <c r="AB10" s="63"/>
+      <c r="AC10" s="63"/>
     </row>
     <row r="11" spans="1:29" ht="45.75">
       <c r="A11" s="3" t="s">
@@ -4937,188 +5405,188 @@
       <c r="B11" s="3">
         <v>1</v>
       </c>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="62"/>
-      <c r="O11" s="62"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="62"/>
-      <c r="R11" s="62"/>
-      <c r="S11" s="62"/>
-      <c r="T11" s="62"/>
-      <c r="U11" s="62"/>
-      <c r="V11" s="62"/>
-      <c r="W11" s="62"/>
-      <c r="X11" s="62"/>
-      <c r="Y11" s="62"/>
-      <c r="Z11" s="62"/>
-      <c r="AA11" s="62"/>
-      <c r="AB11" s="62"/>
-      <c r="AC11" s="62"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="63"/>
+      <c r="S11" s="63"/>
+      <c r="T11" s="63"/>
+      <c r="U11" s="63"/>
+      <c r="V11" s="63"/>
+      <c r="W11" s="63"/>
+      <c r="X11" s="63"/>
+      <c r="Y11" s="63"/>
+      <c r="Z11" s="63"/>
+      <c r="AA11" s="63"/>
+      <c r="AB11" s="63"/>
+      <c r="AC11" s="63"/>
     </row>
     <row r="12" spans="1:29">
-      <c r="A12" s="62"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="62"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="62"/>
-      <c r="S12" s="62"/>
-      <c r="T12" s="62"/>
-      <c r="U12" s="62"/>
-      <c r="V12" s="62"/>
-      <c r="W12" s="62"/>
-      <c r="X12" s="62"/>
-      <c r="Y12" s="62"/>
-      <c r="Z12" s="62"/>
-      <c r="AA12" s="62"/>
-      <c r="AB12" s="62"/>
-      <c r="AC12" s="62"/>
+      <c r="A12" s="63"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="63"/>
+      <c r="R12" s="63"/>
+      <c r="S12" s="63"/>
+      <c r="T12" s="63"/>
+      <c r="U12" s="63"/>
+      <c r="V12" s="63"/>
+      <c r="W12" s="63"/>
+      <c r="X12" s="63"/>
+      <c r="Y12" s="63"/>
+      <c r="Z12" s="63"/>
+      <c r="AA12" s="63"/>
+      <c r="AB12" s="63"/>
+      <c r="AC12" s="63"/>
     </row>
     <row r="13" spans="1:29">
-      <c r="A13" s="62"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="62"/>
-      <c r="O13" s="62"/>
-      <c r="P13" s="62"/>
-      <c r="Q13" s="62"/>
-      <c r="R13" s="62"/>
-      <c r="S13" s="62"/>
-      <c r="T13" s="62"/>
-      <c r="U13" s="62"/>
-      <c r="V13" s="62"/>
-      <c r="W13" s="62"/>
-      <c r="X13" s="62"/>
-      <c r="Y13" s="62"/>
-      <c r="Z13" s="62"/>
-      <c r="AA13" s="62"/>
-      <c r="AB13" s="62"/>
-      <c r="AC13" s="62"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="63"/>
+      <c r="Q13" s="63"/>
+      <c r="R13" s="63"/>
+      <c r="S13" s="63"/>
+      <c r="T13" s="63"/>
+      <c r="U13" s="63"/>
+      <c r="V13" s="63"/>
+      <c r="W13" s="63"/>
+      <c r="X13" s="63"/>
+      <c r="Y13" s="63"/>
+      <c r="Z13" s="63"/>
+      <c r="AA13" s="63"/>
+      <c r="AB13" s="63"/>
+      <c r="AC13" s="63"/>
     </row>
     <row r="14" spans="1:29">
-      <c r="A14" s="62"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="62"/>
-      <c r="R14" s="62"/>
-      <c r="S14" s="62"/>
-      <c r="T14" s="62"/>
-      <c r="U14" s="62"/>
-      <c r="V14" s="62"/>
-      <c r="W14" s="62"/>
-      <c r="X14" s="62"/>
-      <c r="Y14" s="62"/>
-      <c r="Z14" s="62"/>
-      <c r="AA14" s="62"/>
-      <c r="AB14" s="62"/>
-      <c r="AC14" s="62"/>
+      <c r="A14" s="63"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="63"/>
+      <c r="S14" s="63"/>
+      <c r="T14" s="63"/>
+      <c r="U14" s="63"/>
+      <c r="V14" s="63"/>
+      <c r="W14" s="63"/>
+      <c r="X14" s="63"/>
+      <c r="Y14" s="63"/>
+      <c r="Z14" s="63"/>
+      <c r="AA14" s="63"/>
+      <c r="AB14" s="63"/>
+      <c r="AC14" s="63"/>
     </row>
     <row r="15" spans="1:29">
-      <c r="A15" s="62"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="62"/>
-      <c r="N15" s="62"/>
-      <c r="O15" s="62"/>
-      <c r="P15" s="62"/>
-      <c r="Q15" s="62"/>
-      <c r="R15" s="62"/>
-      <c r="S15" s="62"/>
-      <c r="T15" s="62"/>
-      <c r="U15" s="62"/>
-      <c r="V15" s="62"/>
-      <c r="W15" s="62"/>
-      <c r="X15" s="62"/>
-      <c r="Y15" s="62"/>
-      <c r="Z15" s="62"/>
-      <c r="AA15" s="62"/>
-      <c r="AB15" s="62"/>
-      <c r="AC15" s="62"/>
+      <c r="A15" s="63"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="63"/>
+      <c r="R15" s="63"/>
+      <c r="S15" s="63"/>
+      <c r="T15" s="63"/>
+      <c r="U15" s="63"/>
+      <c r="V15" s="63"/>
+      <c r="W15" s="63"/>
+      <c r="X15" s="63"/>
+      <c r="Y15" s="63"/>
+      <c r="Z15" s="63"/>
+      <c r="AA15" s="63"/>
+      <c r="AB15" s="63"/>
+      <c r="AC15" s="63"/>
     </row>
     <row r="16" spans="1:29">
-      <c r="A16" s="62"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="62"/>
-      <c r="P16" s="62"/>
-      <c r="Q16" s="62"/>
-      <c r="R16" s="62"/>
-      <c r="S16" s="62"/>
-      <c r="T16" s="62"/>
-      <c r="U16" s="62"/>
-      <c r="V16" s="62"/>
-      <c r="W16" s="62"/>
-      <c r="X16" s="62"/>
-      <c r="Y16" s="62"/>
-      <c r="Z16" s="62"/>
-      <c r="AA16" s="62"/>
-      <c r="AB16" s="62"/>
-      <c r="AC16" s="62"/>
+      <c r="A16" s="63"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="63"/>
+      <c r="S16" s="63"/>
+      <c r="T16" s="63"/>
+      <c r="U16" s="63"/>
+      <c r="V16" s="63"/>
+      <c r="W16" s="63"/>
+      <c r="X16" s="63"/>
+      <c r="Y16" s="63"/>
+      <c r="Z16" s="63"/>
+      <c r="AA16" s="63"/>
+      <c r="AB16" s="63"/>
+      <c r="AC16" s="63"/>
     </row>
     <row r="17"/>
     <row r="18"/>
@@ -5244,14 +5712,14 @@
       <c r="B2" s="3">
         <v>4.5</v>
       </c>
-      <c r="C2" s="62"/>
+      <c r="C2" s="63"/>
       <c r="D2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="63">
+      <c r="E2" s="64">
         <v>20</v>
       </c>
-      <c r="F2" s="62"/>
+      <c r="F2" s="63"/>
       <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
@@ -5264,7 +5732,7 @@
       <c r="J2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="62"/>
+      <c r="K2" s="63"/>
       <c r="L2" s="3" t="s">
         <v>25</v>
       </c>
@@ -5283,9 +5751,9 @@
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
-      <c r="V2" s="62"/>
+      <c r="V2" s="63"/>
       <c r="W2" s="5"/>
-      <c r="X2" s="62"/>
+      <c r="X2" s="63"/>
       <c r="Y2" s="48" t="s">
         <v>29</v>
       </c>
@@ -5307,14 +5775,14 @@
       <c r="B3" s="3">
         <v>1.5</v>
       </c>
-      <c r="C3" s="62"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E3" s="5">
         <v>8.5</v>
       </c>
-      <c r="F3" s="62"/>
+      <c r="F3" s="63"/>
       <c r="G3" s="5" t="s">
         <v>33</v>
       </c>
@@ -5327,7 +5795,7 @@
       <c r="J3" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="K3" s="62"/>
+      <c r="K3" s="63"/>
       <c r="L3" s="5" t="s">
         <v>33</v>
       </c>
@@ -5346,9 +5814,9 @@
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
-      <c r="V3" s="62"/>
+      <c r="V3" s="63"/>
       <c r="W3" s="5"/>
-      <c r="X3" s="62"/>
+      <c r="X3" s="63"/>
       <c r="Y3" s="48" t="s">
         <v>37</v>
       </c>
@@ -5370,14 +5838,14 @@
       <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="62"/>
+      <c r="C4" s="63"/>
       <c r="D4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="61">
+      <c r="E4" s="65">
         <v>2.5</v>
       </c>
-      <c r="F4" s="62"/>
+      <c r="F4" s="63"/>
       <c r="G4" s="5" t="s">
         <v>41</v>
       </c>
@@ -5390,7 +5858,7 @@
       <c r="J4" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="K4" s="62"/>
+      <c r="K4" s="63"/>
       <c r="L4" s="5" t="s">
         <v>41</v>
       </c>
@@ -5404,14 +5872,14 @@
         <v>42</v>
       </c>
       <c r="P4" s="5"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="62"/>
-      <c r="W4" s="62"/>
-      <c r="X4" s="62"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="63"/>
+      <c r="U4" s="63"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="63"/>
+      <c r="X4" s="63"/>
       <c r="Y4" s="48" t="s">
         <v>43</v>
       </c>
@@ -5433,10 +5901,10 @@
       <c r="B5" s="3">
         <v>2.5</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="62"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="63"/>
       <c r="G5" s="5" t="s">
         <v>46</v>
       </c>
@@ -5449,7 +5917,7 @@
       <c r="J5" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="K5" s="62"/>
+      <c r="K5" s="63"/>
       <c r="L5" s="5" t="s">
         <v>46</v>
       </c>
@@ -5463,14 +5931,14 @@
         <v>65</v>
       </c>
       <c r="P5" s="5"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="62"/>
-      <c r="T5" s="62"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
-      <c r="W5" s="62"/>
-      <c r="X5" s="62"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="63"/>
+      <c r="T5" s="63"/>
+      <c r="U5" s="63"/>
+      <c r="V5" s="63"/>
+      <c r="W5" s="63"/>
+      <c r="X5" s="63"/>
       <c r="Y5" s="48" t="s">
         <v>49</v>
       </c>
@@ -5492,10 +5960,10 @@
       <c r="B6" s="3">
         <v>3.5</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="62"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="63"/>
       <c r="G6" s="5" t="s">
         <v>67</v>
       </c>
@@ -5508,7 +5976,7 @@
       <c r="J6" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="K6" s="62"/>
+      <c r="K6" s="63"/>
       <c r="L6" s="5" t="s">
         <v>70</v>
       </c>
@@ -5522,14 +5990,14 @@
         <v>72</v>
       </c>
       <c r="P6" s="5"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="62"/>
-      <c r="T6" s="62"/>
-      <c r="U6" s="62"/>
-      <c r="V6" s="62"/>
-      <c r="W6" s="62"/>
-      <c r="X6" s="62"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="63"/>
+      <c r="S6" s="63"/>
+      <c r="T6" s="63"/>
+      <c r="U6" s="63"/>
+      <c r="V6" s="63"/>
+      <c r="W6" s="63"/>
+      <c r="X6" s="63"/>
       <c r="Y6" s="48" t="s">
         <v>54</v>
       </c>
@@ -5551,28 +6019,28 @@
       <c r="B7" s="3">
         <v>3.5</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="62"/>
-      <c r="R7" s="62"/>
-      <c r="S7" s="62"/>
-      <c r="T7" s="62"/>
-      <c r="U7" s="62"/>
-      <c r="V7" s="62"/>
-      <c r="W7" s="62"/>
-      <c r="X7" s="62"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="63"/>
+      <c r="Q7" s="63"/>
+      <c r="R7" s="63"/>
+      <c r="S7" s="63"/>
+      <c r="T7" s="63"/>
+      <c r="U7" s="63"/>
+      <c r="V7" s="63"/>
+      <c r="W7" s="63"/>
+      <c r="X7" s="63"/>
       <c r="Y7" s="48"/>
       <c r="Z7" s="48"/>
       <c r="AA7" s="48"/>
@@ -5591,33 +6059,33 @@
       <c r="B8" s="3">
         <v>5.5</v>
       </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="62"/>
-      <c r="S8" s="62"/>
-      <c r="T8" s="62"/>
-      <c r="U8" s="62"/>
-      <c r="V8" s="62"/>
-      <c r="W8" s="62"/>
-      <c r="X8" s="62"/>
-      <c r="Y8" s="62"/>
-      <c r="Z8" s="62"/>
-      <c r="AA8" s="62"/>
-      <c r="AB8" s="62"/>
-      <c r="AC8" s="62"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="63"/>
+      <c r="R8" s="63"/>
+      <c r="S8" s="63"/>
+      <c r="T8" s="63"/>
+      <c r="U8" s="63"/>
+      <c r="V8" s="63"/>
+      <c r="W8" s="63"/>
+      <c r="X8" s="63"/>
+      <c r="Y8" s="63"/>
+      <c r="Z8" s="63"/>
+      <c r="AA8" s="63"/>
+      <c r="AB8" s="63"/>
+      <c r="AC8" s="63"/>
     </row>
     <row r="9" spans="1:29" ht="45.75">
       <c r="A9" s="3" t="s">
@@ -5626,33 +6094,33 @@
       <c r="B9" s="3">
         <v>1.5</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="62"/>
-      <c r="O9" s="62"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="62"/>
-      <c r="S9" s="62"/>
-      <c r="T9" s="62"/>
-      <c r="U9" s="62"/>
-      <c r="V9" s="62"/>
-      <c r="W9" s="62"/>
-      <c r="X9" s="62"/>
-      <c r="Y9" s="62"/>
-      <c r="Z9" s="62"/>
-      <c r="AA9" s="62"/>
-      <c r="AB9" s="62"/>
-      <c r="AC9" s="62"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="63"/>
+      <c r="Q9" s="63"/>
+      <c r="R9" s="63"/>
+      <c r="S9" s="63"/>
+      <c r="T9" s="63"/>
+      <c r="U9" s="63"/>
+      <c r="V9" s="63"/>
+      <c r="W9" s="63"/>
+      <c r="X9" s="63"/>
+      <c r="Y9" s="63"/>
+      <c r="Z9" s="63"/>
+      <c r="AA9" s="63"/>
+      <c r="AB9" s="63"/>
+      <c r="AC9" s="63"/>
     </row>
     <row r="10" spans="1:29" ht="45.75">
       <c r="A10" s="3" t="s">
@@ -5661,33 +6129,33 @@
       <c r="B10" s="3">
         <v>6.5</v>
       </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="62"/>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="62"/>
-      <c r="S10" s="62"/>
-      <c r="T10" s="62"/>
-      <c r="U10" s="62"/>
-      <c r="V10" s="62"/>
-      <c r="W10" s="62"/>
-      <c r="X10" s="62"/>
-      <c r="Y10" s="62"/>
-      <c r="Z10" s="62"/>
-      <c r="AA10" s="62"/>
-      <c r="AB10" s="62"/>
-      <c r="AC10" s="62"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="63"/>
+      <c r="R10" s="63"/>
+      <c r="S10" s="63"/>
+      <c r="T10" s="63"/>
+      <c r="U10" s="63"/>
+      <c r="V10" s="63"/>
+      <c r="W10" s="63"/>
+      <c r="X10" s="63"/>
+      <c r="Y10" s="63"/>
+      <c r="Z10" s="63"/>
+      <c r="AA10" s="63"/>
+      <c r="AB10" s="63"/>
+      <c r="AC10" s="63"/>
     </row>
     <row r="11" spans="1:29" ht="45.75">
       <c r="A11" s="3" t="s">
@@ -5696,188 +6164,188 @@
       <c r="B11" s="3">
         <v>1</v>
       </c>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="62"/>
-      <c r="O11" s="62"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="62"/>
-      <c r="R11" s="62"/>
-      <c r="S11" s="62"/>
-      <c r="T11" s="62"/>
-      <c r="U11" s="62"/>
-      <c r="V11" s="62"/>
-      <c r="W11" s="62"/>
-      <c r="X11" s="62"/>
-      <c r="Y11" s="62"/>
-      <c r="Z11" s="62"/>
-      <c r="AA11" s="62"/>
-      <c r="AB11" s="62"/>
-      <c r="AC11" s="62"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="63"/>
+      <c r="S11" s="63"/>
+      <c r="T11" s="63"/>
+      <c r="U11" s="63"/>
+      <c r="V11" s="63"/>
+      <c r="W11" s="63"/>
+      <c r="X11" s="63"/>
+      <c r="Y11" s="63"/>
+      <c r="Z11" s="63"/>
+      <c r="AA11" s="63"/>
+      <c r="AB11" s="63"/>
+      <c r="AC11" s="63"/>
     </row>
     <row r="12" spans="1:29">
-      <c r="A12" s="62"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="62"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="62"/>
-      <c r="S12" s="62"/>
-      <c r="T12" s="62"/>
-      <c r="U12" s="62"/>
-      <c r="V12" s="62"/>
-      <c r="W12" s="62"/>
-      <c r="X12" s="62"/>
-      <c r="Y12" s="62"/>
-      <c r="Z12" s="62"/>
-      <c r="AA12" s="62"/>
-      <c r="AB12" s="62"/>
-      <c r="AC12" s="62"/>
+      <c r="A12" s="63"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="63"/>
+      <c r="R12" s="63"/>
+      <c r="S12" s="63"/>
+      <c r="T12" s="63"/>
+      <c r="U12" s="63"/>
+      <c r="V12" s="63"/>
+      <c r="W12" s="63"/>
+      <c r="X12" s="63"/>
+      <c r="Y12" s="63"/>
+      <c r="Z12" s="63"/>
+      <c r="AA12" s="63"/>
+      <c r="AB12" s="63"/>
+      <c r="AC12" s="63"/>
     </row>
     <row r="13" spans="1:29">
-      <c r="A13" s="62"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="62"/>
-      <c r="O13" s="62"/>
-      <c r="P13" s="62"/>
-      <c r="Q13" s="62"/>
-      <c r="R13" s="62"/>
-      <c r="S13" s="62"/>
-      <c r="T13" s="62"/>
-      <c r="U13" s="62"/>
-      <c r="V13" s="62"/>
-      <c r="W13" s="62"/>
-      <c r="X13" s="62"/>
-      <c r="Y13" s="62"/>
-      <c r="Z13" s="62"/>
-      <c r="AA13" s="62"/>
-      <c r="AB13" s="62"/>
-      <c r="AC13" s="62"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="63"/>
+      <c r="Q13" s="63"/>
+      <c r="R13" s="63"/>
+      <c r="S13" s="63"/>
+      <c r="T13" s="63"/>
+      <c r="U13" s="63"/>
+      <c r="V13" s="63"/>
+      <c r="W13" s="63"/>
+      <c r="X13" s="63"/>
+      <c r="Y13" s="63"/>
+      <c r="Z13" s="63"/>
+      <c r="AA13" s="63"/>
+      <c r="AB13" s="63"/>
+      <c r="AC13" s="63"/>
     </row>
     <row r="14" spans="1:29">
-      <c r="A14" s="62"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="62"/>
-      <c r="R14" s="62"/>
-      <c r="S14" s="62"/>
-      <c r="T14" s="62"/>
-      <c r="U14" s="62"/>
-      <c r="V14" s="62"/>
-      <c r="W14" s="62"/>
-      <c r="X14" s="62"/>
-      <c r="Y14" s="62"/>
-      <c r="Z14" s="62"/>
-      <c r="AA14" s="62"/>
-      <c r="AB14" s="62"/>
-      <c r="AC14" s="62"/>
+      <c r="A14" s="63"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="63"/>
+      <c r="S14" s="63"/>
+      <c r="T14" s="63"/>
+      <c r="U14" s="63"/>
+      <c r="V14" s="63"/>
+      <c r="W14" s="63"/>
+      <c r="X14" s="63"/>
+      <c r="Y14" s="63"/>
+      <c r="Z14" s="63"/>
+      <c r="AA14" s="63"/>
+      <c r="AB14" s="63"/>
+      <c r="AC14" s="63"/>
     </row>
     <row r="15" spans="1:29">
-      <c r="A15" s="62"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="62"/>
-      <c r="N15" s="62"/>
-      <c r="O15" s="62"/>
-      <c r="P15" s="62"/>
-      <c r="Q15" s="62"/>
-      <c r="R15" s="62"/>
-      <c r="S15" s="62"/>
-      <c r="T15" s="62"/>
-      <c r="U15" s="62"/>
-      <c r="V15" s="62"/>
-      <c r="W15" s="62"/>
-      <c r="X15" s="62"/>
-      <c r="Y15" s="62"/>
-      <c r="Z15" s="62"/>
-      <c r="AA15" s="62"/>
-      <c r="AB15" s="62"/>
-      <c r="AC15" s="62"/>
+      <c r="A15" s="63"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="63"/>
+      <c r="R15" s="63"/>
+      <c r="S15" s="63"/>
+      <c r="T15" s="63"/>
+      <c r="U15" s="63"/>
+      <c r="V15" s="63"/>
+      <c r="W15" s="63"/>
+      <c r="X15" s="63"/>
+      <c r="Y15" s="63"/>
+      <c r="Z15" s="63"/>
+      <c r="AA15" s="63"/>
+      <c r="AB15" s="63"/>
+      <c r="AC15" s="63"/>
     </row>
     <row r="16" spans="1:29">
-      <c r="A16" s="62"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="62"/>
-      <c r="P16" s="62"/>
-      <c r="Q16" s="62"/>
-      <c r="R16" s="62"/>
-      <c r="S16" s="62"/>
-      <c r="T16" s="62"/>
-      <c r="U16" s="62"/>
-      <c r="V16" s="62"/>
-      <c r="W16" s="62"/>
-      <c r="X16" s="62"/>
-      <c r="Y16" s="62"/>
-      <c r="Z16" s="62"/>
-      <c r="AA16" s="62"/>
-      <c r="AB16" s="62"/>
-      <c r="AC16" s="62"/>
+      <c r="A16" s="63"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="63"/>
+      <c r="S16" s="63"/>
+      <c r="T16" s="63"/>
+      <c r="U16" s="63"/>
+      <c r="V16" s="63"/>
+      <c r="W16" s="63"/>
+      <c r="X16" s="63"/>
+      <c r="Y16" s="63"/>
+      <c r="Z16" s="63"/>
+      <c r="AA16" s="63"/>
+      <c r="AB16" s="63"/>
+      <c r="AC16" s="63"/>
     </row>
     <row r="17"/>
     <row r="18"/>
@@ -6002,14 +6470,14 @@
       <c r="B2" s="3">
         <v>4.5</v>
       </c>
-      <c r="C2" s="62"/>
+      <c r="C2" s="63"/>
       <c r="D2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="63">
+      <c r="E2" s="64">
         <v>20</v>
       </c>
-      <c r="F2" s="62"/>
+      <c r="F2" s="63"/>
       <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
@@ -6022,7 +6490,7 @@
       <c r="J2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="62"/>
+      <c r="K2" s="63"/>
       <c r="L2" s="3" t="s">
         <v>25</v>
       </c>
@@ -6041,20 +6509,20 @@
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
-      <c r="V2" s="62"/>
+      <c r="V2" s="63"/>
       <c r="W2" s="5"/>
-      <c r="X2" s="62"/>
-      <c r="Y2" s="62" t="s">
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="62">
+      <c r="Z2" s="63">
         <v>0</v>
       </c>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="62" t="s">
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="AC2" s="62">
+      <c r="AC2" s="63">
         <v>73</v>
       </c>
     </row>
@@ -6065,14 +6533,14 @@
       <c r="B3" s="3">
         <v>1.5</v>
       </c>
-      <c r="C3" s="62"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E3" s="5">
         <v>8.5</v>
       </c>
-      <c r="F3" s="62"/>
+      <c r="F3" s="63"/>
       <c r="G3" s="5" t="s">
         <v>33</v>
       </c>
@@ -6085,7 +6553,7 @@
       <c r="J3" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="K3" s="62"/>
+      <c r="K3" s="63"/>
       <c r="L3" s="5" t="s">
         <v>33</v>
       </c>
@@ -6104,20 +6572,20 @@
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
-      <c r="V3" s="62"/>
+      <c r="V3" s="63"/>
       <c r="W3" s="5"/>
-      <c r="X3" s="62"/>
-      <c r="Y3" s="62" t="s">
+      <c r="X3" s="63"/>
+      <c r="Y3" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="Z3" s="62">
+      <c r="Z3" s="63">
         <v>7</v>
       </c>
-      <c r="AA3" s="62"/>
-      <c r="AB3" s="62" t="s">
+      <c r="AA3" s="63"/>
+      <c r="AB3" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="AC3" s="62">
+      <c r="AC3" s="63">
         <v>626</v>
       </c>
     </row>
@@ -6128,14 +6596,14 @@
       <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="62"/>
+      <c r="C4" s="63"/>
       <c r="D4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="61">
+      <c r="E4" s="65">
         <v>2.5</v>
       </c>
-      <c r="F4" s="62"/>
+      <c r="F4" s="63"/>
       <c r="G4" s="5" t="s">
         <v>41</v>
       </c>
@@ -6148,7 +6616,7 @@
       <c r="J4" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="K4" s="62"/>
+      <c r="K4" s="63"/>
       <c r="L4" s="5" t="s">
         <v>41</v>
       </c>
@@ -6162,25 +6630,25 @@
         <v>42</v>
       </c>
       <c r="P4" s="5"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="62"/>
-      <c r="W4" s="62"/>
-      <c r="X4" s="62"/>
-      <c r="Y4" s="62" t="s">
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="63"/>
+      <c r="U4" s="63"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="63"/>
+      <c r="X4" s="63"/>
+      <c r="Y4" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="Z4" s="62">
+      <c r="Z4" s="63">
         <v>0</v>
       </c>
-      <c r="AA4" s="62"/>
-      <c r="AB4" s="62" t="s">
+      <c r="AA4" s="63"/>
+      <c r="AB4" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="AC4" s="62">
+      <c r="AC4" s="63">
         <v>73</v>
       </c>
     </row>
@@ -6191,10 +6659,10 @@
       <c r="B5" s="3">
         <v>2.5</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="62"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="63"/>
       <c r="G5" s="5" t="s">
         <v>46</v>
       </c>
@@ -6207,7 +6675,7 @@
       <c r="J5" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="K5" s="62"/>
+      <c r="K5" s="63"/>
       <c r="L5" s="5" t="s">
         <v>46</v>
       </c>
@@ -6221,25 +6689,25 @@
         <v>65</v>
       </c>
       <c r="P5" s="5"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="62"/>
-      <c r="T5" s="62"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
-      <c r="W5" s="62"/>
-      <c r="X5" s="62"/>
-      <c r="Y5" s="62" t="s">
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="63"/>
+      <c r="T5" s="63"/>
+      <c r="U5" s="63"/>
+      <c r="V5" s="63"/>
+      <c r="W5" s="63"/>
+      <c r="X5" s="63"/>
+      <c r="Y5" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="Z5" s="62">
+      <c r="Z5" s="63">
         <v>20</v>
       </c>
-      <c r="AA5" s="62"/>
-      <c r="AB5" s="62" t="s">
+      <c r="AA5" s="63"/>
+      <c r="AB5" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="AC5" s="62">
+      <c r="AC5" s="63">
         <v>854</v>
       </c>
     </row>
@@ -6250,10 +6718,10 @@
       <c r="B6" s="3">
         <v>3.5</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="62"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="63"/>
       <c r="G6" s="5" t="s">
         <v>67</v>
       </c>
@@ -6266,7 +6734,7 @@
       <c r="J6" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="K6" s="62"/>
+      <c r="K6" s="63"/>
       <c r="L6" s="5" t="s">
         <v>70</v>
       </c>
@@ -6280,25 +6748,25 @@
         <v>72</v>
       </c>
       <c r="P6" s="5"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="62"/>
-      <c r="T6" s="62"/>
-      <c r="U6" s="62"/>
-      <c r="V6" s="62"/>
-      <c r="W6" s="62"/>
-      <c r="X6" s="62"/>
-      <c r="Y6" s="62" t="s">
+      <c r="Q6" s="63"/>
+      <c r="R6" s="63"/>
+      <c r="S6" s="63"/>
+      <c r="T6" s="63"/>
+      <c r="U6" s="63"/>
+      <c r="V6" s="63"/>
+      <c r="W6" s="63"/>
+      <c r="X6" s="63"/>
+      <c r="Y6" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="Z6" s="62">
+      <c r="Z6" s="63">
         <v>0</v>
       </c>
-      <c r="AA6" s="62"/>
-      <c r="AB6" s="62" t="s">
+      <c r="AA6" s="63"/>
+      <c r="AB6" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="AC6" s="62">
+      <c r="AC6" s="63">
         <v>41</v>
       </c>
     </row>
@@ -6309,32 +6777,32 @@
       <c r="B7" s="3">
         <v>3.5</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="62"/>
-      <c r="R7" s="62"/>
-      <c r="S7" s="62"/>
-      <c r="T7" s="62"/>
-      <c r="U7" s="62"/>
-      <c r="V7" s="62"/>
-      <c r="W7" s="62"/>
-      <c r="X7" s="62"/>
-      <c r="Y7" s="62"/>
-      <c r="Z7" s="62"/>
-      <c r="AA7" s="62"/>
-      <c r="AB7" s="62" t="s">
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="63"/>
+      <c r="Q7" s="63"/>
+      <c r="R7" s="63"/>
+      <c r="S7" s="63"/>
+      <c r="T7" s="63"/>
+      <c r="U7" s="63"/>
+      <c r="V7" s="63"/>
+      <c r="W7" s="63"/>
+      <c r="X7" s="63"/>
+      <c r="Y7" s="63"/>
+      <c r="Z7" s="63"/>
+      <c r="AA7" s="63"/>
+      <c r="AB7" s="63" t="s">
         <v>60</v>
       </c>
       <c r="AC7" s="49">
@@ -6349,33 +6817,33 @@
       <c r="B8" s="3">
         <v>5.5</v>
       </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="62"/>
-      <c r="S8" s="62"/>
-      <c r="T8" s="62"/>
-      <c r="U8" s="62"/>
-      <c r="V8" s="62"/>
-      <c r="W8" s="62"/>
-      <c r="X8" s="62"/>
-      <c r="Y8" s="62"/>
-      <c r="Z8" s="62"/>
-      <c r="AA8" s="62"/>
-      <c r="AB8" s="62"/>
-      <c r="AC8" s="62"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="63"/>
+      <c r="R8" s="63"/>
+      <c r="S8" s="63"/>
+      <c r="T8" s="63"/>
+      <c r="U8" s="63"/>
+      <c r="V8" s="63"/>
+      <c r="W8" s="63"/>
+      <c r="X8" s="63"/>
+      <c r="Y8" s="63"/>
+      <c r="Z8" s="63"/>
+      <c r="AA8" s="63"/>
+      <c r="AB8" s="63"/>
+      <c r="AC8" s="63"/>
     </row>
     <row r="9" spans="1:29" ht="45.75">
       <c r="A9" s="3" t="s">
@@ -6384,33 +6852,33 @@
       <c r="B9" s="3">
         <v>1.5</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="62"/>
-      <c r="O9" s="62"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="62"/>
-      <c r="S9" s="62"/>
-      <c r="T9" s="62"/>
-      <c r="U9" s="62"/>
-      <c r="V9" s="62"/>
-      <c r="W9" s="62"/>
-      <c r="X9" s="62"/>
-      <c r="Y9" s="62"/>
-      <c r="Z9" s="62"/>
-      <c r="AA9" s="62"/>
-      <c r="AB9" s="62"/>
-      <c r="AC9" s="62"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="63"/>
+      <c r="Q9" s="63"/>
+      <c r="R9" s="63"/>
+      <c r="S9" s="63"/>
+      <c r="T9" s="63"/>
+      <c r="U9" s="63"/>
+      <c r="V9" s="63"/>
+      <c r="W9" s="63"/>
+      <c r="X9" s="63"/>
+      <c r="Y9" s="63"/>
+      <c r="Z9" s="63"/>
+      <c r="AA9" s="63"/>
+      <c r="AB9" s="63"/>
+      <c r="AC9" s="63"/>
     </row>
     <row r="10" spans="1:29" ht="45.75">
       <c r="A10" s="3" t="s">
@@ -6419,33 +6887,33 @@
       <c r="B10" s="3">
         <v>6.5</v>
       </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="62"/>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="62"/>
-      <c r="S10" s="62"/>
-      <c r="T10" s="62"/>
-      <c r="U10" s="62"/>
-      <c r="V10" s="62"/>
-      <c r="W10" s="62"/>
-      <c r="X10" s="62"/>
-      <c r="Y10" s="62"/>
-      <c r="Z10" s="62"/>
-      <c r="AA10" s="62"/>
-      <c r="AB10" s="62"/>
-      <c r="AC10" s="62"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="63"/>
+      <c r="R10" s="63"/>
+      <c r="S10" s="63"/>
+      <c r="T10" s="63"/>
+      <c r="U10" s="63"/>
+      <c r="V10" s="63"/>
+      <c r="W10" s="63"/>
+      <c r="X10" s="63"/>
+      <c r="Y10" s="63"/>
+      <c r="Z10" s="63"/>
+      <c r="AA10" s="63"/>
+      <c r="AB10" s="63"/>
+      <c r="AC10" s="63"/>
     </row>
     <row r="11" spans="1:29" ht="45.75">
       <c r="A11" s="3" t="s">
@@ -6454,188 +6922,188 @@
       <c r="B11" s="3">
         <v>1</v>
       </c>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="62"/>
-      <c r="O11" s="62"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="62"/>
-      <c r="R11" s="62"/>
-      <c r="S11" s="62"/>
-      <c r="T11" s="62"/>
-      <c r="U11" s="62"/>
-      <c r="V11" s="62"/>
-      <c r="W11" s="62"/>
-      <c r="X11" s="62"/>
-      <c r="Y11" s="62"/>
-      <c r="Z11" s="62"/>
-      <c r="AA11" s="62"/>
-      <c r="AB11" s="62"/>
-      <c r="AC11" s="62"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="63"/>
+      <c r="S11" s="63"/>
+      <c r="T11" s="63"/>
+      <c r="U11" s="63"/>
+      <c r="V11" s="63"/>
+      <c r="W11" s="63"/>
+      <c r="X11" s="63"/>
+      <c r="Y11" s="63"/>
+      <c r="Z11" s="63"/>
+      <c r="AA11" s="63"/>
+      <c r="AB11" s="63"/>
+      <c r="AC11" s="63"/>
     </row>
     <row r="12" spans="1:29">
-      <c r="A12" s="62"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="62"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="62"/>
-      <c r="S12" s="62"/>
-      <c r="T12" s="62"/>
-      <c r="U12" s="62"/>
-      <c r="V12" s="62"/>
-      <c r="W12" s="62"/>
-      <c r="X12" s="62"/>
-      <c r="Y12" s="62"/>
-      <c r="Z12" s="62"/>
-      <c r="AA12" s="62"/>
-      <c r="AB12" s="62"/>
-      <c r="AC12" s="62"/>
+      <c r="A12" s="63"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="63"/>
+      <c r="R12" s="63"/>
+      <c r="S12" s="63"/>
+      <c r="T12" s="63"/>
+      <c r="U12" s="63"/>
+      <c r="V12" s="63"/>
+      <c r="W12" s="63"/>
+      <c r="X12" s="63"/>
+      <c r="Y12" s="63"/>
+      <c r="Z12" s="63"/>
+      <c r="AA12" s="63"/>
+      <c r="AB12" s="63"/>
+      <c r="AC12" s="63"/>
     </row>
     <row r="13" spans="1:29">
-      <c r="A13" s="62"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="62"/>
-      <c r="O13" s="62"/>
-      <c r="P13" s="62"/>
-      <c r="Q13" s="62"/>
-      <c r="R13" s="62"/>
-      <c r="S13" s="62"/>
-      <c r="T13" s="62"/>
-      <c r="U13" s="62"/>
-      <c r="V13" s="62"/>
-      <c r="W13" s="62"/>
-      <c r="X13" s="62"/>
-      <c r="Y13" s="62"/>
-      <c r="Z13" s="62"/>
-      <c r="AA13" s="62"/>
-      <c r="AB13" s="62"/>
-      <c r="AC13" s="62"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="63"/>
+      <c r="Q13" s="63"/>
+      <c r="R13" s="63"/>
+      <c r="S13" s="63"/>
+      <c r="T13" s="63"/>
+      <c r="U13" s="63"/>
+      <c r="V13" s="63"/>
+      <c r="W13" s="63"/>
+      <c r="X13" s="63"/>
+      <c r="Y13" s="63"/>
+      <c r="Z13" s="63"/>
+      <c r="AA13" s="63"/>
+      <c r="AB13" s="63"/>
+      <c r="AC13" s="63"/>
     </row>
     <row r="14" spans="1:29">
-      <c r="A14" s="62"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="62"/>
-      <c r="R14" s="62"/>
-      <c r="S14" s="62"/>
-      <c r="T14" s="62"/>
-      <c r="U14" s="62"/>
-      <c r="V14" s="62"/>
-      <c r="W14" s="62"/>
-      <c r="X14" s="62"/>
-      <c r="Y14" s="62"/>
-      <c r="Z14" s="62"/>
-      <c r="AA14" s="62"/>
-      <c r="AB14" s="62"/>
-      <c r="AC14" s="62"/>
+      <c r="A14" s="63"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="63"/>
+      <c r="S14" s="63"/>
+      <c r="T14" s="63"/>
+      <c r="U14" s="63"/>
+      <c r="V14" s="63"/>
+      <c r="W14" s="63"/>
+      <c r="X14" s="63"/>
+      <c r="Y14" s="63"/>
+      <c r="Z14" s="63"/>
+      <c r="AA14" s="63"/>
+      <c r="AB14" s="63"/>
+      <c r="AC14" s="63"/>
     </row>
     <row r="15" spans="1:29">
-      <c r="A15" s="62"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="62"/>
-      <c r="N15" s="62"/>
-      <c r="O15" s="62"/>
-      <c r="P15" s="62"/>
-      <c r="Q15" s="62"/>
-      <c r="R15" s="62"/>
-      <c r="S15" s="62"/>
-      <c r="T15" s="62"/>
-      <c r="U15" s="62"/>
-      <c r="V15" s="62"/>
-      <c r="W15" s="62"/>
-      <c r="X15" s="62"/>
-      <c r="Y15" s="62"/>
-      <c r="Z15" s="62"/>
-      <c r="AA15" s="62"/>
-      <c r="AB15" s="62"/>
-      <c r="AC15" s="62"/>
+      <c r="A15" s="63"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="63"/>
+      <c r="R15" s="63"/>
+      <c r="S15" s="63"/>
+      <c r="T15" s="63"/>
+      <c r="U15" s="63"/>
+      <c r="V15" s="63"/>
+      <c r="W15" s="63"/>
+      <c r="X15" s="63"/>
+      <c r="Y15" s="63"/>
+      <c r="Z15" s="63"/>
+      <c r="AA15" s="63"/>
+      <c r="AB15" s="63"/>
+      <c r="AC15" s="63"/>
     </row>
     <row r="16" spans="1:29">
-      <c r="A16" s="62"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="62"/>
-      <c r="P16" s="62"/>
-      <c r="Q16" s="62"/>
-      <c r="R16" s="62"/>
-      <c r="S16" s="62"/>
-      <c r="T16" s="62"/>
-      <c r="U16" s="62"/>
-      <c r="V16" s="62"/>
-      <c r="W16" s="62"/>
-      <c r="X16" s="62"/>
-      <c r="Y16" s="62"/>
-      <c r="Z16" s="62"/>
-      <c r="AA16" s="62"/>
-      <c r="AB16" s="62"/>
-      <c r="AC16" s="62"/>
+      <c r="A16" s="63"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="63"/>
+      <c r="S16" s="63"/>
+      <c r="T16" s="63"/>
+      <c r="U16" s="63"/>
+      <c r="V16" s="63"/>
+      <c r="W16" s="63"/>
+      <c r="X16" s="63"/>
+      <c r="Y16" s="63"/>
+      <c r="Z16" s="63"/>
+      <c r="AA16" s="63"/>
+      <c r="AB16" s="63"/>
+      <c r="AC16" s="63"/>
     </row>
     <row r="17"/>
     <row r="18"/>
@@ -6760,14 +7228,14 @@
       <c r="B2" s="3">
         <v>4.5</v>
       </c>
-      <c r="C2" s="62"/>
+      <c r="C2" s="63"/>
       <c r="D2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="63">
+      <c r="E2" s="64">
         <v>20</v>
       </c>
-      <c r="F2" s="62"/>
+      <c r="F2" s="63"/>
       <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
@@ -6780,7 +7248,7 @@
       <c r="J2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="62"/>
+      <c r="K2" s="63"/>
       <c r="L2" s="3" t="s">
         <v>25</v>
       </c>
@@ -6799,20 +7267,20 @@
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
-      <c r="V2" s="62"/>
+      <c r="V2" s="63"/>
       <c r="W2" s="5"/>
-      <c r="X2" s="62"/>
-      <c r="Y2" s="62" t="s">
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="62">
+      <c r="Z2" s="63">
         <v>0</v>
       </c>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="62" t="s">
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="AC2" s="62">
+      <c r="AC2" s="63">
         <v>73</v>
       </c>
     </row>
@@ -6823,14 +7291,14 @@
       <c r="B3" s="3">
         <v>1.5</v>
       </c>
-      <c r="C3" s="62"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E3" s="5">
         <v>8.5</v>
       </c>
-      <c r="F3" s="62"/>
+      <c r="F3" s="63"/>
       <c r="G3" s="5" t="s">
         <v>33</v>
       </c>
@@ -6843,7 +7311,7 @@
       <c r="J3" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="K3" s="62"/>
+      <c r="K3" s="63"/>
       <c r="L3" s="5" t="s">
         <v>33</v>
       </c>
@@ -6862,20 +7330,20 @@
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
-      <c r="V3" s="62"/>
+      <c r="V3" s="63"/>
       <c r="W3" s="5"/>
-      <c r="X3" s="62"/>
-      <c r="Y3" s="62" t="s">
+      <c r="X3" s="63"/>
+      <c r="Y3" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="Z3" s="62">
+      <c r="Z3" s="63">
         <v>6</v>
       </c>
-      <c r="AA3" s="62"/>
-      <c r="AB3" s="62" t="s">
+      <c r="AA3" s="63"/>
+      <c r="AB3" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="AC3" s="62">
+      <c r="AC3" s="63">
         <v>632</v>
       </c>
     </row>
@@ -6886,14 +7354,14 @@
       <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="62"/>
+      <c r="C4" s="63"/>
       <c r="D4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="61">
+      <c r="E4" s="65">
         <v>2.5</v>
       </c>
-      <c r="F4" s="62"/>
+      <c r="F4" s="63"/>
       <c r="G4" s="5" t="s">
         <v>41</v>
       </c>
@@ -6906,7 +7374,7 @@
       <c r="J4" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="K4" s="62"/>
+      <c r="K4" s="63"/>
       <c r="L4" s="5" t="s">
         <v>41</v>
       </c>
@@ -6920,25 +7388,25 @@
         <v>42</v>
       </c>
       <c r="P4" s="5"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="62"/>
-      <c r="W4" s="62"/>
-      <c r="X4" s="62"/>
-      <c r="Y4" s="62" t="s">
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="63"/>
+      <c r="U4" s="63"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="63"/>
+      <c r="X4" s="63"/>
+      <c r="Y4" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="Z4" s="62">
+      <c r="Z4" s="63">
         <v>0</v>
       </c>
-      <c r="AA4" s="62"/>
-      <c r="AB4" s="62" t="s">
+      <c r="AA4" s="63"/>
+      <c r="AB4" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="AC4" s="62">
+      <c r="AC4" s="63">
         <v>73</v>
       </c>
     </row>
@@ -6949,10 +7417,10 @@
       <c r="B5" s="3">
         <v>2.5</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="62"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="63"/>
       <c r="G5" s="5" t="s">
         <v>46</v>
       </c>
@@ -6965,7 +7433,7 @@
       <c r="J5" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="K5" s="62"/>
+      <c r="K5" s="63"/>
       <c r="L5" s="5" t="s">
         <v>46</v>
       </c>
@@ -6979,25 +7447,25 @@
         <v>65</v>
       </c>
       <c r="P5" s="5"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="62"/>
-      <c r="T5" s="62"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
-      <c r="W5" s="62"/>
-      <c r="X5" s="62"/>
-      <c r="Y5" s="62" t="s">
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="63"/>
+      <c r="T5" s="63"/>
+      <c r="U5" s="63"/>
+      <c r="V5" s="63"/>
+      <c r="W5" s="63"/>
+      <c r="X5" s="63"/>
+      <c r="Y5" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="Z5" s="62">
+      <c r="Z5" s="63">
         <v>18</v>
       </c>
-      <c r="AA5" s="62"/>
-      <c r="AB5" s="62" t="s">
+      <c r="AA5" s="63"/>
+      <c r="AB5" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="AC5" s="62">
+      <c r="AC5" s="63">
         <v>872</v>
       </c>
     </row>
@@ -7008,10 +7476,10 @@
       <c r="B6" s="3">
         <v>3.5</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="62"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="63"/>
       <c r="G6" s="5" t="s">
         <v>67</v>
       </c>
@@ -7024,7 +7492,7 @@
       <c r="J6" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="K6" s="62"/>
+      <c r="K6" s="63"/>
       <c r="L6" s="5" t="s">
         <v>70</v>
       </c>
@@ -7038,25 +7506,25 @@
         <v>72</v>
       </c>
       <c r="P6" s="5"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="62"/>
-      <c r="T6" s="62"/>
-      <c r="U6" s="62"/>
-      <c r="V6" s="62"/>
-      <c r="W6" s="62"/>
-      <c r="X6" s="62"/>
-      <c r="Y6" s="62" t="s">
+      <c r="Q6" s="63"/>
+      <c r="R6" s="63"/>
+      <c r="S6" s="63"/>
+      <c r="T6" s="63"/>
+      <c r="U6" s="63"/>
+      <c r="V6" s="63"/>
+      <c r="W6" s="63"/>
+      <c r="X6" s="63"/>
+      <c r="Y6" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="Z6" s="62">
+      <c r="Z6" s="63">
         <v>0</v>
       </c>
-      <c r="AA6" s="62"/>
-      <c r="AB6" s="62" t="s">
+      <c r="AA6" s="63"/>
+      <c r="AB6" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="AC6" s="62">
+      <c r="AC6" s="63">
         <v>41</v>
       </c>
     </row>
@@ -7067,32 +7535,32 @@
       <c r="B7" s="3">
         <v>3.5</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="62"/>
-      <c r="R7" s="62"/>
-      <c r="S7" s="62"/>
-      <c r="T7" s="62"/>
-      <c r="U7" s="62"/>
-      <c r="V7" s="62"/>
-      <c r="W7" s="62"/>
-      <c r="X7" s="62"/>
-      <c r="Y7" s="62"/>
-      <c r="Z7" s="62"/>
-      <c r="AA7" s="62"/>
-      <c r="AB7" s="62" t="s">
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="63"/>
+      <c r="Q7" s="63"/>
+      <c r="R7" s="63"/>
+      <c r="S7" s="63"/>
+      <c r="T7" s="63"/>
+      <c r="U7" s="63"/>
+      <c r="V7" s="63"/>
+      <c r="W7" s="63"/>
+      <c r="X7" s="63"/>
+      <c r="Y7" s="63"/>
+      <c r="Z7" s="63"/>
+      <c r="AA7" s="63"/>
+      <c r="AB7" s="63" t="s">
         <v>60</v>
       </c>
       <c r="AC7" s="49">
@@ -7107,33 +7575,33 @@
       <c r="B8" s="3">
         <v>5.5</v>
       </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="62"/>
-      <c r="S8" s="62"/>
-      <c r="T8" s="62"/>
-      <c r="U8" s="62"/>
-      <c r="V8" s="62"/>
-      <c r="W8" s="62"/>
-      <c r="X8" s="62"/>
-      <c r="Y8" s="62"/>
-      <c r="Z8" s="62"/>
-      <c r="AA8" s="62"/>
-      <c r="AB8" s="62"/>
-      <c r="AC8" s="62"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="63"/>
+      <c r="R8" s="63"/>
+      <c r="S8" s="63"/>
+      <c r="T8" s="63"/>
+      <c r="U8" s="63"/>
+      <c r="V8" s="63"/>
+      <c r="W8" s="63"/>
+      <c r="X8" s="63"/>
+      <c r="Y8" s="63"/>
+      <c r="Z8" s="63"/>
+      <c r="AA8" s="63"/>
+      <c r="AB8" s="63"/>
+      <c r="AC8" s="63"/>
     </row>
     <row r="9" spans="1:29" ht="45.75">
       <c r="A9" s="3" t="s">
@@ -7142,33 +7610,33 @@
       <c r="B9" s="3">
         <v>1.5</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="62"/>
-      <c r="O9" s="62"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="62"/>
-      <c r="S9" s="62"/>
-      <c r="T9" s="62"/>
-      <c r="U9" s="62"/>
-      <c r="V9" s="62"/>
-      <c r="W9" s="62"/>
-      <c r="X9" s="62"/>
-      <c r="Y9" s="62"/>
-      <c r="Z9" s="62"/>
-      <c r="AA9" s="62"/>
-      <c r="AB9" s="62"/>
-      <c r="AC9" s="62"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="63"/>
+      <c r="Q9" s="63"/>
+      <c r="R9" s="63"/>
+      <c r="S9" s="63"/>
+      <c r="T9" s="63"/>
+      <c r="U9" s="63"/>
+      <c r="V9" s="63"/>
+      <c r="W9" s="63"/>
+      <c r="X9" s="63"/>
+      <c r="Y9" s="63"/>
+      <c r="Z9" s="63"/>
+      <c r="AA9" s="63"/>
+      <c r="AB9" s="63"/>
+      <c r="AC9" s="63"/>
     </row>
     <row r="10" spans="1:29" ht="45.75">
       <c r="A10" s="3" t="s">
@@ -7177,33 +7645,33 @@
       <c r="B10" s="3">
         <v>6.5</v>
       </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="62"/>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="62"/>
-      <c r="S10" s="62"/>
-      <c r="T10" s="62"/>
-      <c r="U10" s="62"/>
-      <c r="V10" s="62"/>
-      <c r="W10" s="62"/>
-      <c r="X10" s="62"/>
-      <c r="Y10" s="62"/>
-      <c r="Z10" s="62"/>
-      <c r="AA10" s="62"/>
-      <c r="AB10" s="62"/>
-      <c r="AC10" s="62"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="63"/>
+      <c r="R10" s="63"/>
+      <c r="S10" s="63"/>
+      <c r="T10" s="63"/>
+      <c r="U10" s="63"/>
+      <c r="V10" s="63"/>
+      <c r="W10" s="63"/>
+      <c r="X10" s="63"/>
+      <c r="Y10" s="63"/>
+      <c r="Z10" s="63"/>
+      <c r="AA10" s="63"/>
+      <c r="AB10" s="63"/>
+      <c r="AC10" s="63"/>
     </row>
     <row r="11" spans="1:29" ht="45.75">
       <c r="A11" s="3" t="s">
@@ -7212,188 +7680,188 @@
       <c r="B11" s="3">
         <v>1</v>
       </c>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="62"/>
-      <c r="O11" s="62"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="62"/>
-      <c r="R11" s="62"/>
-      <c r="S11" s="62"/>
-      <c r="T11" s="62"/>
-      <c r="U11" s="62"/>
-      <c r="V11" s="62"/>
-      <c r="W11" s="62"/>
-      <c r="X11" s="62"/>
-      <c r="Y11" s="62"/>
-      <c r="Z11" s="62"/>
-      <c r="AA11" s="62"/>
-      <c r="AB11" s="62"/>
-      <c r="AC11" s="62"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="63"/>
+      <c r="S11" s="63"/>
+      <c r="T11" s="63"/>
+      <c r="U11" s="63"/>
+      <c r="V11" s="63"/>
+      <c r="W11" s="63"/>
+      <c r="X11" s="63"/>
+      <c r="Y11" s="63"/>
+      <c r="Z11" s="63"/>
+      <c r="AA11" s="63"/>
+      <c r="AB11" s="63"/>
+      <c r="AC11" s="63"/>
     </row>
     <row r="12" spans="1:29">
-      <c r="A12" s="62"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="62"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="62"/>
-      <c r="S12" s="62"/>
-      <c r="T12" s="62"/>
-      <c r="U12" s="62"/>
-      <c r="V12" s="62"/>
-      <c r="W12" s="62"/>
-      <c r="X12" s="62"/>
-      <c r="Y12" s="62"/>
-      <c r="Z12" s="62"/>
-      <c r="AA12" s="62"/>
-      <c r="AB12" s="62"/>
-      <c r="AC12" s="62"/>
+      <c r="A12" s="63"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="63"/>
+      <c r="R12" s="63"/>
+      <c r="S12" s="63"/>
+      <c r="T12" s="63"/>
+      <c r="U12" s="63"/>
+      <c r="V12" s="63"/>
+      <c r="W12" s="63"/>
+      <c r="X12" s="63"/>
+      <c r="Y12" s="63"/>
+      <c r="Z12" s="63"/>
+      <c r="AA12" s="63"/>
+      <c r="AB12" s="63"/>
+      <c r="AC12" s="63"/>
     </row>
     <row r="13" spans="1:29">
-      <c r="A13" s="62"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="62"/>
-      <c r="O13" s="62"/>
-      <c r="P13" s="62"/>
-      <c r="Q13" s="62"/>
-      <c r="R13" s="62"/>
-      <c r="S13" s="62"/>
-      <c r="T13" s="62"/>
-      <c r="U13" s="62"/>
-      <c r="V13" s="62"/>
-      <c r="W13" s="62"/>
-      <c r="X13" s="62"/>
-      <c r="Y13" s="62"/>
-      <c r="Z13" s="62"/>
-      <c r="AA13" s="62"/>
-      <c r="AB13" s="62"/>
-      <c r="AC13" s="62"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="63"/>
+      <c r="Q13" s="63"/>
+      <c r="R13" s="63"/>
+      <c r="S13" s="63"/>
+      <c r="T13" s="63"/>
+      <c r="U13" s="63"/>
+      <c r="V13" s="63"/>
+      <c r="W13" s="63"/>
+      <c r="X13" s="63"/>
+      <c r="Y13" s="63"/>
+      <c r="Z13" s="63"/>
+      <c r="AA13" s="63"/>
+      <c r="AB13" s="63"/>
+      <c r="AC13" s="63"/>
     </row>
     <row r="14" spans="1:29">
-      <c r="A14" s="62"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="62"/>
-      <c r="R14" s="62"/>
-      <c r="S14" s="62"/>
-      <c r="T14" s="62"/>
-      <c r="U14" s="62"/>
-      <c r="V14" s="62"/>
-      <c r="W14" s="62"/>
-      <c r="X14" s="62"/>
-      <c r="Y14" s="62"/>
-      <c r="Z14" s="62"/>
-      <c r="AA14" s="62"/>
-      <c r="AB14" s="62"/>
-      <c r="AC14" s="62"/>
+      <c r="A14" s="63"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="63"/>
+      <c r="S14" s="63"/>
+      <c r="T14" s="63"/>
+      <c r="U14" s="63"/>
+      <c r="V14" s="63"/>
+      <c r="W14" s="63"/>
+      <c r="X14" s="63"/>
+      <c r="Y14" s="63"/>
+      <c r="Z14" s="63"/>
+      <c r="AA14" s="63"/>
+      <c r="AB14" s="63"/>
+      <c r="AC14" s="63"/>
     </row>
     <row r="15" spans="1:29">
-      <c r="A15" s="62"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="62"/>
-      <c r="N15" s="62"/>
-      <c r="O15" s="62"/>
-      <c r="P15" s="62"/>
-      <c r="Q15" s="62"/>
-      <c r="R15" s="62"/>
-      <c r="S15" s="62"/>
-      <c r="T15" s="62"/>
-      <c r="U15" s="62"/>
-      <c r="V15" s="62"/>
-      <c r="W15" s="62"/>
-      <c r="X15" s="62"/>
-      <c r="Y15" s="62"/>
-      <c r="Z15" s="62"/>
-      <c r="AA15" s="62"/>
-      <c r="AB15" s="62"/>
-      <c r="AC15" s="62"/>
+      <c r="A15" s="63"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="63"/>
+      <c r="R15" s="63"/>
+      <c r="S15" s="63"/>
+      <c r="T15" s="63"/>
+      <c r="U15" s="63"/>
+      <c r="V15" s="63"/>
+      <c r="W15" s="63"/>
+      <c r="X15" s="63"/>
+      <c r="Y15" s="63"/>
+      <c r="Z15" s="63"/>
+      <c r="AA15" s="63"/>
+      <c r="AB15" s="63"/>
+      <c r="AC15" s="63"/>
     </row>
     <row r="16" spans="1:29">
-      <c r="A16" s="62"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="62"/>
-      <c r="P16" s="62"/>
-      <c r="Q16" s="62"/>
-      <c r="R16" s="62"/>
-      <c r="S16" s="62"/>
-      <c r="T16" s="62"/>
-      <c r="U16" s="62"/>
-      <c r="V16" s="62"/>
-      <c r="W16" s="62"/>
-      <c r="X16" s="62"/>
-      <c r="Y16" s="62"/>
-      <c r="Z16" s="62"/>
-      <c r="AA16" s="62"/>
-      <c r="AB16" s="62"/>
-      <c r="AC16" s="62"/>
+      <c r="A16" s="63"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="63"/>
+      <c r="S16" s="63"/>
+      <c r="T16" s="63"/>
+      <c r="U16" s="63"/>
+      <c r="V16" s="63"/>
+      <c r="W16" s="63"/>
+      <c r="X16" s="63"/>
+      <c r="Y16" s="63"/>
+      <c r="Z16" s="63"/>
+      <c r="AA16" s="63"/>
+      <c r="AB16" s="63"/>
+      <c r="AC16" s="63"/>
     </row>
     <row r="17"/>
     <row r="18"/>
@@ -7518,14 +7986,14 @@
       <c r="B2" s="3">
         <v>4.5</v>
       </c>
-      <c r="C2" s="62"/>
+      <c r="C2" s="63"/>
       <c r="D2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="63">
+      <c r="E2" s="64">
         <v>20</v>
       </c>
-      <c r="F2" s="62"/>
+      <c r="F2" s="63"/>
       <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
@@ -7538,7 +8006,7 @@
       <c r="J2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="62"/>
+      <c r="K2" s="63"/>
       <c r="L2" s="3" t="s">
         <v>25</v>
       </c>
@@ -7557,20 +8025,20 @@
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
-      <c r="V2" s="62"/>
+      <c r="V2" s="63"/>
       <c r="W2" s="5"/>
-      <c r="X2" s="62"/>
-      <c r="Y2" s="62" t="s">
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="62">
+      <c r="Z2" s="63">
         <v>0</v>
       </c>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="62" t="s">
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="AC2" s="62">
+      <c r="AC2" s="63">
         <v>73</v>
       </c>
     </row>
@@ -7581,14 +8049,14 @@
       <c r="B3" s="3">
         <v>1.5</v>
       </c>
-      <c r="C3" s="62"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E3" s="5">
         <v>8.5</v>
       </c>
-      <c r="F3" s="62"/>
+      <c r="F3" s="63"/>
       <c r="G3" s="5" t="s">
         <v>33</v>
       </c>
@@ -7601,7 +8069,7 @@
       <c r="J3" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="K3" s="62"/>
+      <c r="K3" s="63"/>
       <c r="L3" s="5" t="s">
         <v>33</v>
       </c>
@@ -7620,20 +8088,20 @@
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
-      <c r="V3" s="62"/>
+      <c r="V3" s="63"/>
       <c r="W3" s="5"/>
-      <c r="X3" s="62"/>
-      <c r="Y3" s="62" t="s">
+      <c r="X3" s="63"/>
+      <c r="Y3" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="Z3" s="62">
+      <c r="Z3" s="63">
         <v>6</v>
       </c>
-      <c r="AA3" s="62"/>
-      <c r="AB3" s="62" t="s">
+      <c r="AA3" s="63"/>
+      <c r="AB3" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="AC3" s="62">
+      <c r="AC3" s="63">
         <v>638</v>
       </c>
     </row>
@@ -7644,14 +8112,14 @@
       <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="62"/>
+      <c r="C4" s="63"/>
       <c r="D4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="61">
+      <c r="E4" s="65">
         <v>2.5</v>
       </c>
-      <c r="F4" s="62"/>
+      <c r="F4" s="63"/>
       <c r="G4" s="5" t="s">
         <v>41</v>
       </c>
@@ -7664,7 +8132,7 @@
       <c r="J4" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="K4" s="62"/>
+      <c r="K4" s="63"/>
       <c r="L4" s="5" t="s">
         <v>41</v>
       </c>
@@ -7678,25 +8146,25 @@
         <v>42</v>
       </c>
       <c r="P4" s="5"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="62"/>
-      <c r="W4" s="62"/>
-      <c r="X4" s="62"/>
-      <c r="Y4" s="62" t="s">
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="63"/>
+      <c r="U4" s="63"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="63"/>
+      <c r="X4" s="63"/>
+      <c r="Y4" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="Z4" s="62">
+      <c r="Z4" s="63">
         <v>0</v>
       </c>
-      <c r="AA4" s="62"/>
-      <c r="AB4" s="62" t="s">
+      <c r="AA4" s="63"/>
+      <c r="AB4" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="AC4" s="62">
+      <c r="AC4" s="63">
         <v>73</v>
       </c>
     </row>
@@ -7707,10 +8175,10 @@
       <c r="B5" s="3">
         <v>2.5</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="62"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="63"/>
       <c r="G5" s="5" t="s">
         <v>46</v>
       </c>
@@ -7723,7 +8191,7 @@
       <c r="J5" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="K5" s="62"/>
+      <c r="K5" s="63"/>
       <c r="L5" s="5" t="s">
         <v>46</v>
       </c>
@@ -7737,25 +8205,25 @@
         <v>65</v>
       </c>
       <c r="P5" s="5"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="62"/>
-      <c r="T5" s="62"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
-      <c r="W5" s="62"/>
-      <c r="X5" s="62"/>
-      <c r="Y5" s="62" t="s">
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="63"/>
+      <c r="T5" s="63"/>
+      <c r="U5" s="63"/>
+      <c r="V5" s="63"/>
+      <c r="W5" s="63"/>
+      <c r="X5" s="63"/>
+      <c r="Y5" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="Z5" s="62">
+      <c r="Z5" s="63">
         <v>14</v>
       </c>
-      <c r="AA5" s="62"/>
-      <c r="AB5" s="62" t="s">
+      <c r="AA5" s="63"/>
+      <c r="AB5" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="AC5" s="62">
+      <c r="AC5" s="63">
         <v>886</v>
       </c>
     </row>
@@ -7766,10 +8234,10 @@
       <c r="B6" s="3">
         <v>3.5</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="62"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="63"/>
       <c r="G6" s="5" t="s">
         <v>67</v>
       </c>
@@ -7782,7 +8250,7 @@
       <c r="J6" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="K6" s="62"/>
+      <c r="K6" s="63"/>
       <c r="L6" s="5" t="s">
         <v>70</v>
       </c>
@@ -7796,25 +8264,25 @@
         <v>72</v>
       </c>
       <c r="P6" s="5"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="62"/>
-      <c r="T6" s="62"/>
-      <c r="U6" s="62"/>
-      <c r="V6" s="62"/>
-      <c r="W6" s="62"/>
-      <c r="X6" s="62"/>
-      <c r="Y6" s="62" t="s">
+      <c r="Q6" s="63"/>
+      <c r="R6" s="63"/>
+      <c r="S6" s="63"/>
+      <c r="T6" s="63"/>
+      <c r="U6" s="63"/>
+      <c r="V6" s="63"/>
+      <c r="W6" s="63"/>
+      <c r="X6" s="63"/>
+      <c r="Y6" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="Z6" s="62">
+      <c r="Z6" s="63">
         <v>0</v>
       </c>
-      <c r="AA6" s="62"/>
-      <c r="AB6" s="62" t="s">
+      <c r="AA6" s="63"/>
+      <c r="AB6" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="AC6" s="62">
+      <c r="AC6" s="63">
         <v>41</v>
       </c>
     </row>
@@ -7825,32 +8293,32 @@
       <c r="B7" s="3">
         <v>3.5</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="62"/>
-      <c r="R7" s="62"/>
-      <c r="S7" s="62"/>
-      <c r="T7" s="62"/>
-      <c r="U7" s="62"/>
-      <c r="V7" s="62"/>
-      <c r="W7" s="62"/>
-      <c r="X7" s="62"/>
-      <c r="Y7" s="62"/>
-      <c r="Z7" s="62"/>
-      <c r="AA7" s="62"/>
-      <c r="AB7" s="62" t="s">
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="63"/>
+      <c r="Q7" s="63"/>
+      <c r="R7" s="63"/>
+      <c r="S7" s="63"/>
+      <c r="T7" s="63"/>
+      <c r="U7" s="63"/>
+      <c r="V7" s="63"/>
+      <c r="W7" s="63"/>
+      <c r="X7" s="63"/>
+      <c r="Y7" s="63"/>
+      <c r="Z7" s="63"/>
+      <c r="AA7" s="63"/>
+      <c r="AB7" s="63" t="s">
         <v>60</v>
       </c>
       <c r="AC7" s="49">
@@ -7865,33 +8333,33 @@
       <c r="B8" s="3">
         <v>5.5</v>
       </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="62"/>
-      <c r="S8" s="62"/>
-      <c r="T8" s="62"/>
-      <c r="U8" s="62"/>
-      <c r="V8" s="62"/>
-      <c r="W8" s="62"/>
-      <c r="X8" s="62"/>
-      <c r="Y8" s="62"/>
-      <c r="Z8" s="62"/>
-      <c r="AA8" s="62"/>
-      <c r="AB8" s="62"/>
-      <c r="AC8" s="62"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="63"/>
+      <c r="R8" s="63"/>
+      <c r="S8" s="63"/>
+      <c r="T8" s="63"/>
+      <c r="U8" s="63"/>
+      <c r="V8" s="63"/>
+      <c r="W8" s="63"/>
+      <c r="X8" s="63"/>
+      <c r="Y8" s="63"/>
+      <c r="Z8" s="63"/>
+      <c r="AA8" s="63"/>
+      <c r="AB8" s="63"/>
+      <c r="AC8" s="63"/>
     </row>
     <row r="9" spans="1:29" ht="45.75">
       <c r="A9" s="3" t="s">
@@ -7900,33 +8368,33 @@
       <c r="B9" s="3">
         <v>1.5</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="62"/>
-      <c r="O9" s="62"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="62"/>
-      <c r="S9" s="62"/>
-      <c r="T9" s="62"/>
-      <c r="U9" s="62"/>
-      <c r="V9" s="62"/>
-      <c r="W9" s="62"/>
-      <c r="X9" s="62"/>
-      <c r="Y9" s="62"/>
-      <c r="Z9" s="62"/>
-      <c r="AA9" s="62"/>
-      <c r="AB9" s="62"/>
-      <c r="AC9" s="62"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="63"/>
+      <c r="Q9" s="63"/>
+      <c r="R9" s="63"/>
+      <c r="S9" s="63"/>
+      <c r="T9" s="63"/>
+      <c r="U9" s="63"/>
+      <c r="V9" s="63"/>
+      <c r="W9" s="63"/>
+      <c r="X9" s="63"/>
+      <c r="Y9" s="63"/>
+      <c r="Z9" s="63"/>
+      <c r="AA9" s="63"/>
+      <c r="AB9" s="63"/>
+      <c r="AC9" s="63"/>
     </row>
     <row r="10" spans="1:29" ht="45.75">
       <c r="A10" s="3" t="s">
@@ -7935,33 +8403,33 @@
       <c r="B10" s="3">
         <v>6.5</v>
       </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="62"/>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="62"/>
-      <c r="S10" s="62"/>
-      <c r="T10" s="62"/>
-      <c r="U10" s="62"/>
-      <c r="V10" s="62"/>
-      <c r="W10" s="62"/>
-      <c r="X10" s="62"/>
-      <c r="Y10" s="62"/>
-      <c r="Z10" s="62"/>
-      <c r="AA10" s="62"/>
-      <c r="AB10" s="62"/>
-      <c r="AC10" s="62"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="63"/>
+      <c r="R10" s="63"/>
+      <c r="S10" s="63"/>
+      <c r="T10" s="63"/>
+      <c r="U10" s="63"/>
+      <c r="V10" s="63"/>
+      <c r="W10" s="63"/>
+      <c r="X10" s="63"/>
+      <c r="Y10" s="63"/>
+      <c r="Z10" s="63"/>
+      <c r="AA10" s="63"/>
+      <c r="AB10" s="63"/>
+      <c r="AC10" s="63"/>
     </row>
     <row r="11" spans="1:29" ht="45.75">
       <c r="A11" s="3" t="s">
@@ -7970,188 +8438,188 @@
       <c r="B11" s="3">
         <v>1</v>
       </c>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="62"/>
-      <c r="O11" s="62"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="62"/>
-      <c r="R11" s="62"/>
-      <c r="S11" s="62"/>
-      <c r="T11" s="62"/>
-      <c r="U11" s="62"/>
-      <c r="V11" s="62"/>
-      <c r="W11" s="62"/>
-      <c r="X11" s="62"/>
-      <c r="Y11" s="62"/>
-      <c r="Z11" s="62"/>
-      <c r="AA11" s="62"/>
-      <c r="AB11" s="62"/>
-      <c r="AC11" s="62"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="63"/>
+      <c r="S11" s="63"/>
+      <c r="T11" s="63"/>
+      <c r="U11" s="63"/>
+      <c r="V11" s="63"/>
+      <c r="W11" s="63"/>
+      <c r="X11" s="63"/>
+      <c r="Y11" s="63"/>
+      <c r="Z11" s="63"/>
+      <c r="AA11" s="63"/>
+      <c r="AB11" s="63"/>
+      <c r="AC11" s="63"/>
     </row>
     <row r="12" spans="1:29">
-      <c r="A12" s="62"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="62"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="62"/>
-      <c r="S12" s="62"/>
-      <c r="T12" s="62"/>
-      <c r="U12" s="62"/>
-      <c r="V12" s="62"/>
-      <c r="W12" s="62"/>
-      <c r="X12" s="62"/>
-      <c r="Y12" s="62"/>
-      <c r="Z12" s="62"/>
-      <c r="AA12" s="62"/>
-      <c r="AB12" s="62"/>
-      <c r="AC12" s="62"/>
+      <c r="A12" s="63"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="63"/>
+      <c r="R12" s="63"/>
+      <c r="S12" s="63"/>
+      <c r="T12" s="63"/>
+      <c r="U12" s="63"/>
+      <c r="V12" s="63"/>
+      <c r="W12" s="63"/>
+      <c r="X12" s="63"/>
+      <c r="Y12" s="63"/>
+      <c r="Z12" s="63"/>
+      <c r="AA12" s="63"/>
+      <c r="AB12" s="63"/>
+      <c r="AC12" s="63"/>
     </row>
     <row r="13" spans="1:29">
-      <c r="A13" s="62"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="62"/>
-      <c r="O13" s="62"/>
-      <c r="P13" s="62"/>
-      <c r="Q13" s="62"/>
-      <c r="R13" s="62"/>
-      <c r="S13" s="62"/>
-      <c r="T13" s="62"/>
-      <c r="U13" s="62"/>
-      <c r="V13" s="62"/>
-      <c r="W13" s="62"/>
-      <c r="X13" s="62"/>
-      <c r="Y13" s="62"/>
-      <c r="Z13" s="62"/>
-      <c r="AA13" s="62"/>
-      <c r="AB13" s="62"/>
-      <c r="AC13" s="62"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="63"/>
+      <c r="Q13" s="63"/>
+      <c r="R13" s="63"/>
+      <c r="S13" s="63"/>
+      <c r="T13" s="63"/>
+      <c r="U13" s="63"/>
+      <c r="V13" s="63"/>
+      <c r="W13" s="63"/>
+      <c r="X13" s="63"/>
+      <c r="Y13" s="63"/>
+      <c r="Z13" s="63"/>
+      <c r="AA13" s="63"/>
+      <c r="AB13" s="63"/>
+      <c r="AC13" s="63"/>
     </row>
     <row r="14" spans="1:29">
-      <c r="A14" s="62"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="62"/>
-      <c r="R14" s="62"/>
-      <c r="S14" s="62"/>
-      <c r="T14" s="62"/>
-      <c r="U14" s="62"/>
-      <c r="V14" s="62"/>
-      <c r="W14" s="62"/>
-      <c r="X14" s="62"/>
-      <c r="Y14" s="62"/>
-      <c r="Z14" s="62"/>
-      <c r="AA14" s="62"/>
-      <c r="AB14" s="62"/>
-      <c r="AC14" s="62"/>
+      <c r="A14" s="63"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="63"/>
+      <c r="S14" s="63"/>
+      <c r="T14" s="63"/>
+      <c r="U14" s="63"/>
+      <c r="V14" s="63"/>
+      <c r="W14" s="63"/>
+      <c r="X14" s="63"/>
+      <c r="Y14" s="63"/>
+      <c r="Z14" s="63"/>
+      <c r="AA14" s="63"/>
+      <c r="AB14" s="63"/>
+      <c r="AC14" s="63"/>
     </row>
     <row r="15" spans="1:29">
-      <c r="A15" s="62"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="62"/>
-      <c r="N15" s="62"/>
-      <c r="O15" s="62"/>
-      <c r="P15" s="62"/>
-      <c r="Q15" s="62"/>
-      <c r="R15" s="62"/>
-      <c r="S15" s="62"/>
-      <c r="T15" s="62"/>
-      <c r="U15" s="62"/>
-      <c r="V15" s="62"/>
-      <c r="W15" s="62"/>
-      <c r="X15" s="62"/>
-      <c r="Y15" s="62"/>
-      <c r="Z15" s="62"/>
-      <c r="AA15" s="62"/>
-      <c r="AB15" s="62"/>
-      <c r="AC15" s="62"/>
+      <c r="A15" s="63"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="63"/>
+      <c r="R15" s="63"/>
+      <c r="S15" s="63"/>
+      <c r="T15" s="63"/>
+      <c r="U15" s="63"/>
+      <c r="V15" s="63"/>
+      <c r="W15" s="63"/>
+      <c r="X15" s="63"/>
+      <c r="Y15" s="63"/>
+      <c r="Z15" s="63"/>
+      <c r="AA15" s="63"/>
+      <c r="AB15" s="63"/>
+      <c r="AC15" s="63"/>
     </row>
     <row r="16" spans="1:29">
-      <c r="A16" s="62"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="62"/>
-      <c r="P16" s="62"/>
-      <c r="Q16" s="62"/>
-      <c r="R16" s="62"/>
-      <c r="S16" s="62"/>
-      <c r="T16" s="62"/>
-      <c r="U16" s="62"/>
-      <c r="V16" s="62"/>
-      <c r="W16" s="62"/>
-      <c r="X16" s="62"/>
-      <c r="Y16" s="62"/>
-      <c r="Z16" s="62"/>
-      <c r="AA16" s="62"/>
-      <c r="AB16" s="62"/>
-      <c r="AC16" s="62"/>
+      <c r="A16" s="63"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="63"/>
+      <c r="S16" s="63"/>
+      <c r="T16" s="63"/>
+      <c r="U16" s="63"/>
+      <c r="V16" s="63"/>
+      <c r="W16" s="63"/>
+      <c r="X16" s="63"/>
+      <c r="Y16" s="63"/>
+      <c r="Z16" s="63"/>
+      <c r="AA16" s="63"/>
+      <c r="AB16" s="63"/>
+      <c r="AC16" s="63"/>
     </row>
     <row r="17"/>
     <row r="18"/>
@@ -8828,25 +9296,25 @@
       <c r="B5" s="11">
         <v>14</v>
       </c>
-      <c r="G5" s="52" t="s">
+      <c r="G5" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="52" t="s">
+      <c r="H5" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="52" t="s">
+      <c r="I5" s="61" t="s">
         <v>27</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="L5" s="52" t="s">
+      <c r="L5" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="M5" s="52" t="s">
+      <c r="M5" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="N5" s="52" t="s">
+      <c r="N5" s="61" t="s">
         <v>27</v>
       </c>
       <c r="O5" s="11" t="s">
@@ -8873,15 +9341,15 @@
       <c r="B6" s="11">
         <v>2</v>
       </c>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
       <c r="J6" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
       <c r="O6" s="11" t="s">
         <v>88</v>
       </c>
@@ -8906,25 +9374,25 @@
       <c r="B7" s="11">
         <v>2</v>
       </c>
-      <c r="G7" s="52" t="s">
+      <c r="G7" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="H7" s="52" t="s">
+      <c r="H7" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="53">
+      <c r="I7" s="62">
         <v>45254</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="L7" s="52" t="s">
+      <c r="L7" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="M7" s="52" t="s">
+      <c r="M7" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="N7" s="53">
+      <c r="N7" s="62">
         <v>45254</v>
       </c>
       <c r="O7" s="11" t="s">
@@ -8946,15 +9414,15 @@
       <c r="B8" s="11">
         <v>3</v>
       </c>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
       <c r="J8" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="61"/>
       <c r="O8" s="11" t="s">
         <v>92</v>
       </c>
@@ -9265,13 +9733,13 @@
       <c r="J4" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="L4" s="52" t="s">
+      <c r="L4" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="M4" s="52" t="s">
+      <c r="M4" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="N4" s="52" t="s">
+      <c r="N4" s="61" t="s">
         <v>27</v>
       </c>
       <c r="O4" s="11" t="s">
@@ -9297,21 +9765,21 @@
       <c r="B5" s="11">
         <v>8</v>
       </c>
-      <c r="G5" s="52" t="s">
+      <c r="G5" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="52" t="s">
+      <c r="H5" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="52" t="s">
+      <c r="I5" s="61" t="s">
         <v>27</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
       <c r="O5" s="11" t="s">
         <v>88</v>
       </c>
@@ -9335,19 +9803,19 @@
       <c r="B6" s="11">
         <v>2</v>
       </c>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
       <c r="J6" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="L6" s="52" t="s">
+      <c r="L6" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="M6" s="52" t="s">
+      <c r="M6" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="N6" s="53">
+      <c r="N6" s="62">
         <v>45261</v>
       </c>
       <c r="O6" s="11" t="s">
@@ -9373,21 +9841,21 @@
       <c r="B7" s="11">
         <v>2</v>
       </c>
-      <c r="G7" s="52" t="s">
+      <c r="G7" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="H7" s="52" t="s">
+      <c r="H7" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="53">
+      <c r="I7" s="62">
         <v>45261</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
       <c r="O7" s="11" t="s">
         <v>97</v>
       </c>
@@ -9406,9 +9874,9 @@
       <c r="B8" s="11">
         <v>4</v>
       </c>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
       <c r="J8" s="11" t="s">
         <v>99</v>
       </c>
@@ -9460,6 +9928,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000215C4F9D57D37439F8ACEF5C886EA75" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c5b94f7a7d878a7fecd43d2acdcd7b20">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2a5c4c29-2a22-48a5-946d-f6132279c68c" xmlns:ns3="46e2485f-814c-41c1-b1d1-92fb45bc36b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7492081eccc3045ea9567a1b818a29ef" ns2:_="" ns3:_="">
     <xsd:import namespace="2a5c4c29-2a22-48a5-946d-f6132279c68c"/>
@@ -9630,29 +10107,20 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF5B3250-9EAA-45ED-A48E-C1960EE83752}"/>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C92C71A-1A18-4525-8D5B-1B74C6FCA2BF}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38F446B6-3E55-4E07-BA6D-47C0ACA73425}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF5B3250-9EAA-45ED-A48E-C1960EE83752}"/>
 </file>
--- a/dataSources/WSR/vEMS.xlsx
+++ b/dataSources/WSR/vEMS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27316"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\qaDash\dataSource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\KMDV-Dash\dataSources\WSR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="374" documentId="13_ncr:1_{0F8C332E-20C7-4FE6-8FBC-D589C740ED26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C17829B-5245-4ABB-AF2A-EEE8DD4A46AC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AECC130-2225-4A0D-82F7-337CEA3BD5F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2 Oct 2023" sheetId="9" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="148">
   <si>
     <t>Task Name</t>
   </si>
@@ -751,12 +751,15 @@
   <si>
     <t>Will get issues resolved and complete testing</t>
   </si>
+  <si>
+    <t>Project Metrics</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1210,12 +1213,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1223,6 +1220,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1505,40 +1508,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4761D5D-B88F-4A72-A457-3838DDCF918B}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView topLeftCell="AK1" workbookViewId="0">
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="73.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="89.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="1"/>
-    <col min="18" max="18" width="65.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="1"/>
+    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="1"/>
+    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="1"/>
+    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="7" customFormat="1">
+    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1610,21 +1613,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30.75">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="3">
         <v>4.5</v>
       </c>
-      <c r="C2" s="60"/>
+      <c r="C2" s="58"/>
       <c r="D2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="61">
+      <c r="E2" s="59">
         <v>20</v>
       </c>
-      <c r="F2" s="60"/>
+      <c r="F2" s="58"/>
       <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
@@ -1637,7 +1640,7 @@
       <c r="J2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="60"/>
+      <c r="K2" s="58"/>
       <c r="L2" s="3" t="s">
         <v>25</v>
       </c>
@@ -1658,9 +1661,9 @@
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
-      <c r="V2" s="60"/>
+      <c r="V2" s="58"/>
       <c r="W2" s="5"/>
-      <c r="X2" s="60"/>
+      <c r="X2" s="58"/>
       <c r="Y2" s="47" t="s">
         <v>30</v>
       </c>
@@ -1675,21 +1678,21 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="60.75">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="3">
         <v>1.5</v>
       </c>
-      <c r="C3" s="60"/>
+      <c r="C3" s="58"/>
       <c r="D3" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E3" s="5">
         <v>8.5</v>
       </c>
-      <c r="F3" s="60"/>
+      <c r="F3" s="58"/>
       <c r="G3" s="5" t="s">
         <v>34</v>
       </c>
@@ -1702,7 +1705,7 @@
       <c r="J3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="60"/>
+      <c r="K3" s="58"/>
       <c r="L3" s="5" t="s">
         <v>34</v>
       </c>
@@ -1721,9 +1724,9 @@
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
-      <c r="V3" s="60"/>
+      <c r="V3" s="58"/>
       <c r="W3" s="5"/>
-      <c r="X3" s="60"/>
+      <c r="X3" s="58"/>
       <c r="Y3" s="47" t="s">
         <v>38</v>
       </c>
@@ -1738,21 +1741,21 @@
         <v>613</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="60.75">
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="60"/>
+      <c r="C4" s="58"/>
       <c r="D4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="62">
+      <c r="E4" s="60">
         <v>2.5</v>
       </c>
-      <c r="F4" s="60"/>
+      <c r="F4" s="58"/>
       <c r="G4" s="5" t="s">
         <v>42</v>
       </c>
@@ -1765,7 +1768,7 @@
       <c r="J4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="60"/>
+      <c r="K4" s="58"/>
       <c r="L4" s="5" t="s">
         <v>42</v>
       </c>
@@ -1779,14 +1782,14 @@
         <v>44</v>
       </c>
       <c r="P4" s="5"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="60"/>
-      <c r="S4" s="60"/>
-      <c r="T4" s="60"/>
-      <c r="U4" s="60"/>
-      <c r="V4" s="60"/>
-      <c r="W4" s="60"/>
-      <c r="X4" s="60"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="58"/>
+      <c r="S4" s="58"/>
+      <c r="T4" s="58"/>
+      <c r="U4" s="58"/>
+      <c r="V4" s="58"/>
+      <c r="W4" s="58"/>
+      <c r="X4" s="58"/>
       <c r="Y4" s="47" t="s">
         <v>45</v>
       </c>
@@ -1801,17 +1804,17 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="76.5">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B5" s="3">
         <v>2.5</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="60"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="58"/>
       <c r="G5" s="5" t="s">
         <v>48</v>
       </c>
@@ -1824,7 +1827,7 @@
       <c r="J5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="K5" s="60"/>
+      <c r="K5" s="58"/>
       <c r="L5" s="5" t="s">
         <v>48</v>
       </c>
@@ -1838,14 +1841,14 @@
         <v>50</v>
       </c>
       <c r="P5" s="5"/>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="60"/>
-      <c r="S5" s="60"/>
-      <c r="T5" s="60"/>
-      <c r="U5" s="60"/>
-      <c r="V5" s="60"/>
-      <c r="W5" s="60"/>
-      <c r="X5" s="60"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="58"/>
+      <c r="S5" s="58"/>
+      <c r="T5" s="58"/>
+      <c r="U5" s="58"/>
+      <c r="V5" s="58"/>
+      <c r="W5" s="58"/>
+      <c r="X5" s="58"/>
       <c r="Y5" s="47" t="s">
         <v>51</v>
       </c>
@@ -1860,17 +1863,17 @@
         <v>816</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="45.75">
+    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B6" s="3">
         <v>3.5</v>
       </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="60"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="58"/>
       <c r="G6" s="5" t="s">
         <v>54</v>
       </c>
@@ -1883,7 +1886,7 @@
       <c r="J6" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="K6" s="60"/>
+      <c r="K6" s="58"/>
       <c r="L6" s="5" t="s">
         <v>57</v>
       </c>
@@ -1897,14 +1900,14 @@
         <v>59</v>
       </c>
       <c r="P6" s="5"/>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="60"/>
-      <c r="S6" s="60"/>
-      <c r="T6" s="60"/>
-      <c r="U6" s="60"/>
-      <c r="V6" s="60"/>
-      <c r="W6" s="60"/>
-      <c r="X6" s="60"/>
+      <c r="Q6" s="58"/>
+      <c r="R6" s="58"/>
+      <c r="S6" s="58"/>
+      <c r="T6" s="58"/>
+      <c r="U6" s="58"/>
+      <c r="V6" s="58"/>
+      <c r="W6" s="58"/>
+      <c r="X6" s="58"/>
       <c r="Y6" s="47" t="s">
         <v>60</v>
       </c>
@@ -1919,35 +1922,35 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="60.75">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B7" s="3">
         <v>3.5</v>
       </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="60"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="60"/>
-      <c r="S7" s="60"/>
-      <c r="T7" s="60"/>
-      <c r="U7" s="60"/>
-      <c r="V7" s="60"/>
-      <c r="W7" s="60"/>
-      <c r="X7" s="60"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="58"/>
+      <c r="R7" s="58"/>
+      <c r="S7" s="58"/>
+      <c r="T7" s="58"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="58"/>
       <c r="Y7" s="47"/>
       <c r="Z7" s="47"/>
       <c r="AA7" s="47"/>
@@ -1959,303 +1962,303 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="30.75">
+    <row r="8" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B8" s="3">
         <v>5.5</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="60"/>
-      <c r="R8" s="60"/>
-      <c r="S8" s="60"/>
-      <c r="T8" s="60"/>
-      <c r="U8" s="60"/>
-      <c r="V8" s="60"/>
-      <c r="W8" s="60"/>
-      <c r="X8" s="60"/>
-      <c r="Y8" s="60"/>
-      <c r="Z8" s="60"/>
-      <c r="AA8" s="60"/>
-      <c r="AB8" s="60"/>
-      <c r="AC8" s="60"/>
-    </row>
-    <row r="9" spans="1:29" ht="45.75">
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="58"/>
+      <c r="Q8" s="58"/>
+      <c r="R8" s="58"/>
+      <c r="S8" s="58"/>
+      <c r="T8" s="58"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="58"/>
+      <c r="AB8" s="58"/>
+      <c r="AC8" s="58"/>
+    </row>
+    <row r="9" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B9" s="3">
         <v>1.5</v>
       </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="60"/>
-      <c r="O9" s="60"/>
-      <c r="P9" s="60"/>
-      <c r="Q9" s="60"/>
-      <c r="R9" s="60"/>
-      <c r="S9" s="60"/>
-      <c r="T9" s="60"/>
-      <c r="U9" s="60"/>
-      <c r="V9" s="60"/>
-      <c r="W9" s="60"/>
-      <c r="X9" s="60"/>
-      <c r="Y9" s="60"/>
-      <c r="Z9" s="60"/>
-      <c r="AA9" s="60"/>
-      <c r="AB9" s="60"/>
-      <c r="AC9" s="60"/>
-    </row>
-    <row r="10" spans="1:29" ht="45.75">
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="58"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="58"/>
+      <c r="AB9" s="58"/>
+      <c r="AC9" s="58"/>
+    </row>
+    <row r="10" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B10" s="3">
         <v>6.5</v>
       </c>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="60"/>
-      <c r="Q10" s="60"/>
-      <c r="R10" s="60"/>
-      <c r="S10" s="60"/>
-      <c r="T10" s="60"/>
-      <c r="U10" s="60"/>
-      <c r="V10" s="60"/>
-      <c r="W10" s="60"/>
-      <c r="X10" s="60"/>
-      <c r="Y10" s="60"/>
-      <c r="Z10" s="60"/>
-      <c r="AA10" s="60"/>
-      <c r="AB10" s="60"/>
-      <c r="AC10" s="60"/>
-    </row>
-    <row r="11" spans="1:29" ht="45.75">
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="58"/>
+      <c r="S10" s="58"/>
+      <c r="T10" s="58"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="58"/>
+      <c r="AB10" s="58"/>
+      <c r="AC10" s="58"/>
+    </row>
+    <row r="11" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
       </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="60"/>
-      <c r="O11" s="60"/>
-      <c r="P11" s="60"/>
-      <c r="Q11" s="60"/>
-      <c r="R11" s="60"/>
-      <c r="S11" s="60"/>
-      <c r="T11" s="60"/>
-      <c r="U11" s="60"/>
-      <c r="V11" s="60"/>
-      <c r="W11" s="60"/>
-      <c r="X11" s="60"/>
-      <c r="Y11" s="60"/>
-      <c r="Z11" s="60"/>
-      <c r="AA11" s="60"/>
-      <c r="AB11" s="60"/>
-      <c r="AC11" s="60"/>
-    </row>
-    <row r="12" spans="1:29">
-      <c r="A12" s="60"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="60"/>
-      <c r="O12" s="60"/>
-      <c r="P12" s="60"/>
-      <c r="Q12" s="60"/>
-      <c r="R12" s="60"/>
-      <c r="S12" s="60"/>
-      <c r="T12" s="60"/>
-      <c r="U12" s="60"/>
-      <c r="V12" s="60"/>
-      <c r="W12" s="60"/>
-      <c r="X12" s="60"/>
-      <c r="Y12" s="60"/>
-      <c r="Z12" s="60"/>
-      <c r="AA12" s="60"/>
-      <c r="AB12" s="60"/>
-      <c r="AC12" s="60"/>
-    </row>
-    <row r="13" spans="1:29">
-      <c r="A13" s="60"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="60"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="60"/>
-      <c r="P13" s="60"/>
-      <c r="Q13" s="60"/>
-      <c r="R13" s="60"/>
-      <c r="S13" s="60"/>
-      <c r="T13" s="60"/>
-      <c r="U13" s="60"/>
-      <c r="V13" s="60"/>
-      <c r="W13" s="60"/>
-      <c r="X13" s="60"/>
-      <c r="Y13" s="60"/>
-      <c r="Z13" s="60"/>
-      <c r="AA13" s="60"/>
-      <c r="AB13" s="60"/>
-      <c r="AC13" s="60"/>
-    </row>
-    <row r="14" spans="1:29">
-      <c r="A14" s="60"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="60"/>
-      <c r="O14" s="60"/>
-      <c r="P14" s="60"/>
-      <c r="Q14" s="60"/>
-      <c r="R14" s="60"/>
-      <c r="S14" s="60"/>
-      <c r="T14" s="60"/>
-      <c r="U14" s="60"/>
-      <c r="V14" s="60"/>
-      <c r="W14" s="60"/>
-      <c r="X14" s="60"/>
-      <c r="Y14" s="60"/>
-      <c r="Z14" s="60"/>
-      <c r="AA14" s="60"/>
-      <c r="AB14" s="60"/>
-      <c r="AC14" s="60"/>
-    </row>
-    <row r="15" spans="1:29">
-      <c r="A15" s="60"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="60"/>
-      <c r="M15" s="60"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="60"/>
-      <c r="P15" s="60"/>
-      <c r="Q15" s="60"/>
-      <c r="R15" s="60"/>
-      <c r="S15" s="60"/>
-      <c r="T15" s="60"/>
-      <c r="U15" s="60"/>
-      <c r="V15" s="60"/>
-      <c r="W15" s="60"/>
-      <c r="X15" s="60"/>
-      <c r="Y15" s="60"/>
-      <c r="Z15" s="60"/>
-      <c r="AA15" s="60"/>
-      <c r="AB15" s="60"/>
-      <c r="AC15" s="60"/>
-    </row>
-    <row r="16" spans="1:29">
-      <c r="A16" s="60"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="60"/>
-      <c r="O16" s="60"/>
-      <c r="P16" s="60"/>
-      <c r="Q16" s="60"/>
-      <c r="R16" s="60"/>
-      <c r="S16" s="60"/>
-      <c r="T16" s="60"/>
-      <c r="U16" s="60"/>
-      <c r="V16" s="60"/>
-      <c r="W16" s="60"/>
-      <c r="X16" s="60"/>
-      <c r="Y16" s="60"/>
-      <c r="Z16" s="60"/>
-      <c r="AA16" s="60"/>
-      <c r="AB16" s="60"/>
-      <c r="AC16" s="60"/>
-    </row>
-    <row r="17"/>
-    <row r="18"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="58"/>
+      <c r="R11" s="58"/>
+      <c r="S11" s="58"/>
+      <c r="T11" s="58"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="58"/>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="58"/>
+      <c r="AA11" s="58"/>
+      <c r="AB11" s="58"/>
+      <c r="AC11" s="58"/>
+    </row>
+    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="58"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="58"/>
+      <c r="Q12" s="58"/>
+      <c r="R12" s="58"/>
+      <c r="S12" s="58"/>
+      <c r="T12" s="58"/>
+      <c r="U12" s="58"/>
+      <c r="V12" s="58"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="58"/>
+      <c r="Y12" s="58"/>
+      <c r="Z12" s="58"/>
+      <c r="AA12" s="58"/>
+      <c r="AB12" s="58"/>
+      <c r="AC12" s="58"/>
+    </row>
+    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="58"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="58"/>
+      <c r="T13" s="58"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="58"/>
+      <c r="Y13" s="58"/>
+      <c r="Z13" s="58"/>
+      <c r="AA13" s="58"/>
+      <c r="AB13" s="58"/>
+      <c r="AC13" s="58"/>
+    </row>
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="58"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="58"/>
+      <c r="Q14" s="58"/>
+      <c r="R14" s="58"/>
+      <c r="S14" s="58"/>
+      <c r="T14" s="58"/>
+      <c r="U14" s="58"/>
+      <c r="V14" s="58"/>
+      <c r="W14" s="58"/>
+      <c r="X14" s="58"/>
+      <c r="Y14" s="58"/>
+      <c r="Z14" s="58"/>
+      <c r="AA14" s="58"/>
+      <c r="AB14" s="58"/>
+      <c r="AC14" s="58"/>
+    </row>
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="58"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="58"/>
+      <c r="R15" s="58"/>
+      <c r="S15" s="58"/>
+      <c r="T15" s="58"/>
+      <c r="U15" s="58"/>
+      <c r="V15" s="58"/>
+      <c r="W15" s="58"/>
+      <c r="X15" s="58"/>
+      <c r="Y15" s="58"/>
+      <c r="Z15" s="58"/>
+      <c r="AA15" s="58"/>
+      <c r="AB15" s="58"/>
+      <c r="AC15" s="58"/>
+    </row>
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="58"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="58"/>
+      <c r="P16" s="58"/>
+      <c r="Q16" s="58"/>
+      <c r="R16" s="58"/>
+      <c r="S16" s="58"/>
+      <c r="T16" s="58"/>
+      <c r="U16" s="58"/>
+      <c r="V16" s="58"/>
+      <c r="W16" s="58"/>
+      <c r="X16" s="58"/>
+      <c r="Y16" s="58"/>
+      <c r="Z16" s="58"/>
+      <c r="AA16" s="58"/>
+      <c r="AB16" s="58"/>
+      <c r="AC16" s="58"/>
+    </row>
+    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2270,35 +2273,35 @@
       <selection activeCell="AF6" sqref="AF6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="9"/>
-    <col min="4" max="4" width="15.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="9"/>
-    <col min="7" max="7" width="73.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="9"/>
-    <col min="12" max="12" width="89.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.140625" style="9"/>
-    <col min="18" max="18" width="65.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="9"/>
+    <col min="1" max="1" width="17.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="9"/>
+    <col min="4" max="4" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="9"/>
+    <col min="7" max="7" width="73.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="9"/>
+    <col min="12" max="12" width="89.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.109375" style="9"/>
+    <col min="18" max="18" width="65.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="18" customFormat="1">
+    <row r="1" spans="1:29" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -2369,7 +2372,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30.75">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>23</v>
       </c>
@@ -2435,7 +2438,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="60.75">
+    <row r="3" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
       <c r="A3" s="22" t="s">
         <v>32</v>
       </c>
@@ -2486,7 +2489,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="76.5">
+    <row r="4" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>40</v>
       </c>
@@ -2537,7 +2540,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="76.5">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>47</v>
       </c>
@@ -2574,7 +2577,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="45.75">
+    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>87</v>
       </c>
@@ -2603,7 +2606,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="30.75">
+    <row r="7" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>102</v>
       </c>
@@ -2627,7 +2630,7 @@
         <v>0.89247311827956988</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="45.75">
+    <row r="8" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>67</v>
       </c>
@@ -2644,7 +2647,7 @@
       <c r="N8" s="17"/>
       <c r="O8" s="17"/>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="G9" s="17"/>
@@ -2657,7 +2660,7 @@
       <c r="N9" s="17"/>
       <c r="O9" s="17"/>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="G10" s="17"/>
@@ -2670,7 +2673,7 @@
       <c r="N10" s="17"/>
       <c r="O10" s="17"/>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
@@ -2681,13 +2684,13 @@
       <c r="N11" s="17"/>
       <c r="O11" s="17"/>
     </row>
-    <row r="12" spans="1:29"/>
-    <row r="13" spans="1:29"/>
-    <row r="14" spans="1:29"/>
-    <row r="15" spans="1:29"/>
-    <row r="16" spans="1:29"/>
-    <row r="17"/>
-    <row r="18"/>
+    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2701,35 +2704,35 @@
       <selection activeCell="Y8" sqref="Y8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="9"/>
-    <col min="4" max="4" width="15.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="9"/>
-    <col min="7" max="7" width="73.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="9"/>
-    <col min="12" max="12" width="89.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.140625" style="9"/>
-    <col min="18" max="18" width="65.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="9"/>
+    <col min="1" max="1" width="17.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="9"/>
+    <col min="4" max="4" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="9"/>
+    <col min="7" max="7" width="73.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="9"/>
+    <col min="12" max="12" width="89.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.109375" style="9"/>
+    <col min="18" max="18" width="65.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="18" customFormat="1">
+    <row r="1" spans="1:29" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -2800,7 +2803,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30.75">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>23</v>
       </c>
@@ -2866,7 +2869,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="60.75">
+    <row r="3" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
       <c r="A3" s="22" t="s">
         <v>32</v>
       </c>
@@ -2932,7 +2935,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="91.5">
+    <row r="4" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>40</v>
       </c>
@@ -2983,7 +2986,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="76.5">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>47</v>
       </c>
@@ -3020,7 +3023,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="45.75">
+    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>87</v>
       </c>
@@ -3049,7 +3052,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="30.75">
+    <row r="7" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>102</v>
       </c>
@@ -3073,7 +3076,7 @@
         <v>0.98095238095238091</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="45.75">
+    <row r="8" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>66</v>
       </c>
@@ -3090,7 +3093,7 @@
       <c r="N8" s="17"/>
       <c r="O8" s="17"/>
     </row>
-    <row r="9" spans="1:29" ht="45.75">
+    <row r="9" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
         <v>67</v>
       </c>
@@ -3107,7 +3110,7 @@
       <c r="N9" s="17"/>
       <c r="O9" s="17"/>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="G10" s="17"/>
@@ -3120,7 +3123,7 @@
       <c r="N10" s="17"/>
       <c r="O10" s="17"/>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
@@ -3131,13 +3134,13 @@
       <c r="N11" s="17"/>
       <c r="O11" s="17"/>
     </row>
-    <row r="12" spans="1:29"/>
-    <row r="13" spans="1:29"/>
-    <row r="14" spans="1:29"/>
-    <row r="15" spans="1:29"/>
-    <row r="16" spans="1:29"/>
-    <row r="17"/>
-    <row r="18"/>
+    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3151,35 +3154,35 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="9"/>
-    <col min="4" max="4" width="15.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="9"/>
-    <col min="7" max="7" width="73.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="9"/>
-    <col min="12" max="12" width="89.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.140625" style="9"/>
-    <col min="18" max="18" width="65.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="9"/>
+    <col min="1" max="1" width="17.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="9"/>
+    <col min="4" max="4" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="9"/>
+    <col min="7" max="7" width="73.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="9"/>
+    <col min="12" max="12" width="89.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.109375" style="9"/>
+    <col min="18" max="18" width="65.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="18" customFormat="1">
+    <row r="1" spans="1:29" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -3250,7 +3253,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30.75">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>23</v>
       </c>
@@ -3304,7 +3307,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="60.75">
+    <row r="3" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
       <c r="A3" s="22" t="s">
         <v>32</v>
       </c>
@@ -3355,7 +3358,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="76.5">
+    <row r="4" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>40</v>
       </c>
@@ -3406,7 +3409,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="76.5">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>47</v>
       </c>
@@ -3451,7 +3454,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="45.75">
+    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>87</v>
       </c>
@@ -3488,7 +3491,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="30.75">
+    <row r="7" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>102</v>
       </c>
@@ -3513,7 +3516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="45.75">
+    <row r="8" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>66</v>
       </c>
@@ -3530,7 +3533,7 @@
       <c r="N8" s="17"/>
       <c r="O8" s="17"/>
     </row>
-    <row r="9" spans="1:29" ht="45.75">
+    <row r="9" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
         <v>67</v>
       </c>
@@ -3547,7 +3550,7 @@
       <c r="N9" s="17"/>
       <c r="O9" s="17"/>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="G10" s="17"/>
@@ -3560,7 +3563,7 @@
       <c r="N10" s="17"/>
       <c r="O10" s="17"/>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
@@ -3571,13 +3574,13 @@
       <c r="N11" s="17"/>
       <c r="O11" s="17"/>
     </row>
-    <row r="12" spans="1:29"/>
-    <row r="13" spans="1:29"/>
-    <row r="14" spans="1:29"/>
-    <row r="15" spans="1:29"/>
-    <row r="16" spans="1:29"/>
-    <row r="17"/>
-    <row r="18"/>
+    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3591,35 +3594,35 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="9"/>
-    <col min="4" max="4" width="15.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="9"/>
-    <col min="7" max="7" width="73.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="9"/>
-    <col min="12" max="12" width="89.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.140625" style="9"/>
-    <col min="18" max="18" width="65.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="9"/>
+    <col min="1" max="1" width="17.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="9"/>
+    <col min="4" max="4" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="9"/>
+    <col min="7" max="7" width="73.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="9"/>
+    <col min="12" max="12" width="89.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.109375" style="9"/>
+    <col min="18" max="18" width="65.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="18" customFormat="1">
+    <row r="1" spans="1:29" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -3690,7 +3693,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30.75">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>121</v>
       </c>
@@ -3744,7 +3747,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="60.75">
+    <row r="3" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
       <c r="A3" s="22" t="s">
         <v>32</v>
       </c>
@@ -3795,7 +3798,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="76.5">
+    <row r="4" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>40</v>
       </c>
@@ -3846,7 +3849,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="76.5">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>47</v>
       </c>
@@ -3891,7 +3894,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="76.5">
+    <row r="6" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>125</v>
       </c>
@@ -3928,7 +3931,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="45.75">
+    <row r="7" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>66</v>
       </c>
@@ -3939,7 +3942,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="55"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="62"/>
+      <c r="K7" s="60"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -3953,7 +3956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="45.75">
+    <row r="8" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>67</v>
       </c>
@@ -3964,13 +3967,13 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="62"/>
-    </row>
-    <row r="9" spans="1:29">
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="60"/>
+      <c r="O8" s="60"/>
+    </row>
+    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="22"/>
       <c r="B9" s="23"/>
       <c r="G9" s="17"/>
@@ -3983,7 +3986,7 @@
       <c r="N9" s="17"/>
       <c r="O9" s="17"/>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="G10" s="17"/>
@@ -3996,7 +3999,7 @@
       <c r="N10" s="17"/>
       <c r="O10" s="17"/>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
@@ -4007,13 +4010,13 @@
       <c r="N11" s="17"/>
       <c r="O11" s="17"/>
     </row>
-    <row r="12" spans="1:29"/>
-    <row r="13" spans="1:29"/>
-    <row r="14" spans="1:29"/>
-    <row r="15" spans="1:29"/>
-    <row r="16" spans="1:29"/>
-    <row r="17"/>
-    <row r="18"/>
+    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4027,35 +4030,35 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="9"/>
-    <col min="4" max="4" width="15.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="9"/>
-    <col min="7" max="7" width="73.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="9"/>
-    <col min="12" max="12" width="89.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.140625" style="9"/>
-    <col min="18" max="18" width="65.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="9"/>
+    <col min="1" max="1" width="17.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="9"/>
+    <col min="4" max="4" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="9"/>
+    <col min="7" max="7" width="73.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="9"/>
+    <col min="12" max="12" width="89.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.109375" style="9"/>
+    <col min="18" max="18" width="65.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="18" customFormat="1">
+    <row r="1" spans="1:29" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -4126,7 +4129,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30.75">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="56" t="s">
         <v>23</v>
       </c>
@@ -4180,7 +4183,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="60.75">
+    <row r="3" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
       <c r="A3" s="56" t="s">
         <v>32</v>
       </c>
@@ -4231,7 +4234,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="76.5">
+    <row r="4" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="56" t="s">
         <v>40</v>
       </c>
@@ -4282,7 +4285,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="76.5">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="56" t="s">
         <v>47</v>
       </c>
@@ -4327,7 +4330,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="76.5">
+    <row r="6" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="56" t="s">
         <v>125</v>
       </c>
@@ -4364,7 +4367,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="45.75">
+    <row r="7" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="56" t="s">
         <v>66</v>
       </c>
@@ -4375,7 +4378,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="55"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="62"/>
+      <c r="K7" s="60"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -4389,7 +4392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="45.75">
+    <row r="8" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="56" t="s">
         <v>67</v>
       </c>
@@ -4400,13 +4403,13 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="62"/>
-    </row>
-    <row r="9" spans="1:29">
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="60"/>
+      <c r="O8" s="60"/>
+    </row>
+    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="22"/>
       <c r="B9" s="23"/>
       <c r="G9" s="17"/>
@@ -4419,7 +4422,7 @@
       <c r="N9" s="17"/>
       <c r="O9" s="17"/>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="G10" s="17"/>
@@ -4432,7 +4435,7 @@
       <c r="N10" s="17"/>
       <c r="O10" s="17"/>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
@@ -4443,13 +4446,13 @@
       <c r="N11" s="17"/>
       <c r="O11" s="17"/>
     </row>
-    <row r="12" spans="1:29"/>
-    <row r="13" spans="1:29"/>
-    <row r="14" spans="1:29"/>
-    <row r="15" spans="1:29"/>
-    <row r="16" spans="1:29"/>
-    <row r="17"/>
-    <row r="18"/>
+    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4459,40 +4462,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5790EF8C-5874-403F-8378-602CEAEBCCE2}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="T5" workbookViewId="0">
-      <selection activeCell="AE6" sqref="AE6"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AF4" sqref="AF4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="9"/>
-    <col min="4" max="4" width="15.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="9"/>
-    <col min="7" max="7" width="73.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="9"/>
-    <col min="12" max="12" width="89.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="9"/>
-    <col min="17" max="17" width="16.140625" style="9" customWidth="1"/>
-    <col min="18" max="18" width="65.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="9"/>
+    <col min="1" max="1" width="17.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="9"/>
+    <col min="4" max="4" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="9"/>
+    <col min="7" max="7" width="73.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="9"/>
+    <col min="12" max="12" width="89.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.109375" style="9"/>
+    <col min="17" max="17" width="16.109375" style="9" customWidth="1"/>
+    <col min="18" max="18" width="65.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="18" customFormat="1">
+    <row r="1" spans="1:29" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -4556,14 +4559,14 @@
       <c r="Z1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="18" t="s">
-        <v>21</v>
+      <c r="AB1" s="38" t="s">
+        <v>147</v>
       </c>
       <c r="AC1" s="18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30.75">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>23</v>
       </c>
@@ -4630,7 +4633,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="60.75">
+    <row r="3" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
       <c r="A3" s="22" t="s">
         <v>32</v>
       </c>
@@ -4697,7 +4700,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="76.5">
+    <row r="4" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>40</v>
       </c>
@@ -4764,7 +4767,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="60.75">
+    <row r="5" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>47</v>
       </c>
@@ -4810,7 +4813,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="45.75">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>125</v>
       </c>
@@ -4848,7 +4851,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="45.75">
+    <row r="7" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>66</v>
       </c>
@@ -4859,7 +4862,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="55"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="62"/>
+      <c r="K7" s="60"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -4873,7 +4876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="45.75">
+    <row r="8" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>67</v>
       </c>
@@ -4884,13 +4887,13 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="62"/>
-    </row>
-    <row r="9" spans="1:29">
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="60"/>
+      <c r="O8" s="60"/>
+    </row>
+    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="22"/>
       <c r="B9" s="23"/>
       <c r="G9" s="17"/>
@@ -4903,7 +4906,7 @@
       <c r="N9" s="17"/>
       <c r="O9" s="17"/>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="G10" s="17"/>
@@ -4916,7 +4919,7 @@
       <c r="N10" s="17"/>
       <c r="O10" s="17"/>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
@@ -4927,13 +4930,13 @@
       <c r="N11" s="17"/>
       <c r="O11" s="17"/>
     </row>
-    <row r="12" spans="1:29"/>
-    <row r="13" spans="1:29"/>
-    <row r="14" spans="1:29"/>
-    <row r="15" spans="1:29"/>
-    <row r="16" spans="1:29"/>
-    <row r="17"/>
-    <row r="18"/>
+    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4947,36 +4950,36 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="73.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="89.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="1"/>
-    <col min="18" max="18" width="65.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="1"/>
+    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="1"/>
+    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="1"/>
+    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="7" customFormat="1">
+    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -5048,21 +5051,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30.75">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="3">
         <v>4.5</v>
       </c>
-      <c r="C2" s="60"/>
+      <c r="C2" s="58"/>
       <c r="D2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="61">
+      <c r="E2" s="59">
         <v>20</v>
       </c>
-      <c r="F2" s="60"/>
+      <c r="F2" s="58"/>
       <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
@@ -5075,7 +5078,7 @@
       <c r="J2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="60"/>
+      <c r="K2" s="58"/>
       <c r="L2" s="3" t="s">
         <v>25</v>
       </c>
@@ -5096,9 +5099,9 @@
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
-      <c r="V2" s="60"/>
+      <c r="V2" s="58"/>
       <c r="W2" s="5"/>
-      <c r="X2" s="60"/>
+      <c r="X2" s="58"/>
       <c r="Y2" s="47" t="s">
         <v>30</v>
       </c>
@@ -5113,21 +5116,21 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="60.75">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="3">
         <v>1.5</v>
       </c>
-      <c r="C3" s="60"/>
+      <c r="C3" s="58"/>
       <c r="D3" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E3" s="5">
         <v>8.5</v>
       </c>
-      <c r="F3" s="60"/>
+      <c r="F3" s="58"/>
       <c r="G3" s="5" t="s">
         <v>34</v>
       </c>
@@ -5140,7 +5143,7 @@
       <c r="J3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="60"/>
+      <c r="K3" s="58"/>
       <c r="L3" s="5" t="s">
         <v>34</v>
       </c>
@@ -5159,9 +5162,9 @@
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
-      <c r="V3" s="60"/>
+      <c r="V3" s="58"/>
       <c r="W3" s="5"/>
-      <c r="X3" s="60"/>
+      <c r="X3" s="58"/>
       <c r="Y3" s="47" t="s">
         <v>38</v>
       </c>
@@ -5176,21 +5179,21 @@
         <v>619</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="60.75">
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="60"/>
+      <c r="C4" s="58"/>
       <c r="D4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="62">
+      <c r="E4" s="60">
         <v>2.5</v>
       </c>
-      <c r="F4" s="60"/>
+      <c r="F4" s="58"/>
       <c r="G4" s="5" t="s">
         <v>42</v>
       </c>
@@ -5203,7 +5206,7 @@
       <c r="J4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="60"/>
+      <c r="K4" s="58"/>
       <c r="L4" s="5" t="s">
         <v>42</v>
       </c>
@@ -5217,14 +5220,14 @@
         <v>44</v>
       </c>
       <c r="P4" s="5"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="60"/>
-      <c r="S4" s="60"/>
-      <c r="T4" s="60"/>
-      <c r="U4" s="60"/>
-      <c r="V4" s="60"/>
-      <c r="W4" s="60"/>
-      <c r="X4" s="60"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="58"/>
+      <c r="S4" s="58"/>
+      <c r="T4" s="58"/>
+      <c r="U4" s="58"/>
+      <c r="V4" s="58"/>
+      <c r="W4" s="58"/>
+      <c r="X4" s="58"/>
       <c r="Y4" s="47" t="s">
         <v>45</v>
       </c>
@@ -5239,17 +5242,17 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="76.5">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B5" s="3">
         <v>2.5</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="60"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="58"/>
       <c r="G5" s="5" t="s">
         <v>48</v>
       </c>
@@ -5262,7 +5265,7 @@
       <c r="J5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="K5" s="60"/>
+      <c r="K5" s="58"/>
       <c r="L5" s="5" t="s">
         <v>48</v>
       </c>
@@ -5276,14 +5279,14 @@
         <v>50</v>
       </c>
       <c r="P5" s="5"/>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="60"/>
-      <c r="S5" s="60"/>
-      <c r="T5" s="60"/>
-      <c r="U5" s="60"/>
-      <c r="V5" s="60"/>
-      <c r="W5" s="60"/>
-      <c r="X5" s="60"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="58"/>
+      <c r="S5" s="58"/>
+      <c r="T5" s="58"/>
+      <c r="U5" s="58"/>
+      <c r="V5" s="58"/>
+      <c r="W5" s="58"/>
+      <c r="X5" s="58"/>
       <c r="Y5" s="47" t="s">
         <v>51</v>
       </c>
@@ -5298,17 +5301,17 @@
         <v>834</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="45.75">
+    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B6" s="3">
         <v>3.5</v>
       </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="60"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="58"/>
       <c r="G6" s="5" t="s">
         <v>54</v>
       </c>
@@ -5321,7 +5324,7 @@
       <c r="J6" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="K6" s="60"/>
+      <c r="K6" s="58"/>
       <c r="L6" s="5" t="s">
         <v>57</v>
       </c>
@@ -5335,14 +5338,14 @@
         <v>59</v>
       </c>
       <c r="P6" s="5"/>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="60"/>
-      <c r="S6" s="60"/>
-      <c r="T6" s="60"/>
-      <c r="U6" s="60"/>
-      <c r="V6" s="60"/>
-      <c r="W6" s="60"/>
-      <c r="X6" s="60"/>
+      <c r="Q6" s="58"/>
+      <c r="R6" s="58"/>
+      <c r="S6" s="58"/>
+      <c r="T6" s="58"/>
+      <c r="U6" s="58"/>
+      <c r="V6" s="58"/>
+      <c r="W6" s="58"/>
+      <c r="X6" s="58"/>
       <c r="Y6" s="47" t="s">
         <v>60</v>
       </c>
@@ -5357,35 +5360,35 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="60.75">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B7" s="3">
         <v>3.5</v>
       </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="60"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="60"/>
-      <c r="S7" s="60"/>
-      <c r="T7" s="60"/>
-      <c r="U7" s="60"/>
-      <c r="V7" s="60"/>
-      <c r="W7" s="60"/>
-      <c r="X7" s="60"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="58"/>
+      <c r="R7" s="58"/>
+      <c r="S7" s="58"/>
+      <c r="T7" s="58"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="58"/>
       <c r="Y7" s="47"/>
       <c r="Z7" s="47"/>
       <c r="AA7" s="47"/>
@@ -5397,303 +5400,303 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="30.75">
+    <row r="8" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B8" s="3">
         <v>5.5</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="60"/>
-      <c r="R8" s="60"/>
-      <c r="S8" s="60"/>
-      <c r="T8" s="60"/>
-      <c r="U8" s="60"/>
-      <c r="V8" s="60"/>
-      <c r="W8" s="60"/>
-      <c r="X8" s="60"/>
-      <c r="Y8" s="60"/>
-      <c r="Z8" s="60"/>
-      <c r="AA8" s="60"/>
-      <c r="AB8" s="60"/>
-      <c r="AC8" s="60"/>
-    </row>
-    <row r="9" spans="1:29" ht="45.75">
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="58"/>
+      <c r="Q8" s="58"/>
+      <c r="R8" s="58"/>
+      <c r="S8" s="58"/>
+      <c r="T8" s="58"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="58"/>
+      <c r="AB8" s="58"/>
+      <c r="AC8" s="58"/>
+    </row>
+    <row r="9" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B9" s="3">
         <v>1.5</v>
       </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="60"/>
-      <c r="O9" s="60"/>
-      <c r="P9" s="60"/>
-      <c r="Q9" s="60"/>
-      <c r="R9" s="60"/>
-      <c r="S9" s="60"/>
-      <c r="T9" s="60"/>
-      <c r="U9" s="60"/>
-      <c r="V9" s="60"/>
-      <c r="W9" s="60"/>
-      <c r="X9" s="60"/>
-      <c r="Y9" s="60"/>
-      <c r="Z9" s="60"/>
-      <c r="AA9" s="60"/>
-      <c r="AB9" s="60"/>
-      <c r="AC9" s="60"/>
-    </row>
-    <row r="10" spans="1:29" ht="45.75">
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="58"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="58"/>
+      <c r="AB9" s="58"/>
+      <c r="AC9" s="58"/>
+    </row>
+    <row r="10" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B10" s="3">
         <v>6.5</v>
       </c>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="60"/>
-      <c r="Q10" s="60"/>
-      <c r="R10" s="60"/>
-      <c r="S10" s="60"/>
-      <c r="T10" s="60"/>
-      <c r="U10" s="60"/>
-      <c r="V10" s="60"/>
-      <c r="W10" s="60"/>
-      <c r="X10" s="60"/>
-      <c r="Y10" s="60"/>
-      <c r="Z10" s="60"/>
-      <c r="AA10" s="60"/>
-      <c r="AB10" s="60"/>
-      <c r="AC10" s="60"/>
-    </row>
-    <row r="11" spans="1:29" ht="45.75">
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="58"/>
+      <c r="S10" s="58"/>
+      <c r="T10" s="58"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="58"/>
+      <c r="AB10" s="58"/>
+      <c r="AC10" s="58"/>
+    </row>
+    <row r="11" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
       </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="60"/>
-      <c r="O11" s="60"/>
-      <c r="P11" s="60"/>
-      <c r="Q11" s="60"/>
-      <c r="R11" s="60"/>
-      <c r="S11" s="60"/>
-      <c r="T11" s="60"/>
-      <c r="U11" s="60"/>
-      <c r="V11" s="60"/>
-      <c r="W11" s="60"/>
-      <c r="X11" s="60"/>
-      <c r="Y11" s="60"/>
-      <c r="Z11" s="60"/>
-      <c r="AA11" s="60"/>
-      <c r="AB11" s="60"/>
-      <c r="AC11" s="60"/>
-    </row>
-    <row r="12" spans="1:29">
-      <c r="A12" s="60"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="60"/>
-      <c r="O12" s="60"/>
-      <c r="P12" s="60"/>
-      <c r="Q12" s="60"/>
-      <c r="R12" s="60"/>
-      <c r="S12" s="60"/>
-      <c r="T12" s="60"/>
-      <c r="U12" s="60"/>
-      <c r="V12" s="60"/>
-      <c r="W12" s="60"/>
-      <c r="X12" s="60"/>
-      <c r="Y12" s="60"/>
-      <c r="Z12" s="60"/>
-      <c r="AA12" s="60"/>
-      <c r="AB12" s="60"/>
-      <c r="AC12" s="60"/>
-    </row>
-    <row r="13" spans="1:29">
-      <c r="A13" s="60"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="60"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="60"/>
-      <c r="P13" s="60"/>
-      <c r="Q13" s="60"/>
-      <c r="R13" s="60"/>
-      <c r="S13" s="60"/>
-      <c r="T13" s="60"/>
-      <c r="U13" s="60"/>
-      <c r="V13" s="60"/>
-      <c r="W13" s="60"/>
-      <c r="X13" s="60"/>
-      <c r="Y13" s="60"/>
-      <c r="Z13" s="60"/>
-      <c r="AA13" s="60"/>
-      <c r="AB13" s="60"/>
-      <c r="AC13" s="60"/>
-    </row>
-    <row r="14" spans="1:29">
-      <c r="A14" s="60"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="60"/>
-      <c r="O14" s="60"/>
-      <c r="P14" s="60"/>
-      <c r="Q14" s="60"/>
-      <c r="R14" s="60"/>
-      <c r="S14" s="60"/>
-      <c r="T14" s="60"/>
-      <c r="U14" s="60"/>
-      <c r="V14" s="60"/>
-      <c r="W14" s="60"/>
-      <c r="X14" s="60"/>
-      <c r="Y14" s="60"/>
-      <c r="Z14" s="60"/>
-      <c r="AA14" s="60"/>
-      <c r="AB14" s="60"/>
-      <c r="AC14" s="60"/>
-    </row>
-    <row r="15" spans="1:29">
-      <c r="A15" s="60"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="60"/>
-      <c r="M15" s="60"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="60"/>
-      <c r="P15" s="60"/>
-      <c r="Q15" s="60"/>
-      <c r="R15" s="60"/>
-      <c r="S15" s="60"/>
-      <c r="T15" s="60"/>
-      <c r="U15" s="60"/>
-      <c r="V15" s="60"/>
-      <c r="W15" s="60"/>
-      <c r="X15" s="60"/>
-      <c r="Y15" s="60"/>
-      <c r="Z15" s="60"/>
-      <c r="AA15" s="60"/>
-      <c r="AB15" s="60"/>
-      <c r="AC15" s="60"/>
-    </row>
-    <row r="16" spans="1:29">
-      <c r="A16" s="60"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="60"/>
-      <c r="O16" s="60"/>
-      <c r="P16" s="60"/>
-      <c r="Q16" s="60"/>
-      <c r="R16" s="60"/>
-      <c r="S16" s="60"/>
-      <c r="T16" s="60"/>
-      <c r="U16" s="60"/>
-      <c r="V16" s="60"/>
-      <c r="W16" s="60"/>
-      <c r="X16" s="60"/>
-      <c r="Y16" s="60"/>
-      <c r="Z16" s="60"/>
-      <c r="AA16" s="60"/>
-      <c r="AB16" s="60"/>
-      <c r="AC16" s="60"/>
-    </row>
-    <row r="17"/>
-    <row r="18"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="58"/>
+      <c r="R11" s="58"/>
+      <c r="S11" s="58"/>
+      <c r="T11" s="58"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="58"/>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="58"/>
+      <c r="AA11" s="58"/>
+      <c r="AB11" s="58"/>
+      <c r="AC11" s="58"/>
+    </row>
+    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="58"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="58"/>
+      <c r="Q12" s="58"/>
+      <c r="R12" s="58"/>
+      <c r="S12" s="58"/>
+      <c r="T12" s="58"/>
+      <c r="U12" s="58"/>
+      <c r="V12" s="58"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="58"/>
+      <c r="Y12" s="58"/>
+      <c r="Z12" s="58"/>
+      <c r="AA12" s="58"/>
+      <c r="AB12" s="58"/>
+      <c r="AC12" s="58"/>
+    </row>
+    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="58"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="58"/>
+      <c r="T13" s="58"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="58"/>
+      <c r="Y13" s="58"/>
+      <c r="Z13" s="58"/>
+      <c r="AA13" s="58"/>
+      <c r="AB13" s="58"/>
+      <c r="AC13" s="58"/>
+    </row>
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="58"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="58"/>
+      <c r="Q14" s="58"/>
+      <c r="R14" s="58"/>
+      <c r="S14" s="58"/>
+      <c r="T14" s="58"/>
+      <c r="U14" s="58"/>
+      <c r="V14" s="58"/>
+      <c r="W14" s="58"/>
+      <c r="X14" s="58"/>
+      <c r="Y14" s="58"/>
+      <c r="Z14" s="58"/>
+      <c r="AA14" s="58"/>
+      <c r="AB14" s="58"/>
+      <c r="AC14" s="58"/>
+    </row>
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="58"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="58"/>
+      <c r="R15" s="58"/>
+      <c r="S15" s="58"/>
+      <c r="T15" s="58"/>
+      <c r="U15" s="58"/>
+      <c r="V15" s="58"/>
+      <c r="W15" s="58"/>
+      <c r="X15" s="58"/>
+      <c r="Y15" s="58"/>
+      <c r="Z15" s="58"/>
+      <c r="AA15" s="58"/>
+      <c r="AB15" s="58"/>
+      <c r="AC15" s="58"/>
+    </row>
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="58"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="58"/>
+      <c r="P16" s="58"/>
+      <c r="Q16" s="58"/>
+      <c r="R16" s="58"/>
+      <c r="S16" s="58"/>
+      <c r="T16" s="58"/>
+      <c r="U16" s="58"/>
+      <c r="V16" s="58"/>
+      <c r="W16" s="58"/>
+      <c r="X16" s="58"/>
+      <c r="Y16" s="58"/>
+      <c r="Z16" s="58"/>
+      <c r="AA16" s="58"/>
+      <c r="AB16" s="58"/>
+      <c r="AC16" s="58"/>
+    </row>
+    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5708,36 +5711,36 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="73.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="89.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="1"/>
-    <col min="18" max="18" width="65.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="1"/>
+    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="1"/>
+    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="1"/>
+    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="7" customFormat="1">
+    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -5808,21 +5811,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30.75">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="3">
         <v>4.5</v>
       </c>
-      <c r="C2" s="60"/>
+      <c r="C2" s="58"/>
       <c r="D2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="61">
+      <c r="E2" s="59">
         <v>20</v>
       </c>
-      <c r="F2" s="60"/>
+      <c r="F2" s="58"/>
       <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
@@ -5835,7 +5838,7 @@
       <c r="J2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="60"/>
+      <c r="K2" s="58"/>
       <c r="L2" s="3" t="s">
         <v>25</v>
       </c>
@@ -5856,38 +5859,38 @@
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
-      <c r="V2" s="60"/>
+      <c r="V2" s="58"/>
       <c r="W2" s="5"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60" t="s">
+      <c r="X2" s="58"/>
+      <c r="Y2" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="Z2" s="60">
+      <c r="Z2" s="58">
         <v>0</v>
       </c>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="60" t="s">
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="AC2" s="60">
+      <c r="AC2" s="58">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="60.75">
+    <row r="3" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="3">
         <v>1.5</v>
       </c>
-      <c r="C3" s="60"/>
+      <c r="C3" s="58"/>
       <c r="D3" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E3" s="5">
         <v>8.5</v>
       </c>
-      <c r="F3" s="60"/>
+      <c r="F3" s="58"/>
       <c r="G3" s="5" t="s">
         <v>34</v>
       </c>
@@ -5900,7 +5903,7 @@
       <c r="J3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="60"/>
+      <c r="K3" s="58"/>
       <c r="L3" s="5" t="s">
         <v>34</v>
       </c>
@@ -5919,38 +5922,38 @@
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
-      <c r="V3" s="60"/>
+      <c r="V3" s="58"/>
       <c r="W3" s="5"/>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="60" t="s">
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="Z3" s="60">
+      <c r="Z3" s="58">
         <v>7</v>
       </c>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="60" t="s">
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="AC3" s="60">
+      <c r="AC3" s="58">
         <v>626</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="60.75">
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="60"/>
+      <c r="C4" s="58"/>
       <c r="D4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="62">
+      <c r="E4" s="60">
         <v>2.5</v>
       </c>
-      <c r="F4" s="60"/>
+      <c r="F4" s="58"/>
       <c r="G4" s="5" t="s">
         <v>42</v>
       </c>
@@ -5963,7 +5966,7 @@
       <c r="J4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="60"/>
+      <c r="K4" s="58"/>
       <c r="L4" s="5" t="s">
         <v>42</v>
       </c>
@@ -5977,39 +5980,39 @@
         <v>44</v>
       </c>
       <c r="P4" s="5"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="60"/>
-      <c r="S4" s="60"/>
-      <c r="T4" s="60"/>
-      <c r="U4" s="60"/>
-      <c r="V4" s="60"/>
-      <c r="W4" s="60"/>
-      <c r="X4" s="60"/>
-      <c r="Y4" s="60" t="s">
+      <c r="Q4" s="58"/>
+      <c r="R4" s="58"/>
+      <c r="S4" s="58"/>
+      <c r="T4" s="58"/>
+      <c r="U4" s="58"/>
+      <c r="V4" s="58"/>
+      <c r="W4" s="58"/>
+      <c r="X4" s="58"/>
+      <c r="Y4" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="Z4" s="60">
+      <c r="Z4" s="58">
         <v>0</v>
       </c>
-      <c r="AA4" s="60"/>
-      <c r="AB4" s="60" t="s">
+      <c r="AA4" s="58"/>
+      <c r="AB4" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="AC4" s="60">
+      <c r="AC4" s="58">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="30.75">
+    <row r="5" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B5" s="3">
         <v>2.5</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="60"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="58"/>
       <c r="G5" s="5" t="s">
         <v>48</v>
       </c>
@@ -6022,7 +6025,7 @@
       <c r="J5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="K5" s="60"/>
+      <c r="K5" s="58"/>
       <c r="L5" s="5" t="s">
         <v>48</v>
       </c>
@@ -6036,39 +6039,39 @@
         <v>50</v>
       </c>
       <c r="P5" s="5"/>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="60"/>
-      <c r="S5" s="60"/>
-      <c r="T5" s="60"/>
-      <c r="U5" s="60"/>
-      <c r="V5" s="60"/>
-      <c r="W5" s="60"/>
-      <c r="X5" s="60"/>
-      <c r="Y5" s="60" t="s">
+      <c r="Q5" s="58"/>
+      <c r="R5" s="58"/>
+      <c r="S5" s="58"/>
+      <c r="T5" s="58"/>
+      <c r="U5" s="58"/>
+      <c r="V5" s="58"/>
+      <c r="W5" s="58"/>
+      <c r="X5" s="58"/>
+      <c r="Y5" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="Z5" s="60">
+      <c r="Z5" s="58">
         <v>20</v>
       </c>
-      <c r="AA5" s="60"/>
-      <c r="AB5" s="60" t="s">
+      <c r="AA5" s="58"/>
+      <c r="AB5" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="AC5" s="60">
+      <c r="AC5" s="58">
         <v>854</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="45.75">
+    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B6" s="3">
         <v>3.5</v>
       </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="60"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="58"/>
       <c r="G6" s="5" t="s">
         <v>54</v>
       </c>
@@ -6081,7 +6084,7 @@
       <c r="J6" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="K6" s="60"/>
+      <c r="K6" s="58"/>
       <c r="L6" s="5" t="s">
         <v>57</v>
       </c>
@@ -6095,61 +6098,61 @@
         <v>59</v>
       </c>
       <c r="P6" s="5"/>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="60"/>
-      <c r="S6" s="60"/>
-      <c r="T6" s="60"/>
-      <c r="U6" s="60"/>
-      <c r="V6" s="60"/>
-      <c r="W6" s="60"/>
-      <c r="X6" s="60"/>
-      <c r="Y6" s="60" t="s">
+      <c r="Q6" s="58"/>
+      <c r="R6" s="58"/>
+      <c r="S6" s="58"/>
+      <c r="T6" s="58"/>
+      <c r="U6" s="58"/>
+      <c r="V6" s="58"/>
+      <c r="W6" s="58"/>
+      <c r="X6" s="58"/>
+      <c r="Y6" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="Z6" s="60">
+      <c r="Z6" s="58">
         <v>0</v>
       </c>
-      <c r="AA6" s="60"/>
-      <c r="AB6" s="60" t="s">
+      <c r="AA6" s="58"/>
+      <c r="AB6" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="AC6" s="60">
+      <c r="AC6" s="58">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="45.75">
+    <row r="7" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B7" s="3">
         <v>3.5</v>
       </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="60"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="60"/>
-      <c r="S7" s="60"/>
-      <c r="T7" s="60"/>
-      <c r="U7" s="60"/>
-      <c r="V7" s="60"/>
-      <c r="W7" s="60"/>
-      <c r="X7" s="60"/>
-      <c r="Y7" s="60"/>
-      <c r="Z7" s="60"/>
-      <c r="AA7" s="60"/>
-      <c r="AB7" s="60" t="s">
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="58"/>
+      <c r="R7" s="58"/>
+      <c r="S7" s="58"/>
+      <c r="T7" s="58"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="58"/>
+      <c r="AA7" s="58"/>
+      <c r="AB7" s="58" t="s">
         <v>63</v>
       </c>
       <c r="AC7" s="48">
@@ -6157,303 +6160,303 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="30.75">
+    <row r="8" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B8" s="3">
         <v>5.5</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="60"/>
-      <c r="R8" s="60"/>
-      <c r="S8" s="60"/>
-      <c r="T8" s="60"/>
-      <c r="U8" s="60"/>
-      <c r="V8" s="60"/>
-      <c r="W8" s="60"/>
-      <c r="X8" s="60"/>
-      <c r="Y8" s="60"/>
-      <c r="Z8" s="60"/>
-      <c r="AA8" s="60"/>
-      <c r="AB8" s="60"/>
-      <c r="AC8" s="60"/>
-    </row>
-    <row r="9" spans="1:29" ht="45.75">
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="58"/>
+      <c r="Q8" s="58"/>
+      <c r="R8" s="58"/>
+      <c r="S8" s="58"/>
+      <c r="T8" s="58"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="58"/>
+      <c r="AB8" s="58"/>
+      <c r="AC8" s="58"/>
+    </row>
+    <row r="9" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B9" s="3">
         <v>1.5</v>
       </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="60"/>
-      <c r="O9" s="60"/>
-      <c r="P9" s="60"/>
-      <c r="Q9" s="60"/>
-      <c r="R9" s="60"/>
-      <c r="S9" s="60"/>
-      <c r="T9" s="60"/>
-      <c r="U9" s="60"/>
-      <c r="V9" s="60"/>
-      <c r="W9" s="60"/>
-      <c r="X9" s="60"/>
-      <c r="Y9" s="60"/>
-      <c r="Z9" s="60"/>
-      <c r="AA9" s="60"/>
-      <c r="AB9" s="60"/>
-      <c r="AC9" s="60"/>
-    </row>
-    <row r="10" spans="1:29" ht="45.75">
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="58"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="58"/>
+      <c r="AB9" s="58"/>
+      <c r="AC9" s="58"/>
+    </row>
+    <row r="10" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B10" s="3">
         <v>6.5</v>
       </c>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="60"/>
-      <c r="Q10" s="60"/>
-      <c r="R10" s="60"/>
-      <c r="S10" s="60"/>
-      <c r="T10" s="60"/>
-      <c r="U10" s="60"/>
-      <c r="V10" s="60"/>
-      <c r="W10" s="60"/>
-      <c r="X10" s="60"/>
-      <c r="Y10" s="60"/>
-      <c r="Z10" s="60"/>
-      <c r="AA10" s="60"/>
-      <c r="AB10" s="60"/>
-      <c r="AC10" s="60"/>
-    </row>
-    <row r="11" spans="1:29" ht="45.75">
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="58"/>
+      <c r="S10" s="58"/>
+      <c r="T10" s="58"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="58"/>
+      <c r="AB10" s="58"/>
+      <c r="AC10" s="58"/>
+    </row>
+    <row r="11" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
       </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="60"/>
-      <c r="O11" s="60"/>
-      <c r="P11" s="60"/>
-      <c r="Q11" s="60"/>
-      <c r="R11" s="60"/>
-      <c r="S11" s="60"/>
-      <c r="T11" s="60"/>
-      <c r="U11" s="60"/>
-      <c r="V11" s="60"/>
-      <c r="W11" s="60"/>
-      <c r="X11" s="60"/>
-      <c r="Y11" s="60"/>
-      <c r="Z11" s="60"/>
-      <c r="AA11" s="60"/>
-      <c r="AB11" s="60"/>
-      <c r="AC11" s="60"/>
-    </row>
-    <row r="12" spans="1:29">
-      <c r="A12" s="60"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="60"/>
-      <c r="O12" s="60"/>
-      <c r="P12" s="60"/>
-      <c r="Q12" s="60"/>
-      <c r="R12" s="60"/>
-      <c r="S12" s="60"/>
-      <c r="T12" s="60"/>
-      <c r="U12" s="60"/>
-      <c r="V12" s="60"/>
-      <c r="W12" s="60"/>
-      <c r="X12" s="60"/>
-      <c r="Y12" s="60"/>
-      <c r="Z12" s="60"/>
-      <c r="AA12" s="60"/>
-      <c r="AB12" s="60"/>
-      <c r="AC12" s="60"/>
-    </row>
-    <row r="13" spans="1:29">
-      <c r="A13" s="60"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="60"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="60"/>
-      <c r="P13" s="60"/>
-      <c r="Q13" s="60"/>
-      <c r="R13" s="60"/>
-      <c r="S13" s="60"/>
-      <c r="T13" s="60"/>
-      <c r="U13" s="60"/>
-      <c r="V13" s="60"/>
-      <c r="W13" s="60"/>
-      <c r="X13" s="60"/>
-      <c r="Y13" s="60"/>
-      <c r="Z13" s="60"/>
-      <c r="AA13" s="60"/>
-      <c r="AB13" s="60"/>
-      <c r="AC13" s="60"/>
-    </row>
-    <row r="14" spans="1:29">
-      <c r="A14" s="60"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="60"/>
-      <c r="O14" s="60"/>
-      <c r="P14" s="60"/>
-      <c r="Q14" s="60"/>
-      <c r="R14" s="60"/>
-      <c r="S14" s="60"/>
-      <c r="T14" s="60"/>
-      <c r="U14" s="60"/>
-      <c r="V14" s="60"/>
-      <c r="W14" s="60"/>
-      <c r="X14" s="60"/>
-      <c r="Y14" s="60"/>
-      <c r="Z14" s="60"/>
-      <c r="AA14" s="60"/>
-      <c r="AB14" s="60"/>
-      <c r="AC14" s="60"/>
-    </row>
-    <row r="15" spans="1:29">
-      <c r="A15" s="60"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="60"/>
-      <c r="M15" s="60"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="60"/>
-      <c r="P15" s="60"/>
-      <c r="Q15" s="60"/>
-      <c r="R15" s="60"/>
-      <c r="S15" s="60"/>
-      <c r="T15" s="60"/>
-      <c r="U15" s="60"/>
-      <c r="V15" s="60"/>
-      <c r="W15" s="60"/>
-      <c r="X15" s="60"/>
-      <c r="Y15" s="60"/>
-      <c r="Z15" s="60"/>
-      <c r="AA15" s="60"/>
-      <c r="AB15" s="60"/>
-      <c r="AC15" s="60"/>
-    </row>
-    <row r="16" spans="1:29">
-      <c r="A16" s="60"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="60"/>
-      <c r="O16" s="60"/>
-      <c r="P16" s="60"/>
-      <c r="Q16" s="60"/>
-      <c r="R16" s="60"/>
-      <c r="S16" s="60"/>
-      <c r="T16" s="60"/>
-      <c r="U16" s="60"/>
-      <c r="V16" s="60"/>
-      <c r="W16" s="60"/>
-      <c r="X16" s="60"/>
-      <c r="Y16" s="60"/>
-      <c r="Z16" s="60"/>
-      <c r="AA16" s="60"/>
-      <c r="AB16" s="60"/>
-      <c r="AC16" s="60"/>
-    </row>
-    <row r="17"/>
-    <row r="18"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="58"/>
+      <c r="R11" s="58"/>
+      <c r="S11" s="58"/>
+      <c r="T11" s="58"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="58"/>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="58"/>
+      <c r="AA11" s="58"/>
+      <c r="AB11" s="58"/>
+      <c r="AC11" s="58"/>
+    </row>
+    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="58"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="58"/>
+      <c r="Q12" s="58"/>
+      <c r="R12" s="58"/>
+      <c r="S12" s="58"/>
+      <c r="T12" s="58"/>
+      <c r="U12" s="58"/>
+      <c r="V12" s="58"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="58"/>
+      <c r="Y12" s="58"/>
+      <c r="Z12" s="58"/>
+      <c r="AA12" s="58"/>
+      <c r="AB12" s="58"/>
+      <c r="AC12" s="58"/>
+    </row>
+    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="58"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="58"/>
+      <c r="T13" s="58"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="58"/>
+      <c r="Y13" s="58"/>
+      <c r="Z13" s="58"/>
+      <c r="AA13" s="58"/>
+      <c r="AB13" s="58"/>
+      <c r="AC13" s="58"/>
+    </row>
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="58"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="58"/>
+      <c r="Q14" s="58"/>
+      <c r="R14" s="58"/>
+      <c r="S14" s="58"/>
+      <c r="T14" s="58"/>
+      <c r="U14" s="58"/>
+      <c r="V14" s="58"/>
+      <c r="W14" s="58"/>
+      <c r="X14" s="58"/>
+      <c r="Y14" s="58"/>
+      <c r="Z14" s="58"/>
+      <c r="AA14" s="58"/>
+      <c r="AB14" s="58"/>
+      <c r="AC14" s="58"/>
+    </row>
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="58"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="58"/>
+      <c r="R15" s="58"/>
+      <c r="S15" s="58"/>
+      <c r="T15" s="58"/>
+      <c r="U15" s="58"/>
+      <c r="V15" s="58"/>
+      <c r="W15" s="58"/>
+      <c r="X15" s="58"/>
+      <c r="Y15" s="58"/>
+      <c r="Z15" s="58"/>
+      <c r="AA15" s="58"/>
+      <c r="AB15" s="58"/>
+      <c r="AC15" s="58"/>
+    </row>
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="58"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="58"/>
+      <c r="P16" s="58"/>
+      <c r="Q16" s="58"/>
+      <c r="R16" s="58"/>
+      <c r="S16" s="58"/>
+      <c r="T16" s="58"/>
+      <c r="U16" s="58"/>
+      <c r="V16" s="58"/>
+      <c r="W16" s="58"/>
+      <c r="X16" s="58"/>
+      <c r="Y16" s="58"/>
+      <c r="Z16" s="58"/>
+      <c r="AA16" s="58"/>
+      <c r="AB16" s="58"/>
+      <c r="AC16" s="58"/>
+    </row>
+    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6468,36 +6471,36 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="73.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="89.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="1"/>
-    <col min="18" max="18" width="65.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="1"/>
+    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="1"/>
+    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="1"/>
+    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="7" customFormat="1">
+    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -6568,21 +6571,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30.75">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="3">
         <v>4.5</v>
       </c>
-      <c r="C2" s="60"/>
+      <c r="C2" s="58"/>
       <c r="D2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="61">
+      <c r="E2" s="59">
         <v>20</v>
       </c>
-      <c r="F2" s="60"/>
+      <c r="F2" s="58"/>
       <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
@@ -6595,7 +6598,7 @@
       <c r="J2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="60"/>
+      <c r="K2" s="58"/>
       <c r="L2" s="3" t="s">
         <v>25</v>
       </c>
@@ -6616,38 +6619,38 @@
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
-      <c r="V2" s="60"/>
+      <c r="V2" s="58"/>
       <c r="W2" s="5"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60" t="s">
+      <c r="X2" s="58"/>
+      <c r="Y2" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="Z2" s="60">
+      <c r="Z2" s="58">
         <v>0</v>
       </c>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="60" t="s">
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="AC2" s="60">
+      <c r="AC2" s="58">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="60.75">
+    <row r="3" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="3">
         <v>1.5</v>
       </c>
-      <c r="C3" s="60"/>
+      <c r="C3" s="58"/>
       <c r="D3" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E3" s="5">
         <v>8.5</v>
       </c>
-      <c r="F3" s="60"/>
+      <c r="F3" s="58"/>
       <c r="G3" s="5" t="s">
         <v>34</v>
       </c>
@@ -6660,7 +6663,7 @@
       <c r="J3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="60"/>
+      <c r="K3" s="58"/>
       <c r="L3" s="5" t="s">
         <v>34</v>
       </c>
@@ -6679,38 +6682,38 @@
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
-      <c r="V3" s="60"/>
+      <c r="V3" s="58"/>
       <c r="W3" s="5"/>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="60" t="s">
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="Z3" s="60">
+      <c r="Z3" s="58">
         <v>6</v>
       </c>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="60" t="s">
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="AC3" s="60">
+      <c r="AC3" s="58">
         <v>632</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="60.75">
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="60"/>
+      <c r="C4" s="58"/>
       <c r="D4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="62">
+      <c r="E4" s="60">
         <v>2.5</v>
       </c>
-      <c r="F4" s="60"/>
+      <c r="F4" s="58"/>
       <c r="G4" s="5" t="s">
         <v>42</v>
       </c>
@@ -6723,7 +6726,7 @@
       <c r="J4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="60"/>
+      <c r="K4" s="58"/>
       <c r="L4" s="5" t="s">
         <v>42</v>
       </c>
@@ -6737,39 +6740,39 @@
         <v>44</v>
       </c>
       <c r="P4" s="5"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="60"/>
-      <c r="S4" s="60"/>
-      <c r="T4" s="60"/>
-      <c r="U4" s="60"/>
-      <c r="V4" s="60"/>
-      <c r="W4" s="60"/>
-      <c r="X4" s="60"/>
-      <c r="Y4" s="60" t="s">
+      <c r="Q4" s="58"/>
+      <c r="R4" s="58"/>
+      <c r="S4" s="58"/>
+      <c r="T4" s="58"/>
+      <c r="U4" s="58"/>
+      <c r="V4" s="58"/>
+      <c r="W4" s="58"/>
+      <c r="X4" s="58"/>
+      <c r="Y4" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="Z4" s="60">
+      <c r="Z4" s="58">
         <v>0</v>
       </c>
-      <c r="AA4" s="60"/>
-      <c r="AB4" s="60" t="s">
+      <c r="AA4" s="58"/>
+      <c r="AB4" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="AC4" s="60">
+      <c r="AC4" s="58">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="30.75">
+    <row r="5" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B5" s="3">
         <v>2.5</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="60"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="58"/>
       <c r="G5" s="5" t="s">
         <v>48</v>
       </c>
@@ -6782,7 +6785,7 @@
       <c r="J5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="K5" s="60"/>
+      <c r="K5" s="58"/>
       <c r="L5" s="5" t="s">
         <v>48</v>
       </c>
@@ -6796,39 +6799,39 @@
         <v>50</v>
       </c>
       <c r="P5" s="5"/>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="60"/>
-      <c r="S5" s="60"/>
-      <c r="T5" s="60"/>
-      <c r="U5" s="60"/>
-      <c r="V5" s="60"/>
-      <c r="W5" s="60"/>
-      <c r="X5" s="60"/>
-      <c r="Y5" s="60" t="s">
+      <c r="Q5" s="58"/>
+      <c r="R5" s="58"/>
+      <c r="S5" s="58"/>
+      <c r="T5" s="58"/>
+      <c r="U5" s="58"/>
+      <c r="V5" s="58"/>
+      <c r="W5" s="58"/>
+      <c r="X5" s="58"/>
+      <c r="Y5" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="Z5" s="60">
+      <c r="Z5" s="58">
         <v>18</v>
       </c>
-      <c r="AA5" s="60"/>
-      <c r="AB5" s="60" t="s">
+      <c r="AA5" s="58"/>
+      <c r="AB5" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="AC5" s="60">
+      <c r="AC5" s="58">
         <v>872</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="45.75">
+    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B6" s="3">
         <v>3.5</v>
       </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="60"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="58"/>
       <c r="G6" s="5" t="s">
         <v>54</v>
       </c>
@@ -6841,7 +6844,7 @@
       <c r="J6" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="K6" s="60"/>
+      <c r="K6" s="58"/>
       <c r="L6" s="5" t="s">
         <v>57</v>
       </c>
@@ -6855,61 +6858,61 @@
         <v>59</v>
       </c>
       <c r="P6" s="5"/>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="60"/>
-      <c r="S6" s="60"/>
-      <c r="T6" s="60"/>
-      <c r="U6" s="60"/>
-      <c r="V6" s="60"/>
-      <c r="W6" s="60"/>
-      <c r="X6" s="60"/>
-      <c r="Y6" s="60" t="s">
+      <c r="Q6" s="58"/>
+      <c r="R6" s="58"/>
+      <c r="S6" s="58"/>
+      <c r="T6" s="58"/>
+      <c r="U6" s="58"/>
+      <c r="V6" s="58"/>
+      <c r="W6" s="58"/>
+      <c r="X6" s="58"/>
+      <c r="Y6" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="Z6" s="60">
+      <c r="Z6" s="58">
         <v>0</v>
       </c>
-      <c r="AA6" s="60"/>
-      <c r="AB6" s="60" t="s">
+      <c r="AA6" s="58"/>
+      <c r="AB6" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="AC6" s="60">
+      <c r="AC6" s="58">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="45.75">
+    <row r="7" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B7" s="3">
         <v>3.5</v>
       </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="60"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="60"/>
-      <c r="S7" s="60"/>
-      <c r="T7" s="60"/>
-      <c r="U7" s="60"/>
-      <c r="V7" s="60"/>
-      <c r="W7" s="60"/>
-      <c r="X7" s="60"/>
-      <c r="Y7" s="60"/>
-      <c r="Z7" s="60"/>
-      <c r="AA7" s="60"/>
-      <c r="AB7" s="60" t="s">
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="58"/>
+      <c r="R7" s="58"/>
+      <c r="S7" s="58"/>
+      <c r="T7" s="58"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="58"/>
+      <c r="AA7" s="58"/>
+      <c r="AB7" s="58" t="s">
         <v>63</v>
       </c>
       <c r="AC7" s="48">
@@ -6917,303 +6920,303 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="30.75">
+    <row r="8" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B8" s="3">
         <v>5.5</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="60"/>
-      <c r="R8" s="60"/>
-      <c r="S8" s="60"/>
-      <c r="T8" s="60"/>
-      <c r="U8" s="60"/>
-      <c r="V8" s="60"/>
-      <c r="W8" s="60"/>
-      <c r="X8" s="60"/>
-      <c r="Y8" s="60"/>
-      <c r="Z8" s="60"/>
-      <c r="AA8" s="60"/>
-      <c r="AB8" s="60"/>
-      <c r="AC8" s="60"/>
-    </row>
-    <row r="9" spans="1:29" ht="45.75">
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="58"/>
+      <c r="Q8" s="58"/>
+      <c r="R8" s="58"/>
+      <c r="S8" s="58"/>
+      <c r="T8" s="58"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="58"/>
+      <c r="AB8" s="58"/>
+      <c r="AC8" s="58"/>
+    </row>
+    <row r="9" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B9" s="3">
         <v>1.5</v>
       </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="60"/>
-      <c r="O9" s="60"/>
-      <c r="P9" s="60"/>
-      <c r="Q9" s="60"/>
-      <c r="R9" s="60"/>
-      <c r="S9" s="60"/>
-      <c r="T9" s="60"/>
-      <c r="U9" s="60"/>
-      <c r="V9" s="60"/>
-      <c r="W9" s="60"/>
-      <c r="X9" s="60"/>
-      <c r="Y9" s="60"/>
-      <c r="Z9" s="60"/>
-      <c r="AA9" s="60"/>
-      <c r="AB9" s="60"/>
-      <c r="AC9" s="60"/>
-    </row>
-    <row r="10" spans="1:29" ht="45.75">
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="58"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="58"/>
+      <c r="AB9" s="58"/>
+      <c r="AC9" s="58"/>
+    </row>
+    <row r="10" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B10" s="3">
         <v>6.5</v>
       </c>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="60"/>
-      <c r="Q10" s="60"/>
-      <c r="R10" s="60"/>
-      <c r="S10" s="60"/>
-      <c r="T10" s="60"/>
-      <c r="U10" s="60"/>
-      <c r="V10" s="60"/>
-      <c r="W10" s="60"/>
-      <c r="X10" s="60"/>
-      <c r="Y10" s="60"/>
-      <c r="Z10" s="60"/>
-      <c r="AA10" s="60"/>
-      <c r="AB10" s="60"/>
-      <c r="AC10" s="60"/>
-    </row>
-    <row r="11" spans="1:29" ht="45.75">
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="58"/>
+      <c r="S10" s="58"/>
+      <c r="T10" s="58"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="58"/>
+      <c r="AB10" s="58"/>
+      <c r="AC10" s="58"/>
+    </row>
+    <row r="11" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
       </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="60"/>
-      <c r="O11" s="60"/>
-      <c r="P11" s="60"/>
-      <c r="Q11" s="60"/>
-      <c r="R11" s="60"/>
-      <c r="S11" s="60"/>
-      <c r="T11" s="60"/>
-      <c r="U11" s="60"/>
-      <c r="V11" s="60"/>
-      <c r="W11" s="60"/>
-      <c r="X11" s="60"/>
-      <c r="Y11" s="60"/>
-      <c r="Z11" s="60"/>
-      <c r="AA11" s="60"/>
-      <c r="AB11" s="60"/>
-      <c r="AC11" s="60"/>
-    </row>
-    <row r="12" spans="1:29">
-      <c r="A12" s="60"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="60"/>
-      <c r="O12" s="60"/>
-      <c r="P12" s="60"/>
-      <c r="Q12" s="60"/>
-      <c r="R12" s="60"/>
-      <c r="S12" s="60"/>
-      <c r="T12" s="60"/>
-      <c r="U12" s="60"/>
-      <c r="V12" s="60"/>
-      <c r="W12" s="60"/>
-      <c r="X12" s="60"/>
-      <c r="Y12" s="60"/>
-      <c r="Z12" s="60"/>
-      <c r="AA12" s="60"/>
-      <c r="AB12" s="60"/>
-      <c r="AC12" s="60"/>
-    </row>
-    <row r="13" spans="1:29">
-      <c r="A13" s="60"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="60"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="60"/>
-      <c r="P13" s="60"/>
-      <c r="Q13" s="60"/>
-      <c r="R13" s="60"/>
-      <c r="S13" s="60"/>
-      <c r="T13" s="60"/>
-      <c r="U13" s="60"/>
-      <c r="V13" s="60"/>
-      <c r="W13" s="60"/>
-      <c r="X13" s="60"/>
-      <c r="Y13" s="60"/>
-      <c r="Z13" s="60"/>
-      <c r="AA13" s="60"/>
-      <c r="AB13" s="60"/>
-      <c r="AC13" s="60"/>
-    </row>
-    <row r="14" spans="1:29">
-      <c r="A14" s="60"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="60"/>
-      <c r="O14" s="60"/>
-      <c r="P14" s="60"/>
-      <c r="Q14" s="60"/>
-      <c r="R14" s="60"/>
-      <c r="S14" s="60"/>
-      <c r="T14" s="60"/>
-      <c r="U14" s="60"/>
-      <c r="V14" s="60"/>
-      <c r="W14" s="60"/>
-      <c r="X14" s="60"/>
-      <c r="Y14" s="60"/>
-      <c r="Z14" s="60"/>
-      <c r="AA14" s="60"/>
-      <c r="AB14" s="60"/>
-      <c r="AC14" s="60"/>
-    </row>
-    <row r="15" spans="1:29">
-      <c r="A15" s="60"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="60"/>
-      <c r="M15" s="60"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="60"/>
-      <c r="P15" s="60"/>
-      <c r="Q15" s="60"/>
-      <c r="R15" s="60"/>
-      <c r="S15" s="60"/>
-      <c r="T15" s="60"/>
-      <c r="U15" s="60"/>
-      <c r="V15" s="60"/>
-      <c r="W15" s="60"/>
-      <c r="X15" s="60"/>
-      <c r="Y15" s="60"/>
-      <c r="Z15" s="60"/>
-      <c r="AA15" s="60"/>
-      <c r="AB15" s="60"/>
-      <c r="AC15" s="60"/>
-    </row>
-    <row r="16" spans="1:29">
-      <c r="A16" s="60"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="60"/>
-      <c r="O16" s="60"/>
-      <c r="P16" s="60"/>
-      <c r="Q16" s="60"/>
-      <c r="R16" s="60"/>
-      <c r="S16" s="60"/>
-      <c r="T16" s="60"/>
-      <c r="U16" s="60"/>
-      <c r="V16" s="60"/>
-      <c r="W16" s="60"/>
-      <c r="X16" s="60"/>
-      <c r="Y16" s="60"/>
-      <c r="Z16" s="60"/>
-      <c r="AA16" s="60"/>
-      <c r="AB16" s="60"/>
-      <c r="AC16" s="60"/>
-    </row>
-    <row r="17"/>
-    <row r="18"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="58"/>
+      <c r="R11" s="58"/>
+      <c r="S11" s="58"/>
+      <c r="T11" s="58"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="58"/>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="58"/>
+      <c r="AA11" s="58"/>
+      <c r="AB11" s="58"/>
+      <c r="AC11" s="58"/>
+    </row>
+    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="58"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="58"/>
+      <c r="Q12" s="58"/>
+      <c r="R12" s="58"/>
+      <c r="S12" s="58"/>
+      <c r="T12" s="58"/>
+      <c r="U12" s="58"/>
+      <c r="V12" s="58"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="58"/>
+      <c r="Y12" s="58"/>
+      <c r="Z12" s="58"/>
+      <c r="AA12" s="58"/>
+      <c r="AB12" s="58"/>
+      <c r="AC12" s="58"/>
+    </row>
+    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="58"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="58"/>
+      <c r="T13" s="58"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="58"/>
+      <c r="Y13" s="58"/>
+      <c r="Z13" s="58"/>
+      <c r="AA13" s="58"/>
+      <c r="AB13" s="58"/>
+      <c r="AC13" s="58"/>
+    </row>
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="58"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="58"/>
+      <c r="Q14" s="58"/>
+      <c r="R14" s="58"/>
+      <c r="S14" s="58"/>
+      <c r="T14" s="58"/>
+      <c r="U14" s="58"/>
+      <c r="V14" s="58"/>
+      <c r="W14" s="58"/>
+      <c r="X14" s="58"/>
+      <c r="Y14" s="58"/>
+      <c r="Z14" s="58"/>
+      <c r="AA14" s="58"/>
+      <c r="AB14" s="58"/>
+      <c r="AC14" s="58"/>
+    </row>
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="58"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="58"/>
+      <c r="R15" s="58"/>
+      <c r="S15" s="58"/>
+      <c r="T15" s="58"/>
+      <c r="U15" s="58"/>
+      <c r="V15" s="58"/>
+      <c r="W15" s="58"/>
+      <c r="X15" s="58"/>
+      <c r="Y15" s="58"/>
+      <c r="Z15" s="58"/>
+      <c r="AA15" s="58"/>
+      <c r="AB15" s="58"/>
+      <c r="AC15" s="58"/>
+    </row>
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="58"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="58"/>
+      <c r="P16" s="58"/>
+      <c r="Q16" s="58"/>
+      <c r="R16" s="58"/>
+      <c r="S16" s="58"/>
+      <c r="T16" s="58"/>
+      <c r="U16" s="58"/>
+      <c r="V16" s="58"/>
+      <c r="W16" s="58"/>
+      <c r="X16" s="58"/>
+      <c r="Y16" s="58"/>
+      <c r="Z16" s="58"/>
+      <c r="AA16" s="58"/>
+      <c r="AB16" s="58"/>
+      <c r="AC16" s="58"/>
+    </row>
+    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7228,36 +7231,36 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="1"/>
-    <col min="4" max="4" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="1"/>
-    <col min="7" max="7" width="73.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="1"/>
-    <col min="12" max="12" width="89.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" style="1"/>
-    <col min="18" max="18" width="65.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="1"/>
+    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="1"/>
+    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="7" customFormat="1">
+    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -7328,21 +7331,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30.75">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="3">
         <v>4.5</v>
       </c>
-      <c r="C2" s="60"/>
+      <c r="C2" s="58"/>
       <c r="D2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="61">
+      <c r="E2" s="59">
         <v>20</v>
       </c>
-      <c r="F2" s="60"/>
+      <c r="F2" s="58"/>
       <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
@@ -7355,7 +7358,7 @@
       <c r="J2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="60"/>
+      <c r="K2" s="58"/>
       <c r="L2" s="3" t="s">
         <v>25</v>
       </c>
@@ -7376,38 +7379,38 @@
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
-      <c r="V2" s="60"/>
+      <c r="V2" s="58"/>
       <c r="W2" s="5"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60" t="s">
+      <c r="X2" s="58"/>
+      <c r="Y2" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="Z2" s="60">
+      <c r="Z2" s="58">
         <v>0</v>
       </c>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="60" t="s">
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="AC2" s="60">
+      <c r="AC2" s="58">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="60.75">
+    <row r="3" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="3">
         <v>1.5</v>
       </c>
-      <c r="C3" s="60"/>
+      <c r="C3" s="58"/>
       <c r="D3" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E3" s="5">
         <v>8.5</v>
       </c>
-      <c r="F3" s="60"/>
+      <c r="F3" s="58"/>
       <c r="G3" s="5" t="s">
         <v>34</v>
       </c>
@@ -7420,7 +7423,7 @@
       <c r="J3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="60"/>
+      <c r="K3" s="58"/>
       <c r="L3" s="5" t="s">
         <v>34</v>
       </c>
@@ -7439,38 +7442,38 @@
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
-      <c r="V3" s="60"/>
+      <c r="V3" s="58"/>
       <c r="W3" s="5"/>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="60" t="s">
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="Z3" s="60">
+      <c r="Z3" s="58">
         <v>6</v>
       </c>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="60" t="s">
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="AC3" s="60">
+      <c r="AC3" s="58">
         <v>638</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="60.75">
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="60"/>
+      <c r="C4" s="58"/>
       <c r="D4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="62">
+      <c r="E4" s="60">
         <v>2.5</v>
       </c>
-      <c r="F4" s="60"/>
+      <c r="F4" s="58"/>
       <c r="G4" s="5" t="s">
         <v>42</v>
       </c>
@@ -7483,7 +7486,7 @@
       <c r="J4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="60"/>
+      <c r="K4" s="58"/>
       <c r="L4" s="5" t="s">
         <v>42</v>
       </c>
@@ -7497,39 +7500,39 @@
         <v>44</v>
       </c>
       <c r="P4" s="5"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="60"/>
-      <c r="S4" s="60"/>
-      <c r="T4" s="60"/>
-      <c r="U4" s="60"/>
-      <c r="V4" s="60"/>
-      <c r="W4" s="60"/>
-      <c r="X4" s="60"/>
-      <c r="Y4" s="60" t="s">
+      <c r="Q4" s="58"/>
+      <c r="R4" s="58"/>
+      <c r="S4" s="58"/>
+      <c r="T4" s="58"/>
+      <c r="U4" s="58"/>
+      <c r="V4" s="58"/>
+      <c r="W4" s="58"/>
+      <c r="X4" s="58"/>
+      <c r="Y4" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="Z4" s="60">
+      <c r="Z4" s="58">
         <v>0</v>
       </c>
-      <c r="AA4" s="60"/>
-      <c r="AB4" s="60" t="s">
+      <c r="AA4" s="58"/>
+      <c r="AB4" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="AC4" s="60">
+      <c r="AC4" s="58">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="30.75">
+    <row r="5" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B5" s="3">
         <v>2.5</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="60"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="58"/>
       <c r="G5" s="5" t="s">
         <v>48</v>
       </c>
@@ -7542,7 +7545,7 @@
       <c r="J5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="K5" s="60"/>
+      <c r="K5" s="58"/>
       <c r="L5" s="5" t="s">
         <v>48</v>
       </c>
@@ -7556,39 +7559,39 @@
         <v>50</v>
       </c>
       <c r="P5" s="5"/>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="60"/>
-      <c r="S5" s="60"/>
-      <c r="T5" s="60"/>
-      <c r="U5" s="60"/>
-      <c r="V5" s="60"/>
-      <c r="W5" s="60"/>
-      <c r="X5" s="60"/>
-      <c r="Y5" s="60" t="s">
+      <c r="Q5" s="58"/>
+      <c r="R5" s="58"/>
+      <c r="S5" s="58"/>
+      <c r="T5" s="58"/>
+      <c r="U5" s="58"/>
+      <c r="V5" s="58"/>
+      <c r="W5" s="58"/>
+      <c r="X5" s="58"/>
+      <c r="Y5" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="Z5" s="60">
+      <c r="Z5" s="58">
         <v>14</v>
       </c>
-      <c r="AA5" s="60"/>
-      <c r="AB5" s="60" t="s">
+      <c r="AA5" s="58"/>
+      <c r="AB5" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="AC5" s="60">
+      <c r="AC5" s="58">
         <v>886</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="45.75">
+    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B6" s="3">
         <v>3.5</v>
       </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="60"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="58"/>
       <c r="G6" s="5" t="s">
         <v>54</v>
       </c>
@@ -7601,7 +7604,7 @@
       <c r="J6" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="K6" s="60"/>
+      <c r="K6" s="58"/>
       <c r="L6" s="5" t="s">
         <v>57</v>
       </c>
@@ -7615,61 +7618,61 @@
         <v>59</v>
       </c>
       <c r="P6" s="5"/>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="60"/>
-      <c r="S6" s="60"/>
-      <c r="T6" s="60"/>
-      <c r="U6" s="60"/>
-      <c r="V6" s="60"/>
-      <c r="W6" s="60"/>
-      <c r="X6" s="60"/>
-      <c r="Y6" s="60" t="s">
+      <c r="Q6" s="58"/>
+      <c r="R6" s="58"/>
+      <c r="S6" s="58"/>
+      <c r="T6" s="58"/>
+      <c r="U6" s="58"/>
+      <c r="V6" s="58"/>
+      <c r="W6" s="58"/>
+      <c r="X6" s="58"/>
+      <c r="Y6" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="Z6" s="60">
+      <c r="Z6" s="58">
         <v>0</v>
       </c>
-      <c r="AA6" s="60"/>
-      <c r="AB6" s="60" t="s">
+      <c r="AA6" s="58"/>
+      <c r="AB6" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="AC6" s="60">
+      <c r="AC6" s="58">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="45.75">
+    <row r="7" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B7" s="3">
         <v>3.5</v>
       </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="60"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="60"/>
-      <c r="S7" s="60"/>
-      <c r="T7" s="60"/>
-      <c r="U7" s="60"/>
-      <c r="V7" s="60"/>
-      <c r="W7" s="60"/>
-      <c r="X7" s="60"/>
-      <c r="Y7" s="60"/>
-      <c r="Z7" s="60"/>
-      <c r="AA7" s="60"/>
-      <c r="AB7" s="60" t="s">
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="58"/>
+      <c r="R7" s="58"/>
+      <c r="S7" s="58"/>
+      <c r="T7" s="58"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="58"/>
+      <c r="AA7" s="58"/>
+      <c r="AB7" s="58" t="s">
         <v>63</v>
       </c>
       <c r="AC7" s="48">
@@ -7677,303 +7680,303 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="30.75">
+    <row r="8" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B8" s="3">
         <v>5.5</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="60"/>
-      <c r="R8" s="60"/>
-      <c r="S8" s="60"/>
-      <c r="T8" s="60"/>
-      <c r="U8" s="60"/>
-      <c r="V8" s="60"/>
-      <c r="W8" s="60"/>
-      <c r="X8" s="60"/>
-      <c r="Y8" s="60"/>
-      <c r="Z8" s="60"/>
-      <c r="AA8" s="60"/>
-      <c r="AB8" s="60"/>
-      <c r="AC8" s="60"/>
-    </row>
-    <row r="9" spans="1:29" ht="45.75">
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="58"/>
+      <c r="Q8" s="58"/>
+      <c r="R8" s="58"/>
+      <c r="S8" s="58"/>
+      <c r="T8" s="58"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="58"/>
+      <c r="AB8" s="58"/>
+      <c r="AC8" s="58"/>
+    </row>
+    <row r="9" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B9" s="3">
         <v>1.5</v>
       </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="60"/>
-      <c r="O9" s="60"/>
-      <c r="P9" s="60"/>
-      <c r="Q9" s="60"/>
-      <c r="R9" s="60"/>
-      <c r="S9" s="60"/>
-      <c r="T9" s="60"/>
-      <c r="U9" s="60"/>
-      <c r="V9" s="60"/>
-      <c r="W9" s="60"/>
-      <c r="X9" s="60"/>
-      <c r="Y9" s="60"/>
-      <c r="Z9" s="60"/>
-      <c r="AA9" s="60"/>
-      <c r="AB9" s="60"/>
-      <c r="AC9" s="60"/>
-    </row>
-    <row r="10" spans="1:29" ht="45.75">
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="58"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="58"/>
+      <c r="AB9" s="58"/>
+      <c r="AC9" s="58"/>
+    </row>
+    <row r="10" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B10" s="3">
         <v>6.5</v>
       </c>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="60"/>
-      <c r="Q10" s="60"/>
-      <c r="R10" s="60"/>
-      <c r="S10" s="60"/>
-      <c r="T10" s="60"/>
-      <c r="U10" s="60"/>
-      <c r="V10" s="60"/>
-      <c r="W10" s="60"/>
-      <c r="X10" s="60"/>
-      <c r="Y10" s="60"/>
-      <c r="Z10" s="60"/>
-      <c r="AA10" s="60"/>
-      <c r="AB10" s="60"/>
-      <c r="AC10" s="60"/>
-    </row>
-    <row r="11" spans="1:29" ht="45.75">
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="58"/>
+      <c r="S10" s="58"/>
+      <c r="T10" s="58"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="58"/>
+      <c r="AB10" s="58"/>
+      <c r="AC10" s="58"/>
+    </row>
+    <row r="11" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
       </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="60"/>
-      <c r="O11" s="60"/>
-      <c r="P11" s="60"/>
-      <c r="Q11" s="60"/>
-      <c r="R11" s="60"/>
-      <c r="S11" s="60"/>
-      <c r="T11" s="60"/>
-      <c r="U11" s="60"/>
-      <c r="V11" s="60"/>
-      <c r="W11" s="60"/>
-      <c r="X11" s="60"/>
-      <c r="Y11" s="60"/>
-      <c r="Z11" s="60"/>
-      <c r="AA11" s="60"/>
-      <c r="AB11" s="60"/>
-      <c r="AC11" s="60"/>
-    </row>
-    <row r="12" spans="1:29">
-      <c r="A12" s="60"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="60"/>
-      <c r="O12" s="60"/>
-      <c r="P12" s="60"/>
-      <c r="Q12" s="60"/>
-      <c r="R12" s="60"/>
-      <c r="S12" s="60"/>
-      <c r="T12" s="60"/>
-      <c r="U12" s="60"/>
-      <c r="V12" s="60"/>
-      <c r="W12" s="60"/>
-      <c r="X12" s="60"/>
-      <c r="Y12" s="60"/>
-      <c r="Z12" s="60"/>
-      <c r="AA12" s="60"/>
-      <c r="AB12" s="60"/>
-      <c r="AC12" s="60"/>
-    </row>
-    <row r="13" spans="1:29">
-      <c r="A13" s="60"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="60"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="60"/>
-      <c r="P13" s="60"/>
-      <c r="Q13" s="60"/>
-      <c r="R13" s="60"/>
-      <c r="S13" s="60"/>
-      <c r="T13" s="60"/>
-      <c r="U13" s="60"/>
-      <c r="V13" s="60"/>
-      <c r="W13" s="60"/>
-      <c r="X13" s="60"/>
-      <c r="Y13" s="60"/>
-      <c r="Z13" s="60"/>
-      <c r="AA13" s="60"/>
-      <c r="AB13" s="60"/>
-      <c r="AC13" s="60"/>
-    </row>
-    <row r="14" spans="1:29">
-      <c r="A14" s="60"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="60"/>
-      <c r="O14" s="60"/>
-      <c r="P14" s="60"/>
-      <c r="Q14" s="60"/>
-      <c r="R14" s="60"/>
-      <c r="S14" s="60"/>
-      <c r="T14" s="60"/>
-      <c r="U14" s="60"/>
-      <c r="V14" s="60"/>
-      <c r="W14" s="60"/>
-      <c r="X14" s="60"/>
-      <c r="Y14" s="60"/>
-      <c r="Z14" s="60"/>
-      <c r="AA14" s="60"/>
-      <c r="AB14" s="60"/>
-      <c r="AC14" s="60"/>
-    </row>
-    <row r="15" spans="1:29">
-      <c r="A15" s="60"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="60"/>
-      <c r="M15" s="60"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="60"/>
-      <c r="P15" s="60"/>
-      <c r="Q15" s="60"/>
-      <c r="R15" s="60"/>
-      <c r="S15" s="60"/>
-      <c r="T15" s="60"/>
-      <c r="U15" s="60"/>
-      <c r="V15" s="60"/>
-      <c r="W15" s="60"/>
-      <c r="X15" s="60"/>
-      <c r="Y15" s="60"/>
-      <c r="Z15" s="60"/>
-      <c r="AA15" s="60"/>
-      <c r="AB15" s="60"/>
-      <c r="AC15" s="60"/>
-    </row>
-    <row r="16" spans="1:29">
-      <c r="A16" s="60"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="60"/>
-      <c r="O16" s="60"/>
-      <c r="P16" s="60"/>
-      <c r="Q16" s="60"/>
-      <c r="R16" s="60"/>
-      <c r="S16" s="60"/>
-      <c r="T16" s="60"/>
-      <c r="U16" s="60"/>
-      <c r="V16" s="60"/>
-      <c r="W16" s="60"/>
-      <c r="X16" s="60"/>
-      <c r="Y16" s="60"/>
-      <c r="Z16" s="60"/>
-      <c r="AA16" s="60"/>
-      <c r="AB16" s="60"/>
-      <c r="AC16" s="60"/>
-    </row>
-    <row r="17"/>
-    <row r="18"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="58"/>
+      <c r="R11" s="58"/>
+      <c r="S11" s="58"/>
+      <c r="T11" s="58"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="58"/>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="58"/>
+      <c r="AA11" s="58"/>
+      <c r="AB11" s="58"/>
+      <c r="AC11" s="58"/>
+    </row>
+    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="58"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="58"/>
+      <c r="Q12" s="58"/>
+      <c r="R12" s="58"/>
+      <c r="S12" s="58"/>
+      <c r="T12" s="58"/>
+      <c r="U12" s="58"/>
+      <c r="V12" s="58"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="58"/>
+      <c r="Y12" s="58"/>
+      <c r="Z12" s="58"/>
+      <c r="AA12" s="58"/>
+      <c r="AB12" s="58"/>
+      <c r="AC12" s="58"/>
+    </row>
+    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="58"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="58"/>
+      <c r="T13" s="58"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="58"/>
+      <c r="Y13" s="58"/>
+      <c r="Z13" s="58"/>
+      <c r="AA13" s="58"/>
+      <c r="AB13" s="58"/>
+      <c r="AC13" s="58"/>
+    </row>
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="58"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="58"/>
+      <c r="Q14" s="58"/>
+      <c r="R14" s="58"/>
+      <c r="S14" s="58"/>
+      <c r="T14" s="58"/>
+      <c r="U14" s="58"/>
+      <c r="V14" s="58"/>
+      <c r="W14" s="58"/>
+      <c r="X14" s="58"/>
+      <c r="Y14" s="58"/>
+      <c r="Z14" s="58"/>
+      <c r="AA14" s="58"/>
+      <c r="AB14" s="58"/>
+      <c r="AC14" s="58"/>
+    </row>
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="58"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="58"/>
+      <c r="R15" s="58"/>
+      <c r="S15" s="58"/>
+      <c r="T15" s="58"/>
+      <c r="U15" s="58"/>
+      <c r="V15" s="58"/>
+      <c r="W15" s="58"/>
+      <c r="X15" s="58"/>
+      <c r="Y15" s="58"/>
+      <c r="Z15" s="58"/>
+      <c r="AA15" s="58"/>
+      <c r="AB15" s="58"/>
+      <c r="AC15" s="58"/>
+    </row>
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="58"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="58"/>
+      <c r="P16" s="58"/>
+      <c r="Q16" s="58"/>
+      <c r="R16" s="58"/>
+      <c r="S16" s="58"/>
+      <c r="T16" s="58"/>
+      <c r="U16" s="58"/>
+      <c r="V16" s="58"/>
+      <c r="W16" s="58"/>
+      <c r="X16" s="58"/>
+      <c r="Y16" s="58"/>
+      <c r="Z16" s="58"/>
+      <c r="AA16" s="58"/>
+      <c r="AB16" s="58"/>
+      <c r="AC16" s="58"/>
+    </row>
+    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7988,36 +7991,36 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="9"/>
-    <col min="4" max="4" width="15.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="9"/>
-    <col min="7" max="7" width="73.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="9"/>
-    <col min="12" max="12" width="89.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="9" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" style="9"/>
-    <col min="18" max="18" width="65.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="9"/>
+    <col min="1" max="1" width="17.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="9"/>
+    <col min="4" max="4" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="9"/>
+    <col min="7" max="7" width="73.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="9"/>
+    <col min="12" max="12" width="89.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="9" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="9"/>
+    <col min="18" max="18" width="65.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="18" customFormat="1">
+    <row r="1" spans="1:29" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -8088,7 +8091,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30.75">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>23</v>
       </c>
@@ -8142,7 +8145,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="60.75">
+    <row r="3" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
       <c r="A3" s="11" t="s">
         <v>32</v>
       </c>
@@ -8193,7 +8196,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="60.75">
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>40</v>
       </c>
@@ -8244,7 +8247,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="45.75">
+    <row r="5" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>47</v>
       </c>
@@ -8289,7 +8292,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="60.75">
+    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>53</v>
       </c>
@@ -8334,7 +8337,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="45.75">
+    <row r="7" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>62</v>
       </c>
@@ -8349,7 +8352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="45.75">
+    <row r="8" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>66</v>
       </c>
@@ -8357,7 +8360,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="45.75">
+    <row r="9" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>67</v>
       </c>
@@ -8365,15 +8368,15 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="10" spans="1:29"/>
-    <row r="11" spans="1:29"/>
-    <row r="12" spans="1:29"/>
-    <row r="13" spans="1:29"/>
-    <row r="14" spans="1:29"/>
-    <row r="15" spans="1:29"/>
-    <row r="16" spans="1:29"/>
-    <row r="17"/>
-    <row r="18"/>
+    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8387,36 +8390,36 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="9"/>
-    <col min="4" max="4" width="15.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="9"/>
-    <col min="7" max="7" width="73.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="9"/>
-    <col min="12" max="12" width="89.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="9" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" style="9"/>
-    <col min="18" max="18" width="65.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="9"/>
+    <col min="1" max="1" width="17.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="9"/>
+    <col min="4" max="4" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="9"/>
+    <col min="7" max="7" width="73.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="9"/>
+    <col min="12" max="12" width="89.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="9" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="9"/>
+    <col min="18" max="18" width="65.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="18" customFormat="1">
+    <row r="1" spans="1:29" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -8487,7 +8490,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30.75">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>23</v>
       </c>
@@ -8541,7 +8544,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="60.75">
+    <row r="3" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
       <c r="A3" s="11" t="s">
         <v>32</v>
       </c>
@@ -8592,7 +8595,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="60.75">
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>40</v>
       </c>
@@ -8643,32 +8646,32 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="45.75">
+    <row r="5" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>47</v>
       </c>
       <c r="B5" s="11">
         <v>14</v>
       </c>
-      <c r="G5" s="58" t="s">
+      <c r="G5" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="58" t="s">
+      <c r="H5" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="58" t="s">
+      <c r="I5" s="61" t="s">
         <v>27</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="L5" s="58" t="s">
+      <c r="L5" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="M5" s="58" t="s">
+      <c r="M5" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="N5" s="58" t="s">
+      <c r="N5" s="61" t="s">
         <v>27</v>
       </c>
       <c r="O5" s="11" t="s">
@@ -8688,22 +8691,22 @@
         <v>914</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="45.75">
+    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>53</v>
       </c>
       <c r="B6" s="11">
         <v>2</v>
       </c>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
       <c r="J6" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
       <c r="O6" s="11" t="s">
         <v>77</v>
       </c>
@@ -8721,32 +8724,32 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="45.75">
+    <row r="7" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>62</v>
       </c>
       <c r="B7" s="11">
         <v>2</v>
       </c>
-      <c r="G7" s="58" t="s">
+      <c r="G7" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="58" t="s">
+      <c r="H7" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="59">
+      <c r="I7" s="62">
         <v>45254</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="L7" s="58" t="s">
+      <c r="L7" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="M7" s="58" t="s">
+      <c r="M7" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="N7" s="59">
+      <c r="N7" s="62">
         <v>45254</v>
       </c>
       <c r="O7" s="11" t="s">
@@ -8761,28 +8764,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="45.75">
+    <row r="8" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>66</v>
       </c>
       <c r="B8" s="11">
         <v>3</v>
       </c>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
       <c r="J8" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="61"/>
       <c r="O8" s="11" t="s">
         <v>81</v>
       </c>
       <c r="P8" s="11"/>
     </row>
-    <row r="9" spans="1:29" ht="45.75">
+    <row r="9" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>67</v>
       </c>
@@ -8791,65 +8794,65 @@
       </c>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="G12" s="21"/>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="G16" s="12"/>
     </row>
-    <row r="17" spans="7:7">
+    <row r="17" spans="7:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="G17" s="12"/>
     </row>
-    <row r="18" spans="7:7">
+    <row r="18" spans="7:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="G18" s="12"/>
     </row>
-    <row r="19" spans="7:7">
+    <row r="19" spans="7:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="G19" s="12"/>
     </row>
-    <row r="20" spans="7:7">
+    <row r="20" spans="7:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="G20" s="12"/>
     </row>
-    <row r="21" spans="7:7">
+    <row r="21" spans="7:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="G21" s="21"/>
     </row>
-    <row r="22" spans="7:7">
+    <row r="22" spans="7:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="G22" s="12"/>
     </row>
-    <row r="23" spans="7:7">
+    <row r="23" spans="7:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="G23" s="12"/>
     </row>
-    <row r="24" spans="7:7">
+    <row r="24" spans="7:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="G24" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8863,35 +8866,35 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="9"/>
-    <col min="4" max="4" width="15.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="9"/>
-    <col min="7" max="7" width="73.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="9"/>
-    <col min="12" max="12" width="89.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="8.85546875" style="9"/>
-    <col min="18" max="18" width="65.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="9"/>
+    <col min="1" max="1" width="17.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="9"/>
+    <col min="4" max="4" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="9"/>
+    <col min="7" max="7" width="73.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="9"/>
+    <col min="12" max="12" width="89.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.88671875" style="9"/>
+    <col min="18" max="18" width="65.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="18" customFormat="1">
+    <row r="1" spans="1:29" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -8962,7 +8965,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30.75">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>23</v>
       </c>
@@ -9015,7 +9018,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="60.75">
+    <row r="3" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
       <c r="A3" s="11" t="s">
         <v>32</v>
       </c>
@@ -9065,7 +9068,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="60.75">
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>40</v>
       </c>
@@ -9090,13 +9093,13 @@
       <c r="J4" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="L4" s="58" t="s">
+      <c r="L4" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="M4" s="58" t="s">
+      <c r="M4" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="N4" s="58" t="s">
+      <c r="N4" s="61" t="s">
         <v>27</v>
       </c>
       <c r="O4" s="11" t="s">
@@ -9115,28 +9118,28 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="30.75">
+    <row r="5" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>47</v>
       </c>
       <c r="B5" s="11">
         <v>8</v>
       </c>
-      <c r="G5" s="58" t="s">
+      <c r="G5" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="58" t="s">
+      <c r="H5" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="58" t="s">
+      <c r="I5" s="61" t="s">
         <v>27</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
       <c r="O5" s="11" t="s">
         <v>77</v>
       </c>
@@ -9153,26 +9156,26 @@
         <v>922</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="45.75">
+    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>53</v>
       </c>
       <c r="B6" s="11">
         <v>2</v>
       </c>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
       <c r="J6" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="L6" s="58" t="s">
+      <c r="L6" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="58" t="s">
+      <c r="M6" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="N6" s="59">
+      <c r="N6" s="62">
         <v>45261</v>
       </c>
       <c r="O6" s="11" t="s">
@@ -9191,28 +9194,28 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="45.75">
+    <row r="7" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>62</v>
       </c>
       <c r="B7" s="11">
         <v>2</v>
       </c>
-      <c r="G7" s="58" t="s">
+      <c r="G7" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="58" t="s">
+      <c r="H7" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="59">
+      <c r="I7" s="62">
         <v>45261</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
       <c r="O7" s="11" t="s">
         <v>86</v>
       </c>
@@ -9224,21 +9227,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="45.75">
+    <row r="8" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>87</v>
       </c>
       <c r="B8" s="11">
         <v>4</v>
       </c>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
       <c r="J8" s="11" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="45.75">
+    <row r="9" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>66</v>
       </c>
@@ -9246,7 +9249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="45.75">
+    <row r="10" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>67</v>
       </c>
@@ -9254,31 +9257,31 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="11" spans="1:29"/>
-    <row r="12" spans="1:29"/>
-    <row r="13" spans="1:29"/>
-    <row r="14" spans="1:29"/>
-    <row r="15" spans="1:29"/>
-    <row r="16" spans="1:29"/>
-    <row r="17"/>
-    <row r="18"/>
+    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="Y3:Z18">
     <sortCondition ref="Y1:Y18"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9292,35 +9295,35 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="9"/>
-    <col min="4" max="4" width="15.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="9"/>
-    <col min="7" max="7" width="73.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="9"/>
-    <col min="12" max="12" width="89.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.140625" style="9"/>
-    <col min="18" max="18" width="65.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="9"/>
+    <col min="1" max="1" width="17.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="9"/>
+    <col min="4" max="4" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="9"/>
+    <col min="7" max="7" width="73.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="9"/>
+    <col min="12" max="12" width="89.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.109375" style="9"/>
+    <col min="18" max="18" width="65.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="18" customFormat="1">
+    <row r="1" spans="1:29" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -9391,7 +9394,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="45.75">
+    <row r="2" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>23</v>
       </c>
@@ -9446,7 +9449,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="60.75">
+    <row r="3" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
       <c r="A3" s="22" t="s">
         <v>32</v>
       </c>
@@ -9498,7 +9501,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="76.5">
+    <row r="4" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>40</v>
       </c>
@@ -9550,7 +9553,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="45.75">
+    <row r="5" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>47</v>
       </c>
@@ -9588,7 +9591,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="45.75">
+    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>87</v>
       </c>
@@ -9601,9 +9604,9 @@
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="26"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="59"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="62"/>
       <c r="O6" s="11"/>
       <c r="Y6" s="9" t="s">
         <v>60</v>
@@ -9618,7 +9621,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="45.75">
+    <row r="7" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>66</v>
       </c>
@@ -9631,9 +9634,9 @@
       <c r="I7" s="20"/>
       <c r="J7" s="11"/>
       <c r="K7" s="26"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
       <c r="O7" s="11"/>
       <c r="AB7" s="9" t="s">
         <v>63</v>
@@ -9643,7 +9646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="45.75">
+    <row r="8" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>67</v>
       </c>
@@ -9657,7 +9660,7 @@
       <c r="J8" s="11"/>
       <c r="K8" s="26"/>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="G9" s="28"/>
@@ -9665,18 +9668,18 @@
       <c r="I9" s="28"/>
       <c r="J9" s="28"/>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
     </row>
-    <row r="11" spans="1:29"/>
-    <row r="12" spans="1:29"/>
-    <row r="13" spans="1:29"/>
-    <row r="14" spans="1:29"/>
-    <row r="15" spans="1:29"/>
-    <row r="16" spans="1:29"/>
-    <row r="17"/>
-    <row r="18"/>
+    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="L6:L7"/>
@@ -9688,6 +9691,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000215C4F9D57D37439F8ACEF5C886EA75" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0c845befd03cfebab38c352a41d34e6a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2a5c4c29-2a22-48a5-946d-f6132279c68c" xmlns:ns3="46e2485f-814c-41c1-b1d1-92fb45bc36b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba1163b5c6633ba9dadda0673900e477" ns2:_="" ns3:_="">
     <xsd:import namespace="2a5c4c29-2a22-48a5-946d-f6132279c68c"/>
@@ -9864,12 +9873,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -9880,13 +9883,37 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8838AC1D-E4E7-4CF5-A897-95CB93ECC002}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38F446B6-3E55-4E07-BA6D-47C0ACA73425}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38F446B6-3E55-4E07-BA6D-47C0ACA73425}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8838AC1D-E4E7-4CF5-A897-95CB93ECC002}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2a5c4c29-2a22-48a5-946d-f6132279c68c"/>
+    <ds:schemaRef ds:uri="46e2485f-814c-41c1-b1d1-92fb45bc36b1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF5B3250-9EAA-45ED-A48E-C1960EE83752}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF5B3250-9EAA-45ED-A48E-C1960EE83752}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/dataSources/WSR/vEMS.xlsx
+++ b/dataSources/WSR/vEMS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\KMDV-Dash\dataSources\WSR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meenakshi.kasi\Downloads\WSR 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AECC130-2225-4A0D-82F7-337CEA3BD5F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F578EC24-2BCA-49D5-8A15-F9EC45D4B164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="11" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2 Oct 2023" sheetId="9" r:id="rId1"/>
@@ -28,6 +28,8 @@
     <sheet name="26 Dec 2023" sheetId="16" r:id="rId13"/>
     <sheet name="2 Jan 2024" sheetId="17" r:id="rId14"/>
     <sheet name="8 Jan 2024" sheetId="18" r:id="rId15"/>
+    <sheet name="15 Jan 2024" sheetId="20" r:id="rId16"/>
+    <sheet name="22 Jan 2024" sheetId="19" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -50,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="161">
   <si>
     <t>Task Name</t>
   </si>
@@ -754,12 +756,76 @@
   <si>
     <t>Project Metrics</t>
   </si>
+  <si>
+    <t>Observation_307</t>
+  </si>
+  <si>
+    <t>CINV Issue- getting error as "Validation error occurred. Invalid ID value.  '' is not a valid ID value for type = 'Revenue_Category_ID'"</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>Monitoring data count &amp; performance</t>
+  </si>
+  <si>
+    <r>
+      <t>Phase-5:- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Power Bi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> validation: On Hold</t>
+    </r>
+  </si>
+  <si>
+    <t>Enhance scripts for WD &amp; vEMS allocation variants as needed</t>
+  </si>
+  <si>
+    <t>Test execution - In Progress (Impacted due to issue)</t>
+  </si>
+  <si>
+    <t>FIN Reports Phase-1: Merge Prod &amp; Dev in single to make it centralized - ETA-30-Jan</t>
+  </si>
+  <si>
+    <t>Observation_308</t>
+  </si>
+  <si>
+    <t>Vichara team did not send latest prod count to FTP location</t>
+  </si>
+  <si>
+    <t>Phase-5:- Fine tuned scripts for WOR-939 having WD &amp; vEMS allocation variations- Checked &amp; verified</t>
+  </si>
+  <si>
+    <t>Test execution - In Progress (Blocked due to issues)</t>
+  </si>
+  <si>
+    <t>FIN Reports Phase-1: Merge Prod &amp; Dev in single to make it centralized - ETA-02-Feb</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -771,12 +837,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -802,7 +870,7 @@
       <sz val="11"/>
       <color rgb="FF242424"/>
       <name val="Segoe UI"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -831,18 +899,21 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF242424"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -857,6 +928,40 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -879,7 +984,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1050,11 +1155,154 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1224,6 +1472,116 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="17" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="16" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1512,36 +1870,36 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="1"/>
-    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="1"/>
-    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="1"/>
-    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="1"/>
+    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="1"/>
+    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="1"/>
+    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="1"/>
+    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1613,7 +1971,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
@@ -1678,7 +2036,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -1741,7 +2099,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>40</v>
       </c>
@@ -1804,7 +2162,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>47</v>
       </c>
@@ -1863,7 +2221,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>53</v>
       </c>
@@ -1922,7 +2280,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>62</v>
       </c>
@@ -1962,7 +2320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>64</v>
       </c>
@@ -1997,7 +2355,7 @@
       <c r="AB8" s="58"/>
       <c r="AC8" s="58"/>
     </row>
-    <row r="9" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>65</v>
       </c>
@@ -2032,7 +2390,7 @@
       <c r="AB9" s="58"/>
       <c r="AC9" s="58"/>
     </row>
-    <row r="10" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>66</v>
       </c>
@@ -2067,7 +2425,7 @@
       <c r="AB10" s="58"/>
       <c r="AC10" s="58"/>
     </row>
-    <row r="11" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>67</v>
       </c>
@@ -2102,7 +2460,7 @@
       <c r="AB11" s="58"/>
       <c r="AC11" s="58"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="58"/>
       <c r="B12" s="59"/>
       <c r="C12" s="58"/>
@@ -2133,7 +2491,7 @@
       <c r="AB12" s="58"/>
       <c r="AC12" s="58"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="58"/>
       <c r="B13" s="59"/>
       <c r="C13" s="58"/>
@@ -2164,7 +2522,7 @@
       <c r="AB13" s="58"/>
       <c r="AC13" s="58"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="58"/>
       <c r="B14" s="59"/>
       <c r="C14" s="58"/>
@@ -2195,7 +2553,7 @@
       <c r="AB14" s="58"/>
       <c r="AC14" s="58"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="58"/>
       <c r="B15" s="59"/>
       <c r="C15" s="58"/>
@@ -2226,7 +2584,7 @@
       <c r="AB15" s="58"/>
       <c r="AC15" s="58"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="58"/>
       <c r="B16" s="59"/>
       <c r="C16" s="58"/>
@@ -2257,8 +2615,8 @@
       <c r="AB16" s="58"/>
       <c r="AC16" s="58"/>
     </row>
-    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2273,35 +2631,35 @@
       <selection activeCell="AF6" sqref="AF6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="9"/>
-    <col min="4" max="4" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="9"/>
-    <col min="7" max="7" width="73.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="9"/>
-    <col min="12" max="12" width="89.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.109375" style="9"/>
-    <col min="18" max="18" width="65.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="17.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="9"/>
+    <col min="4" max="4" width="15.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="9"/>
+    <col min="7" max="7" width="73.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="9"/>
+    <col min="12" max="12" width="89.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.08984375" style="9"/>
+    <col min="18" max="18" width="65.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -2372,7 +2730,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
         <v>23</v>
       </c>
@@ -2438,7 +2796,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:29" ht="59" x14ac:dyDescent="0.45">
       <c r="A3" s="22" t="s">
         <v>32</v>
       </c>
@@ -2489,7 +2847,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="22" t="s">
         <v>40</v>
       </c>
@@ -2540,7 +2898,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
         <v>47</v>
       </c>
@@ -2577,7 +2935,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="22" t="s">
         <v>87</v>
       </c>
@@ -2606,7 +2964,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="22" t="s">
         <v>102</v>
       </c>
@@ -2630,7 +2988,7 @@
         <v>0.89247311827956988</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="22" t="s">
         <v>67</v>
       </c>
@@ -2647,7 +3005,7 @@
       <c r="N8" s="17"/>
       <c r="O8" s="17"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="G9" s="17"/>
@@ -2660,7 +3018,7 @@
       <c r="N9" s="17"/>
       <c r="O9" s="17"/>
     </row>
-    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="G10" s="17"/>
@@ -2673,7 +3031,7 @@
       <c r="N10" s="17"/>
       <c r="O10" s="17"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
@@ -2684,13 +3042,13 @@
       <c r="N11" s="17"/>
       <c r="O11" s="17"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2704,35 +3062,35 @@
       <selection activeCell="Y8" sqref="Y8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="9"/>
-    <col min="4" max="4" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="9"/>
-    <col min="7" max="7" width="73.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="9"/>
-    <col min="12" max="12" width="89.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.109375" style="9"/>
-    <col min="18" max="18" width="65.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="17.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="9"/>
+    <col min="4" max="4" width="15.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="9"/>
+    <col min="7" max="7" width="73.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="9"/>
+    <col min="12" max="12" width="89.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.08984375" style="9"/>
+    <col min="18" max="18" width="65.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -2803,7 +3161,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
         <v>23</v>
       </c>
@@ -2869,7 +3227,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:29" ht="59" x14ac:dyDescent="0.45">
       <c r="A3" s="22" t="s">
         <v>32</v>
       </c>
@@ -2935,7 +3293,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4" s="22" t="s">
         <v>40</v>
       </c>
@@ -2986,7 +3344,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
         <v>47</v>
       </c>
@@ -3023,7 +3381,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="22" t="s">
         <v>87</v>
       </c>
@@ -3052,7 +3410,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="22" t="s">
         <v>102</v>
       </c>
@@ -3076,7 +3434,7 @@
         <v>0.98095238095238091</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="22" t="s">
         <v>66</v>
       </c>
@@ -3093,7 +3451,7 @@
       <c r="N8" s="17"/>
       <c r="O8" s="17"/>
     </row>
-    <row r="9" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="22" t="s">
         <v>67</v>
       </c>
@@ -3110,7 +3468,7 @@
       <c r="N9" s="17"/>
       <c r="O9" s="17"/>
     </row>
-    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="G10" s="17"/>
@@ -3123,7 +3481,7 @@
       <c r="N10" s="17"/>
       <c r="O10" s="17"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
@@ -3134,13 +3492,13 @@
       <c r="N11" s="17"/>
       <c r="O11" s="17"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3154,35 +3512,35 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="9"/>
-    <col min="4" max="4" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="9"/>
-    <col min="7" max="7" width="73.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="9"/>
-    <col min="12" max="12" width="89.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.109375" style="9"/>
-    <col min="18" max="18" width="65.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="17.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="9"/>
+    <col min="4" max="4" width="15.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="9"/>
+    <col min="7" max="7" width="73.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="9"/>
+    <col min="12" max="12" width="89.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.08984375" style="9"/>
+    <col min="18" max="18" width="65.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -3253,7 +3611,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
         <v>23</v>
       </c>
@@ -3307,7 +3665,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:29" ht="59" x14ac:dyDescent="0.45">
       <c r="A3" s="22" t="s">
         <v>32</v>
       </c>
@@ -3358,7 +3716,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="22" t="s">
         <v>40</v>
       </c>
@@ -3409,7 +3767,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
         <v>47</v>
       </c>
@@ -3454,7 +3812,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="22" t="s">
         <v>87</v>
       </c>
@@ -3491,7 +3849,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="22" t="s">
         <v>102</v>
       </c>
@@ -3516,7 +3874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="22" t="s">
         <v>66</v>
       </c>
@@ -3533,7 +3891,7 @@
       <c r="N8" s="17"/>
       <c r="O8" s="17"/>
     </row>
-    <row r="9" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="22" t="s">
         <v>67</v>
       </c>
@@ -3550,7 +3908,7 @@
       <c r="N9" s="17"/>
       <c r="O9" s="17"/>
     </row>
-    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="G10" s="17"/>
@@ -3563,7 +3921,7 @@
       <c r="N10" s="17"/>
       <c r="O10" s="17"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
@@ -3574,13 +3932,13 @@
       <c r="N11" s="17"/>
       <c r="O11" s="17"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3594,35 +3952,35 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="9"/>
-    <col min="4" max="4" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="9"/>
-    <col min="7" max="7" width="73.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="9"/>
-    <col min="12" max="12" width="89.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.109375" style="9"/>
-    <col min="18" max="18" width="65.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="17.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="9"/>
+    <col min="4" max="4" width="15.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="9"/>
+    <col min="7" max="7" width="73.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="9"/>
+    <col min="12" max="12" width="89.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.08984375" style="9"/>
+    <col min="18" max="18" width="65.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -3693,7 +4051,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
         <v>121</v>
       </c>
@@ -3747,7 +4105,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:29" ht="59" x14ac:dyDescent="0.45">
       <c r="A3" s="22" t="s">
         <v>32</v>
       </c>
@@ -3798,7 +4156,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4" s="22" t="s">
         <v>40</v>
       </c>
@@ -3849,7 +4207,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
         <v>47</v>
       </c>
@@ -3894,7 +4252,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="22" t="s">
         <v>125</v>
       </c>
@@ -3931,7 +4289,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="22" t="s">
         <v>66</v>
       </c>
@@ -3956,7 +4314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="22" t="s">
         <v>67</v>
       </c>
@@ -3973,7 +4331,7 @@
       <c r="N8" s="60"/>
       <c r="O8" s="60"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="22"/>
       <c r="B9" s="23"/>
       <c r="G9" s="17"/>
@@ -3986,7 +4344,7 @@
       <c r="N9" s="17"/>
       <c r="O9" s="17"/>
     </row>
-    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="G10" s="17"/>
@@ -3999,7 +4357,7 @@
       <c r="N10" s="17"/>
       <c r="O10" s="17"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
@@ -4010,13 +4368,13 @@
       <c r="N11" s="17"/>
       <c r="O11" s="17"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4030,35 +4388,35 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="9"/>
-    <col min="4" max="4" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="9"/>
-    <col min="7" max="7" width="73.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="9"/>
-    <col min="12" max="12" width="89.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.109375" style="9"/>
-    <col min="18" max="18" width="65.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="17.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="9"/>
+    <col min="4" max="4" width="15.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="9"/>
+    <col min="7" max="7" width="73.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="9"/>
+    <col min="12" max="12" width="89.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.08984375" style="9"/>
+    <col min="18" max="18" width="65.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -4129,7 +4487,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="56" t="s">
         <v>23</v>
       </c>
@@ -4183,7 +4541,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:29" ht="59" x14ac:dyDescent="0.45">
       <c r="A3" s="56" t="s">
         <v>32</v>
       </c>
@@ -4234,7 +4592,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4" s="56" t="s">
         <v>40</v>
       </c>
@@ -4285,7 +4643,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A5" s="56" t="s">
         <v>47</v>
       </c>
@@ -4330,7 +4688,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="56" t="s">
         <v>125</v>
       </c>
@@ -4367,7 +4725,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="56" t="s">
         <v>66</v>
       </c>
@@ -4392,7 +4750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="56" t="s">
         <v>67</v>
       </c>
@@ -4409,7 +4767,7 @@
       <c r="N8" s="60"/>
       <c r="O8" s="60"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="22"/>
       <c r="B9" s="23"/>
       <c r="G9" s="17"/>
@@ -4422,7 +4780,7 @@
       <c r="N9" s="17"/>
       <c r="O9" s="17"/>
     </row>
-    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="G10" s="17"/>
@@ -4435,7 +4793,7 @@
       <c r="N10" s="17"/>
       <c r="O10" s="17"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
@@ -4446,13 +4804,13 @@
       <c r="N11" s="17"/>
       <c r="O11" s="17"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4462,40 +4820,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5790EF8C-5874-403F-8378-602CEAEBCCE2}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AF4" sqref="AF4"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="9"/>
-    <col min="4" max="4" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="9"/>
-    <col min="7" max="7" width="73.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="9"/>
-    <col min="12" max="12" width="89.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.109375" style="9"/>
-    <col min="17" max="17" width="16.109375" style="9" customWidth="1"/>
-    <col min="18" max="18" width="65.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="17.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="9"/>
+    <col min="4" max="4" width="15.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="9"/>
+    <col min="7" max="7" width="73.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="9"/>
+    <col min="12" max="12" width="89.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.08984375" style="9"/>
+    <col min="17" max="17" width="16.08984375" style="9" customWidth="1"/>
+    <col min="18" max="18" width="65.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -4566,7 +4924,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
         <v>23</v>
       </c>
@@ -4633,7 +4991,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:29" ht="59" x14ac:dyDescent="0.45">
       <c r="A3" s="22" t="s">
         <v>32</v>
       </c>
@@ -4700,7 +5058,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4" s="22" t="s">
         <v>40</v>
       </c>
@@ -4767,7 +5125,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
         <v>47</v>
       </c>
@@ -4813,7 +5171,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="22" t="s">
         <v>125</v>
       </c>
@@ -4851,7 +5209,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="22" t="s">
         <v>66</v>
       </c>
@@ -4876,7 +5234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="22" t="s">
         <v>67</v>
       </c>
@@ -4893,7 +5251,7 @@
       <c r="N8" s="60"/>
       <c r="O8" s="60"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="22"/>
       <c r="B9" s="23"/>
       <c r="G9" s="17"/>
@@ -4906,7 +5264,7 @@
       <c r="N9" s="17"/>
       <c r="O9" s="17"/>
     </row>
-    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="G10" s="17"/>
@@ -4919,7 +5277,7 @@
       <c r="N10" s="17"/>
       <c r="O10" s="17"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
@@ -4930,14 +5288,1706 @@
       <c r="N11" s="17"/>
       <c r="O11" s="17"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E30CD77-03A3-43F1-BBDA-E80ED60EB6BF}">
+  <dimension ref="A1:AC19"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC1" s="63" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="66">
+        <v>3</v>
+      </c>
+      <c r="C2" s="67"/>
+      <c r="D2" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="69">
+        <v>20</v>
+      </c>
+      <c r="F2" s="67"/>
+      <c r="G2" s="70" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" s="71" t="s">
+        <v>127</v>
+      </c>
+      <c r="I2" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="71" t="s">
+        <v>128</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67" t="s">
+        <v>148</v>
+      </c>
+      <c r="R2" s="67" t="s">
+        <v>149</v>
+      </c>
+      <c r="S2" s="67" t="s">
+        <v>150</v>
+      </c>
+      <c r="T2" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z2" s="72">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC2" s="67">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="219" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="65" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="66">
+        <v>1</v>
+      </c>
+      <c r="C3" s="67"/>
+      <c r="D3" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="15">
+        <v>17</v>
+      </c>
+      <c r="F3" s="67"/>
+      <c r="G3" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="71" t="s">
+        <v>135</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="74" t="s">
+        <v>82</v>
+      </c>
+      <c r="M3" s="71" t="s">
+        <v>127</v>
+      </c>
+      <c r="N3" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="71" t="s">
+        <v>109</v>
+      </c>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
+      <c r="U3" s="67"/>
+      <c r="V3" s="67"/>
+      <c r="W3" s="67"/>
+      <c r="X3" s="67"/>
+      <c r="Y3" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z3" s="72">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="67"/>
+      <c r="AB3" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC3" s="67">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="78" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="78">
+        <v>4.5</v>
+      </c>
+      <c r="C4" s="81"/>
+      <c r="D4" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="85">
+        <v>2</v>
+      </c>
+      <c r="F4" s="87"/>
+      <c r="G4" s="89" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="89" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="89"/>
+      <c r="J4" s="75" t="s">
+        <v>117</v>
+      </c>
+      <c r="K4" s="91"/>
+      <c r="L4" s="89" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="89" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="75" t="s">
+        <v>152</v>
+      </c>
+      <c r="P4" s="81"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="80"/>
+      <c r="S4" s="80"/>
+      <c r="T4" s="80"/>
+      <c r="U4" s="80"/>
+      <c r="V4" s="80"/>
+      <c r="W4" s="80"/>
+      <c r="X4" s="80"/>
+      <c r="Y4" s="94" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z4" s="96">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="80"/>
+      <c r="AB4" s="80" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC4" s="80">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="131" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="79"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="K5" s="92"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="71" t="s">
+        <v>153</v>
+      </c>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="93"/>
+      <c r="R5" s="93"/>
+      <c r="S5" s="93"/>
+      <c r="T5" s="93"/>
+      <c r="U5" s="93"/>
+      <c r="V5" s="93"/>
+      <c r="W5" s="93"/>
+      <c r="X5" s="93"/>
+      <c r="Y5" s="95"/>
+      <c r="Z5" s="97"/>
+      <c r="AA5" s="93"/>
+      <c r="AB5" s="93"/>
+      <c r="AC5" s="93"/>
+    </row>
+    <row r="6" spans="1:29" ht="160" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="66">
+        <v>2</v>
+      </c>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="74" t="s">
+        <v>118</v>
+      </c>
+      <c r="H6" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="76">
+        <v>45316</v>
+      </c>
+      <c r="J6" s="71" t="s">
+        <v>154</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="74" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" s="76">
+        <v>45321</v>
+      </c>
+      <c r="O6" s="71" t="s">
+        <v>155</v>
+      </c>
+      <c r="P6" s="67"/>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="67"/>
+      <c r="S6" s="67"/>
+      <c r="T6" s="67"/>
+      <c r="U6" s="67"/>
+      <c r="V6" s="67"/>
+      <c r="W6" s="67"/>
+      <c r="X6" s="67"/>
+      <c r="Y6" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z6" s="72">
+        <v>30</v>
+      </c>
+      <c r="AA6" s="67"/>
+      <c r="AB6" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC6" s="67">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="65" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="66">
+        <v>11.5</v>
+      </c>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="74" t="s">
+        <v>118</v>
+      </c>
+      <c r="M7" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="76">
+        <v>45316</v>
+      </c>
+      <c r="O7" s="71" t="s">
+        <v>146</v>
+      </c>
+      <c r="P7" s="67"/>
+      <c r="Q7" s="67"/>
+      <c r="R7" s="67"/>
+      <c r="S7" s="67"/>
+      <c r="T7" s="67"/>
+      <c r="U7" s="67"/>
+      <c r="V7" s="67"/>
+      <c r="W7" s="67"/>
+      <c r="X7" s="67"/>
+      <c r="Y7" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z7" s="72">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="67"/>
+      <c r="AB7" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC7" s="67">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="66">
+        <v>8</v>
+      </c>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="67"/>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="67"/>
+      <c r="S8" s="67"/>
+      <c r="T8" s="67"/>
+      <c r="U8" s="67"/>
+      <c r="V8" s="67"/>
+      <c r="W8" s="67"/>
+      <c r="X8" s="67"/>
+      <c r="Y8" s="67"/>
+      <c r="Z8" s="72"/>
+      <c r="AA8" s="67"/>
+      <c r="AB8" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC8" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="66">
+        <v>9</v>
+      </c>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="67"/>
+      <c r="Q9" s="67"/>
+      <c r="R9" s="67"/>
+      <c r="S9" s="67"/>
+      <c r="T9" s="67"/>
+      <c r="U9" s="67"/>
+      <c r="V9" s="67"/>
+      <c r="W9" s="67"/>
+      <c r="X9" s="67"/>
+      <c r="Y9" s="67"/>
+      <c r="Z9" s="67"/>
+      <c r="AA9" s="67"/>
+      <c r="AB9" s="67"/>
+      <c r="AC9" s="67"/>
+    </row>
+    <row r="10" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="65"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="67"/>
+      <c r="Q10" s="67"/>
+      <c r="R10" s="67"/>
+      <c r="S10" s="67"/>
+      <c r="T10" s="67"/>
+      <c r="U10" s="67"/>
+      <c r="V10" s="67"/>
+      <c r="W10" s="67"/>
+      <c r="X10" s="67"/>
+      <c r="Y10" s="67"/>
+      <c r="Z10" s="67"/>
+      <c r="AA10" s="67"/>
+      <c r="AB10" s="67"/>
+      <c r="AC10" s="67"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="67"/>
+      <c r="R11" s="67"/>
+      <c r="S11" s="67"/>
+      <c r="T11" s="67"/>
+      <c r="U11" s="67"/>
+      <c r="V11" s="67"/>
+      <c r="W11" s="67"/>
+      <c r="X11" s="67"/>
+      <c r="Y11" s="67"/>
+      <c r="Z11" s="67"/>
+      <c r="AA11" s="67"/>
+      <c r="AB11" s="67"/>
+      <c r="AC11" s="67"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A12" s="67"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="67"/>
+      <c r="Q12" s="67"/>
+      <c r="R12" s="67"/>
+      <c r="S12" s="67"/>
+      <c r="T12" s="67"/>
+      <c r="U12" s="67"/>
+      <c r="V12" s="67"/>
+      <c r="W12" s="67"/>
+      <c r="X12" s="67"/>
+      <c r="Y12" s="67"/>
+      <c r="Z12" s="67"/>
+      <c r="AA12" s="67"/>
+      <c r="AB12" s="67"/>
+      <c r="AC12" s="67"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A13" s="67"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="67"/>
+      <c r="Q13" s="67"/>
+      <c r="R13" s="67"/>
+      <c r="S13" s="67"/>
+      <c r="T13" s="67"/>
+      <c r="U13" s="67"/>
+      <c r="V13" s="67"/>
+      <c r="W13" s="67"/>
+      <c r="X13" s="67"/>
+      <c r="Y13" s="67"/>
+      <c r="Z13" s="67"/>
+      <c r="AA13" s="67"/>
+      <c r="AB13" s="67"/>
+      <c r="AC13" s="67"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A14" s="67"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="67"/>
+      <c r="P14" s="67"/>
+      <c r="Q14" s="67"/>
+      <c r="R14" s="67"/>
+      <c r="S14" s="67"/>
+      <c r="T14" s="67"/>
+      <c r="U14" s="67"/>
+      <c r="V14" s="67"/>
+      <c r="W14" s="67"/>
+      <c r="X14" s="67"/>
+      <c r="Y14" s="67"/>
+      <c r="Z14" s="67"/>
+      <c r="AA14" s="67"/>
+      <c r="AB14" s="67"/>
+      <c r="AC14" s="67"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A15" s="67"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="67"/>
+      <c r="R15" s="67"/>
+      <c r="S15" s="67"/>
+      <c r="T15" s="67"/>
+      <c r="U15" s="67"/>
+      <c r="V15" s="67"/>
+      <c r="W15" s="67"/>
+      <c r="X15" s="67"/>
+      <c r="Y15" s="67"/>
+      <c r="Z15" s="67"/>
+      <c r="AA15" s="67"/>
+      <c r="AB15" s="67"/>
+      <c r="AC15" s="67"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A16" s="67"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="67"/>
+      <c r="R16" s="67"/>
+      <c r="S16" s="67"/>
+      <c r="T16" s="67"/>
+      <c r="U16" s="67"/>
+      <c r="V16" s="67"/>
+      <c r="W16" s="67"/>
+      <c r="X16" s="67"/>
+      <c r="Y16" s="67"/>
+      <c r="Z16" s="67"/>
+      <c r="AA16" s="67"/>
+      <c r="AB16" s="67"/>
+      <c r="AC16" s="67"/>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A17" s="67"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="67"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="67"/>
+      <c r="Q17" s="67"/>
+      <c r="R17" s="67"/>
+      <c r="S17" s="67"/>
+      <c r="T17" s="67"/>
+      <c r="U17" s="67"/>
+      <c r="V17" s="67"/>
+      <c r="W17" s="67"/>
+      <c r="X17" s="67"/>
+      <c r="Y17" s="67"/>
+      <c r="Z17" s="67"/>
+      <c r="AA17" s="67"/>
+      <c r="AB17" s="67"/>
+      <c r="AC17" s="67"/>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A18" s="67"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="67"/>
+      <c r="O18" s="67"/>
+      <c r="P18" s="67"/>
+      <c r="Q18" s="67"/>
+      <c r="R18" s="67"/>
+      <c r="S18" s="67"/>
+      <c r="T18" s="67"/>
+      <c r="U18" s="67"/>
+      <c r="V18" s="67"/>
+      <c r="W18" s="67"/>
+      <c r="X18" s="67"/>
+      <c r="Y18" s="67"/>
+      <c r="Z18" s="67"/>
+      <c r="AA18" s="67"/>
+      <c r="AB18" s="67"/>
+      <c r="AC18" s="67"/>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A19" s="67"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="67"/>
+      <c r="R19" s="67"/>
+      <c r="S19" s="67"/>
+      <c r="T19" s="67"/>
+      <c r="U19" s="67"/>
+      <c r="V19" s="67"/>
+      <c r="W19" s="67"/>
+      <c r="X19" s="67"/>
+      <c r="Y19" s="67"/>
+      <c r="Z19" s="67"/>
+      <c r="AA19" s="67"/>
+      <c r="AB19" s="67"/>
+      <c r="AC19" s="67"/>
+    </row>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BE6914-CF43-4313-ACBD-F8DA170AAF12}">
+  <dimension ref="A1:AC19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC1" s="63" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="66">
+        <v>4</v>
+      </c>
+      <c r="C2" s="67"/>
+      <c r="D2" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="69">
+        <v>18</v>
+      </c>
+      <c r="F2" s="67"/>
+      <c r="G2" s="70" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" s="98" t="s">
+        <v>127</v>
+      </c>
+      <c r="I2" s="98" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="98" t="s">
+        <v>128</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67" t="s">
+        <v>156</v>
+      </c>
+      <c r="R2" s="67" t="s">
+        <v>157</v>
+      </c>
+      <c r="S2" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="T2" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="U2" s="67" t="s">
+        <v>99</v>
+      </c>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z2" s="72">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC2" s="67">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="233.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="65" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="66">
+        <v>3</v>
+      </c>
+      <c r="C3" s="67"/>
+      <c r="D3" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="15">
+        <v>16.5</v>
+      </c>
+      <c r="F3" s="67"/>
+      <c r="G3" s="70" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="98" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="98" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="98" t="s">
+        <v>158</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="74" t="s">
+        <v>82</v>
+      </c>
+      <c r="M3" s="71" t="s">
+        <v>127</v>
+      </c>
+      <c r="N3" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="71" t="s">
+        <v>109</v>
+      </c>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
+      <c r="U3" s="67"/>
+      <c r="V3" s="67"/>
+      <c r="W3" s="67"/>
+      <c r="X3" s="67"/>
+      <c r="Y3" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z3" s="72">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="67"/>
+      <c r="AB3" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC3" s="67">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="78" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="78">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="81"/>
+      <c r="D4" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="85">
+        <v>2</v>
+      </c>
+      <c r="F4" s="87"/>
+      <c r="G4" s="101" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="101" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="101"/>
+      <c r="J4" s="99" t="s">
+        <v>117</v>
+      </c>
+      <c r="K4" s="91"/>
+      <c r="L4" s="89" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="89" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="75" t="s">
+        <v>152</v>
+      </c>
+      <c r="P4" s="81"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="80"/>
+      <c r="S4" s="80"/>
+      <c r="T4" s="80"/>
+      <c r="U4" s="80"/>
+      <c r="V4" s="80"/>
+      <c r="W4" s="80"/>
+      <c r="X4" s="80"/>
+      <c r="Y4" s="94" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z4" s="96">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="80"/>
+      <c r="AB4" s="80" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC4" s="80">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="131" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="79"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="98" t="s">
+        <v>151</v>
+      </c>
+      <c r="K5" s="92"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="71" t="s">
+        <v>153</v>
+      </c>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="93"/>
+      <c r="R5" s="93"/>
+      <c r="S5" s="93"/>
+      <c r="T5" s="93"/>
+      <c r="U5" s="93"/>
+      <c r="V5" s="93"/>
+      <c r="W5" s="93"/>
+      <c r="X5" s="93"/>
+      <c r="Y5" s="95"/>
+      <c r="Z5" s="97"/>
+      <c r="AA5" s="93"/>
+      <c r="AB5" s="93"/>
+      <c r="AC5" s="93"/>
+    </row>
+    <row r="6" spans="1:29" ht="160" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="66">
+        <v>2</v>
+      </c>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="70" t="s">
+        <v>118</v>
+      </c>
+      <c r="H6" s="98" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="100">
+        <v>45324</v>
+      </c>
+      <c r="J6" s="98" t="s">
+        <v>159</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="74" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" s="76">
+        <v>45324</v>
+      </c>
+      <c r="O6" s="71" t="s">
+        <v>160</v>
+      </c>
+      <c r="P6" s="67"/>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="67"/>
+      <c r="S6" s="67"/>
+      <c r="T6" s="67"/>
+      <c r="U6" s="67"/>
+      <c r="V6" s="67"/>
+      <c r="W6" s="67"/>
+      <c r="X6" s="67"/>
+      <c r="Y6" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z6" s="72">
+        <v>29</v>
+      </c>
+      <c r="AA6" s="67"/>
+      <c r="AB6" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC6" s="67">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="65" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="66">
+        <v>12.5</v>
+      </c>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="74" t="s">
+        <v>118</v>
+      </c>
+      <c r="M7" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="76">
+        <v>45324</v>
+      </c>
+      <c r="O7" s="71" t="s">
+        <v>146</v>
+      </c>
+      <c r="P7" s="67"/>
+      <c r="Q7" s="67"/>
+      <c r="R7" s="67"/>
+      <c r="S7" s="67"/>
+      <c r="T7" s="67"/>
+      <c r="U7" s="67"/>
+      <c r="V7" s="67"/>
+      <c r="W7" s="67"/>
+      <c r="X7" s="67"/>
+      <c r="Y7" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z7" s="72">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="67"/>
+      <c r="AB7" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC7" s="67">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="66">
+        <v>8</v>
+      </c>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="67"/>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="67"/>
+      <c r="S8" s="67"/>
+      <c r="T8" s="67"/>
+      <c r="U8" s="67"/>
+      <c r="V8" s="67"/>
+      <c r="W8" s="67"/>
+      <c r="X8" s="67"/>
+      <c r="Y8" s="67"/>
+      <c r="Z8" s="72"/>
+      <c r="AA8" s="67"/>
+      <c r="AB8" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC8" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="66">
+        <v>6.5</v>
+      </c>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="67"/>
+      <c r="Q9" s="67"/>
+      <c r="R9" s="67"/>
+      <c r="S9" s="67"/>
+      <c r="T9" s="67"/>
+      <c r="U9" s="67"/>
+      <c r="V9" s="67"/>
+      <c r="W9" s="67"/>
+      <c r="X9" s="67"/>
+      <c r="Y9" s="67"/>
+      <c r="Z9" s="67"/>
+      <c r="AA9" s="67"/>
+      <c r="AB9" s="67"/>
+      <c r="AC9" s="67"/>
+    </row>
+    <row r="10" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="65"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="67"/>
+      <c r="Q10" s="67"/>
+      <c r="R10" s="67"/>
+      <c r="S10" s="67"/>
+      <c r="T10" s="67"/>
+      <c r="U10" s="67"/>
+      <c r="V10" s="67"/>
+      <c r="W10" s="67"/>
+      <c r="X10" s="67"/>
+      <c r="Y10" s="67"/>
+      <c r="Z10" s="67"/>
+      <c r="AA10" s="67"/>
+      <c r="AB10" s="67"/>
+      <c r="AC10" s="67"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="67"/>
+      <c r="R11" s="67"/>
+      <c r="S11" s="67"/>
+      <c r="T11" s="67"/>
+      <c r="U11" s="67"/>
+      <c r="V11" s="67"/>
+      <c r="W11" s="67"/>
+      <c r="X11" s="67"/>
+      <c r="Y11" s="67"/>
+      <c r="Z11" s="67"/>
+      <c r="AA11" s="67"/>
+      <c r="AB11" s="67"/>
+      <c r="AC11" s="67"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A12" s="67"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="67"/>
+      <c r="Q12" s="67"/>
+      <c r="R12" s="67"/>
+      <c r="S12" s="67"/>
+      <c r="T12" s="67"/>
+      <c r="U12" s="67"/>
+      <c r="V12" s="67"/>
+      <c r="W12" s="67"/>
+      <c r="X12" s="67"/>
+      <c r="Y12" s="67"/>
+      <c r="Z12" s="67"/>
+      <c r="AA12" s="67"/>
+      <c r="AB12" s="67"/>
+      <c r="AC12" s="67"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A13" s="67"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="67"/>
+      <c r="Q13" s="67"/>
+      <c r="R13" s="67"/>
+      <c r="S13" s="67"/>
+      <c r="T13" s="67"/>
+      <c r="U13" s="67"/>
+      <c r="V13" s="67"/>
+      <c r="W13" s="67"/>
+      <c r="X13" s="67"/>
+      <c r="Y13" s="67"/>
+      <c r="Z13" s="67"/>
+      <c r="AA13" s="67"/>
+      <c r="AB13" s="67"/>
+      <c r="AC13" s="67"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A14" s="67"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="67"/>
+      <c r="P14" s="67"/>
+      <c r="Q14" s="67"/>
+      <c r="R14" s="67"/>
+      <c r="S14" s="67"/>
+      <c r="T14" s="67"/>
+      <c r="U14" s="67"/>
+      <c r="V14" s="67"/>
+      <c r="W14" s="67"/>
+      <c r="X14" s="67"/>
+      <c r="Y14" s="67"/>
+      <c r="Z14" s="67"/>
+      <c r="AA14" s="67"/>
+      <c r="AB14" s="67"/>
+      <c r="AC14" s="67"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A15" s="67"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="67"/>
+      <c r="R15" s="67"/>
+      <c r="S15" s="67"/>
+      <c r="T15" s="67"/>
+      <c r="U15" s="67"/>
+      <c r="V15" s="67"/>
+      <c r="W15" s="67"/>
+      <c r="X15" s="67"/>
+      <c r="Y15" s="67"/>
+      <c r="Z15" s="67"/>
+      <c r="AA15" s="67"/>
+      <c r="AB15" s="67"/>
+      <c r="AC15" s="67"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A16" s="67"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="67"/>
+      <c r="R16" s="67"/>
+      <c r="S16" s="67"/>
+      <c r="T16" s="67"/>
+      <c r="U16" s="67"/>
+      <c r="V16" s="67"/>
+      <c r="W16" s="67"/>
+      <c r="X16" s="67"/>
+      <c r="Y16" s="67"/>
+      <c r="Z16" s="67"/>
+      <c r="AA16" s="67"/>
+      <c r="AB16" s="67"/>
+      <c r="AC16" s="67"/>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A17" s="67"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="67"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="67"/>
+      <c r="Q17" s="67"/>
+      <c r="R17" s="67"/>
+      <c r="S17" s="67"/>
+      <c r="T17" s="67"/>
+      <c r="U17" s="67"/>
+      <c r="V17" s="67"/>
+      <c r="W17" s="67"/>
+      <c r="X17" s="67"/>
+      <c r="Y17" s="67"/>
+      <c r="Z17" s="67"/>
+      <c r="AA17" s="67"/>
+      <c r="AB17" s="67"/>
+      <c r="AC17" s="67"/>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A18" s="67"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="67"/>
+      <c r="O18" s="67"/>
+      <c r="P18" s="67"/>
+      <c r="Q18" s="67"/>
+      <c r="R18" s="67"/>
+      <c r="S18" s="67"/>
+      <c r="T18" s="67"/>
+      <c r="U18" s="67"/>
+      <c r="V18" s="67"/>
+      <c r="W18" s="67"/>
+      <c r="X18" s="67"/>
+      <c r="Y18" s="67"/>
+      <c r="Z18" s="67"/>
+      <c r="AA18" s="67"/>
+      <c r="AB18" s="67"/>
+      <c r="AC18" s="67"/>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A19" s="67"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="67"/>
+      <c r="R19" s="67"/>
+      <c r="S19" s="67"/>
+      <c r="T19" s="67"/>
+      <c r="U19" s="67"/>
+      <c r="V19" s="67"/>
+      <c r="W19" s="67"/>
+      <c r="X19" s="67"/>
+      <c r="Y19" s="67"/>
+      <c r="Z19" s="67"/>
+      <c r="AA19" s="67"/>
+      <c r="AB19" s="67"/>
+      <c r="AC19" s="67"/>
+    </row>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4950,36 +7000,36 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="1"/>
-    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="1"/>
-    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="1"/>
-    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="1"/>
+    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="1"/>
+    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="1"/>
+    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="1"/>
+    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -5051,7 +7101,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
@@ -5116,7 +7166,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -5179,7 +7229,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>40</v>
       </c>
@@ -5242,7 +7292,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>47</v>
       </c>
@@ -5301,7 +7351,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>53</v>
       </c>
@@ -5360,7 +7410,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>62</v>
       </c>
@@ -5400,7 +7450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>64</v>
       </c>
@@ -5435,7 +7485,7 @@
       <c r="AB8" s="58"/>
       <c r="AC8" s="58"/>
     </row>
-    <row r="9" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>65</v>
       </c>
@@ -5470,7 +7520,7 @@
       <c r="AB9" s="58"/>
       <c r="AC9" s="58"/>
     </row>
-    <row r="10" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>66</v>
       </c>
@@ -5505,7 +7555,7 @@
       <c r="AB10" s="58"/>
       <c r="AC10" s="58"/>
     </row>
-    <row r="11" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>67</v>
       </c>
@@ -5540,7 +7590,7 @@
       <c r="AB11" s="58"/>
       <c r="AC11" s="58"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="58"/>
       <c r="B12" s="59"/>
       <c r="C12" s="58"/>
@@ -5571,7 +7621,7 @@
       <c r="AB12" s="58"/>
       <c r="AC12" s="58"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="58"/>
       <c r="B13" s="59"/>
       <c r="C13" s="58"/>
@@ -5602,7 +7652,7 @@
       <c r="AB13" s="58"/>
       <c r="AC13" s="58"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="58"/>
       <c r="B14" s="59"/>
       <c r="C14" s="58"/>
@@ -5633,7 +7683,7 @@
       <c r="AB14" s="58"/>
       <c r="AC14" s="58"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="58"/>
       <c r="B15" s="59"/>
       <c r="C15" s="58"/>
@@ -5664,7 +7714,7 @@
       <c r="AB15" s="58"/>
       <c r="AC15" s="58"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="58"/>
       <c r="B16" s="59"/>
       <c r="C16" s="58"/>
@@ -5695,8 +7745,8 @@
       <c r="AB16" s="58"/>
       <c r="AC16" s="58"/>
     </row>
-    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5711,36 +7761,36 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="1"/>
-    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="1"/>
-    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="1"/>
-    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="1"/>
+    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="1"/>
+    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="1"/>
+    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="1"/>
+    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -5811,7 +7861,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
@@ -5876,7 +7926,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -5939,7 +7989,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>40</v>
       </c>
@@ -6002,7 +8052,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>47</v>
       </c>
@@ -6061,7 +8111,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>53</v>
       </c>
@@ -6120,7 +8170,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>62</v>
       </c>
@@ -6160,7 +8210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>64</v>
       </c>
@@ -6195,7 +8245,7 @@
       <c r="AB8" s="58"/>
       <c r="AC8" s="58"/>
     </row>
-    <row r="9" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>65</v>
       </c>
@@ -6230,7 +8280,7 @@
       <c r="AB9" s="58"/>
       <c r="AC9" s="58"/>
     </row>
-    <row r="10" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>66</v>
       </c>
@@ -6265,7 +8315,7 @@
       <c r="AB10" s="58"/>
       <c r="AC10" s="58"/>
     </row>
-    <row r="11" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>67</v>
       </c>
@@ -6300,7 +8350,7 @@
       <c r="AB11" s="58"/>
       <c r="AC11" s="58"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="58"/>
       <c r="B12" s="59"/>
       <c r="C12" s="58"/>
@@ -6331,7 +8381,7 @@
       <c r="AB12" s="58"/>
       <c r="AC12" s="58"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="58"/>
       <c r="B13" s="59"/>
       <c r="C13" s="58"/>
@@ -6362,7 +8412,7 @@
       <c r="AB13" s="58"/>
       <c r="AC13" s="58"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="58"/>
       <c r="B14" s="59"/>
       <c r="C14" s="58"/>
@@ -6393,7 +8443,7 @@
       <c r="AB14" s="58"/>
       <c r="AC14" s="58"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="58"/>
       <c r="B15" s="59"/>
       <c r="C15" s="58"/>
@@ -6424,7 +8474,7 @@
       <c r="AB15" s="58"/>
       <c r="AC15" s="58"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="58"/>
       <c r="B16" s="59"/>
       <c r="C16" s="58"/>
@@ -6455,8 +8505,8 @@
       <c r="AB16" s="58"/>
       <c r="AC16" s="58"/>
     </row>
-    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6471,36 +8521,36 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="1"/>
-    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="1"/>
-    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="1"/>
-    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="1"/>
+    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="1"/>
+    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="1"/>
+    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="1"/>
+    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -6571,7 +8621,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
@@ -6636,7 +8686,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -6699,7 +8749,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>40</v>
       </c>
@@ -6762,7 +8812,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>47</v>
       </c>
@@ -6821,7 +8871,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>53</v>
       </c>
@@ -6880,7 +8930,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>62</v>
       </c>
@@ -6920,7 +8970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>64</v>
       </c>
@@ -6955,7 +9005,7 @@
       <c r="AB8" s="58"/>
       <c r="AC8" s="58"/>
     </row>
-    <row r="9" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>65</v>
       </c>
@@ -6990,7 +9040,7 @@
       <c r="AB9" s="58"/>
       <c r="AC9" s="58"/>
     </row>
-    <row r="10" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>66</v>
       </c>
@@ -7025,7 +9075,7 @@
       <c r="AB10" s="58"/>
       <c r="AC10" s="58"/>
     </row>
-    <row r="11" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>67</v>
       </c>
@@ -7060,7 +9110,7 @@
       <c r="AB11" s="58"/>
       <c r="AC11" s="58"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="58"/>
       <c r="B12" s="59"/>
       <c r="C12" s="58"/>
@@ -7091,7 +9141,7 @@
       <c r="AB12" s="58"/>
       <c r="AC12" s="58"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="58"/>
       <c r="B13" s="59"/>
       <c r="C13" s="58"/>
@@ -7122,7 +9172,7 @@
       <c r="AB13" s="58"/>
       <c r="AC13" s="58"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="58"/>
       <c r="B14" s="59"/>
       <c r="C14" s="58"/>
@@ -7153,7 +9203,7 @@
       <c r="AB14" s="58"/>
       <c r="AC14" s="58"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="58"/>
       <c r="B15" s="59"/>
       <c r="C15" s="58"/>
@@ -7184,7 +9234,7 @@
       <c r="AB15" s="58"/>
       <c r="AC15" s="58"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="58"/>
       <c r="B16" s="59"/>
       <c r="C16" s="58"/>
@@ -7215,8 +9265,8 @@
       <c r="AB16" s="58"/>
       <c r="AC16" s="58"/>
     </row>
-    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7231,36 +9281,36 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="1"/>
-    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="1"/>
-    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="1"/>
-    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="1"/>
+    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.90625" style="1"/>
+    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.90625" style="1"/>
+    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.90625" style="1"/>
+    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -7331,7 +9381,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
@@ -7396,7 +9446,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -7459,7 +9509,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>40</v>
       </c>
@@ -7522,7 +9572,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>47</v>
       </c>
@@ -7581,7 +9631,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>53</v>
       </c>
@@ -7640,7 +9690,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>62</v>
       </c>
@@ -7680,7 +9730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>64</v>
       </c>
@@ -7715,7 +9765,7 @@
       <c r="AB8" s="58"/>
       <c r="AC8" s="58"/>
     </row>
-    <row r="9" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>65</v>
       </c>
@@ -7750,7 +9800,7 @@
       <c r="AB9" s="58"/>
       <c r="AC9" s="58"/>
     </row>
-    <row r="10" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>66</v>
       </c>
@@ -7785,7 +9835,7 @@
       <c r="AB10" s="58"/>
       <c r="AC10" s="58"/>
     </row>
-    <row r="11" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>67</v>
       </c>
@@ -7820,7 +9870,7 @@
       <c r="AB11" s="58"/>
       <c r="AC11" s="58"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="58"/>
       <c r="B12" s="59"/>
       <c r="C12" s="58"/>
@@ -7851,7 +9901,7 @@
       <c r="AB12" s="58"/>
       <c r="AC12" s="58"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="58"/>
       <c r="B13" s="59"/>
       <c r="C13" s="58"/>
@@ -7882,7 +9932,7 @@
       <c r="AB13" s="58"/>
       <c r="AC13" s="58"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="58"/>
       <c r="B14" s="59"/>
       <c r="C14" s="58"/>
@@ -7913,7 +9963,7 @@
       <c r="AB14" s="58"/>
       <c r="AC14" s="58"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="58"/>
       <c r="B15" s="59"/>
       <c r="C15" s="58"/>
@@ -7944,7 +9994,7 @@
       <c r="AB15" s="58"/>
       <c r="AC15" s="58"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="58"/>
       <c r="B16" s="59"/>
       <c r="C16" s="58"/>
@@ -7975,8 +10025,8 @@
       <c r="AB16" s="58"/>
       <c r="AC16" s="58"/>
     </row>
-    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7991,36 +10041,36 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="9"/>
-    <col min="4" max="4" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="9"/>
-    <col min="7" max="7" width="73.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="9"/>
-    <col min="12" max="12" width="89.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="9" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="9"/>
-    <col min="18" max="18" width="65.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="17.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="9"/>
+    <col min="4" max="4" width="15.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.90625" style="9"/>
+    <col min="7" max="7" width="73.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.90625" style="9"/>
+    <col min="12" max="12" width="89.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="9" customWidth="1"/>
+    <col min="17" max="17" width="8.90625" style="9"/>
+    <col min="18" max="18" width="65.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -8091,7 +10141,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>23</v>
       </c>
@@ -8145,7 +10195,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:29" ht="44.5" x14ac:dyDescent="0.45">
       <c r="A3" s="11" t="s">
         <v>32</v>
       </c>
@@ -8196,7 +10246,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>40</v>
       </c>
@@ -8247,7 +10297,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>47</v>
       </c>
@@ -8292,7 +10342,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>53</v>
       </c>
@@ -8337,7 +10387,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>62</v>
       </c>
@@ -8352,7 +10402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>66</v>
       </c>
@@ -8360,7 +10410,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>67</v>
       </c>
@@ -8368,15 +10418,15 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8390,36 +10440,36 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="9"/>
-    <col min="4" max="4" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="9"/>
-    <col min="7" max="7" width="73.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="9"/>
-    <col min="12" max="12" width="89.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="9" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="9"/>
-    <col min="18" max="18" width="65.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="17.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="9"/>
+    <col min="4" max="4" width="15.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.90625" style="9"/>
+    <col min="7" max="7" width="73.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.90625" style="9"/>
+    <col min="12" max="12" width="89.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="9" customWidth="1"/>
+    <col min="17" max="17" width="8.90625" style="9"/>
+    <col min="18" max="18" width="65.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -8490,7 +10540,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>23</v>
       </c>
@@ -8544,7 +10594,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:29" ht="44.5" x14ac:dyDescent="0.45">
       <c r="A3" s="11" t="s">
         <v>32</v>
       </c>
@@ -8595,7 +10645,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>40</v>
       </c>
@@ -8646,7 +10696,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>47</v>
       </c>
@@ -8691,7 +10741,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>53</v>
       </c>
@@ -8724,7 +10774,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>62</v>
       </c>
@@ -8764,7 +10814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>66</v>
       </c>
@@ -8785,7 +10835,7 @@
       </c>
       <c r="P8" s="11"/>
     </row>
-    <row r="9" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>67</v>
       </c>
@@ -8794,65 +10844,65 @@
       </c>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="G12" s="21"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="G16" s="12"/>
     </row>
-    <row r="17" spans="7:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="G17" s="12"/>
     </row>
-    <row r="18" spans="7:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="G18" s="12"/>
     </row>
-    <row r="19" spans="7:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="G19" s="12"/>
     </row>
-    <row r="20" spans="7:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="G20" s="12"/>
     </row>
-    <row r="21" spans="7:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="G21" s="21"/>
     </row>
-    <row r="22" spans="7:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="G22" s="12"/>
     </row>
-    <row r="23" spans="7:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="G23" s="12"/>
     </row>
-    <row r="24" spans="7:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="G24" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="N5:N6"/>
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8866,35 +10916,35 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="9"/>
-    <col min="4" max="4" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="9"/>
-    <col min="7" max="7" width="73.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="9"/>
-    <col min="12" max="12" width="89.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="8.88671875" style="9"/>
-    <col min="18" max="18" width="65.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="17.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="9"/>
+    <col min="4" max="4" width="15.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.90625" style="9"/>
+    <col min="7" max="7" width="73.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.90625" style="9"/>
+    <col min="12" max="12" width="89.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.90625" style="9"/>
+    <col min="18" max="18" width="65.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -8965,7 +11015,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>23</v>
       </c>
@@ -9018,7 +11068,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:29" ht="44.5" x14ac:dyDescent="0.45">
       <c r="A3" s="11" t="s">
         <v>32</v>
       </c>
@@ -9068,7 +11118,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>40</v>
       </c>
@@ -9118,7 +11168,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>47</v>
       </c>
@@ -9156,7 +11206,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>53</v>
       </c>
@@ -9194,7 +11244,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>62</v>
       </c>
@@ -9227,7 +11277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>87</v>
       </c>
@@ -9241,7 +11291,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>66</v>
       </c>
@@ -9249,7 +11299,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>67</v>
       </c>
@@ -9257,31 +11307,31 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="Y3:Z18">
     <sortCondition ref="Y1:Y18"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="N6:N7"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9295,35 +11345,35 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="9"/>
-    <col min="4" max="4" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="9"/>
-    <col min="7" max="7" width="73.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="9"/>
-    <col min="12" max="12" width="89.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.109375" style="9"/>
-    <col min="18" max="18" width="65.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="17.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="9"/>
+    <col min="4" max="4" width="15.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="9"/>
+    <col min="7" max="7" width="73.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="9"/>
+    <col min="12" max="12" width="89.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.08984375" style="9"/>
+    <col min="18" max="18" width="65.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -9394,7 +11444,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
         <v>23</v>
       </c>
@@ -9449,7 +11499,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:29" ht="44.5" x14ac:dyDescent="0.45">
       <c r="A3" s="22" t="s">
         <v>32</v>
       </c>
@@ -9501,7 +11551,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="22" t="s">
         <v>40</v>
       </c>
@@ -9553,7 +11603,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
         <v>47</v>
       </c>
@@ -9591,7 +11641,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="22" t="s">
         <v>87</v>
       </c>
@@ -9621,7 +11671,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="22" t="s">
         <v>66</v>
       </c>
@@ -9646,7 +11696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="22" t="s">
         <v>67</v>
       </c>
@@ -9660,7 +11710,7 @@
       <c r="J8" s="11"/>
       <c r="K8" s="26"/>
     </row>
-    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="G9" s="28"/>
@@ -9668,18 +11718,18 @@
       <c r="I9" s="28"/>
       <c r="J9" s="28"/>
     </row>
-    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
     </row>
-    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="L6:L7"/>
@@ -9691,9 +11741,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9874,19 +11927,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38F446B6-3E55-4E07-BA6D-47C0ACA73425}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF5B3250-9EAA-45ED-A48E-C1960EE83752}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9911,9 +11960,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF5B3250-9EAA-45ED-A48E-C1960EE83752}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38F446B6-3E55-4E07-BA6D-47C0ACA73425}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/dataSources/WSR/vEMS.xlsx
+++ b/dataSources/WSR/vEMS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meenakshi.kasi\Downloads\WSR 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\KMDV-Dash\dataSources\WSR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F578EC24-2BCA-49D5-8A15-F9EC45D4B164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5FB8F5-81BA-4843-9120-2781CA44A3F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="11" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="11" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2 Oct 2023" sheetId="9" r:id="rId1"/>
@@ -1468,12 +1468,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1517,43 +1511,24 @@
     <xf numFmtId="10" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="16" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1569,14 +1544,39 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="16" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1870,36 +1870,36 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="1"/>
-    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="1"/>
-    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="1"/>
-    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.08984375" style="1"/>
-    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="1"/>
+    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="1"/>
+    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="1"/>
+    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>40</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>47</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>53</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>62</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>64</v>
       </c>
@@ -2355,7 +2355,7 @@
       <c r="AB8" s="58"/>
       <c r="AC8" s="58"/>
     </row>
-    <row r="9" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>65</v>
       </c>
@@ -2390,7 +2390,7 @@
       <c r="AB9" s="58"/>
       <c r="AC9" s="58"/>
     </row>
-    <row r="10" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>66</v>
       </c>
@@ -2425,7 +2425,7 @@
       <c r="AB10" s="58"/>
       <c r="AC10" s="58"/>
     </row>
-    <row r="11" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>67</v>
       </c>
@@ -2460,7 +2460,7 @@
       <c r="AB11" s="58"/>
       <c r="AC11" s="58"/>
     </row>
-    <row r="12" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="58"/>
       <c r="B12" s="59"/>
       <c r="C12" s="58"/>
@@ -2491,7 +2491,7 @@
       <c r="AB12" s="58"/>
       <c r="AC12" s="58"/>
     </row>
-    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="58"/>
       <c r="B13" s="59"/>
       <c r="C13" s="58"/>
@@ -2522,7 +2522,7 @@
       <c r="AB13" s="58"/>
       <c r="AC13" s="58"/>
     </row>
-    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="58"/>
       <c r="B14" s="59"/>
       <c r="C14" s="58"/>
@@ -2553,7 +2553,7 @@
       <c r="AB14" s="58"/>
       <c r="AC14" s="58"/>
     </row>
-    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="58"/>
       <c r="B15" s="59"/>
       <c r="C15" s="58"/>
@@ -2584,7 +2584,7 @@
       <c r="AB15" s="58"/>
       <c r="AC15" s="58"/>
     </row>
-    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="58"/>
       <c r="B16" s="59"/>
       <c r="C16" s="58"/>
@@ -2615,8 +2615,8 @@
       <c r="AB16" s="58"/>
       <c r="AC16" s="58"/>
     </row>
-    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2631,35 +2631,35 @@
       <selection activeCell="AF6" sqref="AF6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="9"/>
-    <col min="4" max="4" width="15.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="9"/>
-    <col min="7" max="7" width="73.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="9"/>
-    <col min="12" max="12" width="89.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.08984375" style="9"/>
-    <col min="18" max="18" width="65.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="9"/>
+    <col min="1" max="1" width="17.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="9"/>
+    <col min="4" max="4" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="9"/>
+    <col min="7" max="7" width="73.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="9"/>
+    <col min="12" max="12" width="89.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.109375" style="9"/>
+    <col min="18" max="18" width="65.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>23</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="59" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
       <c r="A3" s="22" t="s">
         <v>32</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>40</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>47</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>87</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>102</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>0.89247311827956988</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>67</v>
       </c>
@@ -3005,7 +3005,7 @@
       <c r="N8" s="17"/>
       <c r="O8" s="17"/>
     </row>
-    <row r="9" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="G9" s="17"/>
@@ -3018,7 +3018,7 @@
       <c r="N9" s="17"/>
       <c r="O9" s="17"/>
     </row>
-    <row r="10" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="G10" s="17"/>
@@ -3031,7 +3031,7 @@
       <c r="N10" s="17"/>
       <c r="O10" s="17"/>
     </row>
-    <row r="11" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
@@ -3042,13 +3042,13 @@
       <c r="N11" s="17"/>
       <c r="O11" s="17"/>
     </row>
-    <row r="12" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3062,35 +3062,35 @@
       <selection activeCell="Y8" sqref="Y8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="9"/>
-    <col min="4" max="4" width="15.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="9"/>
-    <col min="7" max="7" width="73.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="9"/>
-    <col min="12" max="12" width="89.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.08984375" style="9"/>
-    <col min="18" max="18" width="65.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="9"/>
+    <col min="1" max="1" width="17.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="9"/>
+    <col min="4" max="4" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="9"/>
+    <col min="7" max="7" width="73.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="9"/>
+    <col min="12" max="12" width="89.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.109375" style="9"/>
+    <col min="18" max="18" width="65.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>23</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="59" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
       <c r="A3" s="22" t="s">
         <v>32</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>40</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>47</v>
       </c>
@@ -3381,7 +3381,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>87</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>102</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>0.98095238095238091</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>66</v>
       </c>
@@ -3451,7 +3451,7 @@
       <c r="N8" s="17"/>
       <c r="O8" s="17"/>
     </row>
-    <row r="9" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
         <v>67</v>
       </c>
@@ -3468,7 +3468,7 @@
       <c r="N9" s="17"/>
       <c r="O9" s="17"/>
     </row>
-    <row r="10" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="G10" s="17"/>
@@ -3481,7 +3481,7 @@
       <c r="N10" s="17"/>
       <c r="O10" s="17"/>
     </row>
-    <row r="11" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
@@ -3492,13 +3492,13 @@
       <c r="N11" s="17"/>
       <c r="O11" s="17"/>
     </row>
-    <row r="12" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3512,35 +3512,35 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="9"/>
-    <col min="4" max="4" width="15.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="9"/>
-    <col min="7" max="7" width="73.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="9"/>
-    <col min="12" max="12" width="89.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.08984375" style="9"/>
-    <col min="18" max="18" width="65.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="9"/>
+    <col min="1" max="1" width="17.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="9"/>
+    <col min="4" max="4" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="9"/>
+    <col min="7" max="7" width="73.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="9"/>
+    <col min="12" max="12" width="89.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.109375" style="9"/>
+    <col min="18" max="18" width="65.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>23</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="59" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
       <c r="A3" s="22" t="s">
         <v>32</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>40</v>
       </c>
@@ -3767,7 +3767,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>47</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>87</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>102</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>66</v>
       </c>
@@ -3891,7 +3891,7 @@
       <c r="N8" s="17"/>
       <c r="O8" s="17"/>
     </row>
-    <row r="9" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
         <v>67</v>
       </c>
@@ -3908,7 +3908,7 @@
       <c r="N9" s="17"/>
       <c r="O9" s="17"/>
     </row>
-    <row r="10" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="G10" s="17"/>
@@ -3921,7 +3921,7 @@
       <c r="N10" s="17"/>
       <c r="O10" s="17"/>
     </row>
-    <row r="11" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
@@ -3932,13 +3932,13 @@
       <c r="N11" s="17"/>
       <c r="O11" s="17"/>
     </row>
-    <row r="12" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3948,39 +3948,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06318CDB-B9D5-49AA-B294-14A5F3037033}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1:AC1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="9"/>
-    <col min="4" max="4" width="15.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="9"/>
-    <col min="7" max="7" width="73.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="9"/>
-    <col min="12" max="12" width="89.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.08984375" style="9"/>
-    <col min="18" max="18" width="65.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="9"/>
+    <col min="1" max="1" width="17.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="9"/>
+    <col min="4" max="4" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="9"/>
+    <col min="7" max="7" width="73.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="9"/>
+    <col min="12" max="12" width="89.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.109375" style="9"/>
+    <col min="18" max="18" width="65.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -4044,14 +4044,14 @@
       <c r="Z1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="18" t="s">
+      <c r="AB1" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC1" s="61" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>121</v>
       </c>
@@ -4105,7 +4105,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="59" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
       <c r="A3" s="22" t="s">
         <v>32</v>
       </c>
@@ -4156,7 +4156,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>40</v>
       </c>
@@ -4207,7 +4207,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>47</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>125</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>66</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>67</v>
       </c>
@@ -4331,7 +4331,7 @@
       <c r="N8" s="60"/>
       <c r="O8" s="60"/>
     </row>
-    <row r="9" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="22"/>
       <c r="B9" s="23"/>
       <c r="G9" s="17"/>
@@ -4344,7 +4344,7 @@
       <c r="N9" s="17"/>
       <c r="O9" s="17"/>
     </row>
-    <row r="10" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="G10" s="17"/>
@@ -4357,7 +4357,7 @@
       <c r="N10" s="17"/>
       <c r="O10" s="17"/>
     </row>
-    <row r="11" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
@@ -4368,13 +4368,13 @@
       <c r="N11" s="17"/>
       <c r="O11" s="17"/>
     </row>
-    <row r="12" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4385,38 +4385,38 @@
   <dimension ref="A1:AC18"/>
   <sheetViews>
     <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="AB1" sqref="AB1:AC1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="9"/>
-    <col min="4" max="4" width="15.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="9"/>
-    <col min="7" max="7" width="73.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="9"/>
-    <col min="12" max="12" width="89.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.08984375" style="9"/>
-    <col min="18" max="18" width="65.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="9"/>
+    <col min="1" max="1" width="17.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="9"/>
+    <col min="4" max="4" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="9"/>
+    <col min="7" max="7" width="73.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="9"/>
+    <col min="12" max="12" width="89.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.109375" style="9"/>
+    <col min="18" max="18" width="65.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -4480,14 +4480,14 @@
       <c r="Z1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="18" t="s">
+      <c r="AB1" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC1" s="61" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="56" t="s">
         <v>23</v>
       </c>
@@ -4541,7 +4541,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="59" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
       <c r="A3" s="56" t="s">
         <v>32</v>
       </c>
@@ -4592,7 +4592,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="56" t="s">
         <v>40</v>
       </c>
@@ -4643,7 +4643,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="56" t="s">
         <v>47</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="56" t="s">
         <v>125</v>
       </c>
@@ -4725,7 +4725,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="56" t="s">
         <v>66</v>
       </c>
@@ -4750,7 +4750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="56" t="s">
         <v>67</v>
       </c>
@@ -4767,7 +4767,7 @@
       <c r="N8" s="60"/>
       <c r="O8" s="60"/>
     </row>
-    <row r="9" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="22"/>
       <c r="B9" s="23"/>
       <c r="G9" s="17"/>
@@ -4780,7 +4780,7 @@
       <c r="N9" s="17"/>
       <c r="O9" s="17"/>
     </row>
-    <row r="10" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="G10" s="17"/>
@@ -4793,7 +4793,7 @@
       <c r="N10" s="17"/>
       <c r="O10" s="17"/>
     </row>
-    <row r="11" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
@@ -4804,13 +4804,13 @@
       <c r="N11" s="17"/>
       <c r="O11" s="17"/>
     </row>
-    <row r="12" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4824,36 +4824,36 @@
       <selection activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="9"/>
-    <col min="4" max="4" width="15.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="9"/>
-    <col min="7" max="7" width="73.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="9"/>
-    <col min="12" max="12" width="89.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.08984375" style="9"/>
-    <col min="17" max="17" width="16.08984375" style="9" customWidth="1"/>
-    <col min="18" max="18" width="65.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="9"/>
+    <col min="1" max="1" width="17.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="9"/>
+    <col min="4" max="4" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="9"/>
+    <col min="7" max="7" width="73.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="9"/>
+    <col min="12" max="12" width="89.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.109375" style="9"/>
+    <col min="17" max="17" width="16.109375" style="9" customWidth="1"/>
+    <col min="18" max="18" width="65.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -4924,7 +4924,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>23</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="59" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:29" ht="58.8" x14ac:dyDescent="0.4">
       <c r="A3" s="22" t="s">
         <v>32</v>
       </c>
@@ -5058,7 +5058,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>40</v>
       </c>
@@ -5125,7 +5125,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>47</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>125</v>
       </c>
@@ -5209,7 +5209,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>66</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>67</v>
       </c>
@@ -5251,7 +5251,7 @@
       <c r="N8" s="60"/>
       <c r="O8" s="60"/>
     </row>
-    <row r="9" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="22"/>
       <c r="B9" s="23"/>
       <c r="G9" s="17"/>
@@ -5264,7 +5264,7 @@
       <c r="N9" s="17"/>
       <c r="O9" s="17"/>
     </row>
-    <row r="10" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="G10" s="17"/>
@@ -5277,7 +5277,7 @@
       <c r="N10" s="17"/>
       <c r="O10" s="17"/>
     </row>
-    <row r="11" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
@@ -5288,13 +5288,13 @@
       <c r="N11" s="17"/>
       <c r="O11" s="17"/>
     </row>
-    <row r="12" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5308,436 +5308,436 @@
       <selection activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63" t="s">
+      <c r="C1" s="61"/>
+      <c r="D1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63" t="s">
+      <c r="F1" s="61"/>
+      <c r="G1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="H1" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="63" t="s">
+      <c r="I1" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="63" t="s">
+      <c r="J1" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63" t="s">
+      <c r="K1" s="61"/>
+      <c r="L1" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="63" t="s">
+      <c r="M1" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="63" t="s">
+      <c r="N1" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="63" t="s">
+      <c r="O1" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63" t="s">
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="63" t="s">
+      <c r="R1" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="63" t="s">
+      <c r="S1" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="63" t="s">
+      <c r="T1" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="63" t="s">
+      <c r="U1" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="63" t="s">
+      <c r="V1" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="63" t="s">
+      <c r="W1" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63" t="s">
+      <c r="X1" s="61"/>
+      <c r="Y1" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="63" t="s">
+      <c r="Z1" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="63"/>
+      <c r="AA1" s="61"/>
       <c r="AB1" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="AC1" s="63" t="s">
+      <c r="AC1" s="61" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="102" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="65" t="s">
+    <row r="2" spans="1:29" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="66">
+      <c r="B2" s="64">
         <v>3</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="68" t="s">
+      <c r="C2" s="65"/>
+      <c r="D2" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="69">
+      <c r="E2" s="67">
         <v>20</v>
       </c>
-      <c r="F2" s="67"/>
-      <c r="G2" s="70" t="s">
+      <c r="F2" s="65"/>
+      <c r="G2" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="H2" s="71" t="s">
+      <c r="H2" s="69" t="s">
         <v>127</v>
       </c>
-      <c r="I2" s="71" t="s">
+      <c r="I2" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="71" t="s">
+      <c r="J2" s="69" t="s">
         <v>128</v>
       </c>
       <c r="K2" s="4"/>
-      <c r="L2" s="70" t="s">
+      <c r="L2" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="71" t="s">
+      <c r="M2" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="71" t="s">
+      <c r="N2" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="71" t="s">
+      <c r="O2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67" t="s">
+      <c r="P2" s="65"/>
+      <c r="Q2" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="R2" s="67" t="s">
+      <c r="R2" s="65" t="s">
         <v>149</v>
       </c>
-      <c r="S2" s="67" t="s">
+      <c r="S2" s="65" t="s">
         <v>150</v>
       </c>
-      <c r="T2" s="67" t="s">
+      <c r="T2" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="67" t="s">
+      <c r="U2" s="65"/>
+      <c r="V2" s="65"/>
+      <c r="W2" s="65"/>
+      <c r="X2" s="65"/>
+      <c r="Y2" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="Z2" s="72">
+      <c r="Z2" s="70">
         <v>0</v>
       </c>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="67" t="s">
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="AC2" s="67">
+      <c r="AC2" s="65">
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="219" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="65" t="s">
+    <row r="3" spans="1:29" ht="203.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="66">
+      <c r="B3" s="64">
         <v>1</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="73" t="s">
+      <c r="C3" s="65"/>
+      <c r="D3" s="71" t="s">
         <v>33</v>
       </c>
       <c r="E3" s="15">
         <v>17</v>
       </c>
-      <c r="F3" s="67"/>
-      <c r="G3" s="74" t="s">
+      <c r="F3" s="65"/>
+      <c r="G3" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="71" t="s">
+      <c r="H3" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="71" t="s">
+      <c r="I3" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="71" t="s">
+      <c r="J3" s="69" t="s">
         <v>135</v>
       </c>
       <c r="K3" s="4"/>
-      <c r="L3" s="74" t="s">
+      <c r="L3" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="M3" s="71" t="s">
+      <c r="M3" s="69" t="s">
         <v>127</v>
       </c>
-      <c r="N3" s="71" t="s">
+      <c r="N3" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="71" t="s">
+      <c r="O3" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
-      <c r="U3" s="67"/>
-      <c r="V3" s="67"/>
-      <c r="W3" s="67"/>
-      <c r="X3" s="67"/>
-      <c r="Y3" s="67" t="s">
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="65"/>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="Z3" s="72">
+      <c r="Z3" s="70">
         <v>0</v>
       </c>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="67" t="s">
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="AC3" s="67">
+      <c r="AC3" s="65">
         <v>676</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="78" t="s">
+    <row r="4" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+      <c r="A4" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="78">
+      <c r="B4" s="93">
         <v>4.5</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="83" t="s">
+      <c r="C4" s="89"/>
+      <c r="D4" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="85">
+      <c r="E4" s="97">
         <v>2</v>
       </c>
-      <c r="F4" s="87"/>
-      <c r="G4" s="89" t="s">
+      <c r="F4" s="99"/>
+      <c r="G4" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="89" t="s">
+      <c r="H4" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="89"/>
-      <c r="J4" s="75" t="s">
+      <c r="I4" s="87"/>
+      <c r="J4" s="73" t="s">
         <v>117</v>
       </c>
       <c r="K4" s="91"/>
-      <c r="L4" s="89" t="s">
+      <c r="L4" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="M4" s="89" t="s">
+      <c r="M4" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="N4" s="89" t="s">
+      <c r="N4" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="73" t="s">
         <v>152</v>
       </c>
-      <c r="P4" s="81"/>
-      <c r="Q4" s="80"/>
-      <c r="R4" s="80"/>
-      <c r="S4" s="80"/>
-      <c r="T4" s="80"/>
-      <c r="U4" s="80"/>
-      <c r="V4" s="80"/>
-      <c r="W4" s="80"/>
-      <c r="X4" s="80"/>
-      <c r="Y4" s="94" t="s">
+      <c r="P4" s="89"/>
+      <c r="Q4" s="81"/>
+      <c r="R4" s="81"/>
+      <c r="S4" s="81"/>
+      <c r="T4" s="81"/>
+      <c r="U4" s="81"/>
+      <c r="V4" s="81"/>
+      <c r="W4" s="81"/>
+      <c r="X4" s="81"/>
+      <c r="Y4" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="Z4" s="96">
+      <c r="Z4" s="85">
         <v>0</v>
       </c>
-      <c r="AA4" s="80"/>
-      <c r="AB4" s="80" t="s">
+      <c r="AA4" s="81"/>
+      <c r="AB4" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="AC4" s="80">
+      <c r="AC4" s="81">
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="131" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="79"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="71" t="s">
+    <row r="5" spans="1:29" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="94"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="69" t="s">
         <v>151</v>
       </c>
       <c r="K5" s="92"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="71" t="s">
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="69" t="s">
         <v>153</v>
       </c>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="93"/>
-      <c r="R5" s="93"/>
-      <c r="S5" s="93"/>
-      <c r="T5" s="93"/>
-      <c r="U5" s="93"/>
-      <c r="V5" s="93"/>
-      <c r="W5" s="93"/>
-      <c r="X5" s="93"/>
-      <c r="Y5" s="95"/>
-      <c r="Z5" s="97"/>
-      <c r="AA5" s="93"/>
-      <c r="AB5" s="93"/>
-      <c r="AC5" s="93"/>
-    </row>
-    <row r="6" spans="1:29" ht="160" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="65" t="s">
+      <c r="P5" s="90"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="82"/>
+      <c r="T5" s="82"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
+      <c r="W5" s="82"/>
+      <c r="X5" s="82"/>
+      <c r="Y5" s="84"/>
+      <c r="Z5" s="86"/>
+      <c r="AA5" s="82"/>
+      <c r="AB5" s="82"/>
+      <c r="AC5" s="82"/>
+    </row>
+    <row r="6" spans="1:29" ht="159" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="66">
+      <c r="B6" s="64">
         <v>2</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="74" t="s">
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="H6" s="71" t="s">
+      <c r="H6" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="76">
+      <c r="I6" s="74">
         <v>45316</v>
       </c>
-      <c r="J6" s="71" t="s">
+      <c r="J6" s="69" t="s">
         <v>154</v>
       </c>
       <c r="K6" s="4"/>
-      <c r="L6" s="74" t="s">
+      <c r="L6" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="71" t="s">
+      <c r="M6" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="N6" s="76">
+      <c r="N6" s="74">
         <v>45321</v>
       </c>
-      <c r="O6" s="71" t="s">
+      <c r="O6" s="69" t="s">
         <v>155</v>
       </c>
-      <c r="P6" s="67"/>
-      <c r="Q6" s="67"/>
-      <c r="R6" s="67"/>
-      <c r="S6" s="67"/>
-      <c r="T6" s="67"/>
-      <c r="U6" s="67"/>
-      <c r="V6" s="67"/>
-      <c r="W6" s="67"/>
-      <c r="X6" s="67"/>
-      <c r="Y6" s="67" t="s">
+      <c r="P6" s="65"/>
+      <c r="Q6" s="65"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="65"/>
+      <c r="T6" s="65"/>
+      <c r="U6" s="65"/>
+      <c r="V6" s="65"/>
+      <c r="W6" s="65"/>
+      <c r="X6" s="65"/>
+      <c r="Y6" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="Z6" s="72">
+      <c r="Z6" s="70">
         <v>30</v>
       </c>
-      <c r="AA6" s="67"/>
-      <c r="AB6" s="67" t="s">
+      <c r="AA6" s="65"/>
+      <c r="AB6" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="AC6" s="67">
+      <c r="AC6" s="65">
         <v>1066</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="65" t="s">
+    <row r="7" spans="1:29" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="63" t="s">
         <v>125</v>
       </c>
-      <c r="B7" s="66">
+      <c r="B7" s="64">
         <v>11.5</v>
       </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="67"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="65"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="4"/>
-      <c r="L7" s="74" t="s">
+      <c r="L7" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="M7" s="71" t="s">
+      <c r="M7" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="N7" s="76">
+      <c r="N7" s="74">
         <v>45316</v>
       </c>
-      <c r="O7" s="71" t="s">
+      <c r="O7" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="P7" s="67"/>
-      <c r="Q7" s="67"/>
-      <c r="R7" s="67"/>
-      <c r="S7" s="67"/>
-      <c r="T7" s="67"/>
-      <c r="U7" s="67"/>
-      <c r="V7" s="67"/>
-      <c r="W7" s="67"/>
-      <c r="X7" s="67"/>
-      <c r="Y7" s="67" t="s">
+      <c r="P7" s="65"/>
+      <c r="Q7" s="65"/>
+      <c r="R7" s="65"/>
+      <c r="S7" s="65"/>
+      <c r="T7" s="65"/>
+      <c r="U7" s="65"/>
+      <c r="V7" s="65"/>
+      <c r="W7" s="65"/>
+      <c r="X7" s="65"/>
+      <c r="Y7" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="Z7" s="72">
+      <c r="Z7" s="70">
         <v>1</v>
       </c>
-      <c r="AA7" s="67"/>
-      <c r="AB7" s="67" t="s">
+      <c r="AA7" s="65"/>
+      <c r="AB7" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="AC7" s="67">
+      <c r="AC7" s="65">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="73" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="65" t="s">
+    <row r="8" spans="1:29" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="66">
+      <c r="B8" s="64">
         <v>8</v>
       </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="67"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="65"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -5747,36 +5747,36 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="67"/>
-      <c r="Q8" s="67"/>
-      <c r="R8" s="67"/>
-      <c r="S8" s="67"/>
-      <c r="T8" s="67"/>
-      <c r="U8" s="67"/>
-      <c r="V8" s="67"/>
-      <c r="W8" s="67"/>
-      <c r="X8" s="67"/>
-      <c r="Y8" s="67"/>
-      <c r="Z8" s="72"/>
-      <c r="AA8" s="67"/>
-      <c r="AB8" s="67" t="s">
+      <c r="P8" s="65"/>
+      <c r="Q8" s="65"/>
+      <c r="R8" s="65"/>
+      <c r="S8" s="65"/>
+      <c r="T8" s="65"/>
+      <c r="U8" s="65"/>
+      <c r="V8" s="65"/>
+      <c r="W8" s="65"/>
+      <c r="X8" s="65"/>
+      <c r="Y8" s="65"/>
+      <c r="Z8" s="70"/>
+      <c r="AA8" s="65"/>
+      <c r="AB8" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="AC8" s="77">
+      <c r="AC8" s="75">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="73" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="65" t="s">
+    <row r="9" spans="1:29" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="66">
+      <c r="B9" s="64">
         <v>9</v>
       </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="67"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="65"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -5786,28 +5786,28 @@
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
-      <c r="P9" s="67"/>
-      <c r="Q9" s="67"/>
-      <c r="R9" s="67"/>
-      <c r="S9" s="67"/>
-      <c r="T9" s="67"/>
-      <c r="U9" s="67"/>
-      <c r="V9" s="67"/>
-      <c r="W9" s="67"/>
-      <c r="X9" s="67"/>
-      <c r="Y9" s="67"/>
-      <c r="Z9" s="67"/>
-      <c r="AA9" s="67"/>
-      <c r="AB9" s="67"/>
-      <c r="AC9" s="67"/>
-    </row>
-    <row r="10" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="65"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="67"/>
+      <c r="P9" s="65"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="65"/>
+      <c r="S9" s="65"/>
+      <c r="T9" s="65"/>
+      <c r="U9" s="65"/>
+      <c r="V9" s="65"/>
+      <c r="W9" s="65"/>
+      <c r="X9" s="65"/>
+      <c r="Y9" s="65"/>
+      <c r="Z9" s="65"/>
+      <c r="AA9" s="65"/>
+      <c r="AB9" s="65"/>
+      <c r="AC9" s="65"/>
+    </row>
+    <row r="10" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="63"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="65"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -5817,28 +5817,28 @@
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
-      <c r="P10" s="67"/>
-      <c r="Q10" s="67"/>
-      <c r="R10" s="67"/>
-      <c r="S10" s="67"/>
-      <c r="T10" s="67"/>
-      <c r="U10" s="67"/>
-      <c r="V10" s="67"/>
-      <c r="W10" s="67"/>
-      <c r="X10" s="67"/>
-      <c r="Y10" s="67"/>
-      <c r="Z10" s="67"/>
-      <c r="AA10" s="67"/>
-      <c r="AB10" s="67"/>
-      <c r="AC10" s="67"/>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="P10" s="65"/>
+      <c r="Q10" s="65"/>
+      <c r="R10" s="65"/>
+      <c r="S10" s="65"/>
+      <c r="T10" s="65"/>
+      <c r="U10" s="65"/>
+      <c r="V10" s="65"/>
+      <c r="W10" s="65"/>
+      <c r="X10" s="65"/>
+      <c r="Y10" s="65"/>
+      <c r="Z10" s="65"/>
+      <c r="AA10" s="65"/>
+      <c r="AB10" s="65"/>
+      <c r="AC10" s="65"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="67"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="65"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -5848,28 +5848,28 @@
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="67"/>
-      <c r="R11" s="67"/>
-      <c r="S11" s="67"/>
-      <c r="T11" s="67"/>
-      <c r="U11" s="67"/>
-      <c r="V11" s="67"/>
-      <c r="W11" s="67"/>
-      <c r="X11" s="67"/>
-      <c r="Y11" s="67"/>
-      <c r="Z11" s="67"/>
-      <c r="AA11" s="67"/>
-      <c r="AB11" s="67"/>
-      <c r="AC11" s="67"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A12" s="67"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="67"/>
+      <c r="P11" s="65"/>
+      <c r="Q11" s="65"/>
+      <c r="R11" s="65"/>
+      <c r="S11" s="65"/>
+      <c r="T11" s="65"/>
+      <c r="U11" s="65"/>
+      <c r="V11" s="65"/>
+      <c r="W11" s="65"/>
+      <c r="X11" s="65"/>
+      <c r="Y11" s="65"/>
+      <c r="Z11" s="65"/>
+      <c r="AA11" s="65"/>
+      <c r="AB11" s="65"/>
+      <c r="AC11" s="65"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A12" s="65"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="65"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -5879,240 +5879,258 @@
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
-      <c r="P12" s="67"/>
-      <c r="Q12" s="67"/>
-      <c r="R12" s="67"/>
-      <c r="S12" s="67"/>
-      <c r="T12" s="67"/>
-      <c r="U12" s="67"/>
-      <c r="V12" s="67"/>
-      <c r="W12" s="67"/>
-      <c r="X12" s="67"/>
-      <c r="Y12" s="67"/>
-      <c r="Z12" s="67"/>
-      <c r="AA12" s="67"/>
-      <c r="AB12" s="67"/>
-      <c r="AC12" s="67"/>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A13" s="67"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="67"/>
-      <c r="R13" s="67"/>
-      <c r="S13" s="67"/>
-      <c r="T13" s="67"/>
-      <c r="U13" s="67"/>
-      <c r="V13" s="67"/>
-      <c r="W13" s="67"/>
-      <c r="X13" s="67"/>
-      <c r="Y13" s="67"/>
-      <c r="Z13" s="67"/>
-      <c r="AA13" s="67"/>
-      <c r="AB13" s="67"/>
-      <c r="AC13" s="67"/>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A14" s="67"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="67"/>
-      <c r="P14" s="67"/>
-      <c r="Q14" s="67"/>
-      <c r="R14" s="67"/>
-      <c r="S14" s="67"/>
-      <c r="T14" s="67"/>
-      <c r="U14" s="67"/>
-      <c r="V14" s="67"/>
-      <c r="W14" s="67"/>
-      <c r="X14" s="67"/>
-      <c r="Y14" s="67"/>
-      <c r="Z14" s="67"/>
-      <c r="AA14" s="67"/>
-      <c r="AB14" s="67"/>
-      <c r="AC14" s="67"/>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A15" s="67"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="67"/>
-      <c r="P15" s="67"/>
-      <c r="Q15" s="67"/>
-      <c r="R15" s="67"/>
-      <c r="S15" s="67"/>
-      <c r="T15" s="67"/>
-      <c r="U15" s="67"/>
-      <c r="V15" s="67"/>
-      <c r="W15" s="67"/>
-      <c r="X15" s="67"/>
-      <c r="Y15" s="67"/>
-      <c r="Z15" s="67"/>
-      <c r="AA15" s="67"/>
-      <c r="AB15" s="67"/>
-      <c r="AC15" s="67"/>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A16" s="67"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="67"/>
-      <c r="Q16" s="67"/>
-      <c r="R16" s="67"/>
-      <c r="S16" s="67"/>
-      <c r="T16" s="67"/>
-      <c r="U16" s="67"/>
-      <c r="V16" s="67"/>
-      <c r="W16" s="67"/>
-      <c r="X16" s="67"/>
-      <c r="Y16" s="67"/>
-      <c r="Z16" s="67"/>
-      <c r="AA16" s="67"/>
-      <c r="AB16" s="67"/>
-      <c r="AC16" s="67"/>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A17" s="67"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="67"/>
-      <c r="M17" s="67"/>
-      <c r="N17" s="67"/>
-      <c r="O17" s="67"/>
-      <c r="P17" s="67"/>
-      <c r="Q17" s="67"/>
-      <c r="R17" s="67"/>
-      <c r="S17" s="67"/>
-      <c r="T17" s="67"/>
-      <c r="U17" s="67"/>
-      <c r="V17" s="67"/>
-      <c r="W17" s="67"/>
-      <c r="X17" s="67"/>
-      <c r="Y17" s="67"/>
-      <c r="Z17" s="67"/>
-      <c r="AA17" s="67"/>
-      <c r="AB17" s="67"/>
-      <c r="AC17" s="67"/>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A18" s="67"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="67"/>
-      <c r="P18" s="67"/>
-      <c r="Q18" s="67"/>
-      <c r="R18" s="67"/>
-      <c r="S18" s="67"/>
-      <c r="T18" s="67"/>
-      <c r="U18" s="67"/>
-      <c r="V18" s="67"/>
-      <c r="W18" s="67"/>
-      <c r="X18" s="67"/>
-      <c r="Y18" s="67"/>
-      <c r="Z18" s="67"/>
-      <c r="AA18" s="67"/>
-      <c r="AB18" s="67"/>
-      <c r="AC18" s="67"/>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A19" s="67"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="67"/>
-      <c r="O19" s="67"/>
-      <c r="P19" s="67"/>
-      <c r="Q19" s="67"/>
-      <c r="R19" s="67"/>
-      <c r="S19" s="67"/>
-      <c r="T19" s="67"/>
-      <c r="U19" s="67"/>
-      <c r="V19" s="67"/>
-      <c r="W19" s="67"/>
-      <c r="X19" s="67"/>
-      <c r="Y19" s="67"/>
-      <c r="Z19" s="67"/>
-      <c r="AA19" s="67"/>
-      <c r="AB19" s="67"/>
-      <c r="AC19" s="67"/>
+      <c r="P12" s="65"/>
+      <c r="Q12" s="65"/>
+      <c r="R12" s="65"/>
+      <c r="S12" s="65"/>
+      <c r="T12" s="65"/>
+      <c r="U12" s="65"/>
+      <c r="V12" s="65"/>
+      <c r="W12" s="65"/>
+      <c r="X12" s="65"/>
+      <c r="Y12" s="65"/>
+      <c r="Z12" s="65"/>
+      <c r="AA12" s="65"/>
+      <c r="AB12" s="65"/>
+      <c r="AC12" s="65"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A13" s="65"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="65"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="65"/>
+      <c r="O13" s="65"/>
+      <c r="P13" s="65"/>
+      <c r="Q13" s="65"/>
+      <c r="R13" s="65"/>
+      <c r="S13" s="65"/>
+      <c r="T13" s="65"/>
+      <c r="U13" s="65"/>
+      <c r="V13" s="65"/>
+      <c r="W13" s="65"/>
+      <c r="X13" s="65"/>
+      <c r="Y13" s="65"/>
+      <c r="Z13" s="65"/>
+      <c r="AA13" s="65"/>
+      <c r="AB13" s="65"/>
+      <c r="AC13" s="65"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A14" s="65"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="65"/>
+      <c r="O14" s="65"/>
+      <c r="P14" s="65"/>
+      <c r="Q14" s="65"/>
+      <c r="R14" s="65"/>
+      <c r="S14" s="65"/>
+      <c r="T14" s="65"/>
+      <c r="U14" s="65"/>
+      <c r="V14" s="65"/>
+      <c r="W14" s="65"/>
+      <c r="X14" s="65"/>
+      <c r="Y14" s="65"/>
+      <c r="Z14" s="65"/>
+      <c r="AA14" s="65"/>
+      <c r="AB14" s="65"/>
+      <c r="AC14" s="65"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A15" s="65"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="65"/>
+      <c r="O15" s="65"/>
+      <c r="P15" s="65"/>
+      <c r="Q15" s="65"/>
+      <c r="R15" s="65"/>
+      <c r="S15" s="65"/>
+      <c r="T15" s="65"/>
+      <c r="U15" s="65"/>
+      <c r="V15" s="65"/>
+      <c r="W15" s="65"/>
+      <c r="X15" s="65"/>
+      <c r="Y15" s="65"/>
+      <c r="Z15" s="65"/>
+      <c r="AA15" s="65"/>
+      <c r="AB15" s="65"/>
+      <c r="AC15" s="65"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A16" s="65"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="65"/>
+      <c r="O16" s="65"/>
+      <c r="P16" s="65"/>
+      <c r="Q16" s="65"/>
+      <c r="R16" s="65"/>
+      <c r="S16" s="65"/>
+      <c r="T16" s="65"/>
+      <c r="U16" s="65"/>
+      <c r="V16" s="65"/>
+      <c r="W16" s="65"/>
+      <c r="X16" s="65"/>
+      <c r="Y16" s="65"/>
+      <c r="Z16" s="65"/>
+      <c r="AA16" s="65"/>
+      <c r="AB16" s="65"/>
+      <c r="AC16" s="65"/>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A17" s="65"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="65"/>
+      <c r="O17" s="65"/>
+      <c r="P17" s="65"/>
+      <c r="Q17" s="65"/>
+      <c r="R17" s="65"/>
+      <c r="S17" s="65"/>
+      <c r="T17" s="65"/>
+      <c r="U17" s="65"/>
+      <c r="V17" s="65"/>
+      <c r="W17" s="65"/>
+      <c r="X17" s="65"/>
+      <c r="Y17" s="65"/>
+      <c r="Z17" s="65"/>
+      <c r="AA17" s="65"/>
+      <c r="AB17" s="65"/>
+      <c r="AC17" s="65"/>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A18" s="65"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="65"/>
+      <c r="Q18" s="65"/>
+      <c r="R18" s="65"/>
+      <c r="S18" s="65"/>
+      <c r="T18" s="65"/>
+      <c r="U18" s="65"/>
+      <c r="V18" s="65"/>
+      <c r="W18" s="65"/>
+      <c r="X18" s="65"/>
+      <c r="Y18" s="65"/>
+      <c r="Z18" s="65"/>
+      <c r="AA18" s="65"/>
+      <c r="AB18" s="65"/>
+      <c r="AC18" s="65"/>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A19" s="65"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="65"/>
+      <c r="P19" s="65"/>
+      <c r="Q19" s="65"/>
+      <c r="R19" s="65"/>
+      <c r="S19" s="65"/>
+      <c r="T19" s="65"/>
+      <c r="U19" s="65"/>
+      <c r="V19" s="65"/>
+      <c r="W19" s="65"/>
+      <c r="X19" s="65"/>
+      <c r="Y19" s="65"/>
+      <c r="Z19" s="65"/>
+      <c r="AA19" s="65"/>
+      <c r="AB19" s="65"/>
+      <c r="AC19" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
     <mergeCell ref="AA4:AA5"/>
     <mergeCell ref="AB4:AB5"/>
     <mergeCell ref="AC4:AC5"/>
@@ -6122,24 +6140,6 @@
     <mergeCell ref="X4:X5"/>
     <mergeCell ref="Y4:Y5"/>
     <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6149,240 +6149,240 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BE6914-CF43-4313-ACBD-F8DA170AAF12}">
   <dimension ref="A1:AC19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1:AC1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63" t="s">
+      <c r="C1" s="61"/>
+      <c r="D1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63" t="s">
+      <c r="F1" s="61"/>
+      <c r="G1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="H1" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="63" t="s">
+      <c r="I1" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="63" t="s">
+      <c r="J1" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63" t="s">
+      <c r="K1" s="61"/>
+      <c r="L1" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="63" t="s">
+      <c r="M1" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="63" t="s">
+      <c r="N1" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="63" t="s">
+      <c r="O1" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63" t="s">
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="63" t="s">
+      <c r="R1" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="63" t="s">
+      <c r="S1" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="63" t="s">
+      <c r="T1" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="63" t="s">
+      <c r="U1" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="63" t="s">
+      <c r="V1" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="63" t="s">
+      <c r="W1" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63" t="s">
+      <c r="X1" s="61"/>
+      <c r="Y1" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="63" t="s">
+      <c r="Z1" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="63"/>
+      <c r="AA1" s="61"/>
       <c r="AB1" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="AC1" s="63" t="s">
+      <c r="AC1" s="61" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="102" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="65" t="s">
+    <row r="2" spans="1:29" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="66">
+      <c r="B2" s="64">
         <v>4</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="68" t="s">
+      <c r="C2" s="65"/>
+      <c r="D2" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="69">
+      <c r="E2" s="67">
         <v>18</v>
       </c>
-      <c r="F2" s="67"/>
-      <c r="G2" s="70" t="s">
+      <c r="F2" s="65"/>
+      <c r="G2" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="H2" s="98" t="s">
+      <c r="H2" s="76" t="s">
         <v>127</v>
       </c>
-      <c r="I2" s="98" t="s">
+      <c r="I2" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="98" t="s">
+      <c r="J2" s="76" t="s">
         <v>128</v>
       </c>
       <c r="K2" s="4"/>
-      <c r="L2" s="70" t="s">
+      <c r="L2" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="71" t="s">
+      <c r="M2" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="71" t="s">
+      <c r="N2" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="71" t="s">
+      <c r="O2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67" t="s">
+      <c r="P2" s="65"/>
+      <c r="Q2" s="65" t="s">
         <v>156</v>
       </c>
-      <c r="R2" s="67" t="s">
+      <c r="R2" s="65" t="s">
         <v>157</v>
       </c>
-      <c r="S2" s="67" t="s">
+      <c r="S2" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="T2" s="67" t="s">
+      <c r="T2" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="U2" s="67" t="s">
+      <c r="U2" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="67" t="s">
+      <c r="V2" s="65"/>
+      <c r="W2" s="65"/>
+      <c r="X2" s="65"/>
+      <c r="Y2" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="Z2" s="72">
+      <c r="Z2" s="70">
         <v>0</v>
       </c>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="67" t="s">
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="AC2" s="67">
+      <c r="AC2" s="65">
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="233.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="65" t="s">
+    <row r="3" spans="1:29" ht="217.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="66">
+      <c r="B3" s="64">
         <v>3</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="73" t="s">
+      <c r="C3" s="65"/>
+      <c r="D3" s="71" t="s">
         <v>33</v>
       </c>
       <c r="E3" s="15">
         <v>16.5</v>
       </c>
-      <c r="F3" s="67"/>
-      <c r="G3" s="70" t="s">
+      <c r="F3" s="65"/>
+      <c r="G3" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="98" t="s">
+      <c r="H3" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="98" t="s">
+      <c r="I3" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="98" t="s">
+      <c r="J3" s="76" t="s">
         <v>158</v>
       </c>
       <c r="K3" s="4"/>
-      <c r="L3" s="74" t="s">
+      <c r="L3" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="M3" s="71" t="s">
+      <c r="M3" s="69" t="s">
         <v>127</v>
       </c>
-      <c r="N3" s="71" t="s">
+      <c r="N3" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="71" t="s">
+      <c r="O3" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
-      <c r="U3" s="67"/>
-      <c r="V3" s="67"/>
-      <c r="W3" s="67"/>
-      <c r="X3" s="67"/>
-      <c r="Y3" s="67" t="s">
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="65"/>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="Z3" s="72">
+      <c r="Z3" s="70">
         <v>0</v>
       </c>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="67" t="s">
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="AC3" s="67">
+      <c r="AC3" s="65">
         <v>676</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="78" t="s">
+    <row r="4" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+      <c r="A4" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="78">
+      <c r="B4" s="93">
         <v>0.5</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="83" t="s">
+      <c r="C4" s="89"/>
+      <c r="D4" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="85">
+      <c r="E4" s="97">
         <v>2</v>
       </c>
-      <c r="F4" s="87"/>
+      <c r="F4" s="99"/>
       <c r="G4" s="101" t="s">
         <v>57</v>
       </c>
@@ -6390,201 +6390,201 @@
         <v>55</v>
       </c>
       <c r="I4" s="101"/>
-      <c r="J4" s="99" t="s">
+      <c r="J4" s="77" t="s">
         <v>117</v>
       </c>
       <c r="K4" s="91"/>
-      <c r="L4" s="89" t="s">
+      <c r="L4" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="M4" s="89" t="s">
+      <c r="M4" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="N4" s="89" t="s">
+      <c r="N4" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="73" t="s">
         <v>152</v>
       </c>
-      <c r="P4" s="81"/>
-      <c r="Q4" s="80"/>
-      <c r="R4" s="80"/>
-      <c r="S4" s="80"/>
-      <c r="T4" s="80"/>
-      <c r="U4" s="80"/>
-      <c r="V4" s="80"/>
-      <c r="W4" s="80"/>
-      <c r="X4" s="80"/>
-      <c r="Y4" s="94" t="s">
+      <c r="P4" s="89"/>
+      <c r="Q4" s="81"/>
+      <c r="R4" s="81"/>
+      <c r="S4" s="81"/>
+      <c r="T4" s="81"/>
+      <c r="U4" s="81"/>
+      <c r="V4" s="81"/>
+      <c r="W4" s="81"/>
+      <c r="X4" s="81"/>
+      <c r="Y4" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="Z4" s="96">
+      <c r="Z4" s="85">
         <v>0</v>
       </c>
-      <c r="AA4" s="80"/>
-      <c r="AB4" s="80" t="s">
+      <c r="AA4" s="81"/>
+      <c r="AB4" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="AC4" s="80">
+      <c r="AC4" s="81">
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="131" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="79"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="88"/>
+    <row r="5" spans="1:29" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="94"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="100"/>
       <c r="G5" s="102"/>
       <c r="H5" s="102"/>
       <c r="I5" s="102"/>
-      <c r="J5" s="98" t="s">
+      <c r="J5" s="76" t="s">
         <v>151</v>
       </c>
       <c r="K5" s="92"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="71" t="s">
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="69" t="s">
         <v>153</v>
       </c>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="93"/>
-      <c r="R5" s="93"/>
-      <c r="S5" s="93"/>
-      <c r="T5" s="93"/>
-      <c r="U5" s="93"/>
-      <c r="V5" s="93"/>
-      <c r="W5" s="93"/>
-      <c r="X5" s="93"/>
-      <c r="Y5" s="95"/>
-      <c r="Z5" s="97"/>
-      <c r="AA5" s="93"/>
-      <c r="AB5" s="93"/>
-      <c r="AC5" s="93"/>
-    </row>
-    <row r="6" spans="1:29" ht="160" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="65" t="s">
+      <c r="P5" s="90"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="82"/>
+      <c r="T5" s="82"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
+      <c r="W5" s="82"/>
+      <c r="X5" s="82"/>
+      <c r="Y5" s="84"/>
+      <c r="Z5" s="86"/>
+      <c r="AA5" s="82"/>
+      <c r="AB5" s="82"/>
+      <c r="AC5" s="82"/>
+    </row>
+    <row r="6" spans="1:29" ht="159" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="66">
+      <c r="B6" s="64">
         <v>2</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="70" t="s">
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="H6" s="98" t="s">
+      <c r="H6" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="100">
+      <c r="I6" s="78">
         <v>45324</v>
       </c>
-      <c r="J6" s="98" t="s">
+      <c r="J6" s="76" t="s">
         <v>159</v>
       </c>
       <c r="K6" s="4"/>
-      <c r="L6" s="74" t="s">
+      <c r="L6" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="71" t="s">
+      <c r="M6" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="N6" s="76">
+      <c r="N6" s="74">
         <v>45324</v>
       </c>
-      <c r="O6" s="71" t="s">
+      <c r="O6" s="69" t="s">
         <v>160</v>
       </c>
-      <c r="P6" s="67"/>
-      <c r="Q6" s="67"/>
-      <c r="R6" s="67"/>
-      <c r="S6" s="67"/>
-      <c r="T6" s="67"/>
-      <c r="U6" s="67"/>
-      <c r="V6" s="67"/>
-      <c r="W6" s="67"/>
-      <c r="X6" s="67"/>
-      <c r="Y6" s="67" t="s">
+      <c r="P6" s="65"/>
+      <c r="Q6" s="65"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="65"/>
+      <c r="T6" s="65"/>
+      <c r="U6" s="65"/>
+      <c r="V6" s="65"/>
+      <c r="W6" s="65"/>
+      <c r="X6" s="65"/>
+      <c r="Y6" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="Z6" s="72">
+      <c r="Z6" s="70">
         <v>29</v>
       </c>
-      <c r="AA6" s="67"/>
-      <c r="AB6" s="67" t="s">
+      <c r="AA6" s="65"/>
+      <c r="AB6" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="AC6" s="67">
+      <c r="AC6" s="65">
         <v>1095</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="65" t="s">
+    <row r="7" spans="1:29" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="63" t="s">
         <v>125</v>
       </c>
-      <c r="B7" s="66">
+      <c r="B7" s="64">
         <v>12.5</v>
       </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="67"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="65"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="4"/>
-      <c r="L7" s="74" t="s">
+      <c r="L7" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="M7" s="71" t="s">
+      <c r="M7" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="N7" s="76">
+      <c r="N7" s="74">
         <v>45324</v>
       </c>
-      <c r="O7" s="71" t="s">
+      <c r="O7" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="P7" s="67"/>
-      <c r="Q7" s="67"/>
-      <c r="R7" s="67"/>
-      <c r="S7" s="67"/>
-      <c r="T7" s="67"/>
-      <c r="U7" s="67"/>
-      <c r="V7" s="67"/>
-      <c r="W7" s="67"/>
-      <c r="X7" s="67"/>
-      <c r="Y7" s="67" t="s">
+      <c r="P7" s="65"/>
+      <c r="Q7" s="65"/>
+      <c r="R7" s="65"/>
+      <c r="S7" s="65"/>
+      <c r="T7" s="65"/>
+      <c r="U7" s="65"/>
+      <c r="V7" s="65"/>
+      <c r="W7" s="65"/>
+      <c r="X7" s="65"/>
+      <c r="Y7" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="Z7" s="72">
+      <c r="Z7" s="70">
         <v>1</v>
       </c>
-      <c r="AA7" s="67"/>
-      <c r="AB7" s="67" t="s">
+      <c r="AA7" s="65"/>
+      <c r="AB7" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="AC7" s="67">
+      <c r="AC7" s="65">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="73" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="65" t="s">
+    <row r="8" spans="1:29" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="66">
+      <c r="B8" s="64">
         <v>8</v>
       </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="67"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="65"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -6594,36 +6594,36 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="67"/>
-      <c r="Q8" s="67"/>
-      <c r="R8" s="67"/>
-      <c r="S8" s="67"/>
-      <c r="T8" s="67"/>
-      <c r="U8" s="67"/>
-      <c r="V8" s="67"/>
-      <c r="W8" s="67"/>
-      <c r="X8" s="67"/>
-      <c r="Y8" s="67"/>
-      <c r="Z8" s="72"/>
-      <c r="AA8" s="67"/>
-      <c r="AB8" s="67" t="s">
+      <c r="P8" s="65"/>
+      <c r="Q8" s="65"/>
+      <c r="R8" s="65"/>
+      <c r="S8" s="65"/>
+      <c r="T8" s="65"/>
+      <c r="U8" s="65"/>
+      <c r="V8" s="65"/>
+      <c r="W8" s="65"/>
+      <c r="X8" s="65"/>
+      <c r="Y8" s="65"/>
+      <c r="Z8" s="70"/>
+      <c r="AA8" s="65"/>
+      <c r="AB8" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="AC8" s="77">
+      <c r="AC8" s="75">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="73" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="65" t="s">
+    <row r="9" spans="1:29" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="66">
+      <c r="B9" s="64">
         <v>6.5</v>
       </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="67"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="65"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -6633,28 +6633,28 @@
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
-      <c r="P9" s="67"/>
-      <c r="Q9" s="67"/>
-      <c r="R9" s="67"/>
-      <c r="S9" s="67"/>
-      <c r="T9" s="67"/>
-      <c r="U9" s="67"/>
-      <c r="V9" s="67"/>
-      <c r="W9" s="67"/>
-      <c r="X9" s="67"/>
-      <c r="Y9" s="67"/>
-      <c r="Z9" s="67"/>
-      <c r="AA9" s="67"/>
-      <c r="AB9" s="67"/>
-      <c r="AC9" s="67"/>
-    </row>
-    <row r="10" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="65"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="67"/>
+      <c r="P9" s="65"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="65"/>
+      <c r="S9" s="65"/>
+      <c r="T9" s="65"/>
+      <c r="U9" s="65"/>
+      <c r="V9" s="65"/>
+      <c r="W9" s="65"/>
+      <c r="X9" s="65"/>
+      <c r="Y9" s="65"/>
+      <c r="Z9" s="65"/>
+      <c r="AA9" s="65"/>
+      <c r="AB9" s="65"/>
+      <c r="AC9" s="65"/>
+    </row>
+    <row r="10" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="63"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="65"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -6664,28 +6664,28 @@
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
-      <c r="P10" s="67"/>
-      <c r="Q10" s="67"/>
-      <c r="R10" s="67"/>
-      <c r="S10" s="67"/>
-      <c r="T10" s="67"/>
-      <c r="U10" s="67"/>
-      <c r="V10" s="67"/>
-      <c r="W10" s="67"/>
-      <c r="X10" s="67"/>
-      <c r="Y10" s="67"/>
-      <c r="Z10" s="67"/>
-      <c r="AA10" s="67"/>
-      <c r="AB10" s="67"/>
-      <c r="AC10" s="67"/>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="P10" s="65"/>
+      <c r="Q10" s="65"/>
+      <c r="R10" s="65"/>
+      <c r="S10" s="65"/>
+      <c r="T10" s="65"/>
+      <c r="U10" s="65"/>
+      <c r="V10" s="65"/>
+      <c r="W10" s="65"/>
+      <c r="X10" s="65"/>
+      <c r="Y10" s="65"/>
+      <c r="Z10" s="65"/>
+      <c r="AA10" s="65"/>
+      <c r="AB10" s="65"/>
+      <c r="AC10" s="65"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="67"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="65"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -6695,28 +6695,28 @@
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="67"/>
-      <c r="R11" s="67"/>
-      <c r="S11" s="67"/>
-      <c r="T11" s="67"/>
-      <c r="U11" s="67"/>
-      <c r="V11" s="67"/>
-      <c r="W11" s="67"/>
-      <c r="X11" s="67"/>
-      <c r="Y11" s="67"/>
-      <c r="Z11" s="67"/>
-      <c r="AA11" s="67"/>
-      <c r="AB11" s="67"/>
-      <c r="AC11" s="67"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A12" s="67"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="67"/>
+      <c r="P11" s="65"/>
+      <c r="Q11" s="65"/>
+      <c r="R11" s="65"/>
+      <c r="S11" s="65"/>
+      <c r="T11" s="65"/>
+      <c r="U11" s="65"/>
+      <c r="V11" s="65"/>
+      <c r="W11" s="65"/>
+      <c r="X11" s="65"/>
+      <c r="Y11" s="65"/>
+      <c r="Z11" s="65"/>
+      <c r="AA11" s="65"/>
+      <c r="AB11" s="65"/>
+      <c r="AC11" s="65"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A12" s="65"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="65"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -6726,240 +6726,258 @@
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
-      <c r="P12" s="67"/>
-      <c r="Q12" s="67"/>
-      <c r="R12" s="67"/>
-      <c r="S12" s="67"/>
-      <c r="T12" s="67"/>
-      <c r="U12" s="67"/>
-      <c r="V12" s="67"/>
-      <c r="W12" s="67"/>
-      <c r="X12" s="67"/>
-      <c r="Y12" s="67"/>
-      <c r="Z12" s="67"/>
-      <c r="AA12" s="67"/>
-      <c r="AB12" s="67"/>
-      <c r="AC12" s="67"/>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A13" s="67"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="67"/>
-      <c r="R13" s="67"/>
-      <c r="S13" s="67"/>
-      <c r="T13" s="67"/>
-      <c r="U13" s="67"/>
-      <c r="V13" s="67"/>
-      <c r="W13" s="67"/>
-      <c r="X13" s="67"/>
-      <c r="Y13" s="67"/>
-      <c r="Z13" s="67"/>
-      <c r="AA13" s="67"/>
-      <c r="AB13" s="67"/>
-      <c r="AC13" s="67"/>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A14" s="67"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="67"/>
-      <c r="P14" s="67"/>
-      <c r="Q14" s="67"/>
-      <c r="R14" s="67"/>
-      <c r="S14" s="67"/>
-      <c r="T14" s="67"/>
-      <c r="U14" s="67"/>
-      <c r="V14" s="67"/>
-      <c r="W14" s="67"/>
-      <c r="X14" s="67"/>
-      <c r="Y14" s="67"/>
-      <c r="Z14" s="67"/>
-      <c r="AA14" s="67"/>
-      <c r="AB14" s="67"/>
-      <c r="AC14" s="67"/>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A15" s="67"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="67"/>
-      <c r="P15" s="67"/>
-      <c r="Q15" s="67"/>
-      <c r="R15" s="67"/>
-      <c r="S15" s="67"/>
-      <c r="T15" s="67"/>
-      <c r="U15" s="67"/>
-      <c r="V15" s="67"/>
-      <c r="W15" s="67"/>
-      <c r="X15" s="67"/>
-      <c r="Y15" s="67"/>
-      <c r="Z15" s="67"/>
-      <c r="AA15" s="67"/>
-      <c r="AB15" s="67"/>
-      <c r="AC15" s="67"/>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A16" s="67"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="67"/>
-      <c r="Q16" s="67"/>
-      <c r="R16" s="67"/>
-      <c r="S16" s="67"/>
-      <c r="T16" s="67"/>
-      <c r="U16" s="67"/>
-      <c r="V16" s="67"/>
-      <c r="W16" s="67"/>
-      <c r="X16" s="67"/>
-      <c r="Y16" s="67"/>
-      <c r="Z16" s="67"/>
-      <c r="AA16" s="67"/>
-      <c r="AB16" s="67"/>
-      <c r="AC16" s="67"/>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A17" s="67"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="67"/>
-      <c r="M17" s="67"/>
-      <c r="N17" s="67"/>
-      <c r="O17" s="67"/>
-      <c r="P17" s="67"/>
-      <c r="Q17" s="67"/>
-      <c r="R17" s="67"/>
-      <c r="S17" s="67"/>
-      <c r="T17" s="67"/>
-      <c r="U17" s="67"/>
-      <c r="V17" s="67"/>
-      <c r="W17" s="67"/>
-      <c r="X17" s="67"/>
-      <c r="Y17" s="67"/>
-      <c r="Z17" s="67"/>
-      <c r="AA17" s="67"/>
-      <c r="AB17" s="67"/>
-      <c r="AC17" s="67"/>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A18" s="67"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="67"/>
-      <c r="P18" s="67"/>
-      <c r="Q18" s="67"/>
-      <c r="R18" s="67"/>
-      <c r="S18" s="67"/>
-      <c r="T18" s="67"/>
-      <c r="U18" s="67"/>
-      <c r="V18" s="67"/>
-      <c r="W18" s="67"/>
-      <c r="X18" s="67"/>
-      <c r="Y18" s="67"/>
-      <c r="Z18" s="67"/>
-      <c r="AA18" s="67"/>
-      <c r="AB18" s="67"/>
-      <c r="AC18" s="67"/>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A19" s="67"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="67"/>
-      <c r="O19" s="67"/>
-      <c r="P19" s="67"/>
-      <c r="Q19" s="67"/>
-      <c r="R19" s="67"/>
-      <c r="S19" s="67"/>
-      <c r="T19" s="67"/>
-      <c r="U19" s="67"/>
-      <c r="V19" s="67"/>
-      <c r="W19" s="67"/>
-      <c r="X19" s="67"/>
-      <c r="Y19" s="67"/>
-      <c r="Z19" s="67"/>
-      <c r="AA19" s="67"/>
-      <c r="AB19" s="67"/>
-      <c r="AC19" s="67"/>
+      <c r="P12" s="65"/>
+      <c r="Q12" s="65"/>
+      <c r="R12" s="65"/>
+      <c r="S12" s="65"/>
+      <c r="T12" s="65"/>
+      <c r="U12" s="65"/>
+      <c r="V12" s="65"/>
+      <c r="W12" s="65"/>
+      <c r="X12" s="65"/>
+      <c r="Y12" s="65"/>
+      <c r="Z12" s="65"/>
+      <c r="AA12" s="65"/>
+      <c r="AB12" s="65"/>
+      <c r="AC12" s="65"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A13" s="65"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="65"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="65"/>
+      <c r="O13" s="65"/>
+      <c r="P13" s="65"/>
+      <c r="Q13" s="65"/>
+      <c r="R13" s="65"/>
+      <c r="S13" s="65"/>
+      <c r="T13" s="65"/>
+      <c r="U13" s="65"/>
+      <c r="V13" s="65"/>
+      <c r="W13" s="65"/>
+      <c r="X13" s="65"/>
+      <c r="Y13" s="65"/>
+      <c r="Z13" s="65"/>
+      <c r="AA13" s="65"/>
+      <c r="AB13" s="65"/>
+      <c r="AC13" s="65"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A14" s="65"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="65"/>
+      <c r="O14" s="65"/>
+      <c r="P14" s="65"/>
+      <c r="Q14" s="65"/>
+      <c r="R14" s="65"/>
+      <c r="S14" s="65"/>
+      <c r="T14" s="65"/>
+      <c r="U14" s="65"/>
+      <c r="V14" s="65"/>
+      <c r="W14" s="65"/>
+      <c r="X14" s="65"/>
+      <c r="Y14" s="65"/>
+      <c r="Z14" s="65"/>
+      <c r="AA14" s="65"/>
+      <c r="AB14" s="65"/>
+      <c r="AC14" s="65"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A15" s="65"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="65"/>
+      <c r="O15" s="65"/>
+      <c r="P15" s="65"/>
+      <c r="Q15" s="65"/>
+      <c r="R15" s="65"/>
+      <c r="S15" s="65"/>
+      <c r="T15" s="65"/>
+      <c r="U15" s="65"/>
+      <c r="V15" s="65"/>
+      <c r="W15" s="65"/>
+      <c r="X15" s="65"/>
+      <c r="Y15" s="65"/>
+      <c r="Z15" s="65"/>
+      <c r="AA15" s="65"/>
+      <c r="AB15" s="65"/>
+      <c r="AC15" s="65"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A16" s="65"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="65"/>
+      <c r="O16" s="65"/>
+      <c r="P16" s="65"/>
+      <c r="Q16" s="65"/>
+      <c r="R16" s="65"/>
+      <c r="S16" s="65"/>
+      <c r="T16" s="65"/>
+      <c r="U16" s="65"/>
+      <c r="V16" s="65"/>
+      <c r="W16" s="65"/>
+      <c r="X16" s="65"/>
+      <c r="Y16" s="65"/>
+      <c r="Z16" s="65"/>
+      <c r="AA16" s="65"/>
+      <c r="AB16" s="65"/>
+      <c r="AC16" s="65"/>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A17" s="65"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="65"/>
+      <c r="O17" s="65"/>
+      <c r="P17" s="65"/>
+      <c r="Q17" s="65"/>
+      <c r="R17" s="65"/>
+      <c r="S17" s="65"/>
+      <c r="T17" s="65"/>
+      <c r="U17" s="65"/>
+      <c r="V17" s="65"/>
+      <c r="W17" s="65"/>
+      <c r="X17" s="65"/>
+      <c r="Y17" s="65"/>
+      <c r="Z17" s="65"/>
+      <c r="AA17" s="65"/>
+      <c r="AB17" s="65"/>
+      <c r="AC17" s="65"/>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A18" s="65"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="65"/>
+      <c r="Q18" s="65"/>
+      <c r="R18" s="65"/>
+      <c r="S18" s="65"/>
+      <c r="T18" s="65"/>
+      <c r="U18" s="65"/>
+      <c r="V18" s="65"/>
+      <c r="W18" s="65"/>
+      <c r="X18" s="65"/>
+      <c r="Y18" s="65"/>
+      <c r="Z18" s="65"/>
+      <c r="AA18" s="65"/>
+      <c r="AB18" s="65"/>
+      <c r="AC18" s="65"/>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A19" s="65"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="65"/>
+      <c r="P19" s="65"/>
+      <c r="Q19" s="65"/>
+      <c r="R19" s="65"/>
+      <c r="S19" s="65"/>
+      <c r="T19" s="65"/>
+      <c r="U19" s="65"/>
+      <c r="V19" s="65"/>
+      <c r="W19" s="65"/>
+      <c r="X19" s="65"/>
+      <c r="Y19" s="65"/>
+      <c r="Z19" s="65"/>
+      <c r="AA19" s="65"/>
+      <c r="AB19" s="65"/>
+      <c r="AC19" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
     <mergeCell ref="AA4:AA5"/>
     <mergeCell ref="AB4:AB5"/>
     <mergeCell ref="AC4:AC5"/>
@@ -6969,24 +6987,6 @@
     <mergeCell ref="X4:X5"/>
     <mergeCell ref="Y4:Y5"/>
     <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7000,36 +7000,36 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="1"/>
-    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="1"/>
-    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="1"/>
-    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.08984375" style="1"/>
-    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="1"/>
+    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="1"/>
+    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="1"/>
+    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -7101,7 +7101,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
@@ -7166,7 +7166,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -7229,7 +7229,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>40</v>
       </c>
@@ -7292,7 +7292,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>47</v>
       </c>
@@ -7351,7 +7351,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>53</v>
       </c>
@@ -7410,7 +7410,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>62</v>
       </c>
@@ -7450,7 +7450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>64</v>
       </c>
@@ -7485,7 +7485,7 @@
       <c r="AB8" s="58"/>
       <c r="AC8" s="58"/>
     </row>
-    <row r="9" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>65</v>
       </c>
@@ -7520,7 +7520,7 @@
       <c r="AB9" s="58"/>
       <c r="AC9" s="58"/>
     </row>
-    <row r="10" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>66</v>
       </c>
@@ -7555,7 +7555,7 @@
       <c r="AB10" s="58"/>
       <c r="AC10" s="58"/>
     </row>
-    <row r="11" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>67</v>
       </c>
@@ -7590,7 +7590,7 @@
       <c r="AB11" s="58"/>
       <c r="AC11" s="58"/>
     </row>
-    <row r="12" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="58"/>
       <c r="B12" s="59"/>
       <c r="C12" s="58"/>
@@ -7621,7 +7621,7 @@
       <c r="AB12" s="58"/>
       <c r="AC12" s="58"/>
     </row>
-    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="58"/>
       <c r="B13" s="59"/>
       <c r="C13" s="58"/>
@@ -7652,7 +7652,7 @@
       <c r="AB13" s="58"/>
       <c r="AC13" s="58"/>
     </row>
-    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="58"/>
       <c r="B14" s="59"/>
       <c r="C14" s="58"/>
@@ -7683,7 +7683,7 @@
       <c r="AB14" s="58"/>
       <c r="AC14" s="58"/>
     </row>
-    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="58"/>
       <c r="B15" s="59"/>
       <c r="C15" s="58"/>
@@ -7714,7 +7714,7 @@
       <c r="AB15" s="58"/>
       <c r="AC15" s="58"/>
     </row>
-    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="58"/>
       <c r="B16" s="59"/>
       <c r="C16" s="58"/>
@@ -7745,8 +7745,8 @@
       <c r="AB16" s="58"/>
       <c r="AC16" s="58"/>
     </row>
-    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7761,36 +7761,36 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="1"/>
-    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="1"/>
-    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="1"/>
-    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.08984375" style="1"/>
-    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="1"/>
+    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="1"/>
+    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="1"/>
+    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -7861,7 +7861,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
@@ -7926,7 +7926,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -7989,7 +7989,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>40</v>
       </c>
@@ -8052,7 +8052,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>47</v>
       </c>
@@ -8111,7 +8111,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>53</v>
       </c>
@@ -8170,7 +8170,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>62</v>
       </c>
@@ -8210,7 +8210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>64</v>
       </c>
@@ -8245,7 +8245,7 @@
       <c r="AB8" s="58"/>
       <c r="AC8" s="58"/>
     </row>
-    <row r="9" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>65</v>
       </c>
@@ -8280,7 +8280,7 @@
       <c r="AB9" s="58"/>
       <c r="AC9" s="58"/>
     </row>
-    <row r="10" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>66</v>
       </c>
@@ -8315,7 +8315,7 @@
       <c r="AB10" s="58"/>
       <c r="AC10" s="58"/>
     </row>
-    <row r="11" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>67</v>
       </c>
@@ -8350,7 +8350,7 @@
       <c r="AB11" s="58"/>
       <c r="AC11" s="58"/>
     </row>
-    <row r="12" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="58"/>
       <c r="B12" s="59"/>
       <c r="C12" s="58"/>
@@ -8381,7 +8381,7 @@
       <c r="AB12" s="58"/>
       <c r="AC12" s="58"/>
     </row>
-    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="58"/>
       <c r="B13" s="59"/>
       <c r="C13" s="58"/>
@@ -8412,7 +8412,7 @@
       <c r="AB13" s="58"/>
       <c r="AC13" s="58"/>
     </row>
-    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="58"/>
       <c r="B14" s="59"/>
       <c r="C14" s="58"/>
@@ -8443,7 +8443,7 @@
       <c r="AB14" s="58"/>
       <c r="AC14" s="58"/>
     </row>
-    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="58"/>
       <c r="B15" s="59"/>
       <c r="C15" s="58"/>
@@ -8474,7 +8474,7 @@
       <c r="AB15" s="58"/>
       <c r="AC15" s="58"/>
     </row>
-    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="58"/>
       <c r="B16" s="59"/>
       <c r="C16" s="58"/>
@@ -8505,8 +8505,8 @@
       <c r="AB16" s="58"/>
       <c r="AC16" s="58"/>
     </row>
-    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8521,36 +8521,36 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="1"/>
-    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="1"/>
-    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="1"/>
-    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.08984375" style="1"/>
-    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="1"/>
+    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="1"/>
+    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="1"/>
+    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -8621,7 +8621,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
@@ -8686,7 +8686,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -8749,7 +8749,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>40</v>
       </c>
@@ -8812,7 +8812,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>47</v>
       </c>
@@ -8871,7 +8871,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>53</v>
       </c>
@@ -8930,7 +8930,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>62</v>
       </c>
@@ -8970,7 +8970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>64</v>
       </c>
@@ -9005,7 +9005,7 @@
       <c r="AB8" s="58"/>
       <c r="AC8" s="58"/>
     </row>
-    <row r="9" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>65</v>
       </c>
@@ -9040,7 +9040,7 @@
       <c r="AB9" s="58"/>
       <c r="AC9" s="58"/>
     </row>
-    <row r="10" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>66</v>
       </c>
@@ -9075,7 +9075,7 @@
       <c r="AB10" s="58"/>
       <c r="AC10" s="58"/>
     </row>
-    <row r="11" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>67</v>
       </c>
@@ -9110,7 +9110,7 @@
       <c r="AB11" s="58"/>
       <c r="AC11" s="58"/>
     </row>
-    <row r="12" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="58"/>
       <c r="B12" s="59"/>
       <c r="C12" s="58"/>
@@ -9141,7 +9141,7 @@
       <c r="AB12" s="58"/>
       <c r="AC12" s="58"/>
     </row>
-    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="58"/>
       <c r="B13" s="59"/>
       <c r="C13" s="58"/>
@@ -9172,7 +9172,7 @@
       <c r="AB13" s="58"/>
       <c r="AC13" s="58"/>
     </row>
-    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="58"/>
       <c r="B14" s="59"/>
       <c r="C14" s="58"/>
@@ -9203,7 +9203,7 @@
       <c r="AB14" s="58"/>
       <c r="AC14" s="58"/>
     </row>
-    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="58"/>
       <c r="B15" s="59"/>
       <c r="C15" s="58"/>
@@ -9234,7 +9234,7 @@
       <c r="AB15" s="58"/>
       <c r="AC15" s="58"/>
     </row>
-    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="58"/>
       <c r="B16" s="59"/>
       <c r="C16" s="58"/>
@@ -9265,8 +9265,8 @@
       <c r="AB16" s="58"/>
       <c r="AC16" s="58"/>
     </row>
-    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9281,36 +9281,36 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="1"/>
-    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.90625" style="1"/>
-    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.90625" style="1"/>
-    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.90625" style="1"/>
-    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="1"/>
+    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="1"/>
+    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -9381,7 +9381,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
@@ -9446,7 +9446,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -9509,7 +9509,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>40</v>
       </c>
@@ -9572,7 +9572,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>47</v>
       </c>
@@ -9631,7 +9631,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>53</v>
       </c>
@@ -9690,7 +9690,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>62</v>
       </c>
@@ -9730,7 +9730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>64</v>
       </c>
@@ -9765,7 +9765,7 @@
       <c r="AB8" s="58"/>
       <c r="AC8" s="58"/>
     </row>
-    <row r="9" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>65</v>
       </c>
@@ -9800,7 +9800,7 @@
       <c r="AB9" s="58"/>
       <c r="AC9" s="58"/>
     </row>
-    <row r="10" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>66</v>
       </c>
@@ -9835,7 +9835,7 @@
       <c r="AB10" s="58"/>
       <c r="AC10" s="58"/>
     </row>
-    <row r="11" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>67</v>
       </c>
@@ -9870,7 +9870,7 @@
       <c r="AB11" s="58"/>
       <c r="AC11" s="58"/>
     </row>
-    <row r="12" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="58"/>
       <c r="B12" s="59"/>
       <c r="C12" s="58"/>
@@ -9901,7 +9901,7 @@
       <c r="AB12" s="58"/>
       <c r="AC12" s="58"/>
     </row>
-    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="58"/>
       <c r="B13" s="59"/>
       <c r="C13" s="58"/>
@@ -9932,7 +9932,7 @@
       <c r="AB13" s="58"/>
       <c r="AC13" s="58"/>
     </row>
-    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="58"/>
       <c r="B14" s="59"/>
       <c r="C14" s="58"/>
@@ -9963,7 +9963,7 @@
       <c r="AB14" s="58"/>
       <c r="AC14" s="58"/>
     </row>
-    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="58"/>
       <c r="B15" s="59"/>
       <c r="C15" s="58"/>
@@ -9994,7 +9994,7 @@
       <c r="AB15" s="58"/>
       <c r="AC15" s="58"/>
     </row>
-    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="58"/>
       <c r="B16" s="59"/>
       <c r="C16" s="58"/>
@@ -10025,8 +10025,8 @@
       <c r="AB16" s="58"/>
       <c r="AC16" s="58"/>
     </row>
-    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10041,36 +10041,36 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="9"/>
-    <col min="4" max="4" width="15.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.90625" style="9"/>
-    <col min="7" max="7" width="73.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.90625" style="9"/>
-    <col min="12" max="12" width="89.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="9" customWidth="1"/>
-    <col min="17" max="17" width="8.90625" style="9"/>
-    <col min="18" max="18" width="65.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="9"/>
+    <col min="1" max="1" width="17.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="9"/>
+    <col min="4" max="4" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="9"/>
+    <col min="7" max="7" width="73.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="9"/>
+    <col min="12" max="12" width="89.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="9" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="9"/>
+    <col min="18" max="18" width="65.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -10141,7 +10141,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>23</v>
       </c>
@@ -10195,7 +10195,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="44.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
       <c r="A3" s="11" t="s">
         <v>32</v>
       </c>
@@ -10246,7 +10246,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>40</v>
       </c>
@@ -10297,7 +10297,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>47</v>
       </c>
@@ -10342,7 +10342,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>53</v>
       </c>
@@ -10387,7 +10387,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>62</v>
       </c>
@@ -10402,7 +10402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>66</v>
       </c>
@@ -10410,7 +10410,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>67</v>
       </c>
@@ -10418,15 +10418,15 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10440,36 +10440,36 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="9"/>
-    <col min="4" max="4" width="15.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.90625" style="9"/>
-    <col min="7" max="7" width="73.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.90625" style="9"/>
-    <col min="12" max="12" width="89.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="9" customWidth="1"/>
-    <col min="17" max="17" width="8.90625" style="9"/>
-    <col min="18" max="18" width="65.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="9"/>
+    <col min="1" max="1" width="17.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="9"/>
+    <col min="4" max="4" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="9"/>
+    <col min="7" max="7" width="73.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="9"/>
+    <col min="12" max="12" width="89.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="9" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="9"/>
+    <col min="18" max="18" width="65.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -10540,7 +10540,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>23</v>
       </c>
@@ -10594,7 +10594,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="44.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
       <c r="A3" s="11" t="s">
         <v>32</v>
       </c>
@@ -10645,7 +10645,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>40</v>
       </c>
@@ -10696,32 +10696,32 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>47</v>
       </c>
       <c r="B5" s="11">
         <v>14</v>
       </c>
-      <c r="G5" s="61" t="s">
+      <c r="G5" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="61" t="s">
+      <c r="H5" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="61" t="s">
+      <c r="I5" s="79" t="s">
         <v>27</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="L5" s="61" t="s">
+      <c r="L5" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="M5" s="61" t="s">
+      <c r="M5" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="N5" s="61" t="s">
+      <c r="N5" s="79" t="s">
         <v>27</v>
       </c>
       <c r="O5" s="11" t="s">
@@ -10741,22 +10741,22 @@
         <v>914</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>53</v>
       </c>
       <c r="B6" s="11">
         <v>2</v>
       </c>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
       <c r="J6" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="79"/>
       <c r="O6" s="11" t="s">
         <v>77</v>
       </c>
@@ -10774,32 +10774,32 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>62</v>
       </c>
       <c r="B7" s="11">
         <v>2</v>
       </c>
-      <c r="G7" s="61" t="s">
+      <c r="G7" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="61" t="s">
+      <c r="H7" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="62">
+      <c r="I7" s="80">
         <v>45254</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="L7" s="61" t="s">
+      <c r="L7" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="M7" s="61" t="s">
+      <c r="M7" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="N7" s="62">
+      <c r="N7" s="80">
         <v>45254</v>
       </c>
       <c r="O7" s="11" t="s">
@@ -10814,28 +10814,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>66</v>
       </c>
       <c r="B8" s="11">
         <v>3</v>
       </c>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
       <c r="J8" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="61"/>
+      <c r="L8" s="79"/>
+      <c r="M8" s="79"/>
+      <c r="N8" s="79"/>
       <c r="O8" s="11" t="s">
         <v>81</v>
       </c>
       <c r="P8" s="11"/>
     </row>
-    <row r="9" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>67</v>
       </c>
@@ -10844,65 +10844,65 @@
       </c>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="G12" s="21"/>
     </row>
-    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="G16" s="12"/>
     </row>
-    <row r="17" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="7:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="G17" s="12"/>
     </row>
-    <row r="18" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="7:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="G18" s="12"/>
     </row>
-    <row r="19" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="7:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="G19" s="12"/>
     </row>
-    <row r="20" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="7:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="G20" s="12"/>
     </row>
-    <row r="21" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="7:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="G21" s="21"/>
     </row>
-    <row r="22" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="7:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="G22" s="12"/>
     </row>
-    <row r="23" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="7:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="G23" s="12"/>
     </row>
-    <row r="24" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="7:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="G24" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10916,35 +10916,35 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="9"/>
-    <col min="4" max="4" width="15.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.90625" style="9"/>
-    <col min="7" max="7" width="73.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.90625" style="9"/>
-    <col min="12" max="12" width="89.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="8.90625" style="9"/>
-    <col min="18" max="18" width="65.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="9"/>
+    <col min="1" max="1" width="17.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="9"/>
+    <col min="4" max="4" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="9"/>
+    <col min="7" max="7" width="73.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="9"/>
+    <col min="12" max="12" width="89.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.88671875" style="9"/>
+    <col min="18" max="18" width="65.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -11015,7 +11015,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>23</v>
       </c>
@@ -11068,7 +11068,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="44.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
       <c r="A3" s="11" t="s">
         <v>32</v>
       </c>
@@ -11118,7 +11118,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>40</v>
       </c>
@@ -11143,13 +11143,13 @@
       <c r="J4" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="L4" s="61" t="s">
+      <c r="L4" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="M4" s="61" t="s">
+      <c r="M4" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="N4" s="61" t="s">
+      <c r="N4" s="79" t="s">
         <v>27</v>
       </c>
       <c r="O4" s="11" t="s">
@@ -11168,28 +11168,28 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>47</v>
       </c>
       <c r="B5" s="11">
         <v>8</v>
       </c>
-      <c r="G5" s="61" t="s">
+      <c r="G5" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="61" t="s">
+      <c r="H5" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="61" t="s">
+      <c r="I5" s="79" t="s">
         <v>27</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
       <c r="O5" s="11" t="s">
         <v>77</v>
       </c>
@@ -11206,26 +11206,26 @@
         <v>922</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>53</v>
       </c>
       <c r="B6" s="11">
         <v>2</v>
       </c>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
       <c r="J6" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="L6" s="61" t="s">
+      <c r="L6" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="61" t="s">
+      <c r="M6" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="N6" s="62">
+      <c r="N6" s="80">
         <v>45261</v>
       </c>
       <c r="O6" s="11" t="s">
@@ -11244,28 +11244,28 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>62</v>
       </c>
       <c r="B7" s="11">
         <v>2</v>
       </c>
-      <c r="G7" s="61" t="s">
+      <c r="G7" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="61" t="s">
+      <c r="H7" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="62">
+      <c r="I7" s="80">
         <v>45261</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
+      <c r="L7" s="79"/>
+      <c r="M7" s="79"/>
+      <c r="N7" s="79"/>
       <c r="O7" s="11" t="s">
         <v>86</v>
       </c>
@@ -11277,21 +11277,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>87</v>
       </c>
       <c r="B8" s="11">
         <v>4</v>
       </c>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
       <c r="J8" s="11" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>66</v>
       </c>
@@ -11299,7 +11299,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>67</v>
       </c>
@@ -11307,31 +11307,31 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="Y3:Z18">
     <sortCondition ref="Y1:Y18"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11345,35 +11345,35 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="9"/>
-    <col min="4" max="4" width="15.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="9"/>
-    <col min="7" max="7" width="73.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="9"/>
-    <col min="12" max="12" width="89.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.08984375" style="9"/>
-    <col min="18" max="18" width="65.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="9"/>
+    <col min="1" max="1" width="17.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="9"/>
+    <col min="4" max="4" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="9"/>
+    <col min="7" max="7" width="73.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="9"/>
+    <col min="12" max="12" width="89.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.109375" style="9"/>
+    <col min="18" max="18" width="65.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -11444,7 +11444,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>23</v>
       </c>
@@ -11499,7 +11499,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="44.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:29" ht="44.4" x14ac:dyDescent="0.4">
       <c r="A3" s="22" t="s">
         <v>32</v>
       </c>
@@ -11551,7 +11551,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>40</v>
       </c>
@@ -11603,7 +11603,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>47</v>
       </c>
@@ -11641,7 +11641,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>87</v>
       </c>
@@ -11654,9 +11654,9 @@
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="26"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="62"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="80"/>
       <c r="O6" s="11"/>
       <c r="Y6" s="9" t="s">
         <v>60</v>
@@ -11671,7 +11671,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>66</v>
       </c>
@@ -11684,9 +11684,9 @@
       <c r="I7" s="20"/>
       <c r="J7" s="11"/>
       <c r="K7" s="26"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
+      <c r="L7" s="79"/>
+      <c r="M7" s="79"/>
+      <c r="N7" s="79"/>
       <c r="O7" s="11"/>
       <c r="AB7" s="9" t="s">
         <v>63</v>
@@ -11696,7 +11696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>67</v>
       </c>
@@ -11710,7 +11710,7 @@
       <c r="J8" s="11"/>
       <c r="K8" s="26"/>
     </row>
-    <row r="9" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="G9" s="28"/>
@@ -11718,18 +11718,18 @@
       <c r="I9" s="28"/>
       <c r="J9" s="28"/>
     </row>
-    <row r="10" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
     </row>
-    <row r="11" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="L6:L7"/>
@@ -11741,12 +11741,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11927,15 +11924,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF5B3250-9EAA-45ED-A48E-C1960EE83752}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38F446B6-3E55-4E07-BA6D-47C0ACA73425}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11960,10 +11961,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38F446B6-3E55-4E07-BA6D-47C0ACA73425}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF5B3250-9EAA-45ED-A48E-C1960EE83752}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/dataSources/WSR/vEMS.xlsx
+++ b/dataSources/WSR/vEMS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27504"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ceslimited01-my.sharepoint.com/personal/meenakshi_kasi_cesltd_com/Documents/Oaktree/WSR_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="212" documentId="13_ncr:1_{22E6712E-F647-453B-B7E1-8956EAC87F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10ABB0BD-9728-4145-A72C-0A1D4F5968A7}"/>
+  <xr:revisionPtr revIDLastSave="323" documentId="13_ncr:1_{22E6712E-F647-453B-B7E1-8956EAC87F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F5E6EE4-D040-4D12-988D-0A9ED2809DC3}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="19" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="21" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2 Oct 2023" sheetId="9" r:id="rId1"/>
@@ -33,6 +33,8 @@
     <sheet name="29 Jan 2024" sheetId="23" r:id="rId18"/>
     <sheet name="5 Feb 2024" sheetId="24" r:id="rId19"/>
     <sheet name="12 Feb 2024" sheetId="25" r:id="rId20"/>
+    <sheet name="19 Feb 2024" sheetId="26" r:id="rId21"/>
+    <sheet name="26 Feb 2024" sheetId="27" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -55,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1655" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1810" uniqueCount="202">
   <si>
     <t>Task Name</t>
   </si>
@@ -806,6 +808,10 @@
     <t>Phase-5:- Fine tuned scripts for WOR-939 having WD &amp; vEMS allocation variations- Checked &amp; verified</t>
   </si>
   <si>
+    <t>Phase-5:- Power Bi validation: On Hold
+Enhance scripts for WD &amp; vEMS allocation variants as needed</t>
+  </si>
+  <si>
     <t>Test execution - In Progress (Blocked due to issues)</t>
   </si>
   <si>
@@ -830,7 +836,8 @@
     <t>(Meals &amp; Entertainment)- ART not valid combination at Geneva</t>
   </si>
   <si>
-    <t>FIN Reports Phase-2: In progress</t>
+    <t>FIN Reports Phase-2: In progress
+Monitoring data count &amp; performance</t>
   </si>
   <si>
     <t>Observation_314</t>
@@ -884,10 +891,69 @@
     <t>Phase-5:- Adding new WD functionalities in scripts - In Progress</t>
   </si>
   <si>
-    <t>FIN Reports Phase-2: In Progress</t>
-  </si>
-  <si>
-    <t>Completed new changes at WD, vEMS changes- In progress</t>
+    <t>FIN Reports Phase-2: In progress
+Completed new changes at WD, vEMS changes- In progress</t>
+  </si>
+  <si>
+    <t>FIN Reports Phase-2: In Progress
+Will finish vEMS recon report changes asap</t>
+  </si>
+  <si>
+    <t>Testing completed, will plan UAT</t>
+  </si>
+  <si>
+    <t>No defects logged for the week</t>
+  </si>
+  <si>
+    <t>Found issue, Waiting for fix from Sundeep &amp; Vichara team</t>
+  </si>
+  <si>
+    <t>Will follow up with Sundeep &amp; Vichara team on the issue</t>
+  </si>
+  <si>
+    <t>Found issue, Waiting for fix from Sundeep</t>
+  </si>
+  <si>
+    <t>Phase-5:- added new WD functionalities in scripts - Review In Progress</t>
+  </si>
+  <si>
+    <t>FIN Reports Phase-2: In progress
+Sat date logic change for vEMS- In progress</t>
+  </si>
+  <si>
+    <t>vEMS: WOR-956 (2 recon lines for single SINV)</t>
+  </si>
+  <si>
+    <t>Test execution - Completed, UAT kicked off</t>
+  </si>
+  <si>
+    <t>WOR-978: SC, BR, COA mapping</t>
+  </si>
+  <si>
+    <t>UAT has kicked off on Mar-01, will support UAT</t>
+  </si>
+  <si>
+    <t>Issue resolved, waiting for new code deployment</t>
+  </si>
+  <si>
+    <t>Testing completed, will do documentation</t>
+  </si>
+  <si>
+    <t>Post documentation, will send for business sign off</t>
+  </si>
+  <si>
+    <t>vEMS: WOR-939 (SC, BR, COA Mapping)</t>
+  </si>
+  <si>
+    <t>FIN Reports Phase-2: In progress
+Sat date logic change for vEMS- Completed</t>
+  </si>
+  <si>
+    <t>FIN Reports Phase-2: In progress
+Will Monitor the daily status and highlight if anything fails</t>
+  </si>
+  <si>
+    <t>vEMS: WOR-962 (Emp Name issue in Recon )</t>
   </si>
 </sst>
 </file>
@@ -1053,7 +1119,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1352,11 +1418,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1641,14 +1750,89 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="16" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="17" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="17" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="16" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="17" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1663,76 +1847,11 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="16" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="16" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="17" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4618,7 +4737,7 @@
   <dimension ref="A1:AC18"/>
   <sheetViews>
     <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2:Y6"/>
+      <selection activeCell="Y3" sqref="Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -5777,59 +5896,59 @@
       </c>
     </row>
     <row r="4" spans="1:29" ht="37.5" customHeight="1">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="112">
+      <c r="B4" s="137">
         <v>4.5</v>
       </c>
-      <c r="C4" s="108"/>
-      <c r="D4" s="114" t="s">
+      <c r="C4" s="139"/>
+      <c r="D4" s="141" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="134">
+      <c r="E4" s="147">
         <v>2</v>
       </c>
-      <c r="F4" s="110"/>
-      <c r="G4" s="106" t="s">
+      <c r="F4" s="135"/>
+      <c r="G4" s="145" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="106" t="s">
+      <c r="H4" s="145" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="106"/>
+      <c r="I4" s="145"/>
       <c r="J4" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="K4" s="145"/>
-      <c r="L4" s="106" t="s">
+      <c r="K4" s="148"/>
+      <c r="L4" s="145" t="s">
         <v>47</v>
       </c>
-      <c r="M4" s="106" t="s">
+      <c r="M4" s="145" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="106" t="s">
+      <c r="N4" s="145" t="s">
         <v>29</v>
       </c>
       <c r="O4" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="P4" s="108"/>
-      <c r="Q4" s="104"/>
-      <c r="R4" s="104"/>
-      <c r="S4" s="104"/>
-      <c r="T4" s="104"/>
-      <c r="U4" s="104"/>
-      <c r="V4" s="104"/>
-      <c r="W4" s="104"/>
-      <c r="X4" s="104"/>
+      <c r="P4" s="139"/>
+      <c r="Q4" s="143"/>
+      <c r="R4" s="143"/>
+      <c r="S4" s="143"/>
+      <c r="T4" s="143"/>
+      <c r="U4" s="143"/>
+      <c r="V4" s="143"/>
+      <c r="W4" s="143"/>
+      <c r="X4" s="143"/>
       <c r="Y4" t="s">
         <v>45</v>
       </c>
       <c r="Z4" s="76">
         <v>0</v>
       </c>
-      <c r="AA4" s="104"/>
+      <c r="AA4" s="143"/>
       <c r="AB4" t="s">
         <v>45</v>
       </c>
@@ -5839,41 +5958,41 @@
       </c>
     </row>
     <row r="5" spans="1:29" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A5" s="113"/>
-      <c r="B5" s="113"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="146"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
+      <c r="A5" s="138"/>
+      <c r="B5" s="138"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="142"/>
+      <c r="E5" s="149"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="146"/>
+      <c r="H5" s="146"/>
+      <c r="I5" s="146"/>
       <c r="J5" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="K5" s="147"/>
-      <c r="L5" s="107"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="107"/>
+      <c r="K5" s="150"/>
+      <c r="L5" s="146"/>
+      <c r="M5" s="146"/>
+      <c r="N5" s="146"/>
       <c r="O5" s="65" t="s">
         <v>149</v>
       </c>
-      <c r="P5" s="109"/>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="105"/>
-      <c r="S5" s="105"/>
-      <c r="T5" s="105"/>
-      <c r="U5" s="105"/>
-      <c r="V5" s="105"/>
-      <c r="W5" s="105"/>
-      <c r="X5" s="105"/>
+      <c r="P5" s="140"/>
+      <c r="Q5" s="144"/>
+      <c r="R5" s="144"/>
+      <c r="S5" s="144"/>
+      <c r="T5" s="144"/>
+      <c r="U5" s="144"/>
+      <c r="V5" s="144"/>
+      <c r="W5" s="144"/>
+      <c r="X5" s="144"/>
       <c r="Y5" t="s">
         <v>50</v>
       </c>
       <c r="Z5" s="66">
         <v>30</v>
       </c>
-      <c r="AA5" s="105"/>
+      <c r="AA5" s="144"/>
       <c r="AB5" t="s">
         <v>50</v>
       </c>
@@ -6368,12 +6487,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
     <mergeCell ref="T4:T5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
@@ -6386,11 +6504,12 @@
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="R4:R5"/>
     <mergeCell ref="S4:S5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6400,8 +6519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BE6914-CF43-4313-ACBD-F8DA170AAF12}">
   <dimension ref="A1:AC19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AD7" sqref="AD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="24.75" customHeight="1"/>
@@ -6412,8 +6531,8 @@
     <col min="4" max="4" width="13.140625" style="85" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" style="85" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.85546875" style="85"/>
-    <col min="7" max="7" width="21.140625" style="85" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="85"/>
+    <col min="7" max="7" width="28" style="85" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="85" customWidth="1"/>
     <col min="9" max="9" width="6.5703125" style="85" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.5703125" style="85" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.85546875" style="85"/>
@@ -6599,7 +6718,7 @@
       <c r="D3" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="87">
         <v>16.5</v>
       </c>
       <c r="F3" s="86"/>
@@ -6675,7 +6794,7 @@
       </c>
       <c r="I4" s="81"/>
       <c r="J4" s="73" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="K4" s="91"/>
       <c r="L4" s="77" t="s">
@@ -6688,7 +6807,7 @@
         <v>29</v>
       </c>
       <c r="O4" s="69" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="P4" s="88"/>
       <c r="Q4" s="89"/>
@@ -6715,24 +6834,40 @@
       </c>
     </row>
     <row r="5" spans="1:29" ht="24.75" customHeight="1">
-      <c r="A5" s="59"/>
-      <c r="B5" s="59"/>
+      <c r="A5" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="59">
+        <v>2</v>
+      </c>
       <c r="C5" s="92"/>
       <c r="D5" s="80"/>
       <c r="E5" s="93"/>
       <c r="F5" s="94"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
+      <c r="G5" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="101">
+        <v>45324</v>
+      </c>
       <c r="J5" s="72" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="K5" s="95"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
+      <c r="L5" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="117">
+        <v>45324</v>
+      </c>
       <c r="O5" s="65" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="P5" s="92"/>
       <c r="Q5" s="93"/>
@@ -6760,30 +6895,22 @@
     </row>
     <row r="6" spans="1:29" ht="24.75" customHeight="1" thickBot="1">
       <c r="A6" s="59" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="B6" s="60">
-        <v>2</v>
+        <v>12.5</v>
       </c>
       <c r="C6" s="86"/>
       <c r="D6" s="86"/>
       <c r="E6" s="87"/>
       <c r="F6" s="86"/>
-      <c r="G6" s="64" t="s">
-        <v>115</v>
-      </c>
-      <c r="H6" s="72" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="74">
-        <v>45324</v>
-      </c>
-      <c r="J6" s="72" t="s">
-        <v>155</v>
-      </c>
+      <c r="G6" s="64"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="72"/>
       <c r="K6" s="3"/>
       <c r="L6" s="68" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="M6" s="65" t="s">
         <v>36</v>
@@ -6792,7 +6919,7 @@
         <v>45324</v>
       </c>
       <c r="O6" s="65" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="P6" s="86"/>
       <c r="Q6" s="86"/>
@@ -6820,10 +6947,10 @@
     </row>
     <row r="7" spans="1:29" ht="24.75" customHeight="1" thickBot="1">
       <c r="A7" s="59" t="s">
-        <v>122</v>
+        <v>63</v>
       </c>
       <c r="B7" s="60">
-        <v>12.5</v>
+        <v>8</v>
       </c>
       <c r="C7" s="86"/>
       <c r="D7" s="86"/>
@@ -6834,18 +6961,10 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="68" t="s">
-        <v>115</v>
-      </c>
-      <c r="M7" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="N7" s="70">
-        <v>45324</v>
-      </c>
-      <c r="O7" s="65" t="s">
-        <v>143</v>
-      </c>
+      <c r="L7" s="68"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="65"/>
       <c r="P7" s="86"/>
       <c r="Q7" s="86"/>
       <c r="R7" s="86"/>
@@ -6867,10 +6986,10 @@
     </row>
     <row r="8" spans="1:29" ht="24.75" customHeight="1" thickBot="1">
       <c r="A8" s="59" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B8" s="60">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="C8" s="86"/>
       <c r="D8" s="86"/>
@@ -6901,12 +7020,8 @@
       <c r="AC8" s="86"/>
     </row>
     <row r="9" spans="1:29" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A9" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="60">
-        <v>6.5</v>
-      </c>
+      <c r="A9" s="59"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="86"/>
       <c r="D9" s="86"/>
       <c r="E9" s="87"/>
@@ -7249,12 +7364,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2700749D-5BCB-41BC-A165-AB61E71035FC}">
   <dimension ref="A1:AC8"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Z5" sqref="Z5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" customHeight="1"/>
   <cols>
+    <col min="1" max="1" width="32" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1"/>
     <col min="25" max="25" width="17.140625" customWidth="1"/>
     <col min="28" max="28" width="16" customWidth="1"/>
   </cols>
@@ -7373,10 +7491,10 @@
         <v>30</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="S2" s="61" t="s">
         <v>135</v>
@@ -7385,7 +7503,7 @@
         <v>103</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y2" s="85" t="s">
         <v>32</v>
@@ -7424,7 +7542,7 @@
         <v>29</v>
       </c>
       <c r="J3" s="72" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L3" s="68" t="s">
         <v>74</v>
@@ -7438,20 +7556,20 @@
       <c r="O3" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="Q3" s="101" t="s">
-        <v>161</v>
-      </c>
-      <c r="R3" s="101" t="s">
+      <c r="Q3" s="103" t="s">
         <v>162</v>
+      </c>
+      <c r="R3" s="103" t="s">
+        <v>163</v>
       </c>
       <c r="S3" s="99" t="s">
         <v>102</v>
       </c>
-      <c r="T3" s="101" t="s">
+      <c r="T3" s="103" t="s">
         <v>103</v>
       </c>
-      <c r="U3" s="101" t="s">
-        <v>159</v>
+      <c r="U3" s="103" t="s">
+        <v>160</v>
       </c>
       <c r="Y3" s="85" t="s">
         <v>39</v>
@@ -7467,46 +7585,46 @@
         <v>8189</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="23.25" customHeight="1" thickBot="1">
+    <row r="4" spans="1:29" ht="23.25" customHeight="1">
       <c r="A4" s="59" t="s">
         <v>40</v>
       </c>
       <c r="B4" s="60">
         <v>2</v>
       </c>
-      <c r="D4" s="114" t="s">
+      <c r="D4" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="134">
+      <c r="E4" s="147">
         <v>2.5</v>
       </c>
-      <c r="G4" s="117" t="s">
+      <c r="G4" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="117" t="s">
+      <c r="H4" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="117"/>
+      <c r="I4" s="81"/>
       <c r="J4" s="73" t="s">
-        <v>163</v>
-      </c>
-      <c r="L4" s="106" t="s">
+        <v>164</v>
+      </c>
+      <c r="L4" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="M4" s="106" t="s">
+      <c r="M4" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="106" t="s">
+      <c r="N4" s="77" t="s">
         <v>29</v>
       </c>
       <c r="O4" s="69" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="Q4" s="17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="R4" s="17" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="S4" s="17"/>
       <c r="T4" s="17" t="s">
@@ -7529,26 +7647,38 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="33.75" customHeight="1" thickBot="1">
+    <row r="5" spans="1:29" ht="33.75" customHeight="1">
       <c r="A5" s="59" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="60">
         <v>2.5</v>
       </c>
-      <c r="D5" s="116"/>
-      <c r="E5" s="141"/>
-      <c r="G5" s="118"/>
-      <c r="H5" s="118"/>
-      <c r="I5" s="118"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="151"/>
+      <c r="G5" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="101">
+        <v>45330</v>
+      </c>
       <c r="J5" s="72" t="s">
-        <v>148</v>
-      </c>
-      <c r="L5" s="107"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="107"/>
+        <v>167</v>
+      </c>
+      <c r="L5" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="117">
+        <v>45331</v>
+      </c>
       <c r="O5" s="65" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="Y5" s="85" t="s">
         <v>50</v>
@@ -7571,29 +7701,21 @@
       <c r="B6" s="60">
         <v>13</v>
       </c>
-      <c r="G6" s="64" t="s">
+      <c r="G6" s="64"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="72"/>
+      <c r="L6" s="68" t="s">
         <v>115</v>
-      </c>
-      <c r="H6" s="72" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="74">
-        <v>45330</v>
-      </c>
-      <c r="J6" s="72" t="s">
-        <v>166</v>
-      </c>
-      <c r="L6" s="68" t="s">
-        <v>55</v>
       </c>
       <c r="M6" s="65" t="s">
         <v>36</v>
       </c>
       <c r="N6" s="70">
-        <v>45331</v>
+        <v>45330</v>
       </c>
       <c r="O6" s="65" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="Y6" s="85" t="s">
         <v>58</v>
@@ -7616,18 +7738,10 @@
       <c r="B7" s="60">
         <v>8</v>
       </c>
-      <c r="L7" s="68" t="s">
-        <v>115</v>
-      </c>
-      <c r="M7" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="N7" s="70">
-        <v>45330</v>
-      </c>
-      <c r="O7" s="65" t="s">
-        <v>143</v>
-      </c>
+      <c r="L7" s="68"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="65"/>
       <c r="AB7" s="85" t="s">
         <v>60</v>
       </c>
@@ -7636,23 +7750,12 @@
       </c>
     </row>
     <row r="8" spans="1:29" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A8" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="60">
-        <v>0</v>
-      </c>
+      <c r="A8" s="59"/>
+      <c r="B8" s="60"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="D4:D5"/>
+  <mergeCells count="1">
     <mergeCell ref="E4:E5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="L4:L5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7662,15 +7765,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C89520EA-73FE-4E45-A714-01BC289F6811}">
   <dimension ref="A1:AC8"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.75" customHeight="1"/>
   <cols>
-    <col min="1" max="14" width="9.140625" style="122"/>
-    <col min="15" max="15" width="37.7109375" style="122" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="122"/>
+    <col min="1" max="1" width="44.42578125" customWidth="1"/>
+    <col min="15" max="15" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="24.75" customHeight="1">
@@ -7736,63 +7838,63 @@
         <v>18</v>
       </c>
       <c r="X1" s="57"/>
-      <c r="Y1" s="121" t="s">
+      <c r="Y1" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="121" t="s">
+      <c r="Z1" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="121" t="s">
+      <c r="AB1" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="121" t="s">
+      <c r="AC1" s="36" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="24.75" customHeight="1">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="124">
+      <c r="B2" s="105">
         <v>3</v>
       </c>
-      <c r="D2" s="125" t="s">
+      <c r="D2" s="62" t="s">
         <v>26</v>
       </c>
       <c r="E2" s="63">
         <v>13</v>
       </c>
-      <c r="G2" s="126" t="s">
+      <c r="G2" s="106" t="s">
         <v>74</v>
       </c>
-      <c r="H2" s="127" t="s">
+      <c r="H2" s="107" t="s">
         <v>124</v>
       </c>
-      <c r="I2" s="127" t="s">
+      <c r="I2" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="127" t="s">
+      <c r="J2" s="107" t="s">
         <v>125</v>
       </c>
-      <c r="L2" s="128" t="s">
+      <c r="L2" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="129" t="s">
+      <c r="M2" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="129" t="s">
+      <c r="N2" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="129" t="s">
+      <c r="O2" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="Y2" s="122" t="s">
+      <c r="Y2" t="s">
         <v>32</v>
       </c>
-      <c r="Z2" s="130">
+      <c r="Z2" s="110">
         <v>0</v>
       </c>
-      <c r="AB2" s="122" t="s">
+      <c r="AB2" t="s">
         <v>32</v>
       </c>
       <c r="AC2" s="61">
@@ -7801,49 +7903,49 @@
       </c>
     </row>
     <row r="3" spans="1:29" ht="24.75" customHeight="1">
-      <c r="A3" s="123" t="s">
+      <c r="A3" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="124">
+      <c r="B3" s="105">
         <v>1</v>
       </c>
-      <c r="D3" s="125" t="s">
+      <c r="D3" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="131">
+      <c r="E3" s="111">
         <v>8</v>
       </c>
-      <c r="G3" s="126" t="s">
+      <c r="G3" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="127" t="s">
+      <c r="H3" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="127" t="s">
+      <c r="I3" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="127" t="s">
-        <v>168</v>
-      </c>
-      <c r="L3" s="132" t="s">
+      <c r="J3" s="107" t="s">
+        <v>169</v>
+      </c>
+      <c r="L3" s="112" t="s">
         <v>74</v>
       </c>
-      <c r="M3" s="129" t="s">
+      <c r="M3" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="N3" s="129" t="s">
+      <c r="N3" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="129" t="s">
+      <c r="O3" s="109" t="s">
         <v>106</v>
       </c>
-      <c r="Y3" s="122" t="s">
+      <c r="Y3" t="s">
         <v>39</v>
       </c>
-      <c r="Z3" s="130">
+      <c r="Z3" s="110">
         <v>4</v>
       </c>
-      <c r="AB3" s="122" t="s">
+      <c r="AB3" t="s">
         <v>39</v>
       </c>
       <c r="AC3" s="61">
@@ -7852,47 +7954,49 @@
       </c>
     </row>
     <row r="4" spans="1:29" ht="24.75" customHeight="1">
-      <c r="A4" s="123" t="s">
+      <c r="A4" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="124">
+      <c r="B4" s="105">
         <v>1.5</v>
       </c>
-      <c r="D4" s="133" t="s">
+      <c r="D4" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="134">
+      <c r="E4" s="103">
         <v>2.5</v>
       </c>
-      <c r="G4" s="135" t="s">
+      <c r="G4" s="118" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="135" t="s">
+      <c r="H4" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="135"/>
-      <c r="J4" s="136" t="s">
-        <v>163</v>
-      </c>
-      <c r="L4" s="137" t="s">
+      <c r="I4" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="113" t="s">
+        <v>164</v>
+      </c>
+      <c r="L4" s="121" t="s">
         <v>47</v>
       </c>
-      <c r="M4" s="137" t="s">
+      <c r="M4" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="137" t="s">
+      <c r="N4" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="138" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y4" s="122" t="s">
+      <c r="O4" s="114" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y4" t="s">
         <v>45</v>
       </c>
-      <c r="Z4" s="139">
+      <c r="Z4" s="115">
         <v>0</v>
       </c>
-      <c r="AB4" s="122" t="s">
+      <c r="AB4" t="s">
         <v>45</v>
       </c>
       <c r="AC4" s="61">
@@ -7901,33 +8005,45 @@
       </c>
     </row>
     <row r="5" spans="1:29" ht="24.75" customHeight="1">
-      <c r="A5" s="123" t="s">
+      <c r="A5" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="124">
+      <c r="B5" s="105">
         <v>2.5</v>
       </c>
-      <c r="D5" s="140"/>
-      <c r="E5" s="141"/>
-      <c r="G5" s="142"/>
-      <c r="H5" s="142"/>
-      <c r="I5" s="142"/>
-      <c r="J5" s="127" t="s">
-        <v>148</v>
-      </c>
-      <c r="L5" s="143"/>
-      <c r="M5" s="143"/>
-      <c r="N5" s="143"/>
-      <c r="O5" s="129" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y5" s="122" t="s">
+      <c r="D5" s="120"/>
+      <c r="E5" s="116"/>
+      <c r="G5" s="129" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5" s="129" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="129" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="113" t="s">
+        <v>170</v>
+      </c>
+      <c r="L5" s="112" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" s="112" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="122">
+        <v>45337</v>
+      </c>
+      <c r="O5" s="109" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y5" t="s">
         <v>50</v>
       </c>
-      <c r="Z5" s="130">
+      <c r="Z5" s="110">
         <v>10</v>
       </c>
-      <c r="AB5" s="122" t="s">
+      <c r="AB5" t="s">
         <v>50</v>
       </c>
       <c r="AC5" s="61">
@@ -7936,43 +8052,35 @@
       </c>
     </row>
     <row r="6" spans="1:29" ht="24.75" customHeight="1">
-      <c r="A6" s="123" t="s">
+      <c r="A6" s="104" t="s">
         <v>122</v>
       </c>
-      <c r="B6" s="124">
+      <c r="B6" s="105">
         <v>9</v>
       </c>
-      <c r="G6" s="126" t="s">
+      <c r="G6" s="128"/>
+      <c r="H6" s="128"/>
+      <c r="I6" s="128"/>
+      <c r="J6" s="128"/>
+      <c r="L6" s="131" t="s">
         <v>115</v>
       </c>
-      <c r="H6" s="127" t="s">
+      <c r="M6" s="114" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="127" t="s">
+      <c r="N6" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="127" t="s">
-        <v>169</v>
-      </c>
-      <c r="L6" s="132" t="s">
-        <v>55</v>
-      </c>
-      <c r="M6" s="129" t="s">
-        <v>36</v>
-      </c>
-      <c r="N6" s="144">
-        <v>45337</v>
-      </c>
-      <c r="O6" s="129" t="s">
-        <v>170</v>
-      </c>
-      <c r="Y6" s="122" t="s">
+      <c r="O6" s="114" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y6" t="s">
         <v>58</v>
       </c>
-      <c r="Z6" s="130">
+      <c r="Z6" s="110">
         <v>0</v>
       </c>
-      <c r="AB6" s="122" t="s">
+      <c r="AB6" t="s">
         <v>58</v>
       </c>
       <c r="AC6" s="61">
@@ -7981,25 +8089,17 @@
       </c>
     </row>
     <row r="7" spans="1:29" ht="24.75" customHeight="1">
-      <c r="A7" s="123" t="s">
+      <c r="A7" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="124">
+      <c r="B7" s="105">
         <v>4</v>
       </c>
-      <c r="L7" s="132" t="s">
-        <v>115</v>
-      </c>
-      <c r="M7" s="129" t="s">
-        <v>36</v>
-      </c>
-      <c r="N7" s="129" t="s">
-        <v>29</v>
-      </c>
-      <c r="O7" s="129" t="s">
-        <v>143</v>
-      </c>
-      <c r="AB7" s="122" t="s">
+      <c r="L7" s="130"/>
+      <c r="M7" s="130"/>
+      <c r="N7" s="130"/>
+      <c r="O7" s="130"/>
+      <c r="AB7" t="s">
         <v>60</v>
       </c>
       <c r="AC7" s="71">
@@ -8007,24 +8107,14 @@
       </c>
     </row>
     <row r="8" spans="1:29" ht="24.75" customHeight="1">
-      <c r="A8" s="123" t="s">
-        <v>171</v>
-      </c>
-      <c r="B8" s="124">
+      <c r="A8" s="104" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" s="105">
         <v>2.5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="L4:L5"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8801,11 +8891,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F9676F-6EE0-443F-9D0A-4053C7D9E32C}">
   <dimension ref="A1:AC8"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Z7" sqref="Z7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="32.25" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:29" s="85" customFormat="1" ht="26.25" customHeight="1">
       <c r="A1" s="82" t="s">
@@ -8906,7 +9002,7 @@
         <v>29</v>
       </c>
       <c r="J2" s="72" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L2" s="64" t="s">
         <v>115</v>
@@ -8921,10 +9017,10 @@
         <v>143</v>
       </c>
       <c r="Q2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="R2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="S2" t="s">
         <v>135</v>
@@ -8933,7 +9029,7 @@
         <v>103</v>
       </c>
       <c r="U2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Y2" s="85" t="s">
         <v>32</v>
@@ -8963,7 +9059,7 @@
         <v>12</v>
       </c>
       <c r="G3" s="64" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H3" s="72" t="s">
         <v>36</v>
@@ -8972,10 +9068,10 @@
         <v>45342</v>
       </c>
       <c r="J3" s="72" t="s">
+        <v>177</v>
+      </c>
+      <c r="L3" s="68" t="s">
         <v>176</v>
-      </c>
-      <c r="L3" s="68" t="s">
-        <v>175</v>
       </c>
       <c r="M3" s="65" t="s">
         <v>36</v>
@@ -8984,37 +9080,37 @@
         <v>45342</v>
       </c>
       <c r="O3" s="65" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Y3" s="85" t="s">
         <v>39</v>
       </c>
       <c r="Z3" s="66">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB3" s="85" t="s">
         <v>39</v>
       </c>
       <c r="AC3" s="86">
         <f>'5 Feb 2024'!AC3+'12 Feb 2024'!Z3</f>
-        <v>8197</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="32.25" customHeight="1" thickBot="1">
+        <v>8195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="32.25" customHeight="1">
       <c r="A4" s="97" t="s">
         <v>40</v>
       </c>
       <c r="B4" s="98">
         <v>1</v>
       </c>
-      <c r="D4" s="114" t="s">
+      <c r="D4" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="134">
+      <c r="E4" s="103">
         <v>5</v>
       </c>
       <c r="G4" s="64" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H4" s="72" t="s">
         <v>36</v>
@@ -9023,10 +9119,10 @@
         <v>45344</v>
       </c>
       <c r="J4" s="72" t="s">
+        <v>180</v>
+      </c>
+      <c r="L4" s="68" t="s">
         <v>179</v>
-      </c>
-      <c r="L4" s="68" t="s">
-        <v>178</v>
       </c>
       <c r="M4" s="65" t="s">
         <v>36</v>
@@ -9035,7 +9131,7 @@
         <v>45344</v>
       </c>
       <c r="O4" s="65" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Y4" s="85" t="s">
         <v>45</v>
@@ -9058,19 +9154,19 @@
       <c r="B5" s="98">
         <v>7</v>
       </c>
-      <c r="D5" s="116"/>
-      <c r="E5" s="141"/>
-      <c r="G5" s="64" t="s">
+      <c r="D5" s="100"/>
+      <c r="E5" s="116"/>
+      <c r="G5" s="127" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="72" t="s">
+      <c r="H5" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="72" t="s">
+      <c r="I5" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="72" t="s">
-        <v>180</v>
+      <c r="J5" s="73" t="s">
+        <v>181</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>47</v>
@@ -9082,7 +9178,7 @@
         <v>29</v>
       </c>
       <c r="O5" s="65" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Y5" s="85" t="s">
         <v>50</v>
@@ -9105,17 +9201,17 @@
       <c r="B6" s="98">
         <v>3</v>
       </c>
-      <c r="G6" s="117" t="s">
+      <c r="G6" s="123" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="117" t="s">
+      <c r="H6" s="124" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="119">
+      <c r="I6" s="125">
         <v>45343</v>
       </c>
-      <c r="J6" s="73" t="s">
-        <v>163</v>
+      <c r="J6" s="126" t="s">
+        <v>182</v>
       </c>
       <c r="L6" s="68" t="s">
         <v>55</v>
@@ -9127,7 +9223,7 @@
         <v>45343</v>
       </c>
       <c r="O6" s="65" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Y6" s="85" t="s">
         <v>58</v>
@@ -9143,23 +9239,13 @@
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="32.25" customHeight="1" thickBot="1">
+    <row r="7" spans="1:29" ht="32.25" customHeight="1">
       <c r="A7" s="97" t="s">
         <v>63</v>
       </c>
       <c r="B7" s="98">
         <v>7.5</v>
       </c>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="120"/>
-      <c r="J7" s="72" t="s">
-        <v>182</v>
-      </c>
-      <c r="L7" s="68"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="65"/>
-      <c r="O7" s="65"/>
       <c r="AB7" s="85" t="s">
         <v>60</v>
       </c>
@@ -9167,22 +9253,771 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="32.25" customHeight="1" thickBot="1">
+    <row r="8" spans="1:29" ht="32.25" customHeight="1">
       <c r="A8" s="97" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B8" s="98">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{717ABFE5-BD7C-4DAB-8DDA-5F7645813909}">
+  <dimension ref="A1:AC9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="32.25" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" s="85" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A1" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="82" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="82" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="82" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="82" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="82" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="82" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="82" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="82" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="82"/>
+      <c r="Y1" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB1" s="84" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="84" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="32.25" customHeight="1">
+      <c r="A2" s="97" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="98">
+        <v>4.5</v>
+      </c>
+      <c r="D2" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="63">
+        <v>16</v>
+      </c>
+      <c r="G2" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="H2" s="72" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="72" t="s">
+        <v>170</v>
+      </c>
+      <c r="L2" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="M2" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="65" t="s">
+        <v>184</v>
+      </c>
+      <c r="R2" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y2" s="85" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z2" s="66">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="85" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC2" s="86">
+        <f>'12 Feb 2024'!AC2+'19 Feb 2024'!Z2</f>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="32.25" customHeight="1">
+      <c r="A3" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="98">
+        <v>2.5</v>
+      </c>
+      <c r="D3" s="67" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="15">
+        <v>6</v>
+      </c>
+      <c r="G3" s="64" t="s">
+        <v>176</v>
+      </c>
+      <c r="H3" s="72" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="74">
+        <v>45349</v>
+      </c>
+      <c r="J3" s="72" t="s">
+        <v>186</v>
+      </c>
+      <c r="L3" s="68" t="s">
+        <v>176</v>
+      </c>
+      <c r="M3" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="70">
+        <v>45349</v>
+      </c>
+      <c r="O3" s="65" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y3" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z3" s="66">
+        <v>3</v>
+      </c>
+      <c r="AB3" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC3" s="86">
+        <f>'12 Feb 2024'!AC3+'19 Feb 2024'!Z3</f>
+        <v>8198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="32.25" customHeight="1">
+      <c r="A4" s="97" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="98">
+        <v>1.5</v>
+      </c>
+      <c r="D4" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="103">
+        <v>2.5</v>
+      </c>
+      <c r="G4" s="64" t="s">
+        <v>179</v>
+      </c>
+      <c r="H4" s="72" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="74">
+        <v>45349</v>
+      </c>
+      <c r="J4" s="72" t="s">
+        <v>188</v>
+      </c>
+      <c r="L4" s="68" t="s">
+        <v>179</v>
+      </c>
+      <c r="M4" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="70">
+        <v>45349</v>
+      </c>
+      <c r="O4" s="65" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y4" s="85" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z4" s="75">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="85" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC4" s="86">
+        <f>'12 Feb 2024'!AC4+'19 Feb 2024'!Z4</f>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="32.25" customHeight="1">
+      <c r="A5" s="97" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="98">
+        <v>5</v>
+      </c>
+      <c r="D5" s="100"/>
+      <c r="E5" s="116"/>
+      <c r="G5" s="127" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="73" t="s">
+        <v>189</v>
+      </c>
+      <c r="L5" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="65" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y5" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z5" s="66">
+        <v>10</v>
+      </c>
+      <c r="AB5" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC5" s="86">
+        <f>'12 Feb 2024'!AC5+'19 Feb 2024'!Z5</f>
+        <v>5075</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="32.25" customHeight="1">
+      <c r="A6" s="97" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="98">
+        <v>2</v>
+      </c>
+      <c r="G6" s="123" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="124" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="125">
+        <v>45349</v>
+      </c>
+      <c r="J6" s="126" t="s">
+        <v>190</v>
+      </c>
+      <c r="L6" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="M6" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" s="70">
+        <v>45349</v>
+      </c>
+      <c r="O6" s="65" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y6" s="85" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z6" s="66">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="85" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC6" s="86">
+        <f>'12 Feb 2024'!AC6+'19 Feb 2024'!Z6</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="32.25" customHeight="1">
+      <c r="A7" s="97" t="s">
+        <v>191</v>
+      </c>
+      <c r="B7" s="98">
+        <v>2.5</v>
+      </c>
+      <c r="AB7" s="85" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC7" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="32.25" customHeight="1">
+      <c r="A8" s="97" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="32.25" customHeight="1">
+      <c r="A9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B9">
+        <v>4.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D714E34C-4DAF-46D0-9477-E0118A0C1018}">
+  <dimension ref="A1:AC10"/>
+  <sheetViews>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="32.25" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" s="85" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A1" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="82" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="82" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="82" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="82" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="82" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="82" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="82" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="82" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="82"/>
+      <c r="Y1" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB1" s="84" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="84" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="32.25" customHeight="1">
+      <c r="A2" s="97" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="98">
+        <v>4.5</v>
+      </c>
+      <c r="D2" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="63">
+        <v>20</v>
+      </c>
+      <c r="G2" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="H2" s="72" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="72" t="s">
+        <v>192</v>
+      </c>
+      <c r="L2" s="64" t="s">
+        <v>193</v>
+      </c>
+      <c r="M2" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="65" t="s">
+        <v>194</v>
+      </c>
+      <c r="R2" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y2" s="85" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z2" s="66">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="85" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC2" s="86">
+        <f>'12 Feb 2024'!AC2+'26 Feb 2024'!Z2</f>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="32.25" customHeight="1">
+      <c r="A3" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="98">
+        <v>2.5</v>
+      </c>
+      <c r="D3" s="67" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="15">
+        <v>16.5</v>
+      </c>
+      <c r="G3" s="64" t="s">
+        <v>176</v>
+      </c>
+      <c r="H3" s="72" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="74">
+        <v>45358</v>
+      </c>
+      <c r="J3" s="72" t="s">
+        <v>195</v>
+      </c>
+      <c r="L3" s="68" t="s">
+        <v>176</v>
+      </c>
+      <c r="M3" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="70">
+        <v>45358</v>
+      </c>
+      <c r="O3" s="65" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y3" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z3" s="66">
+        <v>2</v>
+      </c>
+      <c r="AB3" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC3" s="86">
+        <f>'12 Feb 2024'!AC3+'26 Feb 2024'!Z3</f>
+        <v>8197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="32.25" customHeight="1">
+      <c r="A4" s="97" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="98">
+        <v>2.5</v>
+      </c>
+      <c r="D4" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="103">
+        <v>2.5</v>
+      </c>
+      <c r="G4" s="64" t="s">
+        <v>179</v>
+      </c>
+      <c r="H4" s="72" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="74">
+        <v>45356</v>
+      </c>
+      <c r="J4" s="72" t="s">
+        <v>196</v>
+      </c>
+      <c r="L4" s="68" t="s">
+        <v>179</v>
+      </c>
+      <c r="M4" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="70">
+        <v>45356</v>
+      </c>
+      <c r="O4" s="65" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y4" s="85" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z4" s="75">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="85" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC4" s="86">
+        <f>'12 Feb 2024'!AC4+'26 Feb 2024'!Z4</f>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="32.25" customHeight="1">
+      <c r="A5" s="97" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="98">
+        <v>4.5</v>
+      </c>
+      <c r="D5" s="100"/>
+      <c r="E5" s="116"/>
+      <c r="G5" s="127" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="73" t="s">
+        <v>189</v>
+      </c>
+      <c r="L5" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="65" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y5" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z5" s="66">
+        <v>6</v>
+      </c>
+      <c r="AB5" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC5" s="86">
+        <f>'12 Feb 2024'!AC5+'26 Feb 2024'!Z5</f>
+        <v>5071</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="32.25" customHeight="1">
+      <c r="A6" s="97" t="s">
+        <v>198</v>
+      </c>
+      <c r="B6" s="98">
+        <v>3.5</v>
+      </c>
+      <c r="G6" s="123" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="124" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="125"/>
+      <c r="J6" s="126" t="s">
+        <v>199</v>
+      </c>
+      <c r="L6" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="M6" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" s="65" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y6" s="85" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z6" s="66">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="85" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC6" s="86">
+        <f>'12 Feb 2024'!AC6+'26 Feb 2024'!Z6</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="32.25" customHeight="1">
+      <c r="A7" s="97" t="s">
+        <v>191</v>
+      </c>
+      <c r="B7" s="98">
+        <v>2.5</v>
+      </c>
+      <c r="AB7" s="85" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC7" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="32.25" customHeight="1">
+      <c r="A8" s="97" t="s">
+        <v>201</v>
+      </c>
+      <c r="B8" s="98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="32.25" customHeight="1">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="32.25" customHeight="1">
+      <c r="A10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10">
+        <v>11.5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11765,25 +12600,25 @@
       <c r="B5" s="11">
         <v>14</v>
       </c>
-      <c r="G5" s="102" t="s">
+      <c r="G5" s="133" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="102" t="s">
+      <c r="H5" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="102" t="s">
+      <c r="I5" s="133" t="s">
         <v>29</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="L5" s="102" t="s">
+      <c r="L5" s="133" t="s">
         <v>47</v>
       </c>
-      <c r="M5" s="102" t="s">
+      <c r="M5" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="N5" s="102" t="s">
+      <c r="N5" s="133" t="s">
         <v>29</v>
       </c>
       <c r="O5" s="11" t="s">
@@ -11811,15 +12646,15 @@
       <c r="B6" s="11">
         <v>2</v>
       </c>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
       <c r="J6" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="L6" s="102"/>
-      <c r="M6" s="102"/>
-      <c r="N6" s="102"/>
+      <c r="L6" s="133"/>
+      <c r="M6" s="133"/>
+      <c r="N6" s="133"/>
       <c r="O6" s="11" t="s">
         <v>69</v>
       </c>
@@ -11845,25 +12680,25 @@
       <c r="B7" s="11">
         <v>2</v>
       </c>
-      <c r="G7" s="102" t="s">
+      <c r="G7" s="133" t="s">
         <v>55</v>
       </c>
-      <c r="H7" s="102" t="s">
+      <c r="H7" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="103">
+      <c r="I7" s="134">
         <v>45254</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="L7" s="102" t="s">
+      <c r="L7" s="133" t="s">
         <v>55</v>
       </c>
-      <c r="M7" s="102" t="s">
+      <c r="M7" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="103">
+      <c r="N7" s="134">
         <v>45254</v>
       </c>
       <c r="O7" s="11" t="s">
@@ -11885,15 +12720,15 @@
       <c r="B8" s="11">
         <v>3</v>
       </c>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
+      <c r="G8" s="133"/>
+      <c r="H8" s="133"/>
+      <c r="I8" s="133"/>
       <c r="J8" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
-      <c r="N8" s="102"/>
+      <c r="L8" s="133"/>
+      <c r="M8" s="133"/>
+      <c r="N8" s="133"/>
       <c r="O8" s="11" t="s">
         <v>73</v>
       </c>
@@ -11955,18 +12790,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="N5:N6"/>
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12215,13 +13050,13 @@
       <c r="J4" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="L4" s="102" t="s">
+      <c r="L4" s="133" t="s">
         <v>47</v>
       </c>
-      <c r="M4" s="102" t="s">
+      <c r="M4" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="102" t="s">
+      <c r="N4" s="133" t="s">
         <v>29</v>
       </c>
       <c r="O4" s="11" t="s">
@@ -12248,21 +13083,21 @@
       <c r="B5" s="11">
         <v>8</v>
       </c>
-      <c r="G5" s="102" t="s">
+      <c r="G5" s="133" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="102" t="s">
+      <c r="H5" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="102" t="s">
+      <c r="I5" s="133" t="s">
         <v>29</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="L5" s="102"/>
-      <c r="M5" s="102"/>
-      <c r="N5" s="102"/>
+      <c r="L5" s="133"/>
+      <c r="M5" s="133"/>
+      <c r="N5" s="133"/>
       <c r="O5" s="11" t="s">
         <v>69</v>
       </c>
@@ -12287,19 +13122,19 @@
       <c r="B6" s="11">
         <v>2</v>
       </c>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
       <c r="J6" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="L6" s="102" t="s">
+      <c r="L6" s="133" t="s">
         <v>55</v>
       </c>
-      <c r="M6" s="102" t="s">
+      <c r="M6" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="N6" s="103">
+      <c r="N6" s="134">
         <v>45261</v>
       </c>
       <c r="O6" s="11" t="s">
@@ -12326,21 +13161,21 @@
       <c r="B7" s="11">
         <v>2</v>
       </c>
-      <c r="G7" s="102" t="s">
+      <c r="G7" s="133" t="s">
         <v>55</v>
       </c>
-      <c r="H7" s="102" t="s">
+      <c r="H7" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="103">
+      <c r="I7" s="134">
         <v>45261</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
-      <c r="N7" s="102"/>
+      <c r="L7" s="133"/>
+      <c r="M7" s="133"/>
+      <c r="N7" s="133"/>
       <c r="O7" s="11" t="s">
         <v>78</v>
       </c>
@@ -12359,9 +13194,9 @@
       <c r="B8" s="11">
         <v>4</v>
       </c>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
+      <c r="G8" s="133"/>
+      <c r="H8" s="133"/>
+      <c r="I8" s="133"/>
       <c r="J8" s="11" t="s">
         <v>80</v>
       </c>
@@ -12395,18 +13230,18 @@
     <sortCondition ref="Y1:Y18"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="N6:N7"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12463,16 +13298,16 @@
         <v>3</v>
       </c>
       <c r="F1" s="7"/>
-      <c r="G1" s="100" t="s">
+      <c r="G1" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="100" t="s">
+      <c r="H1" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="100" t="s">
+      <c r="I1" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="100" t="s">
+      <c r="J1" s="102" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="7"/>
@@ -12739,9 +13574,9 @@
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="25"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="102"/>
-      <c r="N6" s="103"/>
+      <c r="L6" s="133"/>
+      <c r="M6" s="133"/>
+      <c r="N6" s="134"/>
       <c r="O6" s="11"/>
       <c r="Y6" t="s">
         <v>58</v>
@@ -12770,9 +13605,9 @@
       <c r="I7" s="19"/>
       <c r="J7" s="11"/>
       <c r="K7" s="25"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
-      <c r="N7" s="102"/>
+      <c r="L7" s="133"/>
+      <c r="M7" s="133"/>
+      <c r="N7" s="133"/>
       <c r="O7" s="11"/>
       <c r="AB7" t="s">
         <v>60</v>
@@ -13446,6 +14281,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -13454,20 +14295,14 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8838AC1D-E4E7-4CF5-A897-95CB93ECC002}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF5B3250-9EAA-45ED-A48E-C1960EE83752}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38F446B6-3E55-4E07-BA6D-47C0ACA73425}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38F446B6-3E55-4E07-BA6D-47C0ACA73425}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF5B3250-9EAA-45ED-A48E-C1960EE83752}"/>
 </file>